--- a/complete_single_node/vNSP.xlsx
+++ b/complete_single_node/vNSP.xlsx
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>36.74465999999995</v>
+        <v>36.74466</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>57.29320399999995</v>
+        <v>57.2932039999999</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>55.18058299999996</v>
+        <v>55.180583</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>36.46666700000003</v>
+        <v>36.466667</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>41.22071200000005</v>
+        <v>41.220712</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>18.16246000000001</v>
+        <v>18.16246</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>27.31164999999999</v>
+        <v>27.31165</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>97.19255699999997</v>
+        <v>97.19255699999999</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>55.27605200000005</v>
+        <v>55.276052</v>
       </c>
     </row>
     <row r="70">
@@ -2050,7 +2050,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>40.05469300000004</v>
+        <v>40.054693</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>101.7637539999999</v>
+        <v>101.763754</v>
       </c>
     </row>
     <row r="204">
@@ -2106,7 +2106,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>103.4213590000001</v>
+        <v>103.421359</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>98.76181199999996</v>
+        <v>98.76181200000001</v>
       </c>
     </row>
     <row r="211">
@@ -2138,7 +2138,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>300.6860840000001</v>
+        <v>300.686084</v>
       </c>
     </row>
     <row r="214">
@@ -2170,7 +2170,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>95.38252399999999</v>
+        <v>95.382524</v>
       </c>
     </row>
     <row r="218">
@@ -2242,7 +2242,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>98.22006499999998</v>
+        <v>98.22006500000001</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>133.6427179999999</v>
+        <v>133.642718</v>
       </c>
     </row>
     <row r="228">
@@ -2314,7 +2314,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>160.2880259999999</v>
+        <v>160.288026</v>
       </c>
     </row>
     <row r="236">
@@ -2330,7 +2330,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>286.3608410000001</v>
+        <v>286.360841</v>
       </c>
     </row>
     <row r="238">
@@ -2362,7 +2362,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>75.38252399999999</v>
+        <v>75.382524</v>
       </c>
     </row>
     <row r="242">
@@ -2426,7 +2426,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>13.28220099999999</v>
+        <v>13.282201</v>
       </c>
     </row>
     <row r="250">
@@ -2466,7 +2466,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>191.3728159999999</v>
+        <v>191.372816</v>
       </c>
     </row>
     <row r="255">
@@ -2482,7 +2482,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>60.74789599999997</v>
+        <v>60.747896</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>33.03042100000005</v>
+        <v>33.030421</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>5.861489000000006</v>
+        <v>5.86148900000001</v>
       </c>
     </row>
     <row r="259">
@@ -2514,7 +2514,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>75.30744300000003</v>
+        <v>75.30744300000001</v>
       </c>
     </row>
     <row r="261">
@@ -2530,7 +2530,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>73.83236199999999</v>
+        <v>73.832362</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>46.13980600000002</v>
+        <v>46.139806</v>
       </c>
     </row>
     <row r="264">
@@ -3114,7 +3114,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>12.60776699999997</v>
+        <v>12.607767</v>
       </c>
     </row>
     <row r="336">
@@ -3202,7 +3202,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>67.79741100000001</v>
+        <v>67.797411</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>98.35275100000001</v>
+        <v>98.352751</v>
       </c>
     </row>
     <row r="348">
@@ -3234,7 +3234,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>61.63171499999999</v>
+        <v>61.631715</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>17.84207100000003</v>
+        <v>17.842071</v>
       </c>
     </row>
     <row r="352">
@@ -3674,7 +3674,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>21.99126200000001</v>
+        <v>21.991262</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>6.026536999999962</v>
+        <v>6.02653699999996</v>
       </c>
     </row>
     <row r="407">
@@ -3850,7 +3850,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>34.95372199999997</v>
+        <v>34.953722</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>149.3365700000001</v>
+        <v>149.33657</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>214.1980579999999</v>
+        <v>214.198058</v>
       </c>
     </row>
     <row r="430">
@@ -3890,7 +3890,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>90.12394800000004</v>
+        <v>90.123948</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>69.16569600000003</v>
+        <v>69.165696</v>
       </c>
     </row>
     <row r="434">
@@ -3970,7 +3970,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>89.91618100000005</v>
+        <v>89.91618100000009</v>
       </c>
     </row>
     <row r="443">
@@ -3986,7 +3986,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>75.20647199999996</v>
+        <v>75.20647200000001</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>16.16472499999998</v>
+        <v>16.164725</v>
       </c>
     </row>
     <row r="446">
@@ -4754,7 +4754,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>41.30388300000004</v>
+        <v>41.303883</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>13.00614900000005</v>
+        <v>13.0061490000001</v>
       </c>
     </row>
     <row r="542">
@@ -5186,7 +5186,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>4.279935000000023</v>
+        <v>4.27993500000002</v>
       </c>
     </row>
     <row r="595">
@@ -5210,7 +5210,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>225.5734629999999</v>
+        <v>225.573463</v>
       </c>
     </row>
     <row r="598">
@@ -5234,7 +5234,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>26.41715199999999</v>
+        <v>26.417152</v>
       </c>
     </row>
     <row r="601">
@@ -5322,7 +5322,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>27.86148900000001</v>
+        <v>27.861489</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>63.12038800000005</v>
+        <v>63.120388</v>
       </c>
     </row>
     <row r="613">
@@ -5346,7 +5346,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>37.02977299999998</v>
+        <v>37.029773</v>
       </c>
     </row>
     <row r="615">
@@ -5890,7 +5890,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>0.6792880000000423</v>
+        <v>0.679288000000042</v>
       </c>
     </row>
     <row r="683">
@@ -5914,7 +5914,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>82.59676400000001</v>
+        <v>82.59676399999999</v>
       </c>
     </row>
     <row r="686">
@@ -5970,7 +5970,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>24.37508100000002</v>
+        <v>24.375081</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>80.23268599999994</v>
+        <v>80.2326859999999</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>57.34465999999998</v>
+        <v>57.34466</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>25.54142400000001</v>
+        <v>25.541424</v>
       </c>
     </row>
     <row r="696">
@@ -6170,7 +6170,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>94.45695799999999</v>
+        <v>94.456958</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>83.91456300000004</v>
+        <v>83.914563</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>46.04563099999996</v>
+        <v>46.045631</v>
       </c>
     </row>
     <row r="720">
@@ -6282,7 +6282,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>19.84109999999998</v>
+        <v>19.8411</v>
       </c>
     </row>
     <row r="732">
@@ -6298,7 +6298,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>154.5889969999999</v>
+        <v>154.588997</v>
       </c>
     </row>
     <row r="734">
@@ -6322,7 +6322,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>98.62362499999995</v>
+        <v>98.6236249999999</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>91.61229800000001</v>
+        <v>91.612298</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>57.17346299999997</v>
+        <v>57.173463</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>27.19255699999997</v>
+        <v>27.192557</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>39.27378599999997</v>
+        <v>39.273786</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>57.30679599999996</v>
+        <v>57.306796</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>9.179288000000042</v>
+        <v>9.179288000000041</v>
       </c>
     </row>
     <row r="743">
@@ -6666,7 +6666,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>3.762783000000013</v>
+        <v>3.76278300000001</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>46.46148900000003</v>
+        <v>46.461489</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>51.57508099999995</v>
+        <v>51.575081</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>57.88025900000002</v>
+        <v>57.880259</v>
       </c>
     </row>
     <row r="783">
@@ -6706,7 +6706,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>30.77378599999997</v>
+        <v>30.773786</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>65.40776700000004</v>
+        <v>65.40776700000001</v>
       </c>
     </row>
     <row r="786">
@@ -6754,7 +6754,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>147.8485439999999</v>
+        <v>147.848544</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>45.08673099999999</v>
+        <v>45.086731</v>
       </c>
     </row>
     <row r="792">
@@ -7322,7 +7322,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>33.11359200000004</v>
+        <v>33.113592</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>13.32783199999994</v>
+        <v>13.3278319999999</v>
       </c>
     </row>
     <row r="863">
@@ -8850,7 +8850,7 @@
         <v>1051</v>
       </c>
       <c r="B1052" t="n">
-        <v>27.29902900000002</v>
+        <v>27.299029</v>
       </c>
     </row>
     <row r="1053">
@@ -8866,7 +8866,7 @@
         <v>1053</v>
       </c>
       <c r="B1054" t="n">
-        <v>148.0372170000001</v>
+        <v>148.037217</v>
       </c>
     </row>
     <row r="1055">
@@ -8874,7 +8874,7 @@
         <v>1054</v>
       </c>
       <c r="B1055" t="n">
-        <v>56.59935299999995</v>
+        <v>56.599353</v>
       </c>
     </row>
     <row r="1056">
@@ -9178,7 +9178,7 @@
         <v>1092</v>
       </c>
       <c r="B1093" t="n">
-        <v>10.49611700000003</v>
+        <v>10.496117</v>
       </c>
     </row>
     <row r="1094">
@@ -9186,7 +9186,7 @@
         <v>1093</v>
       </c>
       <c r="B1094" t="n">
-        <v>22.26148899999998</v>
+        <v>22.261489</v>
       </c>
     </row>
     <row r="1095">
@@ -9226,7 +9226,7 @@
         <v>1098</v>
       </c>
       <c r="B1099" t="n">
-        <v>11.54822000000001</v>
+        <v>11.54822</v>
       </c>
     </row>
     <row r="1100">
@@ -9234,7 +9234,7 @@
         <v>1099</v>
       </c>
       <c r="B1100" t="n">
-        <v>52.51326900000004</v>
+        <v>52.513269</v>
       </c>
     </row>
     <row r="1101">
@@ -9250,7 +9250,7 @@
         <v>1101</v>
       </c>
       <c r="B1102" t="n">
-        <v>91.53656999999998</v>
+        <v>91.53657</v>
       </c>
     </row>
     <row r="1103">
@@ -9258,7 +9258,7 @@
         <v>1102</v>
       </c>
       <c r="B1103" t="n">
-        <v>10.60323600000004</v>
+        <v>10.603236</v>
       </c>
     </row>
     <row r="1104">
@@ -9362,7 +9362,7 @@
         <v>1115</v>
       </c>
       <c r="B1116" t="n">
-        <v>32.62071200000003</v>
+        <v>32.620712</v>
       </c>
     </row>
     <row r="1117">
@@ -9370,7 +9370,7 @@
         <v>1116</v>
       </c>
       <c r="B1117" t="n">
-        <v>39.78349500000002</v>
+        <v>39.783495</v>
       </c>
     </row>
     <row r="1118">
@@ -9426,7 +9426,7 @@
         <v>1123</v>
       </c>
       <c r="B1124" t="n">
-        <v>23.22556599999996</v>
+        <v>23.225566</v>
       </c>
     </row>
     <row r="1125">
@@ -9442,7 +9442,7 @@
         <v>1125</v>
       </c>
       <c r="B1126" t="n">
-        <v>67.05339800000002</v>
+        <v>67.053398</v>
       </c>
     </row>
     <row r="1127">
@@ -9946,7 +9946,7 @@
         <v>1188</v>
       </c>
       <c r="B1189" t="n">
-        <v>9.487379000000033</v>
+        <v>9.487379000000031</v>
       </c>
     </row>
     <row r="1190">
@@ -9954,7 +9954,7 @@
         <v>1189</v>
       </c>
       <c r="B1190" t="n">
-        <v>34.15954699999998</v>
+        <v>34.159547</v>
       </c>
     </row>
     <row r="1191">
@@ -9962,7 +9962,7 @@
         <v>1190</v>
       </c>
       <c r="B1191" t="n">
-        <v>48.03074400000003</v>
+        <v>48.030744</v>
       </c>
     </row>
     <row r="1192">
@@ -9970,7 +9970,7 @@
         <v>1191</v>
       </c>
       <c r="B1192" t="n">
-        <v>15.12362499999995</v>
+        <v>15.1236249999999</v>
       </c>
     </row>
     <row r="1193">
@@ -9978,7 +9978,7 @@
         <v>1192</v>
       </c>
       <c r="B1193" t="n">
-        <v>32.70873800000004</v>
+        <v>32.708738</v>
       </c>
     </row>
     <row r="1194">
@@ -9986,7 +9986,7 @@
         <v>1193</v>
       </c>
       <c r="B1194" t="n">
-        <v>53.61650499999996</v>
+        <v>53.616505</v>
       </c>
     </row>
     <row r="1195">
@@ -9994,7 +9994,7 @@
         <v>1194</v>
       </c>
       <c r="B1195" t="n">
-        <v>68.29514600000005</v>
+        <v>68.295146</v>
       </c>
     </row>
     <row r="1196">
@@ -10026,7 +10026,7 @@
         <v>1198</v>
       </c>
       <c r="B1199" t="n">
-        <v>97.00938499999995</v>
+        <v>97.00938499999999</v>
       </c>
     </row>
     <row r="1200">
@@ -10386,7 +10386,7 @@
         <v>1243</v>
       </c>
       <c r="B1244" t="n">
-        <v>3.938510999999949</v>
+        <v>3.93851099999995</v>
       </c>
     </row>
     <row r="1245">
@@ -10402,7 +10402,7 @@
         <v>1245</v>
       </c>
       <c r="B1246" t="n">
-        <v>95.09935299999995</v>
+        <v>95.09935299999999</v>
       </c>
     </row>
     <row r="1247">
@@ -10410,7 +10410,7 @@
         <v>1246</v>
       </c>
       <c r="B1247" t="n">
-        <v>39.24789599999997</v>
+        <v>39.247896</v>
       </c>
     </row>
     <row r="1248">
@@ -10570,7 +10570,7 @@
         <v>1266</v>
       </c>
       <c r="B1267" t="n">
-        <v>48.11877000000004</v>
+        <v>48.11877</v>
       </c>
     </row>
     <row r="1268">
@@ -10586,7 +10586,7 @@
         <v>1268</v>
       </c>
       <c r="B1269" t="n">
-        <v>203.9074429999999</v>
+        <v>203.907443</v>
       </c>
     </row>
     <row r="1270">
@@ -11362,7 +11362,7 @@
         <v>1365</v>
       </c>
       <c r="B1366" t="n">
-        <v>51.61844699999995</v>
+        <v>51.6184469999999</v>
       </c>
     </row>
     <row r="1367">
@@ -11370,7 +11370,7 @@
         <v>1366</v>
       </c>
       <c r="B1367" t="n">
-        <v>31.24627799999996</v>
+        <v>31.246278</v>
       </c>
     </row>
     <row r="1368">
@@ -11866,7 +11866,7 @@
         <v>1428</v>
       </c>
       <c r="B1429" t="n">
-        <v>0.1488669999999956</v>
+        <v>0.148866999999996</v>
       </c>
     </row>
     <row r="1430">
@@ -11930,7 +11930,7 @@
         <v>1436</v>
       </c>
       <c r="B1437" t="n">
-        <v>3.238511000000017</v>
+        <v>3.23851100000002</v>
       </c>
     </row>
     <row r="1438">
@@ -11938,7 +11938,7 @@
         <v>1437</v>
       </c>
       <c r="B1438" t="n">
-        <v>23.12524299999995</v>
+        <v>23.125243</v>
       </c>
     </row>
     <row r="1439">
@@ -12698,7 +12698,7 @@
         <v>1532</v>
       </c>
       <c r="B1533" t="n">
-        <v>76.70647199999996</v>
+        <v>76.70647200000001</v>
       </c>
     </row>
     <row r="1534">
@@ -12802,7 +12802,7 @@
         <v>1545</v>
       </c>
       <c r="B1546" t="n">
-        <v>23.43980599999998</v>
+        <v>23.439806</v>
       </c>
     </row>
     <row r="1547">
@@ -12810,7 +12810,7 @@
         <v>1546</v>
       </c>
       <c r="B1547" t="n">
-        <v>48.58511299999998</v>
+        <v>48.585113</v>
       </c>
     </row>
     <row r="1548">
@@ -12818,7 +12818,7 @@
         <v>1547</v>
       </c>
       <c r="B1548" t="n">
-        <v>83.07475699999998</v>
+        <v>83.07475700000001</v>
       </c>
     </row>
     <row r="1549">
@@ -12834,7 +12834,7 @@
         <v>1549</v>
       </c>
       <c r="B1550" t="n">
-        <v>75.08608400000003</v>
+        <v>75.086084</v>
       </c>
     </row>
     <row r="1551">
@@ -12842,7 +12842,7 @@
         <v>1550</v>
       </c>
       <c r="B1551" t="n">
-        <v>51.58058300000005</v>
+        <v>51.580583</v>
       </c>
     </row>
     <row r="1552">
@@ -12874,7 +12874,7 @@
         <v>1554</v>
       </c>
       <c r="B1555" t="n">
-        <v>5.628154999999992</v>
+        <v>5.62815499999999</v>
       </c>
     </row>
     <row r="1556">
@@ -12882,7 +12882,7 @@
         <v>1555</v>
       </c>
       <c r="B1556" t="n">
-        <v>14.32297700000004</v>
+        <v>14.322977</v>
       </c>
     </row>
     <row r="1557">
@@ -12890,7 +12890,7 @@
         <v>1556</v>
       </c>
       <c r="B1557" t="n">
-        <v>94.48737900000003</v>
+        <v>94.487379</v>
       </c>
     </row>
     <row r="1558">
@@ -12906,7 +12906,7 @@
         <v>1558</v>
       </c>
       <c r="B1559" t="n">
-        <v>46.54271800000004</v>
+        <v>46.542718</v>
       </c>
     </row>
     <row r="1560">
@@ -12994,7 +12994,7 @@
         <v>1569</v>
       </c>
       <c r="B1570" t="n">
-        <v>10.52686100000005</v>
+        <v>10.5268610000001</v>
       </c>
     </row>
     <row r="1571">
@@ -13002,7 +13002,7 @@
         <v>1570</v>
       </c>
       <c r="B1571" t="n">
-        <v>73.15663400000005</v>
+        <v>73.1566340000001</v>
       </c>
     </row>
     <row r="1572">
@@ -13042,7 +13042,7 @@
         <v>1575</v>
       </c>
       <c r="B1576" t="n">
-        <v>31.47281599999997</v>
+        <v>31.472816</v>
       </c>
     </row>
     <row r="1577">
@@ -13050,7 +13050,7 @@
         <v>1576</v>
       </c>
       <c r="B1577" t="n">
-        <v>21.69352800000001</v>
+        <v>21.693528</v>
       </c>
     </row>
     <row r="1578">
@@ -13058,7 +13058,7 @@
         <v>1577</v>
       </c>
       <c r="B1578" t="n">
-        <v>13.08705499999996</v>
+        <v>13.087055</v>
       </c>
     </row>
     <row r="1579">
@@ -13082,7 +13082,7 @@
         <v>1580</v>
       </c>
       <c r="B1581" t="n">
-        <v>34.03333299999997</v>
+        <v>34.033333</v>
       </c>
     </row>
     <row r="1582">
@@ -13090,7 +13090,7 @@
         <v>1581</v>
       </c>
       <c r="B1582" t="n">
-        <v>56.26537199999996</v>
+        <v>56.265372</v>
       </c>
     </row>
     <row r="1583">
@@ -13218,7 +13218,7 @@
         <v>1597</v>
       </c>
       <c r="B1598" t="n">
-        <v>3.263753999999949</v>
+        <v>3.26375399999995</v>
       </c>
     </row>
     <row r="1599">
@@ -13466,7 +13466,7 @@
         <v>1628</v>
       </c>
       <c r="B1629" t="n">
-        <v>32.02168300000005</v>
+        <v>32.0216830000001</v>
       </c>
     </row>
     <row r="1630">
@@ -13474,7 +13474,7 @@
         <v>1629</v>
       </c>
       <c r="B1630" t="n">
-        <v>67.39385100000004</v>
+        <v>67.393851</v>
       </c>
     </row>
     <row r="1631">
@@ -13482,7 +13482,7 @@
         <v>1630</v>
       </c>
       <c r="B1631" t="n">
-        <v>22.48834999999997</v>
+        <v>22.48835</v>
       </c>
     </row>
     <row r="1632">
@@ -13962,7 +13962,7 @@
         <v>1690</v>
       </c>
       <c r="B1691" t="n">
-        <v>11.28996800000004</v>
+        <v>11.289968</v>
       </c>
     </row>
     <row r="1692">
@@ -13970,7 +13970,7 @@
         <v>1691</v>
       </c>
       <c r="B1692" t="n">
-        <v>45.10485400000005</v>
+        <v>45.104854</v>
       </c>
     </row>
     <row r="1693">
@@ -13978,7 +13978,7 @@
         <v>1692</v>
       </c>
       <c r="B1693" t="n">
-        <v>61.90809100000001</v>
+        <v>61.908091</v>
       </c>
     </row>
     <row r="1694">
@@ -13986,7 +13986,7 @@
         <v>1693</v>
       </c>
       <c r="B1694" t="n">
-        <v>63.27022699999998</v>
+        <v>63.270227</v>
       </c>
     </row>
     <row r="1695">
@@ -13994,7 +13994,7 @@
         <v>1694</v>
       </c>
       <c r="B1695" t="n">
-        <v>41.09482200000002</v>
+        <v>41.094822</v>
       </c>
     </row>
     <row r="1696">
@@ -14050,7 +14050,7 @@
         <v>1701</v>
       </c>
       <c r="B1702" t="n">
-        <v>30.05469300000004</v>
+        <v>30.054693</v>
       </c>
     </row>
     <row r="1703">
@@ -14058,7 +14058,7 @@
         <v>1702</v>
       </c>
       <c r="B1703" t="n">
-        <v>0.6663429999999835</v>
+        <v>0.666342999999983</v>
       </c>
     </row>
     <row r="1704">
@@ -14146,7 +14146,7 @@
         <v>1713</v>
       </c>
       <c r="B1714" t="n">
-        <v>12.70873800000004</v>
+        <v>12.708738</v>
       </c>
     </row>
     <row r="1715">
@@ -14154,7 +14154,7 @@
         <v>1714</v>
       </c>
       <c r="B1715" t="n">
-        <v>45.57767000000001</v>
+        <v>45.57767</v>
       </c>
     </row>
     <row r="1716">
@@ -14162,7 +14162,7 @@
         <v>1715</v>
       </c>
       <c r="B1716" t="n">
-        <v>65.62200600000006</v>
+        <v>65.6220060000001</v>
       </c>
     </row>
     <row r="1717">
@@ -14170,7 +14170,7 @@
         <v>1716</v>
       </c>
       <c r="B1717" t="n">
-        <v>57.43786399999999</v>
+        <v>57.437864</v>
       </c>
     </row>
     <row r="1718">
@@ -14178,7 +14178,7 @@
         <v>1717</v>
       </c>
       <c r="B1718" t="n">
-        <v>51.68123000000003</v>
+        <v>51.68123</v>
       </c>
     </row>
     <row r="1719">
@@ -14186,7 +14186,7 @@
         <v>1718</v>
       </c>
       <c r="B1719" t="n">
-        <v>33.10614899999996</v>
+        <v>33.106149</v>
       </c>
     </row>
     <row r="1720">
@@ -14242,7 +14242,7 @@
         <v>1725</v>
       </c>
       <c r="B1726" t="n">
-        <v>88.98932000000002</v>
+        <v>88.98932000000001</v>
       </c>
     </row>
     <row r="1727">
@@ -14250,7 +14250,7 @@
         <v>1726</v>
       </c>
       <c r="B1727" t="n">
-        <v>60.54012899999998</v>
+        <v>60.540129</v>
       </c>
     </row>
     <row r="1728">
@@ -14338,7 +14338,7 @@
         <v>1737</v>
       </c>
       <c r="B1738" t="n">
-        <v>29.00744299999997</v>
+        <v>29.007443</v>
       </c>
     </row>
     <row r="1739">
@@ -14378,7 +14378,7 @@
         <v>1742</v>
       </c>
       <c r="B1743" t="n">
-        <v>65.81715199999996</v>
+        <v>65.81715199999999</v>
       </c>
     </row>
     <row r="1744">
@@ -14426,7 +14426,7 @@
         <v>1748</v>
       </c>
       <c r="B1749" t="n">
-        <v>62.62071200000003</v>
+        <v>62.620712</v>
       </c>
     </row>
     <row r="1750">
@@ -14450,7 +14450,7 @@
         <v>1751</v>
       </c>
       <c r="B1752" t="n">
-        <v>6.705825000000004</v>
+        <v>6.705825</v>
       </c>
     </row>
     <row r="1753">
@@ -14538,7 +14538,7 @@
         <v>1762</v>
       </c>
       <c r="B1763" t="n">
-        <v>31.52330099999995</v>
+        <v>31.5233009999999</v>
       </c>
     </row>
     <row r="1764">
@@ -14546,7 +14546,7 @@
         <v>1763</v>
       </c>
       <c r="B1764" t="n">
-        <v>42.02168300000005</v>
+        <v>42.0216830000001</v>
       </c>
     </row>
     <row r="1765">
@@ -14554,7 +14554,7 @@
         <v>1764</v>
       </c>
       <c r="B1765" t="n">
-        <v>13.11877000000004</v>
+        <v>13.11877</v>
       </c>
     </row>
     <row r="1766">
@@ -14618,7 +14618,7 @@
         <v>1772</v>
       </c>
       <c r="B1773" t="n">
-        <v>41.00647200000003</v>
+        <v>41.006472</v>
       </c>
     </row>
     <row r="1774">
@@ -14634,7 +14634,7 @@
         <v>1774</v>
       </c>
       <c r="B1775" t="n">
-        <v>86.57411000000002</v>
+        <v>86.57411</v>
       </c>
     </row>
     <row r="1776">
@@ -14722,7 +14722,7 @@
         <v>1785</v>
       </c>
       <c r="B1786" t="n">
-        <v>31.17637500000001</v>
+        <v>31.176375</v>
       </c>
     </row>
     <row r="1787">
@@ -14730,7 +14730,7 @@
         <v>1786</v>
       </c>
       <c r="B1787" t="n">
-        <v>65.14239499999996</v>
+        <v>65.14239499999999</v>
       </c>
     </row>
     <row r="1788">
@@ -14738,7 +14738,7 @@
         <v>1787</v>
       </c>
       <c r="B1788" t="n">
-        <v>80.22459500000002</v>
+        <v>80.22459499999999</v>
       </c>
     </row>
     <row r="1789">
@@ -14746,7 +14746,7 @@
         <v>1788</v>
       </c>
       <c r="B1789" t="n">
-        <v>73.50970900000004</v>
+        <v>73.509709</v>
       </c>
     </row>
     <row r="1790">
@@ -14754,7 +14754,7 @@
         <v>1789</v>
       </c>
       <c r="B1790" t="n">
-        <v>60.78576099999998</v>
+        <v>60.785761</v>
       </c>
     </row>
     <row r="1791">
@@ -14762,7 +14762,7 @@
         <v>1790</v>
       </c>
       <c r="B1791" t="n">
-        <v>37.12880299999995</v>
+        <v>37.1288029999999</v>
       </c>
     </row>
     <row r="1792">
@@ -14810,7 +14810,7 @@
         <v>1796</v>
       </c>
       <c r="B1797" t="n">
-        <v>46.64336600000001</v>
+        <v>46.643366</v>
       </c>
     </row>
     <row r="1798">
@@ -14818,7 +14818,7 @@
         <v>1797</v>
       </c>
       <c r="B1798" t="n">
-        <v>95.48349499999995</v>
+        <v>95.48349499999991</v>
       </c>
     </row>
     <row r="1799">
@@ -14826,7 +14826,7 @@
         <v>1798</v>
       </c>
       <c r="B1799" t="n">
-        <v>55.19320400000004</v>
+        <v>55.193204</v>
       </c>
     </row>
     <row r="1800">
@@ -15394,7 +15394,7 @@
         <v>1869</v>
       </c>
       <c r="B1870" t="n">
-        <v>1.851455999999985</v>
+        <v>1.85145599999998</v>
       </c>
     </row>
     <row r="1871">
@@ -15498,7 +15498,7 @@
         <v>1882</v>
       </c>
       <c r="B1883" t="n">
-        <v>67.97378600000002</v>
+        <v>67.973786</v>
       </c>
     </row>
     <row r="1884">
@@ -15514,7 +15514,7 @@
         <v>1884</v>
       </c>
       <c r="B1885" t="n">
-        <v>154.5822010000001</v>
+        <v>154.582201</v>
       </c>
     </row>
     <row r="1886">
@@ -15546,7 +15546,7 @@
         <v>1888</v>
       </c>
       <c r="B1889" t="n">
-        <v>97.68381899999997</v>
+        <v>97.683819</v>
       </c>
     </row>
     <row r="1890">
@@ -15570,7 +15570,7 @@
         <v>1891</v>
       </c>
       <c r="B1892" t="n">
-        <v>92.25501599999996</v>
+        <v>92.255016</v>
       </c>
     </row>
     <row r="1893">
@@ -15602,7 +15602,7 @@
         <v>1895</v>
       </c>
       <c r="B1896" t="n">
-        <v>82.12233000000003</v>
+        <v>82.12233000000001</v>
       </c>
     </row>
     <row r="1897">
@@ -15610,7 +15610,7 @@
         <v>1896</v>
       </c>
       <c r="B1897" t="n">
-        <v>22.00226499999997</v>
+        <v>22.002265</v>
       </c>
     </row>
     <row r="1898">
@@ -15730,7 +15730,7 @@
         <v>1911</v>
       </c>
       <c r="B1912" t="n">
-        <v>99.24109999999996</v>
+        <v>99.2411</v>
       </c>
     </row>
     <row r="1913">
@@ -15738,7 +15738,7 @@
         <v>1912</v>
       </c>
       <c r="B1913" t="n">
-        <v>63.53495099999998</v>
+        <v>63.534951</v>
       </c>
     </row>
     <row r="1914">
@@ -15746,7 +15746,7 @@
         <v>1913</v>
       </c>
       <c r="B1914" t="n">
-        <v>58.97637499999996</v>
+        <v>58.976375</v>
       </c>
     </row>
     <row r="1915">
@@ -15762,7 +15762,7 @@
         <v>1915</v>
       </c>
       <c r="B1916" t="n">
-        <v>67.44433700000002</v>
+        <v>67.444337</v>
       </c>
     </row>
     <row r="1917">
@@ -16178,7 +16178,7 @@
         <v>1967</v>
       </c>
       <c r="B1968" t="n">
-        <v>36.50453100000004</v>
+        <v>36.504531</v>
       </c>
     </row>
     <row r="1969">
@@ -16186,7 +16186,7 @@
         <v>1968</v>
       </c>
       <c r="B1969" t="n">
-        <v>22.74012900000002</v>
+        <v>22.740129</v>
       </c>
     </row>
     <row r="1970">
@@ -16738,7 +16738,7 @@
         <v>2037</v>
       </c>
       <c r="B2038" t="n">
-        <v>56.83300999999994</v>
+        <v>56.8330099999999</v>
       </c>
     </row>
     <row r="2039">
@@ -16842,7 +16842,7 @@
         <v>2050</v>
       </c>
       <c r="B2051" t="n">
-        <v>21.17702299999996</v>
+        <v>21.177023</v>
       </c>
     </row>
     <row r="2052">
@@ -16850,7 +16850,7 @@
         <v>2051</v>
       </c>
       <c r="B2052" t="n">
-        <v>96.12653699999998</v>
+        <v>96.126537</v>
       </c>
     </row>
     <row r="2053">
@@ -16922,7 +16922,7 @@
         <v>2060</v>
       </c>
       <c r="B2061" t="n">
-        <v>51.44789600000001</v>
+        <v>51.447896</v>
       </c>
     </row>
     <row r="2062">
@@ -16930,7 +16930,7 @@
         <v>2061</v>
       </c>
       <c r="B2062" t="n">
-        <v>96.90873799999997</v>
+        <v>96.908738</v>
       </c>
     </row>
     <row r="2063">
@@ -16946,7 +16946,7 @@
         <v>2063</v>
       </c>
       <c r="B2064" t="n">
-        <v>29.87152100000003</v>
+        <v>29.871521</v>
       </c>
     </row>
     <row r="2065">
@@ -17026,7 +17026,7 @@
         <v>2073</v>
       </c>
       <c r="B2074" t="n">
-        <v>25.79838199999995</v>
+        <v>25.7983819999999</v>
       </c>
     </row>
     <row r="2075">
@@ -17042,7 +17042,7 @@
         <v>2075</v>
       </c>
       <c r="B2076" t="n">
-        <v>83.65501600000005</v>
+        <v>83.655016</v>
       </c>
     </row>
     <row r="2077">
@@ -17058,7 +17058,7 @@
         <v>2077</v>
       </c>
       <c r="B2078" t="n">
-        <v>93.87572799999998</v>
+        <v>93.875728</v>
       </c>
     </row>
     <row r="2079">
@@ -17066,7 +17066,7 @@
         <v>2078</v>
       </c>
       <c r="B2079" t="n">
-        <v>71.39773500000001</v>
+        <v>71.397735</v>
       </c>
     </row>
     <row r="2080">
@@ -17074,7 +17074,7 @@
         <v>2079</v>
       </c>
       <c r="B2080" t="n">
-        <v>9.802265000000034</v>
+        <v>9.80226500000003</v>
       </c>
     </row>
     <row r="2081">
@@ -17082,7 +17082,7 @@
         <v>2080</v>
       </c>
       <c r="B2081" t="n">
-        <v>21.10744299999999</v>
+        <v>21.107443</v>
       </c>
     </row>
     <row r="2082">
@@ -17090,7 +17090,7 @@
         <v>2081</v>
       </c>
       <c r="B2082" t="n">
-        <v>29.49352799999997</v>
+        <v>29.493528</v>
       </c>
     </row>
     <row r="2083">
@@ -17098,7 +17098,7 @@
         <v>2082</v>
       </c>
       <c r="B2083" t="n">
-        <v>5.956311000000028</v>
+        <v>5.95631100000003</v>
       </c>
     </row>
     <row r="2084">
@@ -17442,7 +17442,7 @@
         <v>2125</v>
       </c>
       <c r="B2126" t="n">
-        <v>6.082524000000035</v>
+        <v>6.08252400000003</v>
       </c>
     </row>
     <row r="2127">
@@ -17450,7 +17450,7 @@
         <v>2126</v>
       </c>
       <c r="B2127" t="n">
-        <v>40.04207099999996</v>
+        <v>40.042071</v>
       </c>
     </row>
     <row r="2128">
@@ -17458,7 +17458,7 @@
         <v>2127</v>
       </c>
       <c r="B2128" t="n">
-        <v>18.36440100000004</v>
+        <v>18.364401</v>
       </c>
     </row>
     <row r="2129">
@@ -17466,7 +17466,7 @@
         <v>2128</v>
       </c>
       <c r="B2129" t="n">
-        <v>14.39223300000003</v>
+        <v>14.392233</v>
       </c>
     </row>
     <row r="2130">
@@ -17474,7 +17474,7 @@
         <v>2129</v>
       </c>
       <c r="B2130" t="n">
-        <v>3.364401000000043</v>
+        <v>3.36440100000004</v>
       </c>
     </row>
     <row r="2131">
@@ -18058,7 +18058,7 @@
         <v>2202</v>
       </c>
       <c r="B2203" t="n">
-        <v>15.11747600000001</v>
+        <v>15.117476</v>
       </c>
     </row>
     <row r="2204">
@@ -18082,7 +18082,7 @@
         <v>2205</v>
       </c>
       <c r="B2206" t="n">
-        <v>11.76957900000002</v>
+        <v>11.769579</v>
       </c>
     </row>
     <row r="2207">
@@ -18090,7 +18090,7 @@
         <v>2206</v>
       </c>
       <c r="B2207" t="n">
-        <v>72.74077699999998</v>
+        <v>72.74077699999999</v>
       </c>
     </row>
     <row r="2208">
@@ -18194,7 +18194,7 @@
         <v>2219</v>
       </c>
       <c r="B2220" t="n">
-        <v>5.521358999999961</v>
+        <v>5.52135899999996</v>
       </c>
     </row>
     <row r="2221">
@@ -18386,7 +18386,7 @@
         <v>2243</v>
       </c>
       <c r="B2244" t="n">
-        <v>48.76828499999999</v>
+        <v>48.768285</v>
       </c>
     </row>
     <row r="2245">
@@ -18394,7 +18394,7 @@
         <v>2244</v>
       </c>
       <c r="B2245" t="n">
-        <v>74.24757299999999</v>
+        <v>74.247573</v>
       </c>
     </row>
     <row r="2246">
@@ -18402,7 +18402,7 @@
         <v>2245</v>
       </c>
       <c r="B2246" t="n">
-        <v>86.44789600000001</v>
+        <v>86.447896</v>
       </c>
     </row>
     <row r="2247">
@@ -18410,7 +18410,7 @@
         <v>2246</v>
       </c>
       <c r="B2247" t="n">
-        <v>75.15534000000002</v>
+        <v>75.15534</v>
       </c>
     </row>
     <row r="2248">
@@ -18418,7 +18418,7 @@
         <v>2247</v>
       </c>
       <c r="B2248" t="n">
-        <v>13.64174800000001</v>
+        <v>13.641748</v>
       </c>
     </row>
     <row r="2249">
@@ -18434,7 +18434,7 @@
         <v>2249</v>
       </c>
       <c r="B2250" t="n">
-        <v>10.98705500000005</v>
+        <v>10.9870550000001</v>
       </c>
     </row>
     <row r="2251">
@@ -18442,7 +18442,7 @@
         <v>2250</v>
       </c>
       <c r="B2251" t="n">
-        <v>20.44498399999998</v>
+        <v>20.444984</v>
       </c>
     </row>
     <row r="2252">
@@ -18450,7 +18450,7 @@
         <v>2251</v>
       </c>
       <c r="B2252" t="n">
-        <v>11.32135900000003</v>
+        <v>11.321359</v>
       </c>
     </row>
     <row r="2253">
@@ -18474,7 +18474,7 @@
         <v>2254</v>
       </c>
       <c r="B2255" t="n">
-        <v>37.23624600000005</v>
+        <v>37.2362460000001</v>
       </c>
     </row>
     <row r="2256">
@@ -18666,7 +18666,7 @@
         <v>2278</v>
       </c>
       <c r="B2279" t="n">
-        <v>14.00097100000005</v>
+        <v>14.000971</v>
       </c>
     </row>
     <row r="2280">
@@ -19530,7 +19530,7 @@
         <v>2386</v>
       </c>
       <c r="B2387" t="n">
-        <v>59.55598699999996</v>
+        <v>59.555987</v>
       </c>
     </row>
     <row r="2388">
@@ -19570,7 +19570,7 @@
         <v>2391</v>
       </c>
       <c r="B2392" t="n">
-        <v>19.15857600000004</v>
+        <v>19.158576</v>
       </c>
     </row>
     <row r="2393">
@@ -19626,7 +19626,7 @@
         <v>2398</v>
       </c>
       <c r="B2399" t="n">
-        <v>86.08867299999997</v>
+        <v>86.088673</v>
       </c>
     </row>
     <row r="2400">
@@ -19730,7 +19730,7 @@
         <v>2411</v>
       </c>
       <c r="B2412" t="n">
-        <v>30.49579300000005</v>
+        <v>30.495793</v>
       </c>
     </row>
     <row r="2413">
@@ -19738,7 +19738,7 @@
         <v>2412</v>
       </c>
       <c r="B2413" t="n">
-        <v>13.93203900000003</v>
+        <v>13.932039</v>
       </c>
     </row>
     <row r="2414">
@@ -19810,7 +19810,7 @@
         <v>2421</v>
       </c>
       <c r="B2422" t="n">
-        <v>53.35177999999996</v>
+        <v>53.35178</v>
       </c>
     </row>
     <row r="2423">
@@ -19826,7 +19826,7 @@
         <v>2423</v>
       </c>
       <c r="B2424" t="n">
-        <v>43.61650499999996</v>
+        <v>43.616505</v>
       </c>
     </row>
     <row r="2425">
@@ -19922,7 +19922,7 @@
         <v>2435</v>
       </c>
       <c r="B2436" t="n">
-        <v>96.76957900000002</v>
+        <v>96.76957899999999</v>
       </c>
     </row>
     <row r="2437">
@@ -19930,7 +19930,7 @@
         <v>2436</v>
       </c>
       <c r="B2437" t="n">
-        <v>95.81100300000003</v>
+        <v>95.811003</v>
       </c>
     </row>
     <row r="2438">
@@ -19938,7 +19938,7 @@
         <v>2437</v>
       </c>
       <c r="B2438" t="n">
-        <v>86.56148900000005</v>
+        <v>86.56148900000009</v>
       </c>
     </row>
     <row r="2439">
@@ -19946,7 +19946,7 @@
         <v>2438</v>
       </c>
       <c r="B2439" t="n">
-        <v>50.60291299999994</v>
+        <v>50.6029129999999</v>
       </c>
     </row>
     <row r="2440">
@@ -19978,7 +19978,7 @@
         <v>2442</v>
       </c>
       <c r="B2443" t="n">
-        <v>8.818446999999992</v>
+        <v>8.81844699999999</v>
       </c>
     </row>
     <row r="2444">
@@ -19986,7 +19986,7 @@
         <v>2443</v>
       </c>
       <c r="B2444" t="n">
-        <v>25.33786399999997</v>
+        <v>25.337864</v>
       </c>
     </row>
     <row r="2445">
@@ -19994,7 +19994,7 @@
         <v>2444</v>
       </c>
       <c r="B2445" t="n">
-        <v>29.13980600000002</v>
+        <v>29.139806</v>
       </c>
     </row>
     <row r="2446">
@@ -20002,7 +20002,7 @@
         <v>2445</v>
       </c>
       <c r="B2446" t="n">
-        <v>68.38349500000004</v>
+        <v>68.383495</v>
       </c>
     </row>
     <row r="2447">
@@ -20010,7 +20010,7 @@
         <v>2446</v>
       </c>
       <c r="B2447" t="n">
-        <v>137.3624600000001</v>
+        <v>137.36246</v>
       </c>
     </row>
     <row r="2448">
@@ -20018,7 +20018,7 @@
         <v>2447</v>
       </c>
       <c r="B2448" t="n">
-        <v>46.87637500000005</v>
+        <v>46.8763750000001</v>
       </c>
     </row>
     <row r="2449">
@@ -20098,7 +20098,7 @@
         <v>2457</v>
       </c>
       <c r="B2458" t="n">
-        <v>10.87346300000002</v>
+        <v>10.873463</v>
       </c>
     </row>
     <row r="2459">
@@ -20106,7 +20106,7 @@
         <v>2458</v>
       </c>
       <c r="B2459" t="n">
-        <v>68.86893199999997</v>
+        <v>68.868932</v>
       </c>
     </row>
     <row r="2460">
@@ -20114,7 +20114,7 @@
         <v>2459</v>
       </c>
       <c r="B2460" t="n">
-        <v>107.0025889999999</v>
+        <v>107.002589</v>
       </c>
     </row>
     <row r="2461">
@@ -20130,7 +20130,7 @@
         <v>2461</v>
       </c>
       <c r="B2462" t="n">
-        <v>95.39482199999998</v>
+        <v>95.394822</v>
       </c>
     </row>
     <row r="2463">
@@ -20138,7 +20138,7 @@
         <v>2462</v>
       </c>
       <c r="B2463" t="n">
-        <v>44.29126199999996</v>
+        <v>44.291262</v>
       </c>
     </row>
     <row r="2464">
@@ -20778,7 +20778,7 @@
         <v>2542</v>
       </c>
       <c r="B2543" t="n">
-        <v>52.50679600000001</v>
+        <v>52.506796</v>
       </c>
     </row>
     <row r="2544">
@@ -20874,7 +20874,7 @@
         <v>2554</v>
       </c>
       <c r="B2555" t="n">
-        <v>12.10323600000004</v>
+        <v>12.103236</v>
       </c>
     </row>
     <row r="2556">
@@ -20882,7 +20882,7 @@
         <v>2555</v>
       </c>
       <c r="B2556" t="n">
-        <v>46.38446599999997</v>
+        <v>46.384466</v>
       </c>
     </row>
     <row r="2557">
@@ -20890,7 +20890,7 @@
         <v>2556</v>
       </c>
       <c r="B2557" t="n">
-        <v>57.12847899999997</v>
+        <v>57.128479</v>
       </c>
     </row>
     <row r="2558">
@@ -20898,7 +20898,7 @@
         <v>2557</v>
       </c>
       <c r="B2558" t="n">
-        <v>51.59902899999997</v>
+        <v>51.599029</v>
       </c>
     </row>
     <row r="2559">
@@ -21066,7 +21066,7 @@
         <v>2578</v>
       </c>
       <c r="B2579" t="n">
-        <v>15.98058300000002</v>
+        <v>15.980583</v>
       </c>
     </row>
     <row r="2580">
@@ -21074,7 +21074,7 @@
         <v>2579</v>
       </c>
       <c r="B2580" t="n">
-        <v>48.13721699999996</v>
+        <v>48.137217</v>
       </c>
     </row>
     <row r="2581">
@@ -21082,7 +21082,7 @@
         <v>2580</v>
       </c>
       <c r="B2581" t="n">
-        <v>60.84239500000001</v>
+        <v>60.842395</v>
       </c>
     </row>
     <row r="2582">
@@ -21090,7 +21090,7 @@
         <v>2581</v>
       </c>
       <c r="B2582" t="n">
-        <v>66.31520999999998</v>
+        <v>66.31520999999999</v>
       </c>
     </row>
     <row r="2583">
@@ -21098,7 +21098,7 @@
         <v>2582</v>
       </c>
       <c r="B2583" t="n">
-        <v>27.51941699999998</v>
+        <v>27.519417</v>
       </c>
     </row>
     <row r="2584">
@@ -21162,7 +21162,7 @@
         <v>2590</v>
       </c>
       <c r="B2591" t="n">
-        <v>82.04692599999998</v>
+        <v>82.046926</v>
       </c>
     </row>
     <row r="2592">
@@ -21258,7 +21258,7 @@
         <v>2602</v>
       </c>
       <c r="B2603" t="n">
-        <v>16.58608400000003</v>
+        <v>16.586084</v>
       </c>
     </row>
     <row r="2604">
@@ -21266,7 +21266,7 @@
         <v>2603</v>
       </c>
       <c r="B2604" t="n">
-        <v>41.81326899999999</v>
+        <v>41.813269</v>
       </c>
     </row>
     <row r="2605">
@@ -21274,7 +21274,7 @@
         <v>2604</v>
       </c>
       <c r="B2605" t="n">
-        <v>50.96213599999999</v>
+        <v>50.962136</v>
       </c>
     </row>
     <row r="2606">
@@ -21282,7 +21282,7 @@
         <v>2605</v>
       </c>
       <c r="B2606" t="n">
-        <v>38.00485400000002</v>
+        <v>38.004854</v>
       </c>
     </row>
     <row r="2607">
@@ -21354,7 +21354,7 @@
         <v>2614</v>
       </c>
       <c r="B2615" t="n">
-        <v>32.67087400000003</v>
+        <v>32.670874</v>
       </c>
     </row>
     <row r="2616">
@@ -21458,7 +21458,7 @@
         <v>2627</v>
       </c>
       <c r="B2628" t="n">
-        <v>27.69579299999998</v>
+        <v>27.695793</v>
       </c>
     </row>
     <row r="2629">
@@ -21466,7 +21466,7 @@
         <v>2628</v>
       </c>
       <c r="B2629" t="n">
-        <v>46.35307399999999</v>
+        <v>46.353074</v>
       </c>
     </row>
     <row r="2630">
@@ -21474,7 +21474,7 @@
         <v>2629</v>
       </c>
       <c r="B2630" t="n">
-        <v>54.37313900000004</v>
+        <v>54.373139</v>
       </c>
     </row>
     <row r="2631">
@@ -21482,7 +21482,7 @@
         <v>2630</v>
       </c>
       <c r="B2631" t="n">
-        <v>35.38187700000003</v>
+        <v>35.381877</v>
       </c>
     </row>
     <row r="2632">
@@ -21546,7 +21546,7 @@
         <v>2638</v>
       </c>
       <c r="B2639" t="n">
-        <v>7.424919000000045</v>
+        <v>7.42491900000005</v>
       </c>
     </row>
     <row r="2640">
@@ -24722,7 +24722,7 @@
         <v>3035</v>
       </c>
       <c r="B3036" t="n">
-        <v>16.64271799999995</v>
+        <v>16.6427179999999</v>
       </c>
     </row>
     <row r="3037">
@@ -24730,7 +24730,7 @@
         <v>3036</v>
       </c>
       <c r="B3037" t="n">
-        <v>31.08802600000001</v>
+        <v>31.088026</v>
       </c>
     </row>
     <row r="3038">
@@ -24738,7 +24738,7 @@
         <v>3037</v>
       </c>
       <c r="B3038" t="n">
-        <v>41.52330099999995</v>
+        <v>41.5233009999999</v>
       </c>
     </row>
     <row r="3039">
@@ -24746,7 +24746,7 @@
         <v>3038</v>
       </c>
       <c r="B3039" t="n">
-        <v>17.30485399999998</v>
+        <v>17.304854</v>
       </c>
     </row>
     <row r="3040">
@@ -24810,7 +24810,7 @@
         <v>3046</v>
       </c>
       <c r="B3047" t="n">
-        <v>32.46245999999996</v>
+        <v>32.46246</v>
       </c>
     </row>
     <row r="3048">
@@ -24906,7 +24906,7 @@
         <v>3058</v>
       </c>
       <c r="B3059" t="n">
-        <v>1.491262000000006</v>
+        <v>1.49126200000001</v>
       </c>
     </row>
     <row r="3060">
@@ -24914,7 +24914,7 @@
         <v>3059</v>
       </c>
       <c r="B3060" t="n">
-        <v>39.66310699999997</v>
+        <v>39.663107</v>
       </c>
     </row>
     <row r="3061">
@@ -24922,7 +24922,7 @@
         <v>3060</v>
       </c>
       <c r="B3061" t="n">
-        <v>63.00485400000002</v>
+        <v>63.004854</v>
       </c>
     </row>
     <row r="3062">
@@ -24938,7 +24938,7 @@
         <v>3062</v>
       </c>
       <c r="B3063" t="n">
-        <v>43.42103599999996</v>
+        <v>43.421036</v>
       </c>
     </row>
     <row r="3064">
@@ -25002,7 +25002,7 @@
         <v>3070</v>
       </c>
       <c r="B3071" t="n">
-        <v>33.65436899999997</v>
+        <v>33.654369</v>
       </c>
     </row>
     <row r="3072">
@@ -25106,7 +25106,7 @@
         <v>3083</v>
       </c>
       <c r="B3084" t="n">
-        <v>32.90388299999995</v>
+        <v>32.903883</v>
       </c>
     </row>
     <row r="3085">
@@ -25114,7 +25114,7 @@
         <v>3084</v>
       </c>
       <c r="B3085" t="n">
-        <v>50.56504900000004</v>
+        <v>50.565049</v>
       </c>
     </row>
     <row r="3086">
@@ -25122,7 +25122,7 @@
         <v>3085</v>
       </c>
       <c r="B3086" t="n">
-        <v>67.62071200000003</v>
+        <v>67.620712</v>
       </c>
     </row>
     <row r="3087">
@@ -25130,7 +25130,7 @@
         <v>3086</v>
       </c>
       <c r="B3087" t="n">
-        <v>57.10970899999995</v>
+        <v>57.109709</v>
       </c>
     </row>
     <row r="3088">
@@ -25138,7 +25138,7 @@
         <v>3087</v>
       </c>
       <c r="B3088" t="n">
-        <v>2.330097000000023</v>
+        <v>2.33009700000002</v>
       </c>
     </row>
     <row r="3089">
@@ -25170,7 +25170,7 @@
         <v>3091</v>
       </c>
       <c r="B3092" t="n">
-        <v>22.58252400000003</v>
+        <v>22.582524</v>
       </c>
     </row>
     <row r="3093">
@@ -25194,7 +25194,7 @@
         <v>3094</v>
       </c>
       <c r="B3095" t="n">
-        <v>50.01618099999996</v>
+        <v>50.016181</v>
       </c>
     </row>
     <row r="3096">
@@ -25386,7 +25386,7 @@
         <v>3118</v>
       </c>
       <c r="B3119" t="n">
-        <v>7.399675999999999</v>
+        <v>7.399676</v>
       </c>
     </row>
     <row r="3120">
@@ -26834,7 +26834,7 @@
         <v>3299</v>
       </c>
       <c r="B3300" t="n">
-        <v>65.04174799999998</v>
+        <v>65.041748</v>
       </c>
     </row>
     <row r="3301">
@@ -26842,7 +26842,7 @@
         <v>3300</v>
       </c>
       <c r="B3301" t="n">
-        <v>105.5336569999999</v>
+        <v>105.533657</v>
       </c>
     </row>
     <row r="3302">
@@ -26866,7 +26866,7 @@
         <v>3303</v>
       </c>
       <c r="B3304" t="n">
-        <v>45.21812299999999</v>
+        <v>45.218123</v>
       </c>
     </row>
     <row r="3305">
@@ -26874,7 +26874,7 @@
         <v>3304</v>
       </c>
       <c r="B3305" t="n">
-        <v>27.05275099999994</v>
+        <v>27.0527509999999</v>
       </c>
     </row>
     <row r="3306">
@@ -26882,7 +26882,7 @@
         <v>3305</v>
       </c>
       <c r="B3306" t="n">
-        <v>31.76925600000004</v>
+        <v>31.769256</v>
       </c>
     </row>
     <row r="3307">
@@ -26890,7 +26890,7 @@
         <v>3306</v>
       </c>
       <c r="B3307" t="n">
-        <v>30.81100300000003</v>
+        <v>30.811003</v>
       </c>
     </row>
     <row r="3308">
@@ -26898,7 +26898,7 @@
         <v>3307</v>
       </c>
       <c r="B3308" t="n">
-        <v>14.15890000000002</v>
+        <v>14.1589</v>
       </c>
     </row>
     <row r="3309">
@@ -27986,7 +27986,7 @@
         <v>3443</v>
       </c>
       <c r="B3444" t="n">
-        <v>32.98608400000001</v>
+        <v>32.986084</v>
       </c>
     </row>
     <row r="3445">
@@ -27994,7 +27994,7 @@
         <v>3444</v>
       </c>
       <c r="B3445" t="n">
-        <v>71.77572799999996</v>
+        <v>71.775728</v>
       </c>
     </row>
     <row r="3446">
@@ -28002,7 +28002,7 @@
         <v>3445</v>
       </c>
       <c r="B3446" t="n">
-        <v>91.68123000000003</v>
+        <v>91.68123</v>
       </c>
     </row>
     <row r="3447">
@@ -28010,7 +28010,7 @@
         <v>3446</v>
       </c>
       <c r="B3447" t="n">
-        <v>81.73171500000001</v>
+        <v>81.73171499999999</v>
       </c>
     </row>
     <row r="3448">
@@ -28018,7 +28018,7 @@
         <v>3447</v>
       </c>
       <c r="B3448" t="n">
-        <v>15.94304199999999</v>
+        <v>15.943042</v>
       </c>
     </row>
     <row r="3449">
@@ -28026,7 +28026,7 @@
         <v>3448</v>
       </c>
       <c r="B3449" t="n">
-        <v>0.6152100000000473</v>
+        <v>0.615210000000047</v>
       </c>
     </row>
     <row r="3450">
@@ -28034,7 +28034,7 @@
         <v>3449</v>
       </c>
       <c r="B3450" t="n">
-        <v>13.21294499999999</v>
+        <v>13.212945</v>
       </c>
     </row>
     <row r="3451">
@@ -28042,7 +28042,7 @@
         <v>3450</v>
       </c>
       <c r="B3451" t="n">
-        <v>23.69223299999999</v>
+        <v>23.692233</v>
       </c>
     </row>
     <row r="3452">
@@ -28050,7 +28050,7 @@
         <v>3451</v>
       </c>
       <c r="B3452" t="n">
-        <v>14.54336599999999</v>
+        <v>14.543366</v>
       </c>
     </row>
     <row r="3453">
@@ -28074,7 +28074,7 @@
         <v>3454</v>
       </c>
       <c r="B3455" t="n">
-        <v>11.64271799999995</v>
+        <v>11.6427179999999</v>
       </c>
     </row>
     <row r="3456">
@@ -28170,7 +28170,7 @@
         <v>3466</v>
       </c>
       <c r="B3467" t="n">
-        <v>13.33883500000002</v>
+        <v>13.338835</v>
       </c>
     </row>
     <row r="3468">
@@ -28178,7 +28178,7 @@
         <v>3467</v>
       </c>
       <c r="B3468" t="n">
-        <v>64.11488699999995</v>
+        <v>64.114887</v>
       </c>
     </row>
     <row r="3469">
@@ -28186,7 +28186,7 @@
         <v>3468</v>
       </c>
       <c r="B3469" t="n">
-        <v>83.86278300000004</v>
+        <v>83.86278299999999</v>
       </c>
     </row>
     <row r="3470">
@@ -28202,7 +28202,7 @@
         <v>3470</v>
       </c>
       <c r="B3471" t="n">
-        <v>73.56019400000002</v>
+        <v>73.560194</v>
       </c>
     </row>
     <row r="3472">
@@ -28762,7 +28762,7 @@
         <v>3540</v>
       </c>
       <c r="B3541" t="n">
-        <v>10.53333299999997</v>
+        <v>10.533333</v>
       </c>
     </row>
     <row r="3542">
@@ -28770,7 +28770,7 @@
         <v>3541</v>
       </c>
       <c r="B3542" t="n">
-        <v>21.30258900000001</v>
+        <v>21.302589</v>
       </c>
     </row>
     <row r="3543">
@@ -28778,7 +28778,7 @@
         <v>3542</v>
       </c>
       <c r="B3543" t="n">
-        <v>7.298706000000038</v>
+        <v>7.29870600000004</v>
       </c>
     </row>
     <row r="3544">
@@ -28946,7 +28946,7 @@
         <v>3563</v>
       </c>
       <c r="B3564" t="n">
-        <v>41.35922300000004</v>
+        <v>41.359223</v>
       </c>
     </row>
     <row r="3565">
@@ -28954,7 +28954,7 @@
         <v>3564</v>
       </c>
       <c r="B3565" t="n">
-        <v>57.50679600000001</v>
+        <v>57.506796</v>
       </c>
     </row>
     <row r="3566">
@@ -28962,7 +28962,7 @@
         <v>3565</v>
       </c>
       <c r="B3566" t="n">
-        <v>66.73139200000003</v>
+        <v>66.731392</v>
       </c>
     </row>
     <row r="3567">
@@ -29330,7 +29330,7 @@
         <v>3611</v>
       </c>
       <c r="B3612" t="n">
-        <v>19.07055000000003</v>
+        <v>19.07055</v>
       </c>
     </row>
     <row r="3613">
@@ -29338,7 +29338,7 @@
         <v>3612</v>
       </c>
       <c r="B3613" t="n">
-        <v>31.23948199999995</v>
+        <v>31.239482</v>
       </c>
     </row>
     <row r="3614">
@@ -29346,7 +29346,7 @@
         <v>3613</v>
       </c>
       <c r="B3614" t="n">
-        <v>24.85889999999995</v>
+        <v>24.8588999999999</v>
       </c>
     </row>
     <row r="3615">
@@ -29522,7 +29522,7 @@
         <v>3635</v>
       </c>
       <c r="B3636" t="n">
-        <v>23.44627800000001</v>
+        <v>23.446278</v>
       </c>
     </row>
     <row r="3637">
@@ -29530,7 +29530,7 @@
         <v>3636</v>
       </c>
       <c r="B3637" t="n">
-        <v>39.25372200000004</v>
+        <v>39.253722</v>
       </c>
     </row>
     <row r="3638">
@@ -29538,7 +29538,7 @@
         <v>3637</v>
       </c>
       <c r="B3638" t="n">
-        <v>36.43527500000005</v>
+        <v>36.435275</v>
       </c>
     </row>
     <row r="3639">
@@ -30298,7 +30298,7 @@
         <v>3732</v>
       </c>
       <c r="B3733" t="n">
-        <v>1.100970999999959</v>
+        <v>1.10097099999996</v>
       </c>
     </row>
     <row r="3734">
@@ -30306,7 +30306,7 @@
         <v>3733</v>
       </c>
       <c r="B3734" t="n">
-        <v>34.87152100000003</v>
+        <v>34.871521</v>
       </c>
     </row>
     <row r="3735">
@@ -30314,7 +30314,7 @@
         <v>3734</v>
       </c>
       <c r="B3735" t="n">
-        <v>43.55372199999999</v>
+        <v>43.553722</v>
       </c>
     </row>
     <row r="3736">
@@ -30538,7 +30538,7 @@
         <v>3762</v>
       </c>
       <c r="B3763" t="n">
-        <v>20.61553400000003</v>
+        <v>20.615534</v>
       </c>
     </row>
     <row r="3764">
@@ -30546,7 +30546,7 @@
         <v>3763</v>
       </c>
       <c r="B3764" t="n">
-        <v>25.17411000000004</v>
+        <v>25.17411</v>
       </c>
     </row>
     <row r="3765">
@@ -30682,7 +30682,7 @@
         <v>3780</v>
       </c>
       <c r="B3781" t="n">
-        <v>29.71391600000004</v>
+        <v>29.713916</v>
       </c>
     </row>
     <row r="3782">
@@ -30690,7 +30690,7 @@
         <v>3781</v>
       </c>
       <c r="B3782" t="n">
-        <v>65.14304200000004</v>
+        <v>65.14304199999999</v>
       </c>
     </row>
     <row r="3783">
@@ -30698,7 +30698,7 @@
         <v>3782</v>
       </c>
       <c r="B3783" t="n">
-        <v>67.35598700000003</v>
+        <v>67.355987</v>
       </c>
     </row>
     <row r="3784">
@@ -30706,7 +30706,7 @@
         <v>3783</v>
       </c>
       <c r="B3784" t="n">
-        <v>6.977346000000011</v>
+        <v>6.97734600000001</v>
       </c>
     </row>
     <row r="3785">
@@ -30714,7 +30714,7 @@
         <v>3784</v>
       </c>
       <c r="B3785" t="n">
-        <v>11.02524300000005</v>
+        <v>11.025243</v>
       </c>
     </row>
     <row r="3786">
@@ -30722,7 +30722,7 @@
         <v>3785</v>
       </c>
       <c r="B3786" t="n">
-        <v>20.62815499999999</v>
+        <v>20.628155</v>
       </c>
     </row>
     <row r="3787">
@@ -30730,7 +30730,7 @@
         <v>3786</v>
       </c>
       <c r="B3787" t="n">
-        <v>29.58155299999999</v>
+        <v>29.581553</v>
       </c>
     </row>
     <row r="3788">
@@ -30738,7 +30738,7 @@
         <v>3787</v>
       </c>
       <c r="B3788" t="n">
-        <v>16.52330099999995</v>
+        <v>16.5233009999999</v>
       </c>
     </row>
     <row r="3789">
@@ -30858,7 +30858,7 @@
         <v>3802</v>
       </c>
       <c r="B3803" t="n">
-        <v>30.04789600000004</v>
+        <v>30.047896</v>
       </c>
     </row>
     <row r="3804">
@@ -30898,7 +30898,7 @@
         <v>3807</v>
       </c>
       <c r="B3808" t="n">
-        <v>64.65080899999998</v>
+        <v>64.650809</v>
       </c>
     </row>
     <row r="3809">
@@ -30922,7 +30922,7 @@
         <v>3810</v>
       </c>
       <c r="B3811" t="n">
-        <v>18.27637500000003</v>
+        <v>18.276375</v>
       </c>
     </row>
     <row r="3812">
@@ -31442,7 +31442,7 @@
         <v>3875</v>
       </c>
       <c r="B3876" t="n">
-        <v>5.142394999999965</v>
+        <v>5.14239499999996</v>
       </c>
     </row>
     <row r="3877">
@@ -31450,7 +31450,7 @@
         <v>3876</v>
       </c>
       <c r="B3877" t="n">
-        <v>38.74304199999995</v>
+        <v>38.7430419999999</v>
       </c>
     </row>
     <row r="3878">
@@ -31458,7 +31458,7 @@
         <v>3877</v>
       </c>
       <c r="B3878" t="n">
-        <v>65.57152099999996</v>
+        <v>65.571521</v>
       </c>
     </row>
     <row r="3879">
@@ -31466,7 +31466,7 @@
         <v>3878</v>
       </c>
       <c r="B3879" t="n">
-        <v>72.00906099999997</v>
+        <v>72.009061</v>
       </c>
     </row>
     <row r="3880">
@@ -31482,7 +31482,7 @@
         <v>3880</v>
       </c>
       <c r="B3881" t="n">
-        <v>24.83980599999995</v>
+        <v>24.839806</v>
       </c>
     </row>
     <row r="3882">
@@ -31490,7 +31490,7 @@
         <v>3881</v>
       </c>
       <c r="B3882" t="n">
-        <v>42.04045299999996</v>
+        <v>42.040453</v>
       </c>
     </row>
     <row r="3883">
@@ -31498,7 +31498,7 @@
         <v>3882</v>
       </c>
       <c r="B3883" t="n">
-        <v>51.48576100000002</v>
+        <v>51.485761</v>
       </c>
     </row>
     <row r="3884">
@@ -31506,7 +31506,7 @@
         <v>3883</v>
       </c>
       <c r="B3884" t="n">
-        <v>26.20194200000003</v>
+        <v>26.201942</v>
       </c>
     </row>
     <row r="3885">
@@ -31626,7 +31626,7 @@
         <v>3898</v>
       </c>
       <c r="B3899" t="n">
-        <v>52.33657000000005</v>
+        <v>52.3365700000001</v>
       </c>
     </row>
     <row r="3900">
@@ -31650,7 +31650,7 @@
         <v>3901</v>
       </c>
       <c r="B3902" t="n">
-        <v>147.2362460000001</v>
+        <v>147.236246</v>
       </c>
     </row>
     <row r="3903">
@@ -31666,7 +31666,7 @@
         <v>3903</v>
       </c>
       <c r="B3904" t="n">
-        <v>81.68737899999996</v>
+        <v>81.68737900000001</v>
       </c>
     </row>
     <row r="3905">
@@ -31674,7 +31674,7 @@
         <v>3904</v>
       </c>
       <c r="B3905" t="n">
-        <v>62.79093899999998</v>
+        <v>62.790939</v>
       </c>
     </row>
     <row r="3906">
@@ -31682,7 +31682,7 @@
         <v>3905</v>
       </c>
       <c r="B3906" t="n">
-        <v>65.45792900000004</v>
+        <v>65.45792899999999</v>
       </c>
     </row>
     <row r="3907">
@@ -31698,7 +31698,7 @@
         <v>3907</v>
       </c>
       <c r="B3908" t="n">
-        <v>51.63074400000005</v>
+        <v>51.630744</v>
       </c>
     </row>
     <row r="3909">
@@ -31706,7 +31706,7 @@
         <v>3908</v>
       </c>
       <c r="B3909" t="n">
-        <v>19.94077700000003</v>
+        <v>19.940777</v>
       </c>
     </row>
     <row r="3910">
@@ -31730,7 +31730,7 @@
         <v>3911</v>
       </c>
       <c r="B3912" t="n">
-        <v>21.26440100000002</v>
+        <v>21.264401</v>
       </c>
     </row>
     <row r="3913">
@@ -31818,7 +31818,7 @@
         <v>3922</v>
       </c>
       <c r="B3923" t="n">
-        <v>35.09190899999999</v>
+        <v>35.091909</v>
       </c>
     </row>
     <row r="3924">
@@ -31826,7 +31826,7 @@
         <v>3923</v>
       </c>
       <c r="B3924" t="n">
-        <v>87.33074399999998</v>
+        <v>87.330744</v>
       </c>
     </row>
     <row r="3925">
@@ -31850,7 +31850,7 @@
         <v>3926</v>
       </c>
       <c r="B3927" t="n">
-        <v>90.31326899999999</v>
+        <v>90.31326900000001</v>
       </c>
     </row>
     <row r="3928">
@@ -31858,7 +31858,7 @@
         <v>3927</v>
       </c>
       <c r="B3928" t="n">
-        <v>20.31294500000001</v>
+        <v>20.312945</v>
       </c>
     </row>
     <row r="3929">
@@ -31866,7 +31866,7 @@
         <v>3928</v>
       </c>
       <c r="B3929" t="n">
-        <v>16.25242700000001</v>
+        <v>16.252427</v>
       </c>
     </row>
     <row r="3930">
@@ -31874,7 +31874,7 @@
         <v>3929</v>
       </c>
       <c r="B3930" t="n">
-        <v>27.51974099999995</v>
+        <v>27.519741</v>
       </c>
     </row>
     <row r="3931">
@@ -31882,7 +31882,7 @@
         <v>3930</v>
       </c>
       <c r="B3931" t="n">
-        <v>47.79741100000001</v>
+        <v>47.797411</v>
       </c>
     </row>
     <row r="3932">
@@ -31890,7 +31890,7 @@
         <v>3931</v>
       </c>
       <c r="B3932" t="n">
-        <v>33.31423900000004</v>
+        <v>33.314239</v>
       </c>
     </row>
     <row r="3933">
@@ -32794,7 +32794,7 @@
         <v>4044</v>
       </c>
       <c r="B4045" t="n">
-        <v>12.58932000000004</v>
+        <v>12.58932</v>
       </c>
     </row>
     <row r="4046">
@@ -32802,7 +32802,7 @@
         <v>4045</v>
       </c>
       <c r="B4046" t="n">
-        <v>31.68770199999994</v>
+        <v>31.6877019999999</v>
       </c>
     </row>
     <row r="4047">
@@ -32986,7 +32986,7 @@
         <v>4068</v>
       </c>
       <c r="B4069" t="n">
-        <v>7.343365999999946</v>
+        <v>7.34336599999995</v>
       </c>
     </row>
     <row r="4070">
@@ -32994,7 +32994,7 @@
         <v>4069</v>
       </c>
       <c r="B4070" t="n">
-        <v>29.70161800000005</v>
+        <v>29.7016180000001</v>
       </c>
     </row>
     <row r="4071">
@@ -33002,7 +33002,7 @@
         <v>4070</v>
       </c>
       <c r="B4071" t="n">
-        <v>31.17702299999996</v>
+        <v>31.177023</v>
       </c>
     </row>
     <row r="4072">
@@ -33178,7 +33178,7 @@
         <v>4092</v>
       </c>
       <c r="B4093" t="n">
-        <v>16.68737899999996</v>
+        <v>16.687379</v>
       </c>
     </row>
     <row r="4094">
@@ -33186,7 +33186,7 @@
         <v>4093</v>
       </c>
       <c r="B4094" t="n">
-        <v>48.01812299999995</v>
+        <v>48.0181229999999</v>
       </c>
     </row>
     <row r="4095">
@@ -33194,7 +33194,7 @@
         <v>4094</v>
       </c>
       <c r="B4095" t="n">
-        <v>51.00679600000001</v>
+        <v>51.006796</v>
       </c>
     </row>
     <row r="4096">
@@ -33226,7 +33226,7 @@
         <v>4098</v>
       </c>
       <c r="B4099" t="n">
-        <v>38.06828499999995</v>
+        <v>38.0682849999999</v>
       </c>
     </row>
     <row r="4100">
@@ -33234,7 +33234,7 @@
         <v>4099</v>
       </c>
       <c r="B4100" t="n">
-        <v>35.62815499999999</v>
+        <v>35.628155</v>
       </c>
     </row>
     <row r="4101">
@@ -33362,7 +33362,7 @@
         <v>4115</v>
       </c>
       <c r="B4116" t="n">
-        <v>54.80841399999997</v>
+        <v>54.808414</v>
       </c>
     </row>
     <row r="4117">
@@ -33370,7 +33370,7 @@
         <v>4116</v>
       </c>
       <c r="B4117" t="n">
-        <v>87.35598700000003</v>
+        <v>87.355987</v>
       </c>
     </row>
     <row r="4118">
@@ -33378,7 +33378,7 @@
         <v>4117</v>
       </c>
       <c r="B4118" t="n">
-        <v>129.4870550000001</v>
+        <v>129.487055</v>
       </c>
     </row>
     <row r="4119">
@@ -33394,7 +33394,7 @@
         <v>4119</v>
       </c>
       <c r="B4120" t="n">
-        <v>84.52459499999998</v>
+        <v>84.52459500000001</v>
       </c>
     </row>
     <row r="4121">
@@ -33426,7 +33426,7 @@
         <v>4123</v>
       </c>
       <c r="B4124" t="n">
-        <v>80.07346299999995</v>
+        <v>80.0734629999999</v>
       </c>
     </row>
     <row r="4125">
@@ -33434,7 +33434,7 @@
         <v>4124</v>
       </c>
       <c r="B4125" t="n">
-        <v>25.20550200000002</v>
+        <v>25.205502</v>
       </c>
     </row>
     <row r="4126">
@@ -33546,7 +33546,7 @@
         <v>4138</v>
       </c>
       <c r="B4139" t="n">
-        <v>41.16375400000004</v>
+        <v>41.163754</v>
       </c>
     </row>
     <row r="4140">
@@ -33554,7 +33554,7 @@
         <v>4139</v>
       </c>
       <c r="B4140" t="n">
-        <v>91.89546900000005</v>
+        <v>91.89546900000001</v>
       </c>
     </row>
     <row r="4141">
@@ -33586,7 +33586,7 @@
         <v>4143</v>
       </c>
       <c r="B4144" t="n">
-        <v>57.12233000000003</v>
+        <v>57.12233</v>
       </c>
     </row>
     <row r="4145">
@@ -33594,7 +33594,7 @@
         <v>4144</v>
       </c>
       <c r="B4145" t="n">
-        <v>16.73786399999995</v>
+        <v>16.7378639999999</v>
       </c>
     </row>
     <row r="4146">
@@ -33602,7 +33602,7 @@
         <v>4145</v>
       </c>
       <c r="B4146" t="n">
-        <v>15.02912600000002</v>
+        <v>15.029126</v>
       </c>
     </row>
     <row r="4147">
@@ -33610,7 +33610,7 @@
         <v>4146</v>
       </c>
       <c r="B4147" t="n">
-        <v>34.06440099999998</v>
+        <v>34.064401</v>
       </c>
     </row>
     <row r="4148">
@@ -33618,7 +33618,7 @@
         <v>4147</v>
       </c>
       <c r="B4148" t="n">
-        <v>29.72653700000001</v>
+        <v>29.726537</v>
       </c>
     </row>
     <row r="4149">
@@ -33626,7 +33626,7 @@
         <v>4148</v>
       </c>
       <c r="B4149" t="n">
-        <v>8.137216999999964</v>
+        <v>8.137216999999961</v>
       </c>
     </row>
     <row r="4150">
@@ -34138,7 +34138,7 @@
         <v>4212</v>
       </c>
       <c r="B4213" t="n">
-        <v>6.946278000000007</v>
+        <v>6.94627800000001</v>
       </c>
     </row>
     <row r="4214">
@@ -34146,7 +34146,7 @@
         <v>4213</v>
       </c>
       <c r="B4214" t="n">
-        <v>31.95275100000003</v>
+        <v>31.952751</v>
       </c>
     </row>
     <row r="4215">
@@ -34154,7 +34154,7 @@
         <v>4214</v>
       </c>
       <c r="B4215" t="n">
-        <v>49.92880300000002</v>
+        <v>49.928803</v>
       </c>
     </row>
     <row r="4216">
@@ -34162,7 +34162,7 @@
         <v>4215</v>
       </c>
       <c r="B4216" t="n">
-        <v>21.38511300000005</v>
+        <v>21.385113</v>
       </c>
     </row>
     <row r="4217">
@@ -34170,7 +34170,7 @@
         <v>4216</v>
       </c>
       <c r="B4217" t="n">
-        <v>33.76828499999999</v>
+        <v>33.768285</v>
       </c>
     </row>
     <row r="4218">
@@ -34178,7 +34178,7 @@
         <v>4217</v>
       </c>
       <c r="B4218" t="n">
-        <v>56.63721699999996</v>
+        <v>56.637217</v>
       </c>
     </row>
     <row r="4219">
@@ -34186,7 +34186,7 @@
         <v>4218</v>
       </c>
       <c r="B4219" t="n">
-        <v>67.24886700000002</v>
+        <v>67.248867</v>
       </c>
     </row>
     <row r="4220">
@@ -34202,7 +34202,7 @@
         <v>4220</v>
       </c>
       <c r="B4221" t="n">
-        <v>27.91035599999998</v>
+        <v>27.910356</v>
       </c>
     </row>
     <row r="4222">
@@ -34322,7 +34322,7 @@
         <v>4235</v>
       </c>
       <c r="B4236" t="n">
-        <v>14.24077699999998</v>
+        <v>14.240777</v>
       </c>
     </row>
     <row r="4237">
@@ -34330,7 +34330,7 @@
         <v>4236</v>
       </c>
       <c r="B4237" t="n">
-        <v>57.34304199999997</v>
+        <v>57.343042</v>
       </c>
     </row>
     <row r="4238">
@@ -34346,7 +34346,7 @@
         <v>4238</v>
       </c>
       <c r="B4239" t="n">
-        <v>82.62071200000003</v>
+        <v>82.620712</v>
       </c>
     </row>
     <row r="4240">
@@ -34354,7 +34354,7 @@
         <v>4239</v>
       </c>
       <c r="B4240" t="n">
-        <v>23.63559899999996</v>
+        <v>23.635599</v>
       </c>
     </row>
     <row r="4241">
@@ -34370,7 +34370,7 @@
         <v>4241</v>
       </c>
       <c r="B4242" t="n">
-        <v>55.96213599999999</v>
+        <v>55.962136</v>
       </c>
     </row>
     <row r="4243">
@@ -34378,7 +34378,7 @@
         <v>4242</v>
       </c>
       <c r="B4243" t="n">
-        <v>82.57022700000005</v>
+        <v>82.570227</v>
       </c>
     </row>
     <row r="4244">
@@ -34386,7 +34386,7 @@
         <v>4243</v>
       </c>
       <c r="B4244" t="n">
-        <v>73.19417499999997</v>
+        <v>73.194175</v>
       </c>
     </row>
     <row r="4245">
@@ -34394,7 +34394,7 @@
         <v>4244</v>
       </c>
       <c r="B4245" t="n">
-        <v>32.29870600000004</v>
+        <v>32.298706</v>
       </c>
     </row>
     <row r="4246">
@@ -34402,7 +34402,7 @@
         <v>4245</v>
       </c>
       <c r="B4246" t="n">
-        <v>2.531714999999963</v>
+        <v>2.53171499999996</v>
       </c>
     </row>
     <row r="4247">
@@ -34410,7 +34410,7 @@
         <v>4246</v>
       </c>
       <c r="B4247" t="n">
-        <v>1.743689000000018</v>
+        <v>1.74368900000002</v>
       </c>
     </row>
     <row r="4248">
@@ -34418,7 +34418,7 @@
         <v>4247</v>
       </c>
       <c r="B4248" t="n">
-        <v>14.00711999999999</v>
+        <v>14.00712</v>
       </c>
     </row>
     <row r="4249">
@@ -34506,7 +34506,7 @@
         <v>4258</v>
       </c>
       <c r="B4259" t="n">
-        <v>25.99352799999997</v>
+        <v>25.993528</v>
       </c>
     </row>
     <row r="4260">
@@ -34514,7 +34514,7 @@
         <v>4259</v>
       </c>
       <c r="B4260" t="n">
-        <v>81.56763799999999</v>
+        <v>81.567638</v>
       </c>
     </row>
     <row r="4261">
@@ -34546,7 +34546,7 @@
         <v>4263</v>
       </c>
       <c r="B4264" t="n">
-        <v>45.38220100000001</v>
+        <v>45.382201</v>
       </c>
     </row>
     <row r="4265">
@@ -34554,7 +34554,7 @@
         <v>4264</v>
       </c>
       <c r="B4265" t="n">
-        <v>35.19935299999997</v>
+        <v>35.199353</v>
       </c>
     </row>
     <row r="4266">
@@ -34562,7 +34562,7 @@
         <v>4265</v>
       </c>
       <c r="B4266" t="n">
-        <v>42.26763800000003</v>
+        <v>42.267638</v>
       </c>
     </row>
     <row r="4267">
@@ -34570,7 +34570,7 @@
         <v>4266</v>
       </c>
       <c r="B4267" t="n">
-        <v>64.73915899999997</v>
+        <v>64.739159</v>
       </c>
     </row>
     <row r="4268">
@@ -34578,7 +34578,7 @@
         <v>4267</v>
       </c>
       <c r="B4268" t="n">
-        <v>49.18446600000004</v>
+        <v>49.184466</v>
       </c>
     </row>
     <row r="4269">
@@ -34586,7 +34586,7 @@
         <v>4268</v>
       </c>
       <c r="B4269" t="n">
-        <v>10.48284799999999</v>
+        <v>10.482848</v>
       </c>
     </row>
     <row r="4270">
@@ -34610,7 +34610,7 @@
         <v>4271</v>
       </c>
       <c r="B4272" t="n">
-        <v>19.54336599999999</v>
+        <v>19.543366</v>
       </c>
     </row>
     <row r="4273">
@@ -34994,7 +34994,7 @@
         <v>4319</v>
       </c>
       <c r="B4320" t="n">
-        <v>2.437217000000032</v>
+        <v>2.43721700000003</v>
       </c>
     </row>
     <row r="4321">
@@ -35474,7 +35474,7 @@
         <v>4379</v>
       </c>
       <c r="B4380" t="n">
-        <v>30.32556599999998</v>
+        <v>30.325566</v>
       </c>
     </row>
     <row r="4381">
@@ -35482,7 +35482,7 @@
         <v>4380</v>
       </c>
       <c r="B4381" t="n">
-        <v>44.71391600000004</v>
+        <v>44.713916</v>
       </c>
     </row>
     <row r="4382">
@@ -35490,7 +35490,7 @@
         <v>4381</v>
       </c>
       <c r="B4382" t="n">
-        <v>54.80226500000003</v>
+        <v>54.802265</v>
       </c>
     </row>
     <row r="4383">
@@ -35498,7 +35498,7 @@
         <v>4382</v>
       </c>
       <c r="B4383" t="n">
-        <v>57.85404500000004</v>
+        <v>57.854045</v>
       </c>
     </row>
     <row r="4384">
@@ -35506,7 +35506,7 @@
         <v>4383</v>
       </c>
       <c r="B4384" t="n">
-        <v>8.288996999999995</v>
+        <v>8.28899699999999</v>
       </c>
     </row>
     <row r="4385">
@@ -35522,7 +35522,7 @@
         <v>4385</v>
       </c>
       <c r="B4386" t="n">
-        <v>20.36957900000004</v>
+        <v>20.369579</v>
       </c>
     </row>
     <row r="4387">
@@ -35530,7 +35530,7 @@
         <v>4386</v>
       </c>
       <c r="B4387" t="n">
-        <v>61.93365700000004</v>
+        <v>61.933657</v>
       </c>
     </row>
     <row r="4388">
@@ -35538,7 +35538,7 @@
         <v>4387</v>
       </c>
       <c r="B4388" t="n">
-        <v>75.05436899999995</v>
+        <v>75.05436899999999</v>
       </c>
     </row>
     <row r="4389">
@@ -35546,7 +35546,7 @@
         <v>4388</v>
       </c>
       <c r="B4389" t="n">
-        <v>46.39708700000006</v>
+        <v>46.3970870000001</v>
       </c>
     </row>
     <row r="4390">
@@ -35554,7 +35554,7 @@
         <v>4389</v>
       </c>
       <c r="B4390" t="n">
-        <v>0.8168279999999868</v>
+        <v>0.816827999999987</v>
       </c>
     </row>
     <row r="4391">
@@ -35562,7 +35562,7 @@
         <v>4390</v>
       </c>
       <c r="B4391" t="n">
-        <v>1.434627999999975</v>
+        <v>1.43462799999998</v>
       </c>
     </row>
     <row r="4392">
@@ -35570,7 +35570,7 @@
         <v>4391</v>
       </c>
       <c r="B4392" t="n">
-        <v>15.13592200000005</v>
+        <v>15.1359220000001</v>
       </c>
     </row>
     <row r="4393">
@@ -35658,7 +35658,7 @@
         <v>4402</v>
       </c>
       <c r="B4403" t="n">
-        <v>46.86375399999997</v>
+        <v>46.863754</v>
       </c>
     </row>
     <row r="4404">
@@ -35754,7 +35754,7 @@
         <v>4414</v>
       </c>
       <c r="B4415" t="n">
-        <v>65.28770199999997</v>
+        <v>65.287702</v>
       </c>
     </row>
     <row r="4416">
@@ -35762,7 +35762,7 @@
         <v>4415</v>
       </c>
       <c r="B4416" t="n">
-        <v>70.20550200000002</v>
+        <v>70.205502</v>
       </c>
     </row>
     <row r="4417">
@@ -35874,7 +35874,7 @@
         <v>4429</v>
       </c>
       <c r="B4430" t="n">
-        <v>20.06763799999999</v>
+        <v>20.067638</v>
       </c>
     </row>
     <row r="4431">
@@ -35882,7 +35882,7 @@
         <v>4430</v>
       </c>
       <c r="B4431" t="n">
-        <v>35.50906099999997</v>
+        <v>35.509061</v>
       </c>
     </row>
     <row r="4432">
@@ -35890,7 +35890,7 @@
         <v>4431</v>
       </c>
       <c r="B4432" t="n">
-        <v>0.8744339999999511</v>
+        <v>0.874433999999951</v>
       </c>
     </row>
     <row r="4433">
@@ -35898,7 +35898,7 @@
         <v>4432</v>
       </c>
       <c r="B4433" t="n">
-        <v>12.28705500000001</v>
+        <v>12.287055</v>
       </c>
     </row>
     <row r="4434">
@@ -35906,7 +35906,7 @@
         <v>4433</v>
       </c>
       <c r="B4434" t="n">
-        <v>47.84821999999997</v>
+        <v>47.84822</v>
       </c>
     </row>
     <row r="4435">
@@ -35914,7 +35914,7 @@
         <v>4434</v>
       </c>
       <c r="B4435" t="n">
-        <v>96.46731399999999</v>
+        <v>96.467314</v>
       </c>
     </row>
     <row r="4436">
@@ -35930,7 +35930,7 @@
         <v>4436</v>
       </c>
       <c r="B4437" t="n">
-        <v>88.38996799999995</v>
+        <v>88.389968</v>
       </c>
     </row>
     <row r="4438">
@@ -35938,7 +35938,7 @@
         <v>4437</v>
       </c>
       <c r="B4438" t="n">
-        <v>40.65339800000004</v>
+        <v>40.653398</v>
       </c>
     </row>
     <row r="4439">
@@ -35946,7 +35946,7 @@
         <v>4438</v>
       </c>
       <c r="B4439" t="n">
-        <v>24.08964400000002</v>
+        <v>24.089644</v>
       </c>
     </row>
     <row r="4440">
@@ -35954,7 +35954,7 @@
         <v>4439</v>
       </c>
       <c r="B4440" t="n">
-        <v>16.09449800000004</v>
+        <v>16.094498</v>
       </c>
     </row>
     <row r="4441">
@@ -36042,7 +36042,7 @@
         <v>4450</v>
       </c>
       <c r="B4451" t="n">
-        <v>36.50420699999995</v>
+        <v>36.504207</v>
       </c>
     </row>
     <row r="4452">
@@ -36130,7 +36130,7 @@
         <v>4461</v>
       </c>
       <c r="B4462" t="n">
-        <v>70.93689300000005</v>
+        <v>70.9368930000001</v>
       </c>
     </row>
     <row r="4463">
@@ -36138,7 +36138,7 @@
         <v>4462</v>
       </c>
       <c r="B4463" t="n">
-        <v>57.74012900000002</v>
+        <v>57.740129</v>
       </c>
     </row>
     <row r="4464">
@@ -36146,7 +36146,7 @@
         <v>4463</v>
       </c>
       <c r="B4464" t="n">
-        <v>60.88025900000002</v>
+        <v>60.880259</v>
       </c>
     </row>
     <row r="4465">
@@ -36834,7 +36834,7 @@
         <v>4549</v>
       </c>
       <c r="B4550" t="n">
-        <v>7.596117000000049</v>
+        <v>7.59611700000005</v>
       </c>
     </row>
     <row r="4551">
@@ -36842,7 +36842,7 @@
         <v>4550</v>
       </c>
       <c r="B4551" t="n">
-        <v>14.33009700000002</v>
+        <v>14.330097</v>
       </c>
     </row>
     <row r="4552">
@@ -37210,7 +37210,7 @@
         <v>4596</v>
       </c>
       <c r="B4597" t="n">
-        <v>23.28931999999998</v>
+        <v>23.28932</v>
       </c>
     </row>
     <row r="4598">
@@ -37226,7 +37226,7 @@
         <v>4598</v>
       </c>
       <c r="B4599" t="n">
-        <v>63.20129399999996</v>
+        <v>63.201294</v>
       </c>
     </row>
     <row r="4600">
@@ -37234,7 +37234,7 @@
         <v>4599</v>
       </c>
       <c r="B4600" t="n">
-        <v>13.63624600000003</v>
+        <v>13.636246</v>
       </c>
     </row>
     <row r="4601">
@@ -37250,7 +37250,7 @@
         <v>4601</v>
       </c>
       <c r="B4602" t="n">
-        <v>0.9058250000000498</v>
+        <v>0.90582500000005</v>
       </c>
     </row>
     <row r="4603">
@@ -37258,7 +37258,7 @@
         <v>4602</v>
       </c>
       <c r="B4603" t="n">
-        <v>14.07119699999998</v>
+        <v>14.071197</v>
       </c>
     </row>
     <row r="4604">
@@ -37266,7 +37266,7 @@
         <v>4603</v>
       </c>
       <c r="B4604" t="n">
-        <v>23.69935299999997</v>
+        <v>23.699353</v>
       </c>
     </row>
     <row r="4605">
@@ -37274,7 +37274,7 @@
         <v>4604</v>
       </c>
       <c r="B4605" t="n">
-        <v>2.091262000000029</v>
+        <v>2.09126200000003</v>
       </c>
     </row>
     <row r="4606">
@@ -37386,7 +37386,7 @@
         <v>4618</v>
       </c>
       <c r="B4619" t="n">
-        <v>20.41974100000004</v>
+        <v>20.419741</v>
       </c>
     </row>
     <row r="4620">
@@ -37394,7 +37394,7 @@
         <v>4619</v>
       </c>
       <c r="B4620" t="n">
-        <v>84.12135899999998</v>
+        <v>84.121359</v>
       </c>
     </row>
     <row r="4621">
@@ -37426,7 +37426,7 @@
         <v>4623</v>
       </c>
       <c r="B4624" t="n">
-        <v>97.53915900000004</v>
+        <v>97.539159</v>
       </c>
     </row>
     <row r="4625">
@@ -37474,7 +37474,7 @@
         <v>4629</v>
       </c>
       <c r="B4630" t="n">
-        <v>70.44530699999996</v>
+        <v>70.445307</v>
       </c>
     </row>
     <row r="4631">
@@ -37482,7 +37482,7 @@
         <v>4630</v>
       </c>
       <c r="B4631" t="n">
-        <v>52.25469299999997</v>
+        <v>52.254693</v>
       </c>
     </row>
     <row r="4632">
@@ -37490,7 +37490,7 @@
         <v>4631</v>
       </c>
       <c r="B4632" t="n">
-        <v>55.84239500000001</v>
+        <v>55.842395</v>
       </c>
     </row>
     <row r="4633">
@@ -37578,7 +37578,7 @@
         <v>4642</v>
       </c>
       <c r="B4643" t="n">
-        <v>57.58899699999995</v>
+        <v>57.5889969999999</v>
       </c>
     </row>
     <row r="4644">
@@ -37626,7 +37626,7 @@
         <v>4648</v>
       </c>
       <c r="B4649" t="n">
-        <v>56.61229800000001</v>
+        <v>56.612298</v>
       </c>
     </row>
     <row r="4650">
@@ -37634,7 +37634,7 @@
         <v>4649</v>
       </c>
       <c r="B4650" t="n">
-        <v>68.68673100000001</v>
+        <v>68.68673099999999</v>
       </c>
     </row>
     <row r="4651">
@@ -37642,7 +37642,7 @@
         <v>4650</v>
       </c>
       <c r="B4651" t="n">
-        <v>87.61488699999995</v>
+        <v>87.614887</v>
       </c>
     </row>
     <row r="4652">
@@ -37650,7 +37650,7 @@
         <v>4651</v>
       </c>
       <c r="B4652" t="n">
-        <v>69.80291299999999</v>
+        <v>69.802913</v>
       </c>
     </row>
     <row r="4653">
@@ -37658,7 +37658,7 @@
         <v>4652</v>
       </c>
       <c r="B4653" t="n">
-        <v>31.75695800000005</v>
+        <v>31.7569580000001</v>
       </c>
     </row>
     <row r="4654">
@@ -38154,7 +38154,7 @@
         <v>4714</v>
       </c>
       <c r="B4715" t="n">
-        <v>46.75016200000005</v>
+        <v>46.750162</v>
       </c>
     </row>
     <row r="4716">
@@ -38362,7 +38362,7 @@
         <v>4740</v>
       </c>
       <c r="B4741" t="n">
-        <v>7.633980999999949</v>
+        <v>7.63398099999995</v>
       </c>
     </row>
     <row r="4742">
@@ -38370,7 +38370,7 @@
         <v>4741</v>
       </c>
       <c r="B4742" t="n">
-        <v>63.47249199999999</v>
+        <v>63.472492</v>
       </c>
     </row>
     <row r="4743">
@@ -38410,7 +38410,7 @@
         <v>4746</v>
       </c>
       <c r="B4747" t="n">
-        <v>131.8521040000001</v>
+        <v>131.852104</v>
       </c>
     </row>
     <row r="4748">
@@ -38418,7 +38418,7 @@
         <v>4747</v>
       </c>
       <c r="B4748" t="n">
-        <v>112.7032359999999</v>
+        <v>112.703236</v>
       </c>
     </row>
     <row r="4749">
@@ -38426,7 +38426,7 @@
         <v>4748</v>
       </c>
       <c r="B4749" t="n">
-        <v>77.41294500000004</v>
+        <v>77.41294499999999</v>
       </c>
     </row>
     <row r="4750">
@@ -38434,7 +38434,7 @@
         <v>4749</v>
       </c>
       <c r="B4750" t="n">
-        <v>45.01650500000005</v>
+        <v>45.0165050000001</v>
       </c>
     </row>
     <row r="4751">
@@ -38442,7 +38442,7 @@
         <v>4750</v>
       </c>
       <c r="B4751" t="n">
-        <v>60.55889999999999</v>
+        <v>60.5589</v>
       </c>
     </row>
     <row r="4752">
@@ -38450,7 +38450,7 @@
         <v>4751</v>
       </c>
       <c r="B4752" t="n">
-        <v>64.08964400000002</v>
+        <v>64.08964400000001</v>
       </c>
     </row>
     <row r="4753">
@@ -38546,7 +38546,7 @@
         <v>4763</v>
       </c>
       <c r="B4764" t="n">
-        <v>33.92621399999996</v>
+        <v>33.926214</v>
       </c>
     </row>
     <row r="4765">
@@ -38554,7 +38554,7 @@
         <v>4764</v>
       </c>
       <c r="B4765" t="n">
-        <v>86.41067999999996</v>
+        <v>86.41068</v>
       </c>
     </row>
     <row r="4766">
@@ -38578,7 +38578,7 @@
         <v>4767</v>
       </c>
       <c r="B4768" t="n">
-        <v>129.7084139999999</v>
+        <v>129.708414</v>
       </c>
     </row>
     <row r="4769">
@@ -38594,7 +38594,7 @@
         <v>4769</v>
       </c>
       <c r="B4770" t="n">
-        <v>116.1080909999999</v>
+        <v>116.108091</v>
       </c>
     </row>
     <row r="4771">
@@ -38618,7 +38618,7 @@
         <v>4772</v>
       </c>
       <c r="B4773" t="n">
-        <v>79.80258900000001</v>
+        <v>79.802589</v>
       </c>
     </row>
     <row r="4774">
@@ -38626,7 +38626,7 @@
         <v>4773</v>
       </c>
       <c r="B4774" t="n">
-        <v>47.09741099999997</v>
+        <v>47.097411</v>
       </c>
     </row>
     <row r="4775">
@@ -38634,7 +38634,7 @@
         <v>4774</v>
       </c>
       <c r="B4775" t="n">
-        <v>45.30032400000005</v>
+        <v>45.300324</v>
       </c>
     </row>
     <row r="4776">
@@ -38642,7 +38642,7 @@
         <v>4775</v>
       </c>
       <c r="B4776" t="n">
-        <v>61.70647199999996</v>
+        <v>61.706472</v>
       </c>
     </row>
     <row r="4777">
@@ -38730,7 +38730,7 @@
         <v>4786</v>
       </c>
       <c r="B4787" t="n">
-        <v>29.41132700000003</v>
+        <v>29.411327</v>
       </c>
     </row>
     <row r="4788">
@@ -38738,7 +38738,7 @@
         <v>4787</v>
       </c>
       <c r="B4788" t="n">
-        <v>88.07475699999998</v>
+        <v>88.07475700000001</v>
       </c>
     </row>
     <row r="4789">
@@ -38770,7 +38770,7 @@
         <v>4791</v>
       </c>
       <c r="B4792" t="n">
-        <v>98.42168300000003</v>
+        <v>98.421683</v>
       </c>
     </row>
     <row r="4793">
@@ -38778,7 +38778,7 @@
         <v>4792</v>
       </c>
       <c r="B4793" t="n">
-        <v>93.39029100000005</v>
+        <v>93.390291</v>
       </c>
     </row>
     <row r="4794">
@@ -38810,7 +38810,7 @@
         <v>4796</v>
       </c>
       <c r="B4797" t="n">
-        <v>51.56796099999997</v>
+        <v>51.567961</v>
       </c>
     </row>
     <row r="4798">
@@ -39506,7 +39506,7 @@
         <v>4883</v>
       </c>
       <c r="B4884" t="n">
-        <v>61.52977299999998</v>
+        <v>61.529773</v>
       </c>
     </row>
     <row r="4885">
@@ -39514,7 +39514,7 @@
         <v>4884</v>
       </c>
       <c r="B4885" t="n">
-        <v>76.65598699999998</v>
+        <v>76.655987</v>
       </c>
     </row>
     <row r="4886">
@@ -39538,7 +39538,7 @@
         <v>4887</v>
       </c>
       <c r="B4888" t="n">
-        <v>34.03948200000002</v>
+        <v>34.039482</v>
       </c>
     </row>
     <row r="4889">
@@ -39546,7 +39546,7 @@
         <v>4888</v>
       </c>
       <c r="B4889" t="n">
-        <v>14.99773500000003</v>
+        <v>14.997735</v>
       </c>
     </row>
     <row r="4890">
@@ -39554,7 +39554,7 @@
         <v>4889</v>
       </c>
       <c r="B4890" t="n">
-        <v>22.85404500000004</v>
+        <v>22.854045</v>
       </c>
     </row>
     <row r="4891">
@@ -39562,7 +39562,7 @@
         <v>4890</v>
       </c>
       <c r="B4891" t="n">
-        <v>48.88187700000003</v>
+        <v>48.881877</v>
       </c>
     </row>
     <row r="4892">
@@ -39570,7 +39570,7 @@
         <v>4891</v>
       </c>
       <c r="B4892" t="n">
-        <v>47.26763800000003</v>
+        <v>47.267638</v>
       </c>
     </row>
     <row r="4893">
@@ -39578,7 +39578,7 @@
         <v>4892</v>
       </c>
       <c r="B4893" t="n">
-        <v>25.30647199999999</v>
+        <v>25.306472</v>
       </c>
     </row>
     <row r="4894">
@@ -39586,7 +39586,7 @@
         <v>4893</v>
       </c>
       <c r="B4894" t="n">
-        <v>2.178963999999951</v>
+        <v>2.17896399999995</v>
       </c>
     </row>
     <row r="4895">
@@ -39594,7 +39594,7 @@
         <v>4894</v>
       </c>
       <c r="B4895" t="n">
-        <v>32.51326900000004</v>
+        <v>32.513269</v>
       </c>
     </row>
     <row r="4896">
@@ -39602,7 +39602,7 @@
         <v>4895</v>
       </c>
       <c r="B4896" t="n">
-        <v>46.98349499999995</v>
+        <v>46.9834949999999</v>
       </c>
     </row>
     <row r="4897">
@@ -39690,7 +39690,7 @@
         <v>4906</v>
       </c>
       <c r="B4907" t="n">
-        <v>27.02750800000001</v>
+        <v>27.027508</v>
       </c>
     </row>
     <row r="4908">
@@ -39698,7 +39698,7 @@
         <v>4907</v>
       </c>
       <c r="B4908" t="n">
-        <v>86.78835000000004</v>
+        <v>86.78834999999999</v>
       </c>
     </row>
     <row r="4909">
@@ -39738,7 +39738,7 @@
         <v>4912</v>
       </c>
       <c r="B4913" t="n">
-        <v>74.10873800000002</v>
+        <v>74.108738</v>
       </c>
     </row>
     <row r="4914">
@@ -39746,7 +39746,7 @@
         <v>4913</v>
       </c>
       <c r="B4914" t="n">
-        <v>91.13915899999995</v>
+        <v>91.13915899999991</v>
       </c>
     </row>
     <row r="4915">
@@ -39770,7 +39770,7 @@
         <v>4916</v>
       </c>
       <c r="B4917" t="n">
-        <v>92.50097100000005</v>
+        <v>92.50097100000001</v>
       </c>
     </row>
     <row r="4918">
@@ -39778,7 +39778,7 @@
         <v>4917</v>
       </c>
       <c r="B4918" t="n">
-        <v>56.52977299999998</v>
+        <v>56.529773</v>
       </c>
     </row>
     <row r="4919">
@@ -39786,7 +39786,7 @@
         <v>4918</v>
       </c>
       <c r="B4919" t="n">
-        <v>55.47669900000005</v>
+        <v>55.4766990000001</v>
       </c>
     </row>
     <row r="4920">
@@ -39794,7 +39794,7 @@
         <v>4919</v>
       </c>
       <c r="B4920" t="n">
-        <v>60.67216800000006</v>
+        <v>60.6721680000001</v>
       </c>
     </row>
     <row r="4921">
@@ -39882,7 +39882,7 @@
         <v>4930</v>
       </c>
       <c r="B4931" t="n">
-        <v>34.05792899999994</v>
+        <v>34.0579289999999</v>
       </c>
     </row>
     <row r="4932">
@@ -39930,7 +39930,7 @@
         <v>4936</v>
       </c>
       <c r="B4937" t="n">
-        <v>81.25275099999999</v>
+        <v>81.252751</v>
       </c>
     </row>
     <row r="4938">
@@ -39938,7 +39938,7 @@
         <v>4937</v>
       </c>
       <c r="B4938" t="n">
-        <v>98.99546899999996</v>
+        <v>98.995469</v>
       </c>
     </row>
     <row r="4939">
@@ -39970,7 +39970,7 @@
         <v>4941</v>
       </c>
       <c r="B4942" t="n">
-        <v>74.93462799999998</v>
+        <v>74.934628</v>
       </c>
     </row>
     <row r="4943">
@@ -39978,7 +39978,7 @@
         <v>4942</v>
       </c>
       <c r="B4943" t="n">
-        <v>73.79967599999998</v>
+        <v>73.79967600000001</v>
       </c>
     </row>
     <row r="4944">
@@ -40074,7 +40074,7 @@
         <v>4954</v>
       </c>
       <c r="B4955" t="n">
-        <v>65.00388299999997</v>
+        <v>65.003883</v>
       </c>
     </row>
     <row r="4956">
@@ -40106,7 +40106,7 @@
         <v>4958</v>
       </c>
       <c r="B4959" t="n">
-        <v>211.1271840000001</v>
+        <v>211.127184</v>
       </c>
     </row>
     <row r="4960">
@@ -40138,7 +40138,7 @@
         <v>4962</v>
       </c>
       <c r="B4963" t="n">
-        <v>147.4385109999999</v>
+        <v>147.438511</v>
       </c>
     </row>
     <row r="4964">
@@ -40186,7 +40186,7 @@
         <v>4968</v>
       </c>
       <c r="B4969" t="n">
-        <v>14.14595499999996</v>
+        <v>14.145955</v>
       </c>
     </row>
     <row r="4970">
@@ -40266,7 +40266,7 @@
         <v>4978</v>
       </c>
       <c r="B4979" t="n">
-        <v>80.74789599999997</v>
+        <v>80.747896</v>
       </c>
     </row>
     <row r="4980">
@@ -40362,7 +40362,7 @@
         <v>4990</v>
       </c>
       <c r="B4991" t="n">
-        <v>49.08964400000002</v>
+        <v>49.089644</v>
       </c>
     </row>
     <row r="4992">
@@ -40370,7 +40370,7 @@
         <v>4991</v>
       </c>
       <c r="B4992" t="n">
-        <v>59.39870599999995</v>
+        <v>59.3987059999999</v>
       </c>
     </row>
     <row r="4993">
@@ -40842,7 +40842,7 @@
         <v>5050</v>
       </c>
       <c r="B5051" t="n">
-        <v>3.792879999999968</v>
+        <v>3.79287999999997</v>
       </c>
     </row>
     <row r="5052">
@@ -40922,7 +40922,7 @@
         <v>5060</v>
       </c>
       <c r="B5061" t="n">
-        <v>138.9074429999999</v>
+        <v>138.907443</v>
       </c>
     </row>
     <row r="5062">
@@ -40930,7 +40930,7 @@
         <v>5061</v>
       </c>
       <c r="B5062" t="n">
-        <v>84.69514600000002</v>
+        <v>84.69514599999999</v>
       </c>
     </row>
     <row r="5063">
@@ -40938,7 +40938,7 @@
         <v>5062</v>
       </c>
       <c r="B5063" t="n">
-        <v>80.87410999999997</v>
+        <v>80.87411</v>
       </c>
     </row>
     <row r="5064">
@@ -40946,7 +40946,7 @@
         <v>5063</v>
       </c>
       <c r="B5064" t="n">
-        <v>81.82621400000005</v>
+        <v>81.82621399999999</v>
       </c>
     </row>
     <row r="5065">
@@ -41034,7 +41034,7 @@
         <v>5074</v>
       </c>
       <c r="B5075" t="n">
-        <v>39.23430399999995</v>
+        <v>39.234304</v>
       </c>
     </row>
     <row r="5076">
@@ -41042,7 +41042,7 @@
         <v>5075</v>
       </c>
       <c r="B5076" t="n">
-        <v>122.5388349999999</v>
+        <v>122.538835</v>
       </c>
     </row>
     <row r="5077">
@@ -41066,7 +41066,7 @@
         <v>5078</v>
       </c>
       <c r="B5079" t="n">
-        <v>243.4663430000001</v>
+        <v>243.466343</v>
       </c>
     </row>
     <row r="5080">
@@ -41122,7 +41122,7 @@
         <v>5085</v>
       </c>
       <c r="B5086" t="n">
-        <v>84.46828500000004</v>
+        <v>84.46828499999999</v>
       </c>
     </row>
     <row r="5087">
@@ -41146,7 +41146,7 @@
         <v>5088</v>
       </c>
       <c r="B5089" t="n">
-        <v>19.29741100000001</v>
+        <v>19.297411</v>
       </c>
     </row>
     <row r="5090">
@@ -41226,7 +41226,7 @@
         <v>5098</v>
       </c>
       <c r="B5099" t="n">
-        <v>54.29126199999996</v>
+        <v>54.291262</v>
       </c>
     </row>
     <row r="5100">
@@ -41242,7 +41242,7 @@
         <v>5100</v>
       </c>
       <c r="B5101" t="n">
-        <v>172.6462780000001</v>
+        <v>172.646278</v>
       </c>
     </row>
     <row r="5102">
@@ -41282,7 +41282,7 @@
         <v>5105</v>
       </c>
       <c r="B5106" t="n">
-        <v>151.0388349999999</v>
+        <v>151.038835</v>
       </c>
     </row>
     <row r="5107">
@@ -41306,7 +41306,7 @@
         <v>5108</v>
       </c>
       <c r="B5109" t="n">
-        <v>105.1116500000001</v>
+        <v>105.11165</v>
       </c>
     </row>
     <row r="5110">
@@ -41314,7 +41314,7 @@
         <v>5109</v>
       </c>
       <c r="B5110" t="n">
-        <v>70.93721700000003</v>
+        <v>70.937217</v>
       </c>
     </row>
     <row r="5111">
@@ -41322,7 +41322,7 @@
         <v>5110</v>
       </c>
       <c r="B5111" t="n">
-        <v>86.15792899999997</v>
+        <v>86.157929</v>
       </c>
     </row>
     <row r="5112">
@@ -41330,7 +41330,7 @@
         <v>5111</v>
       </c>
       <c r="B5112" t="n">
-        <v>84.31035599999996</v>
+        <v>84.310356</v>
       </c>
     </row>
     <row r="5113">
@@ -41418,7 +41418,7 @@
         <v>5122</v>
       </c>
       <c r="B5123" t="n">
-        <v>17.50679600000001</v>
+        <v>17.506796</v>
       </c>
     </row>
     <row r="5124">
@@ -41466,7 +41466,7 @@
         <v>5128</v>
       </c>
       <c r="B5129" t="n">
-        <v>168.4974110000001</v>
+        <v>168.497411</v>
       </c>
     </row>
     <row r="5130">
@@ -41506,7 +41506,7 @@
         <v>5133</v>
       </c>
       <c r="B5134" t="n">
-        <v>73.16893200000004</v>
+        <v>73.168932</v>
       </c>
     </row>
     <row r="5135">
@@ -41514,7 +41514,7 @@
         <v>5134</v>
       </c>
       <c r="B5135" t="n">
-        <v>79.78317200000004</v>
+        <v>79.78317199999999</v>
       </c>
     </row>
     <row r="5136">
@@ -41522,7 +41522,7 @@
         <v>5135</v>
       </c>
       <c r="B5136" t="n">
-        <v>65.62815499999999</v>
+        <v>65.62815500000001</v>
       </c>
     </row>
     <row r="5137">
@@ -41610,7 +41610,7 @@
         <v>5146</v>
       </c>
       <c r="B5147" t="n">
-        <v>17.31132700000001</v>
+        <v>17.311327</v>
       </c>
     </row>
     <row r="5148">
@@ -41618,7 +41618,7 @@
         <v>5147</v>
       </c>
       <c r="B5148" t="n">
-        <v>89.49320399999999</v>
+        <v>89.49320400000001</v>
       </c>
     </row>
     <row r="5149">
@@ -41666,7 +41666,7 @@
         <v>5153</v>
       </c>
       <c r="B5154" t="n">
-        <v>89.75210400000003</v>
+        <v>89.752104</v>
       </c>
     </row>
     <row r="5155">
@@ -41674,7 +41674,7 @@
         <v>5154</v>
       </c>
       <c r="B5155" t="n">
-        <v>84.14660200000003</v>
+        <v>84.146602</v>
       </c>
     </row>
     <row r="5156">
@@ -41682,7 +41682,7 @@
         <v>5155</v>
       </c>
       <c r="B5156" t="n">
-        <v>64.68899699999997</v>
+        <v>64.688997</v>
       </c>
     </row>
     <row r="5157">
@@ -41690,7 +41690,7 @@
         <v>5156</v>
       </c>
       <c r="B5157" t="n">
-        <v>33.55372199999999</v>
+        <v>33.553722</v>
       </c>
     </row>
     <row r="5158">
@@ -41714,7 +41714,7 @@
         <v>5159</v>
       </c>
       <c r="B5160" t="n">
-        <v>3.666990000000055</v>
+        <v>3.66699000000006</v>
       </c>
     </row>
     <row r="5161">
@@ -42194,7 +42194,7 @@
         <v>5219</v>
       </c>
       <c r="B5220" t="n">
-        <v>33.21909400000004</v>
+        <v>33.219094</v>
       </c>
     </row>
     <row r="5221">
@@ -42210,7 +42210,7 @@
         <v>5221</v>
       </c>
       <c r="B5222" t="n">
-        <v>76.39741100000003</v>
+        <v>76.39741100000001</v>
       </c>
     </row>
     <row r="5223">
@@ -42218,7 +42218,7 @@
         <v>5222</v>
       </c>
       <c r="B5223" t="n">
-        <v>76.57411000000002</v>
+        <v>76.57411</v>
       </c>
     </row>
     <row r="5224">
@@ -42226,7 +42226,7 @@
         <v>5223</v>
       </c>
       <c r="B5224" t="n">
-        <v>47.36828500000001</v>
+        <v>47.368285</v>
       </c>
     </row>
     <row r="5225">
@@ -42234,7 +42234,7 @@
         <v>5224</v>
       </c>
       <c r="B5225" t="n">
-        <v>18.35177999999996</v>
+        <v>18.35178</v>
       </c>
     </row>
     <row r="5226">
@@ -42242,7 +42242,7 @@
         <v>5225</v>
       </c>
       <c r="B5226" t="n">
-        <v>21.98349499999995</v>
+        <v>21.9834949999999</v>
       </c>
     </row>
     <row r="5227">
@@ -42250,7 +42250,7 @@
         <v>5226</v>
       </c>
       <c r="B5227" t="n">
-        <v>40.22459500000002</v>
+        <v>40.224595</v>
       </c>
     </row>
     <row r="5228">
@@ -42258,7 +42258,7 @@
         <v>5227</v>
       </c>
       <c r="B5228" t="n">
-        <v>35.23689300000001</v>
+        <v>35.236893</v>
       </c>
     </row>
     <row r="5229">
@@ -42266,7 +42266,7 @@
         <v>5228</v>
       </c>
       <c r="B5229" t="n">
-        <v>5.022330000000011</v>
+        <v>5.02233000000001</v>
       </c>
     </row>
     <row r="5230">
@@ -42282,7 +42282,7 @@
         <v>5230</v>
       </c>
       <c r="B5231" t="n">
-        <v>2.008414000000016</v>
+        <v>2.00841400000002</v>
       </c>
     </row>
     <row r="5232">
@@ -42386,7 +42386,7 @@
         <v>5243</v>
       </c>
       <c r="B5244" t="n">
-        <v>8.811649999999986</v>
+        <v>8.81164999999999</v>
       </c>
     </row>
     <row r="5245">
@@ -42394,7 +42394,7 @@
         <v>5244</v>
       </c>
       <c r="B5245" t="n">
-        <v>48.65436899999997</v>
+        <v>48.654369</v>
       </c>
     </row>
     <row r="5246">
@@ -42402,7 +42402,7 @@
         <v>5245</v>
       </c>
       <c r="B5246" t="n">
-        <v>69.75792899999999</v>
+        <v>69.757929</v>
       </c>
     </row>
     <row r="5247">
@@ -42410,7 +42410,7 @@
         <v>5246</v>
       </c>
       <c r="B5247" t="n">
-        <v>68.80582500000003</v>
+        <v>68.805825</v>
       </c>
     </row>
     <row r="5248">
@@ -42418,7 +42418,7 @@
         <v>5247</v>
       </c>
       <c r="B5248" t="n">
-        <v>16.14466000000004</v>
+        <v>16.14466</v>
       </c>
     </row>
     <row r="5249">
@@ -42786,7 +42786,7 @@
         <v>5293</v>
       </c>
       <c r="B5294" t="n">
-        <v>7.771521000000007</v>
+        <v>7.77152100000001</v>
       </c>
     </row>
     <row r="5295">
@@ -42794,7 +42794,7 @@
         <v>5294</v>
       </c>
       <c r="B5295" t="n">
-        <v>20.36925599999995</v>
+        <v>20.369256</v>
       </c>
     </row>
     <row r="5296">
@@ -45090,7 +45090,7 @@
         <v>5581</v>
       </c>
       <c r="B5582" t="n">
-        <v>10.17378599999995</v>
+        <v>10.173786</v>
       </c>
     </row>
     <row r="5583">
@@ -45098,7 +45098,7 @@
         <v>5582</v>
       </c>
       <c r="B5583" t="n">
-        <v>7.588672999999972</v>
+        <v>7.58867299999997</v>
       </c>
     </row>
     <row r="5584">
@@ -46226,7 +46226,7 @@
         <v>5723</v>
       </c>
       <c r="B5724" t="n">
-        <v>13.98220100000003</v>
+        <v>13.982201</v>
       </c>
     </row>
     <row r="5725">
@@ -46234,7 +46234,7 @@
         <v>5724</v>
       </c>
       <c r="B5725" t="n">
-        <v>76.94595500000003</v>
+        <v>76.945955</v>
       </c>
     </row>
     <row r="5726">
@@ -46266,7 +46266,7 @@
         <v>5728</v>
       </c>
       <c r="B5729" t="n">
-        <v>84.77702299999999</v>
+        <v>84.777023</v>
       </c>
     </row>
     <row r="5730">
@@ -46274,7 +46274,7 @@
         <v>5729</v>
       </c>
       <c r="B5730" t="n">
-        <v>79.36084100000005</v>
+        <v>79.36084100000009</v>
       </c>
     </row>
     <row r="5731">
@@ -46282,7 +46282,7 @@
         <v>5730</v>
       </c>
       <c r="B5731" t="n">
-        <v>87.29902900000002</v>
+        <v>87.299029</v>
       </c>
     </row>
     <row r="5732">
@@ -46290,7 +46290,7 @@
         <v>5731</v>
       </c>
       <c r="B5732" t="n">
-        <v>75.30032400000005</v>
+        <v>75.300324</v>
       </c>
     </row>
     <row r="5733">
@@ -46298,7 +46298,7 @@
         <v>5732</v>
       </c>
       <c r="B5733" t="n">
-        <v>46.96472500000004</v>
+        <v>46.964725</v>
       </c>
     </row>
     <row r="5734">
@@ -46306,7 +46306,7 @@
         <v>5733</v>
       </c>
       <c r="B5734" t="n">
-        <v>25.06666700000005</v>
+        <v>25.0666670000001</v>
       </c>
     </row>
     <row r="5735">
@@ -46314,7 +46314,7 @@
         <v>5734</v>
       </c>
       <c r="B5735" t="n">
-        <v>99.10873800000002</v>
+        <v>99.108738</v>
       </c>
     </row>
     <row r="5736">
@@ -46322,7 +46322,7 @@
         <v>5735</v>
       </c>
       <c r="B5736" t="n">
-        <v>27.04660200000001</v>
+        <v>27.046602</v>
       </c>
     </row>
     <row r="5737">
@@ -46410,7 +46410,7 @@
         <v>5746</v>
       </c>
       <c r="B5747" t="n">
-        <v>10.03495099999998</v>
+        <v>10.034951</v>
       </c>
     </row>
     <row r="5748">
@@ -46418,7 +46418,7 @@
         <v>5747</v>
       </c>
       <c r="B5748" t="n">
-        <v>78.45922299999995</v>
+        <v>78.45922299999999</v>
       </c>
     </row>
     <row r="5749">
@@ -46458,7 +46458,7 @@
         <v>5752</v>
       </c>
       <c r="B5753" t="n">
-        <v>80.30679599999996</v>
+        <v>80.30679600000001</v>
       </c>
     </row>
     <row r="5754">
@@ -46466,7 +46466,7 @@
         <v>5753</v>
       </c>
       <c r="B5754" t="n">
-        <v>68.93883500000004</v>
+        <v>68.938835</v>
       </c>
     </row>
     <row r="5755">
@@ -46474,7 +46474,7 @@
         <v>5754</v>
       </c>
       <c r="B5755" t="n">
-        <v>62.11650499999996</v>
+        <v>62.116505</v>
       </c>
     </row>
     <row r="5756">
@@ -46482,7 +46482,7 @@
         <v>5755</v>
       </c>
       <c r="B5756" t="n">
-        <v>40.20614899999998</v>
+        <v>40.206149</v>
       </c>
     </row>
     <row r="5757">
@@ -46490,7 +46490,7 @@
         <v>5756</v>
       </c>
       <c r="B5757" t="n">
-        <v>15.28770199999997</v>
+        <v>15.287702</v>
       </c>
     </row>
     <row r="5758">
@@ -46498,7 +46498,7 @@
         <v>5757</v>
       </c>
       <c r="B5758" t="n">
-        <v>9.928154999999947</v>
+        <v>9.928154999999951</v>
       </c>
     </row>
     <row r="5759">
@@ -46506,7 +46506,7 @@
         <v>5758</v>
       </c>
       <c r="B5759" t="n">
-        <v>75.95631100000003</v>
+        <v>75.956311</v>
       </c>
     </row>
     <row r="5760">
@@ -46514,7 +46514,7 @@
         <v>5759</v>
       </c>
       <c r="B5760" t="n">
-        <v>6.277345999999966</v>
+        <v>6.27734599999997</v>
       </c>
     </row>
     <row r="5761">
@@ -46602,7 +46602,7 @@
         <v>5770</v>
       </c>
       <c r="B5771" t="n">
-        <v>4.347573000000011</v>
+        <v>4.34757300000001</v>
       </c>
     </row>
     <row r="5772">
@@ -46610,7 +46610,7 @@
         <v>5771</v>
       </c>
       <c r="B5772" t="n">
-        <v>68.24465999999995</v>
+        <v>68.24466</v>
       </c>
     </row>
     <row r="5773">
@@ -46642,7 +46642,7 @@
         <v>5775</v>
       </c>
       <c r="B5776" t="n">
-        <v>64.05210399999999</v>
+        <v>64.052104</v>
       </c>
     </row>
     <row r="5777">
@@ -46650,7 +46650,7 @@
         <v>5776</v>
       </c>
       <c r="B5777" t="n">
-        <v>30.21197400000005</v>
+        <v>30.2119740000001</v>
       </c>
     </row>
     <row r="5778">
@@ -46658,7 +46658,7 @@
         <v>5777</v>
       </c>
       <c r="B5778" t="n">
-        <v>28.04951500000004</v>
+        <v>28.049515</v>
       </c>
     </row>
     <row r="5779">
@@ -46666,7 +46666,7 @@
         <v>5778</v>
       </c>
       <c r="B5779" t="n">
-        <v>43.33333300000004</v>
+        <v>43.333333</v>
       </c>
     </row>
     <row r="5780">
@@ -46674,7 +46674,7 @@
         <v>5779</v>
       </c>
       <c r="B5780" t="n">
-        <v>47.58284800000001</v>
+        <v>47.582848</v>
       </c>
     </row>
     <row r="5781">
@@ -46682,7 +46682,7 @@
         <v>5780</v>
       </c>
       <c r="B5781" t="n">
-        <v>24.14627800000005</v>
+        <v>24.1462780000001</v>
       </c>
     </row>
     <row r="5782">
@@ -46690,7 +46690,7 @@
         <v>5781</v>
       </c>
       <c r="B5782" t="n">
-        <v>23.82459500000004</v>
+        <v>23.824595</v>
       </c>
     </row>
     <row r="5783">
@@ -46706,7 +46706,7 @@
         <v>5783</v>
       </c>
       <c r="B5784" t="n">
-        <v>22.48155299999996</v>
+        <v>22.481553</v>
       </c>
     </row>
     <row r="5785">
@@ -46810,7 +46810,7 @@
         <v>5796</v>
       </c>
       <c r="B5797" t="n">
-        <v>29.80841399999997</v>
+        <v>29.808414</v>
       </c>
     </row>
     <row r="5798">
@@ -46818,7 +46818,7 @@
         <v>5797</v>
       </c>
       <c r="B5798" t="n">
-        <v>62.57669899999996</v>
+        <v>62.576699</v>
       </c>
     </row>
     <row r="5799">
@@ -46826,7 +46826,7 @@
         <v>5798</v>
       </c>
       <c r="B5799" t="n">
-        <v>61.66246000000001</v>
+        <v>61.66246</v>
       </c>
     </row>
     <row r="5800">
@@ -46834,7 +46834,7 @@
         <v>5799</v>
       </c>
       <c r="B5800" t="n">
-        <v>0.4388350000000401</v>
+        <v>0.43883500000004</v>
       </c>
     </row>
     <row r="5801">
@@ -47002,7 +47002,7 @@
         <v>5820</v>
       </c>
       <c r="B5821" t="n">
-        <v>0.5650490000000445</v>
+        <v>0.565049000000045</v>
       </c>
     </row>
     <row r="5822">
@@ -47010,7 +47010,7 @@
         <v>5821</v>
       </c>
       <c r="B5822" t="n">
-        <v>18.91294500000004</v>
+        <v>18.912945</v>
       </c>
     </row>
     <row r="5823">
@@ -47018,7 +47018,7 @@
         <v>5822</v>
       </c>
       <c r="B5823" t="n">
-        <v>12.65825199999995</v>
+        <v>12.6582519999999</v>
       </c>
     </row>
     <row r="5824">
@@ -47570,7 +47570,7 @@
         <v>5891</v>
       </c>
       <c r="B5892" t="n">
-        <v>19.41132700000003</v>
+        <v>19.411327</v>
       </c>
     </row>
     <row r="5893">
@@ -47578,7 +47578,7 @@
         <v>5892</v>
       </c>
       <c r="B5893" t="n">
-        <v>54.01423899999998</v>
+        <v>54.014239</v>
       </c>
     </row>
     <row r="5894">
@@ -47586,7 +47586,7 @@
         <v>5893</v>
       </c>
       <c r="B5894" t="n">
-        <v>83.55404499999997</v>
+        <v>83.554045</v>
       </c>
     </row>
     <row r="5895">
@@ -47594,7 +47594,7 @@
         <v>5894</v>
       </c>
       <c r="B5895" t="n">
-        <v>75.90582500000005</v>
+        <v>75.90582499999999</v>
       </c>
     </row>
     <row r="5896">
@@ -47602,7 +47602,7 @@
         <v>5895</v>
       </c>
       <c r="B5896" t="n">
-        <v>28.35210400000005</v>
+        <v>28.3521040000001</v>
       </c>
     </row>
     <row r="5897">
@@ -47610,7 +47610,7 @@
         <v>5896</v>
       </c>
       <c r="B5897" t="n">
-        <v>22.19190900000001</v>
+        <v>22.191909</v>
       </c>
     </row>
     <row r="5898">
@@ -47618,7 +47618,7 @@
         <v>5897</v>
       </c>
       <c r="B5898" t="n">
-        <v>38.35210400000005</v>
+        <v>38.3521040000001</v>
       </c>
     </row>
     <row r="5899">
@@ -47626,7 +47626,7 @@
         <v>5898</v>
       </c>
       <c r="B5899" t="n">
-        <v>75.69773499999997</v>
+        <v>75.69773499999999</v>
       </c>
     </row>
     <row r="5900">
@@ -47634,7 +47634,7 @@
         <v>5899</v>
       </c>
       <c r="B5900" t="n">
-        <v>71.08867299999997</v>
+        <v>71.088673</v>
       </c>
     </row>
     <row r="5901">
@@ -47642,7 +47642,7 @@
         <v>5900</v>
       </c>
       <c r="B5901" t="n">
-        <v>37.21068000000002</v>
+        <v>37.21068</v>
       </c>
     </row>
     <row r="5902">
@@ -47650,7 +47650,7 @@
         <v>5901</v>
       </c>
       <c r="B5902" t="n">
-        <v>57.55760499999997</v>
+        <v>57.557605</v>
       </c>
     </row>
     <row r="5903">
@@ -47666,7 +47666,7 @@
         <v>5903</v>
       </c>
       <c r="B5904" t="n">
-        <v>44.31003199999998</v>
+        <v>44.310032</v>
       </c>
     </row>
     <row r="5905">
@@ -47754,7 +47754,7 @@
         <v>5914</v>
       </c>
       <c r="B5915" t="n">
-        <v>39.87766999999997</v>
+        <v>39.87767</v>
       </c>
     </row>
     <row r="5916">
@@ -47794,7 +47794,7 @@
         <v>5919</v>
       </c>
       <c r="B5920" t="n">
-        <v>53.63592200000005</v>
+        <v>53.6359220000001</v>
       </c>
     </row>
     <row r="5921">
@@ -47802,7 +47802,7 @@
         <v>5920</v>
       </c>
       <c r="B5921" t="n">
-        <v>32.77831700000002</v>
+        <v>32.778317</v>
       </c>
     </row>
     <row r="5922">
@@ -47810,7 +47810,7 @@
         <v>5921</v>
       </c>
       <c r="B5922" t="n">
-        <v>47.72168299999998</v>
+        <v>47.721683</v>
       </c>
     </row>
     <row r="5923">
@@ -47818,7 +47818,7 @@
         <v>5922</v>
       </c>
       <c r="B5923" t="n">
-        <v>78.45307400000002</v>
+        <v>78.453074</v>
       </c>
     </row>
     <row r="5924">
@@ -47826,7 +47826,7 @@
         <v>5923</v>
       </c>
       <c r="B5924" t="n">
-        <v>82.52621399999998</v>
+        <v>82.526214</v>
       </c>
     </row>
     <row r="5925">
@@ -47834,7 +47834,7 @@
         <v>5924</v>
       </c>
       <c r="B5925" t="n">
-        <v>62.38737900000001</v>
+        <v>62.387379</v>
       </c>
     </row>
     <row r="5926">
@@ -47842,7 +47842,7 @@
         <v>5925</v>
       </c>
       <c r="B5926" t="n">
-        <v>67.32427199999995</v>
+        <v>67.32427199999999</v>
       </c>
     </row>
     <row r="5927">
@@ -47858,7 +47858,7 @@
         <v>5927</v>
       </c>
       <c r="B5928" t="n">
-        <v>25.63430400000004</v>
+        <v>25.634304</v>
       </c>
     </row>
     <row r="5929">
@@ -47946,7 +47946,7 @@
         <v>5938</v>
       </c>
       <c r="B5939" t="n">
-        <v>31.03754000000004</v>
+        <v>31.03754</v>
       </c>
     </row>
     <row r="5940">
@@ -47954,7 +47954,7 @@
         <v>5939</v>
       </c>
       <c r="B5940" t="n">
-        <v>97.73398099999997</v>
+        <v>97.733981</v>
       </c>
     </row>
     <row r="5941">
@@ -47994,7 +47994,7 @@
         <v>5944</v>
       </c>
       <c r="B5945" t="n">
-        <v>83.09967600000004</v>
+        <v>83.099676</v>
       </c>
     </row>
     <row r="5946">
@@ -48002,7 +48002,7 @@
         <v>5945</v>
       </c>
       <c r="B5946" t="n">
-        <v>79.52491899999995</v>
+        <v>79.524919</v>
       </c>
     </row>
     <row r="5947">
@@ -48010,7 +48010,7 @@
         <v>5946</v>
       </c>
       <c r="B5947" t="n">
-        <v>85.40776700000004</v>
+        <v>85.40776700000001</v>
       </c>
     </row>
     <row r="5948">
@@ -48018,7 +48018,7 @@
         <v>5947</v>
       </c>
       <c r="B5948" t="n">
-        <v>60.69126200000005</v>
+        <v>60.6912620000001</v>
       </c>
     </row>
     <row r="5949">
@@ -48026,7 +48026,7 @@
         <v>5948</v>
       </c>
       <c r="B5949" t="n">
-        <v>11.61779899999999</v>
+        <v>11.617799</v>
       </c>
     </row>
     <row r="5950">
@@ -48034,7 +48034,7 @@
         <v>5949</v>
       </c>
       <c r="B5950" t="n">
-        <v>20.13624600000003</v>
+        <v>20.136246</v>
       </c>
     </row>
     <row r="5951">
@@ -48042,7 +48042,7 @@
         <v>5950</v>
       </c>
       <c r="B5951" t="n">
-        <v>65.11747600000001</v>
+        <v>65.117476</v>
       </c>
     </row>
     <row r="5952">
@@ -48138,7 +48138,7 @@
         <v>5962</v>
       </c>
       <c r="B5963" t="n">
-        <v>1.895145999999954</v>
+        <v>1.89514599999995</v>
       </c>
     </row>
     <row r="5964">
@@ -48178,7 +48178,7 @@
         <v>5967</v>
       </c>
       <c r="B5968" t="n">
-        <v>87.17313899999999</v>
+        <v>87.17313900000001</v>
       </c>
     </row>
     <row r="5969">
@@ -48186,7 +48186,7 @@
         <v>5968</v>
       </c>
       <c r="B5969" t="n">
-        <v>80.81100300000003</v>
+        <v>80.811003</v>
       </c>
     </row>
     <row r="5970">
@@ -48194,7 +48194,7 @@
         <v>5969</v>
       </c>
       <c r="B5970" t="n">
-        <v>95.67864099999997</v>
+        <v>95.678641</v>
       </c>
     </row>
     <row r="5971">
@@ -48210,7 +48210,7 @@
         <v>5971</v>
       </c>
       <c r="B5972" t="n">
-        <v>104.0268610000001</v>
+        <v>104.026861</v>
       </c>
     </row>
     <row r="5973">
@@ -48218,7 +48218,7 @@
         <v>5972</v>
       </c>
       <c r="B5973" t="n">
-        <v>66.65598699999998</v>
+        <v>66.655987</v>
       </c>
     </row>
     <row r="5974">
@@ -48226,7 +48226,7 @@
         <v>5973</v>
       </c>
       <c r="B5974" t="n">
-        <v>77.78446599999995</v>
+        <v>77.78446599999999</v>
       </c>
     </row>
     <row r="5975">
@@ -48338,7 +48338,7 @@
         <v>5987</v>
       </c>
       <c r="B5988" t="n">
-        <v>63.27022699999998</v>
+        <v>63.270227</v>
       </c>
     </row>
     <row r="5989">
@@ -48346,7 +48346,7 @@
         <v>5988</v>
       </c>
       <c r="B5989" t="n">
-        <v>101.7067960000001</v>
+        <v>101.706796</v>
       </c>
     </row>
     <row r="5990">
@@ -48370,7 +48370,7 @@
         <v>5991</v>
       </c>
       <c r="B5992" t="n">
-        <v>68.57281599999999</v>
+        <v>68.572816</v>
       </c>
     </row>
     <row r="5993">
@@ -48378,7 +48378,7 @@
         <v>5992</v>
       </c>
       <c r="B5993" t="n">
-        <v>42.76569600000005</v>
+        <v>42.765696</v>
       </c>
     </row>
     <row r="5994">
@@ -48386,7 +48386,7 @@
         <v>5993</v>
       </c>
       <c r="B5994" t="n">
-        <v>52.72135900000001</v>
+        <v>52.721359</v>
       </c>
     </row>
     <row r="5995">
@@ -48394,7 +48394,7 @@
         <v>5994</v>
       </c>
       <c r="B5995" t="n">
-        <v>81.41650500000003</v>
+        <v>81.416505</v>
       </c>
     </row>
     <row r="5996">
@@ -48410,7 +48410,7 @@
         <v>5996</v>
       </c>
       <c r="B5997" t="n">
-        <v>61.47281599999997</v>
+        <v>61.472816</v>
       </c>
     </row>
     <row r="5998">
@@ -48418,7 +48418,7 @@
         <v>5997</v>
       </c>
       <c r="B5998" t="n">
-        <v>65.06699000000003</v>
+        <v>65.06699</v>
       </c>
     </row>
     <row r="5999">
@@ -48426,7 +48426,7 @@
         <v>5998</v>
       </c>
       <c r="B5999" t="n">
-        <v>99.52491899999995</v>
+        <v>99.524919</v>
       </c>
     </row>
     <row r="6000">
@@ -48922,7 +48922,7 @@
         <v>6060</v>
       </c>
       <c r="B6061" t="n">
-        <v>5.804530999999997</v>
+        <v>5.804531</v>
       </c>
     </row>
     <row r="6062">
@@ -48930,7 +48930,7 @@
         <v>6061</v>
       </c>
       <c r="B6062" t="n">
-        <v>21.22718399999997</v>
+        <v>21.227184</v>
       </c>
     </row>
     <row r="6063">
@@ -48938,7 +48938,7 @@
         <v>6062</v>
       </c>
       <c r="B6063" t="n">
-        <v>1.422653999999966</v>
+        <v>1.42265399999997</v>
       </c>
     </row>
     <row r="6064">
@@ -49114,7 +49114,7 @@
         <v>6084</v>
       </c>
       <c r="B6085" t="n">
-        <v>10.77281600000003</v>
+        <v>10.772816</v>
       </c>
     </row>
     <row r="6086">
@@ -49122,7 +49122,7 @@
         <v>6085</v>
       </c>
       <c r="B6086" t="n">
-        <v>36.98349499999995</v>
+        <v>36.9834949999999</v>
       </c>
     </row>
     <row r="6087">
@@ -49130,7 +49130,7 @@
         <v>6086</v>
       </c>
       <c r="B6087" t="n">
-        <v>35.35663399999999</v>
+        <v>35.356634</v>
       </c>
     </row>
     <row r="6088">
@@ -49290,7 +49290,7 @@
         <v>6106</v>
       </c>
       <c r="B6107" t="n">
-        <v>20.88608399999998</v>
+        <v>20.886084</v>
       </c>
     </row>
     <row r="6108">
@@ -49298,7 +49298,7 @@
         <v>6107</v>
       </c>
       <c r="B6108" t="n">
-        <v>72.40614900000003</v>
+        <v>72.406149</v>
       </c>
     </row>
     <row r="6109">
@@ -49306,7 +49306,7 @@
         <v>6108</v>
       </c>
       <c r="B6109" t="n">
-        <v>87.67734599999994</v>
+        <v>87.6773459999999</v>
       </c>
     </row>
     <row r="6110">
@@ -49322,7 +49322,7 @@
         <v>6110</v>
       </c>
       <c r="B6111" t="n">
-        <v>81.82621400000005</v>
+        <v>81.82621399999999</v>
       </c>
     </row>
     <row r="6112">
@@ -49330,7 +49330,7 @@
         <v>6111</v>
       </c>
       <c r="B6112" t="n">
-        <v>6.144984000000022</v>
+        <v>6.14498400000002</v>
       </c>
     </row>
     <row r="6113">
@@ -49354,7 +49354,7 @@
         <v>6114</v>
       </c>
       <c r="B6115" t="n">
-        <v>17.17281600000001</v>
+        <v>17.172816</v>
       </c>
     </row>
     <row r="6116">
@@ -49378,7 +49378,7 @@
         <v>6117</v>
       </c>
       <c r="B6118" t="n">
-        <v>14.96601899999996</v>
+        <v>14.966019</v>
       </c>
     </row>
     <row r="6119">
@@ -49386,7 +49386,7 @@
         <v>6118</v>
       </c>
       <c r="B6119" t="n">
-        <v>56.17055000000005</v>
+        <v>56.17055</v>
       </c>
     </row>
     <row r="6120">
@@ -49490,7 +49490,7 @@
         <v>6131</v>
       </c>
       <c r="B6132" t="n">
-        <v>77.57022700000005</v>
+        <v>77.570227</v>
       </c>
     </row>
     <row r="6133">
@@ -49514,7 +49514,7 @@
         <v>6134</v>
       </c>
       <c r="B6135" t="n">
-        <v>96.63106800000003</v>
+        <v>96.631068</v>
       </c>
     </row>
     <row r="6136">
@@ -49530,7 +49530,7 @@
         <v>6136</v>
       </c>
       <c r="B6137" t="n">
-        <v>19.14627800000005</v>
+        <v>19.1462780000001</v>
       </c>
     </row>
     <row r="6138">
@@ -49538,7 +49538,7 @@
         <v>6137</v>
       </c>
       <c r="B6138" t="n">
-        <v>22.65825199999995</v>
+        <v>22.6582519999999</v>
       </c>
     </row>
     <row r="6139">
@@ -49546,7 +49546,7 @@
         <v>6138</v>
       </c>
       <c r="B6139" t="n">
-        <v>47.24854400000004</v>
+        <v>47.248544</v>
       </c>
     </row>
     <row r="6140">
@@ -49554,7 +49554,7 @@
         <v>6139</v>
       </c>
       <c r="B6140" t="n">
-        <v>47.90453100000002</v>
+        <v>47.904531</v>
       </c>
     </row>
     <row r="6141">
@@ -49570,7 +49570,7 @@
         <v>6141</v>
       </c>
       <c r="B6142" t="n">
-        <v>80.62815499999999</v>
+        <v>80.62815500000001</v>
       </c>
     </row>
     <row r="6143">
@@ -49674,7 +49674,7 @@
         <v>6154</v>
       </c>
       <c r="B6155" t="n">
-        <v>32.37443399999995</v>
+        <v>32.374434</v>
       </c>
     </row>
     <row r="6156">
@@ -49682,7 +49682,7 @@
         <v>6155</v>
       </c>
       <c r="B6156" t="n">
-        <v>93.81876999999997</v>
+        <v>93.81877</v>
       </c>
     </row>
     <row r="6157">
@@ -49714,7 +49714,7 @@
         <v>6159</v>
       </c>
       <c r="B6160" t="n">
-        <v>49.25339799999995</v>
+        <v>49.2533979999999</v>
       </c>
     </row>
     <row r="6161">
@@ -49722,7 +49722,7 @@
         <v>6160</v>
       </c>
       <c r="B6161" t="n">
-        <v>21.68058299999996</v>
+        <v>21.680583</v>
       </c>
     </row>
     <row r="6162">
@@ -49730,7 +49730,7 @@
         <v>6161</v>
       </c>
       <c r="B6162" t="n">
-        <v>18.31359199999997</v>
+        <v>18.313592</v>
       </c>
     </row>
     <row r="6163">
@@ -49738,7 +49738,7 @@
         <v>6162</v>
       </c>
       <c r="B6163" t="n">
-        <v>37.68964400000004</v>
+        <v>37.689644</v>
       </c>
     </row>
     <row r="6164">
@@ -49754,7 +49754,7 @@
         <v>6164</v>
       </c>
       <c r="B6165" t="n">
-        <v>7.689319999999952</v>
+        <v>7.68931999999995</v>
       </c>
     </row>
     <row r="6166">
@@ -49762,7 +49762,7 @@
         <v>6165</v>
       </c>
       <c r="B6166" t="n">
-        <v>37.75890000000004</v>
+        <v>37.7589</v>
       </c>
     </row>
     <row r="6167">
@@ -49770,7 +49770,7 @@
         <v>6166</v>
       </c>
       <c r="B6167" t="n">
-        <v>59.51197400000001</v>
+        <v>59.511974</v>
       </c>
     </row>
     <row r="6168">
@@ -50466,7 +50466,7 @@
         <v>6253</v>
       </c>
       <c r="B6254" t="n">
-        <v>33.98899700000004</v>
+        <v>33.988997</v>
       </c>
     </row>
     <row r="6255">
@@ -50474,7 +50474,7 @@
         <v>6254</v>
       </c>
       <c r="B6255" t="n">
-        <v>45.33203900000001</v>
+        <v>45.332039</v>
       </c>
     </row>
     <row r="6256">
@@ -50666,7 +50666,7 @@
         <v>6278</v>
       </c>
       <c r="B6279" t="n">
-        <v>4.430097000000046</v>
+        <v>4.43009700000005</v>
       </c>
     </row>
     <row r="6280">
@@ -50834,7 +50834,7 @@
         <v>6299</v>
       </c>
       <c r="B6300" t="n">
-        <v>36.63689299999999</v>
+        <v>36.636893</v>
       </c>
     </row>
     <row r="6301">
@@ -50842,7 +50842,7 @@
         <v>6300</v>
       </c>
       <c r="B6301" t="n">
-        <v>66.11974099999998</v>
+        <v>66.119741</v>
       </c>
     </row>
     <row r="6302">
@@ -50850,7 +50850,7 @@
         <v>6301</v>
       </c>
       <c r="B6302" t="n">
-        <v>97.29902900000002</v>
+        <v>97.299029</v>
       </c>
     </row>
     <row r="6303">
@@ -50858,7 +50858,7 @@
         <v>6302</v>
       </c>
       <c r="B6303" t="n">
-        <v>83.64207099999999</v>
+        <v>83.642071</v>
       </c>
     </row>
     <row r="6304">
@@ -50866,7 +50866,7 @@
         <v>6303</v>
       </c>
       <c r="B6304" t="n">
-        <v>24.32265400000006</v>
+        <v>24.3226540000001</v>
       </c>
     </row>
     <row r="6305">
@@ -50874,7 +50874,7 @@
         <v>6304</v>
       </c>
       <c r="B6305" t="n">
-        <v>27.62006499999995</v>
+        <v>27.620065</v>
       </c>
     </row>
     <row r="6306">
@@ -50882,7 +50882,7 @@
         <v>6305</v>
       </c>
       <c r="B6306" t="n">
-        <v>43.84983799999998</v>
+        <v>43.849838</v>
       </c>
     </row>
     <row r="6307">
@@ -50890,7 +50890,7 @@
         <v>6306</v>
       </c>
       <c r="B6307" t="n">
-        <v>81.04433700000004</v>
+        <v>81.044337</v>
       </c>
     </row>
     <row r="6308">
@@ -50898,7 +50898,7 @@
         <v>6307</v>
       </c>
       <c r="B6308" t="n">
-        <v>69.39223300000003</v>
+        <v>69.392233</v>
       </c>
     </row>
     <row r="6309">
@@ -50906,7 +50906,7 @@
         <v>6308</v>
       </c>
       <c r="B6309" t="n">
-        <v>42.49417500000004</v>
+        <v>42.494175</v>
       </c>
     </row>
     <row r="6310">
@@ -51010,7 +51010,7 @@
         <v>6321</v>
       </c>
       <c r="B6322" t="n">
-        <v>0.2491909999999962</v>
+        <v>0.249190999999996</v>
       </c>
     </row>
     <row r="6323">
@@ -51018,7 +51018,7 @@
         <v>6322</v>
       </c>
       <c r="B6323" t="n">
-        <v>49.65695800000003</v>
+        <v>49.656958</v>
       </c>
     </row>
     <row r="6324">
@@ -51026,7 +51026,7 @@
         <v>6323</v>
       </c>
       <c r="B6324" t="n">
-        <v>86.98996799999998</v>
+        <v>86.989968</v>
       </c>
     </row>
     <row r="6325">
@@ -51042,7 +51042,7 @@
         <v>6325</v>
       </c>
       <c r="B6326" t="n">
-        <v>117.2362460000001</v>
+        <v>117.236246</v>
       </c>
     </row>
     <row r="6327">
@@ -51050,7 +51050,7 @@
         <v>6326</v>
       </c>
       <c r="B6327" t="n">
-        <v>76.13883499999997</v>
+        <v>76.138835</v>
       </c>
     </row>
     <row r="6328">
@@ -51682,7 +51682,7 @@
         <v>6405</v>
       </c>
       <c r="B6406" t="n">
-        <v>54.15275099999997</v>
+        <v>54.152751</v>
       </c>
     </row>
     <row r="6407">
@@ -51690,7 +51690,7 @@
         <v>6406</v>
       </c>
       <c r="B6407" t="n">
-        <v>68.78090599999996</v>
+        <v>68.780906</v>
       </c>
     </row>
     <row r="6408">
@@ -51786,7 +51786,7 @@
         <v>6418</v>
       </c>
       <c r="B6419" t="n">
-        <v>29.24077699999998</v>
+        <v>29.240777</v>
       </c>
     </row>
     <row r="6420">
@@ -51794,7 +51794,7 @@
         <v>6419</v>
       </c>
       <c r="B6420" t="n">
-        <v>52.84109999999998</v>
+        <v>52.8411</v>
       </c>
     </row>
     <row r="6421">
@@ -51802,7 +51802,7 @@
         <v>6420</v>
       </c>
       <c r="B6421" t="n">
-        <v>71.44142399999998</v>
+        <v>71.441424</v>
       </c>
     </row>
     <row r="6422">
@@ -51810,7 +51810,7 @@
         <v>6421</v>
       </c>
       <c r="B6422" t="n">
-        <v>80.21197400000005</v>
+        <v>80.2119740000001</v>
       </c>
     </row>
     <row r="6423">
@@ -51818,7 +51818,7 @@
         <v>6422</v>
       </c>
       <c r="B6423" t="n">
-        <v>60.91197399999999</v>
+        <v>60.911974</v>
       </c>
     </row>
     <row r="6424">
@@ -51826,7 +51826,7 @@
         <v>6423</v>
       </c>
       <c r="B6424" t="n">
-        <v>0.2242720000000418</v>
+        <v>0.224272000000042</v>
       </c>
     </row>
     <row r="6425">
@@ -51850,7 +51850,7 @@
         <v>6426</v>
       </c>
       <c r="B6427" t="n">
-        <v>21.49190899999996</v>
+        <v>21.491909</v>
       </c>
     </row>
     <row r="6428">
@@ -51858,7 +51858,7 @@
         <v>6427</v>
       </c>
       <c r="B6428" t="n">
-        <v>2.797087000000033</v>
+        <v>2.79708700000003</v>
       </c>
     </row>
     <row r="6429">
@@ -51874,7 +51874,7 @@
         <v>6429</v>
       </c>
       <c r="B6430" t="n">
-        <v>73.75566300000003</v>
+        <v>73.755663</v>
       </c>
     </row>
     <row r="6431">
@@ -51978,7 +51978,7 @@
         <v>6442</v>
       </c>
       <c r="B6443" t="n">
-        <v>6.850809000000027</v>
+        <v>6.85080900000003</v>
       </c>
     </row>
     <row r="6444">
@@ -51986,7 +51986,7 @@
         <v>6443</v>
       </c>
       <c r="B6444" t="n">
-        <v>47.36796100000004</v>
+        <v>47.367961</v>
       </c>
     </row>
     <row r="6445">
@@ -51994,7 +51994,7 @@
         <v>6444</v>
       </c>
       <c r="B6445" t="n">
-        <v>69.04530699999998</v>
+        <v>69.04530699999999</v>
       </c>
     </row>
     <row r="6446">
@@ -52002,7 +52002,7 @@
         <v>6445</v>
       </c>
       <c r="B6446" t="n">
-        <v>85.68479000000002</v>
+        <v>85.68479000000001</v>
       </c>
     </row>
     <row r="6447">
@@ -52010,7 +52010,7 @@
         <v>6446</v>
       </c>
       <c r="B6447" t="n">
-        <v>55.66601900000001</v>
+        <v>55.666019</v>
       </c>
     </row>
     <row r="6448">
@@ -52186,7 +52186,7 @@
         <v>6468</v>
       </c>
       <c r="B6469" t="n">
-        <v>32.31779900000004</v>
+        <v>32.317799</v>
       </c>
     </row>
     <row r="6470">
@@ -52194,7 +52194,7 @@
         <v>6469</v>
       </c>
       <c r="B6470" t="n">
-        <v>40.18673100000001</v>
+        <v>40.186731</v>
       </c>
     </row>
     <row r="6471">
@@ -52202,7 +52202,7 @@
         <v>6470</v>
       </c>
       <c r="B6471" t="n">
-        <v>25.35663399999999</v>
+        <v>25.356634</v>
       </c>
     </row>
     <row r="6472">
@@ -52378,7 +52378,7 @@
         <v>6492</v>
       </c>
       <c r="B6493" t="n">
-        <v>18.10582499999998</v>
+        <v>18.105825</v>
       </c>
     </row>
     <row r="6494">
@@ -52386,7 +52386,7 @@
         <v>6493</v>
       </c>
       <c r="B6494" t="n">
-        <v>46.27734599999997</v>
+        <v>46.277346</v>
       </c>
     </row>
     <row r="6495">
@@ -52394,7 +52394,7 @@
         <v>6494</v>
       </c>
       <c r="B6495" t="n">
-        <v>38.00485400000002</v>
+        <v>38.004854</v>
       </c>
     </row>
     <row r="6496">
@@ -52458,7 +52458,7 @@
         <v>6502</v>
       </c>
       <c r="B6503" t="n">
-        <v>58.98867299999995</v>
+        <v>58.9886729999999</v>
       </c>
     </row>
     <row r="6504">
@@ -52946,7 +52946,7 @@
         <v>6563</v>
       </c>
       <c r="B6564" t="n">
-        <v>10.96828500000004</v>
+        <v>10.968285</v>
       </c>
     </row>
     <row r="6565">
@@ -52954,7 +52954,7 @@
         <v>6564</v>
       </c>
       <c r="B6565" t="n">
-        <v>32.29902900000002</v>
+        <v>32.299029</v>
       </c>
     </row>
     <row r="6566">
@@ -52962,7 +52962,7 @@
         <v>6565</v>
       </c>
       <c r="B6566" t="n">
-        <v>40.04174799999998</v>
+        <v>40.041748</v>
       </c>
     </row>
     <row r="6567">
@@ -52970,7 +52970,7 @@
         <v>6566</v>
       </c>
       <c r="B6567" t="n">
-        <v>9.751780000000053</v>
+        <v>9.75178000000005</v>
       </c>
     </row>
     <row r="6568">
@@ -53130,7 +53130,7 @@
         <v>6586</v>
       </c>
       <c r="B6587" t="n">
-        <v>13.86860799999999</v>
+        <v>13.868608</v>
       </c>
     </row>
     <row r="6588">
@@ -53138,7 +53138,7 @@
         <v>6587</v>
       </c>
       <c r="B6588" t="n">
-        <v>62.48187700000005</v>
+        <v>62.4818770000001</v>
       </c>
     </row>
     <row r="6589">
@@ -53146,7 +53146,7 @@
         <v>6588</v>
       </c>
       <c r="B6589" t="n">
-        <v>77.00906099999997</v>
+        <v>77.009061</v>
       </c>
     </row>
     <row r="6590">
@@ -53154,7 +53154,7 @@
         <v>6589</v>
       </c>
       <c r="B6590" t="n">
-        <v>95.46440099999995</v>
+        <v>95.464401</v>
       </c>
     </row>
     <row r="6591">
@@ -53218,7 +53218,7 @@
         <v>6597</v>
       </c>
       <c r="B6598" t="n">
-        <v>82.50129400000003</v>
+        <v>82.501294</v>
       </c>
     </row>
     <row r="6599">
@@ -53226,7 +53226,7 @@
         <v>6598</v>
       </c>
       <c r="B6599" t="n">
-        <v>53.35210400000005</v>
+        <v>53.3521040000001</v>
       </c>
     </row>
     <row r="6600">
@@ -53314,7 +53314,7 @@
         <v>6609</v>
       </c>
       <c r="B6610" t="n">
-        <v>23.20032400000002</v>
+        <v>23.200324</v>
       </c>
     </row>
     <row r="6611">
@@ -53322,7 +53322,7 @@
         <v>6610</v>
       </c>
       <c r="B6611" t="n">
-        <v>60.45760499999994</v>
+        <v>60.4576049999999</v>
       </c>
     </row>
     <row r="6612">
@@ -53338,7 +53338,7 @@
         <v>6612</v>
       </c>
       <c r="B6613" t="n">
-        <v>134.2032359999999</v>
+        <v>134.203236</v>
       </c>
     </row>
     <row r="6614">
@@ -53362,7 +53362,7 @@
         <v>6615</v>
       </c>
       <c r="B6616" t="n">
-        <v>32.94174799999996</v>
+        <v>32.941748</v>
       </c>
     </row>
     <row r="6617">
@@ -53370,7 +53370,7 @@
         <v>6616</v>
       </c>
       <c r="B6617" t="n">
-        <v>10.18640800000003</v>
+        <v>10.186408</v>
       </c>
     </row>
     <row r="6618">
@@ -53378,7 +53378,7 @@
         <v>6617</v>
       </c>
       <c r="B6618" t="n">
-        <v>22.47540500000002</v>
+        <v>22.475405</v>
       </c>
     </row>
     <row r="6619">
@@ -53386,7 +53386,7 @@
         <v>6618</v>
       </c>
       <c r="B6619" t="n">
-        <v>33.21326899999997</v>
+        <v>33.213269</v>
       </c>
     </row>
     <row r="6620">
@@ -53394,7 +53394,7 @@
         <v>6619</v>
       </c>
       <c r="B6620" t="n">
-        <v>32.42491900000005</v>
+        <v>32.424919</v>
       </c>
     </row>
     <row r="6621">
@@ -53722,7 +53722,7 @@
         <v>6660</v>
       </c>
       <c r="B6661" t="n">
-        <v>7.147572999999966</v>
+        <v>7.14757299999997</v>
       </c>
     </row>
     <row r="6662">
@@ -53730,7 +53730,7 @@
         <v>6661</v>
       </c>
       <c r="B6662" t="n">
-        <v>31.52330099999995</v>
+        <v>31.5233009999999</v>
       </c>
     </row>
     <row r="6663">
@@ -53738,7 +53738,7 @@
         <v>6662</v>
       </c>
       <c r="B6663" t="n">
-        <v>27.75922300000002</v>
+        <v>27.759223</v>
       </c>
     </row>
     <row r="6664">
@@ -53794,7 +53794,7 @@
         <v>6669</v>
       </c>
       <c r="B6670" t="n">
-        <v>34.99126200000001</v>
+        <v>34.991262</v>
       </c>
     </row>
     <row r="6671">
@@ -54370,7 +54370,7 @@
         <v>6741</v>
       </c>
       <c r="B6742" t="n">
-        <v>10.25631099999998</v>
+        <v>10.256311</v>
       </c>
     </row>
     <row r="6743">
@@ -54378,7 +54378,7 @@
         <v>6742</v>
       </c>
       <c r="B6743" t="n">
-        <v>1.063106999999945</v>
+        <v>1.06310699999995</v>
       </c>
     </row>
     <row r="6744">
@@ -54498,7 +54498,7 @@
         <v>6757</v>
       </c>
       <c r="B6758" t="n">
-        <v>24.59385099999997</v>
+        <v>24.593851</v>
       </c>
     </row>
     <row r="6759">
@@ -54554,7 +54554,7 @@
         <v>6764</v>
       </c>
       <c r="B6765" t="n">
-        <v>14.71359199999995</v>
+        <v>14.7135919999999</v>
       </c>
     </row>
     <row r="6766">
@@ -54570,7 +54570,7 @@
         <v>6766</v>
       </c>
       <c r="B6767" t="n">
-        <v>78.79967599999998</v>
+        <v>78.79967600000001</v>
       </c>
     </row>
     <row r="6768">
@@ -54674,7 +54674,7 @@
         <v>6779</v>
       </c>
       <c r="B6780" t="n">
-        <v>41.56116499999996</v>
+        <v>41.561165</v>
       </c>
     </row>
     <row r="6781">
@@ -54682,7 +54682,7 @@
         <v>6780</v>
       </c>
       <c r="B6781" t="n">
-        <v>66.46666700000003</v>
+        <v>66.466667</v>
       </c>
     </row>
     <row r="6782">
@@ -54690,7 +54690,7 @@
         <v>6781</v>
       </c>
       <c r="B6782" t="n">
-        <v>94.05178000000001</v>
+        <v>94.05177999999999</v>
       </c>
     </row>
     <row r="6783">
@@ -54698,7 +54698,7 @@
         <v>6782</v>
       </c>
       <c r="B6783" t="n">
-        <v>61.46666700000003</v>
+        <v>61.466667</v>
       </c>
     </row>
     <row r="6784">
@@ -54746,7 +54746,7 @@
         <v>6788</v>
       </c>
       <c r="B6789" t="n">
-        <v>12.17896399999995</v>
+        <v>12.178964</v>
       </c>
     </row>
     <row r="6790">
@@ -54762,7 +54762,7 @@
         <v>6790</v>
       </c>
       <c r="B6791" t="n">
-        <v>76.10744299999999</v>
+        <v>76.107443</v>
       </c>
     </row>
     <row r="6792">
@@ -56394,7 +56394,7 @@
         <v>6994</v>
       </c>
       <c r="B6995" t="n">
-        <v>3.175080999999977</v>
+        <v>3.17508099999998</v>
       </c>
     </row>
     <row r="6996">
@@ -56402,7 +56402,7 @@
         <v>6995</v>
       </c>
       <c r="B6996" t="n">
-        <v>38.29482199999995</v>
+        <v>38.294822</v>
       </c>
     </row>
     <row r="6997">
@@ -56410,7 +56410,7 @@
         <v>6996</v>
       </c>
       <c r="B6997" t="n">
-        <v>43.47152100000005</v>
+        <v>43.4715210000001</v>
       </c>
     </row>
     <row r="6998">
@@ -56418,7 +56418,7 @@
         <v>6997</v>
       </c>
       <c r="B6998" t="n">
-        <v>43.01132700000005</v>
+        <v>43.0113270000001</v>
       </c>
     </row>
     <row r="6999">
@@ -56426,7 +56426,7 @@
         <v>6998</v>
       </c>
       <c r="B6999" t="n">
-        <v>21.25210400000003</v>
+        <v>21.252104</v>
       </c>
     </row>
     <row r="7000">
@@ -56482,7 +56482,7 @@
         <v>7005</v>
       </c>
       <c r="B7006" t="n">
-        <v>39.08964400000002</v>
+        <v>39.089644</v>
       </c>
     </row>
     <row r="7007">
@@ -56986,7 +56986,7 @@
         <v>7068</v>
       </c>
       <c r="B7069" t="n">
-        <v>4.354045000000042</v>
+        <v>4.35404500000004</v>
       </c>
     </row>
     <row r="7070">
@@ -57002,7 +57002,7 @@
         <v>7070</v>
       </c>
       <c r="B7071" t="n">
-        <v>6.434950999999955</v>
+        <v>6.43495099999996</v>
       </c>
     </row>
     <row r="7072">
@@ -57050,7 +57050,7 @@
         <v>7076</v>
       </c>
       <c r="B7077" t="n">
-        <v>49.90938500000004</v>
+        <v>49.909385</v>
       </c>
     </row>
     <row r="7078">
@@ -57058,7 +57058,7 @@
         <v>7077</v>
       </c>
       <c r="B7078" t="n">
-        <v>123.9576049999999</v>
+        <v>123.957605</v>
       </c>
     </row>
     <row r="7079">
@@ -57154,7 +57154,7 @@
         <v>7089</v>
       </c>
       <c r="B7090" t="n">
-        <v>17.04012899999998</v>
+        <v>17.040129</v>
       </c>
     </row>
     <row r="7091">
@@ -57162,7 +57162,7 @@
         <v>7090</v>
       </c>
       <c r="B7091" t="n">
-        <v>16.03139199999998</v>
+        <v>16.031392</v>
       </c>
     </row>
     <row r="7092">
@@ -57170,7 +57170,7 @@
         <v>7091</v>
       </c>
       <c r="B7092" t="n">
-        <v>41.83203900000001</v>
+        <v>41.832039</v>
       </c>
     </row>
     <row r="7093">
@@ -57178,7 +57178,7 @@
         <v>7092</v>
       </c>
       <c r="B7093" t="n">
-        <v>44.81456300000002</v>
+        <v>44.814563</v>
       </c>
     </row>
     <row r="7094">
@@ -57186,7 +57186,7 @@
         <v>7093</v>
       </c>
       <c r="B7094" t="n">
-        <v>53.24465999999995</v>
+        <v>53.24466</v>
       </c>
     </row>
     <row r="7095">
@@ -57194,7 +57194,7 @@
         <v>7094</v>
       </c>
       <c r="B7095" t="n">
-        <v>27.16634299999998</v>
+        <v>27.166343</v>
       </c>
     </row>
     <row r="7096">
@@ -57226,7 +57226,7 @@
         <v>7098</v>
       </c>
       <c r="B7099" t="n">
-        <v>10.29352800000004</v>
+        <v>10.293528</v>
       </c>
     </row>
     <row r="7100">
@@ -57234,7 +57234,7 @@
         <v>7099</v>
       </c>
       <c r="B7100" t="n">
-        <v>19.87119700000005</v>
+        <v>19.8711970000001</v>
       </c>
     </row>
     <row r="7101">
@@ -57242,7 +57242,7 @@
         <v>7100</v>
       </c>
       <c r="B7101" t="n">
-        <v>96.94595500000003</v>
+        <v>96.945955</v>
       </c>
     </row>
     <row r="7102">
@@ -57258,7 +57258,7 @@
         <v>7102</v>
       </c>
       <c r="B7103" t="n">
-        <v>109.2223300000001</v>
+        <v>109.22233</v>
       </c>
     </row>
     <row r="7104">
@@ -57354,7 +57354,7 @@
         <v>7114</v>
       </c>
       <c r="B7115" t="n">
-        <v>0.4135919999999942</v>
+        <v>0.413591999999994</v>
       </c>
     </row>
     <row r="7116">
@@ -57362,7 +57362,7 @@
         <v>7115</v>
       </c>
       <c r="B7116" t="n">
-        <v>52.33689300000003</v>
+        <v>52.336893</v>
       </c>
     </row>
     <row r="7117">
@@ -57370,7 +57370,7 @@
         <v>7116</v>
       </c>
       <c r="B7117" t="n">
-        <v>64.94077700000003</v>
+        <v>64.940777</v>
       </c>
     </row>
     <row r="7118">
@@ -57378,7 +57378,7 @@
         <v>7117</v>
       </c>
       <c r="B7118" t="n">
-        <v>56.15145600000005</v>
+        <v>56.1514560000001</v>
       </c>
     </row>
     <row r="7119">
@@ -57386,7 +57386,7 @@
         <v>7118</v>
       </c>
       <c r="B7119" t="n">
-        <v>37.29902900000002</v>
+        <v>37.299029</v>
       </c>
     </row>
     <row r="7120">
@@ -57418,7 +57418,7 @@
         <v>7122</v>
       </c>
       <c r="B7123" t="n">
-        <v>19.99093900000003</v>
+        <v>19.990939</v>
       </c>
     </row>
     <row r="7124">
@@ -57426,7 +57426,7 @@
         <v>7123</v>
       </c>
       <c r="B7124" t="n">
-        <v>40.77928799999995</v>
+        <v>40.779288</v>
       </c>
     </row>
     <row r="7125">
@@ -57538,7 +57538,7 @@
         <v>7137</v>
       </c>
       <c r="B7138" t="n">
-        <v>29.50550199999998</v>
+        <v>29.505502</v>
       </c>
     </row>
     <row r="7139">
@@ -57546,7 +57546,7 @@
         <v>7138</v>
       </c>
       <c r="B7139" t="n">
-        <v>40.41359199999999</v>
+        <v>40.413592</v>
       </c>
     </row>
     <row r="7140">
@@ -57562,7 +57562,7 @@
         <v>7140</v>
       </c>
       <c r="B7141" t="n">
-        <v>87.97346300000004</v>
+        <v>87.973463</v>
       </c>
     </row>
     <row r="7142">
@@ -57570,7 +57570,7 @@
         <v>7141</v>
       </c>
       <c r="B7142" t="n">
-        <v>87.66472499999998</v>
+        <v>87.664725</v>
       </c>
     </row>
     <row r="7143">
@@ -57578,7 +57578,7 @@
         <v>7142</v>
       </c>
       <c r="B7143" t="n">
-        <v>71.58025899999996</v>
+        <v>71.580259</v>
       </c>
     </row>
     <row r="7144">
@@ -57586,7 +57586,7 @@
         <v>7143</v>
       </c>
       <c r="B7144" t="n">
-        <v>13.30744300000003</v>
+        <v>13.307443</v>
       </c>
     </row>
     <row r="7145">
@@ -57594,7 +57594,7 @@
         <v>7144</v>
       </c>
       <c r="B7145" t="n">
-        <v>7.475081000000046</v>
+        <v>7.47508100000005</v>
       </c>
     </row>
     <row r="7146">
@@ -57602,7 +57602,7 @@
         <v>7145</v>
       </c>
       <c r="B7146" t="n">
-        <v>11.13236199999994</v>
+        <v>11.1323619999999</v>
       </c>
     </row>
     <row r="7147">
@@ -57618,7 +57618,7 @@
         <v>7147</v>
       </c>
       <c r="B7148" t="n">
-        <v>0.8925570000000107</v>
+        <v>0.892557000000011</v>
       </c>
     </row>
     <row r="7149">
@@ -57626,7 +57626,7 @@
         <v>7148</v>
       </c>
       <c r="B7149" t="n">
-        <v>75.19967599999995</v>
+        <v>75.199676</v>
       </c>
     </row>
     <row r="7150">
@@ -57754,7 +57754,7 @@
         <v>7164</v>
       </c>
       <c r="B7165" t="n">
-        <v>41.22718399999997</v>
+        <v>41.227184</v>
       </c>
     </row>
     <row r="7166">
@@ -57762,7 +57762,7 @@
         <v>7165</v>
       </c>
       <c r="B7166" t="n">
-        <v>41.68090600000005</v>
+        <v>41.680906</v>
       </c>
     </row>
     <row r="7167">
@@ -57770,7 +57770,7 @@
         <v>7166</v>
       </c>
       <c r="B7167" t="n">
-        <v>27.74660200000005</v>
+        <v>27.7466020000001</v>
       </c>
     </row>
     <row r="7168">
@@ -57826,7 +57826,7 @@
         <v>7173</v>
       </c>
       <c r="B7174" t="n">
-        <v>1.050808999999958</v>
+        <v>1.05080899999996</v>
       </c>
     </row>
     <row r="7175">
@@ -58314,7 +58314,7 @@
         <v>7234</v>
       </c>
       <c r="B7235" t="n">
-        <v>0.2181229999999914</v>
+        <v>0.218122999999991</v>
       </c>
     </row>
     <row r="7236">
@@ -58330,7 +58330,7 @@
         <v>7236</v>
       </c>
       <c r="B7237" t="n">
-        <v>76.13883499999997</v>
+        <v>76.138835</v>
       </c>
     </row>
     <row r="7238">
@@ -58338,7 +58338,7 @@
         <v>7237</v>
       </c>
       <c r="B7238" t="n">
-        <v>91.88284799999997</v>
+        <v>91.882848</v>
       </c>
     </row>
     <row r="7239">
@@ -58346,7 +58346,7 @@
         <v>7238</v>
       </c>
       <c r="B7239" t="n">
-        <v>101.0129449999999</v>
+        <v>101.012945</v>
       </c>
     </row>
     <row r="7240">
@@ -58354,7 +58354,7 @@
         <v>7239</v>
       </c>
       <c r="B7240" t="n">
-        <v>40.48284799999999</v>
+        <v>40.482848</v>
       </c>
     </row>
     <row r="7241">
@@ -58362,7 +58362,7 @@
         <v>7240</v>
       </c>
       <c r="B7241" t="n">
-        <v>38.40841399999999</v>
+        <v>38.408414</v>
       </c>
     </row>
     <row r="7242">
@@ -58370,7 +58370,7 @@
         <v>7241</v>
       </c>
       <c r="B7242" t="n">
-        <v>36.28349500000002</v>
+        <v>36.283495</v>
       </c>
     </row>
     <row r="7243">
@@ -58378,7 +58378,7 @@
         <v>7242</v>
       </c>
       <c r="B7243" t="n">
-        <v>37.67087400000003</v>
+        <v>37.670874</v>
       </c>
     </row>
     <row r="7244">
@@ -58386,7 +58386,7 @@
         <v>7243</v>
       </c>
       <c r="B7244" t="n">
-        <v>82.61456299999998</v>
+        <v>82.614563</v>
       </c>
     </row>
     <row r="7245">
@@ -58394,7 +58394,7 @@
         <v>7244</v>
       </c>
       <c r="B7245" t="n">
-        <v>103.4974110000001</v>
+        <v>103.497411</v>
       </c>
     </row>
     <row r="7246">
@@ -58402,7 +58402,7 @@
         <v>7245</v>
       </c>
       <c r="B7246" t="n">
-        <v>45.26925600000004</v>
+        <v>45.269256</v>
       </c>
     </row>
     <row r="7247">
@@ -58506,7 +58506,7 @@
         <v>7258</v>
       </c>
       <c r="B7259" t="n">
-        <v>0.3692559999999503</v>
+        <v>0.36925599999995</v>
       </c>
     </row>
     <row r="7260">
@@ -58514,7 +58514,7 @@
         <v>7259</v>
       </c>
       <c r="B7260" t="n">
-        <v>25.15501600000005</v>
+        <v>25.155016</v>
       </c>
     </row>
     <row r="7261">
@@ -58522,7 +58522,7 @@
         <v>7260</v>
       </c>
       <c r="B7261" t="n">
-        <v>50.24983799999995</v>
+        <v>50.249838</v>
       </c>
     </row>
     <row r="7262">
@@ -58530,7 +58530,7 @@
         <v>7261</v>
       </c>
       <c r="B7262" t="n">
-        <v>73.56634299999996</v>
+        <v>73.566343</v>
       </c>
     </row>
     <row r="7263">
@@ -58538,7 +58538,7 @@
         <v>7262</v>
       </c>
       <c r="B7263" t="n">
-        <v>75.12362499999995</v>
+        <v>75.1236249999999</v>
       </c>
     </row>
     <row r="7264">
@@ -58546,7 +58546,7 @@
         <v>7263</v>
       </c>
       <c r="B7264" t="n">
-        <v>14.41067999999996</v>
+        <v>14.41068</v>
       </c>
     </row>
     <row r="7265">
@@ -58554,7 +58554,7 @@
         <v>7264</v>
       </c>
       <c r="B7265" t="n">
-        <v>4.461165000000051</v>
+        <v>4.46116500000005</v>
       </c>
     </row>
     <row r="7266">
@@ -58570,7 +58570,7 @@
         <v>7266</v>
       </c>
       <c r="B7267" t="n">
-        <v>7.948219999999992</v>
+        <v>7.94821999999999</v>
       </c>
     </row>
     <row r="7268">
@@ -58578,7 +58578,7 @@
         <v>7267</v>
       </c>
       <c r="B7268" t="n">
-        <v>54.65728200000001</v>
+        <v>54.657282</v>
       </c>
     </row>
     <row r="7269">
@@ -58586,7 +58586,7 @@
         <v>7268</v>
       </c>
       <c r="B7269" t="n">
-        <v>64.44336599999997</v>
+        <v>64.443366</v>
       </c>
     </row>
     <row r="7270">
@@ -58594,7 +58594,7 @@
         <v>7269</v>
       </c>
       <c r="B7270" t="n">
-        <v>3.150485000000003</v>
+        <v>3.150485</v>
       </c>
     </row>
     <row r="7271">
@@ -59738,7 +59738,7 @@
         <v>7412</v>
       </c>
       <c r="B7413" t="n">
-        <v>32.45728199999996</v>
+        <v>32.457282</v>
       </c>
     </row>
     <row r="7414">
@@ -59746,7 +59746,7 @@
         <v>7413</v>
       </c>
       <c r="B7414" t="n">
-        <v>25.20000000000005</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="7415">
@@ -59850,7 +59850,7 @@
         <v>7426</v>
       </c>
       <c r="B7427" t="n">
-        <v>11.13236199999994</v>
+        <v>11.1323619999999</v>
       </c>
     </row>
     <row r="7428">
@@ -59858,7 +59858,7 @@
         <v>7427</v>
       </c>
       <c r="B7428" t="n">
-        <v>37.75307399999997</v>
+        <v>37.753074</v>
       </c>
     </row>
     <row r="7429">
@@ -59866,7 +59866,7 @@
         <v>7428</v>
       </c>
       <c r="B7429" t="n">
-        <v>23.73657000000003</v>
+        <v>23.73657</v>
       </c>
     </row>
     <row r="7430">
@@ -59874,7 +59874,7 @@
         <v>7429</v>
       </c>
       <c r="B7430" t="n">
-        <v>7.255015999999955</v>
+        <v>7.25501599999996</v>
       </c>
     </row>
     <row r="7431">
@@ -60122,7 +60122,7 @@
         <v>7460</v>
       </c>
       <c r="B7461" t="n">
-        <v>70.54045299999996</v>
+        <v>70.540453</v>
       </c>
     </row>
     <row r="7462">
@@ -60130,7 +60130,7 @@
         <v>7461</v>
       </c>
       <c r="B7462" t="n">
-        <v>79.88478999999995</v>
+        <v>79.88479</v>
       </c>
     </row>
     <row r="7463">
@@ -60138,7 +60138,7 @@
         <v>7462</v>
       </c>
       <c r="B7463" t="n">
-        <v>53.69287999999995</v>
+        <v>53.6928799999999</v>
       </c>
     </row>
     <row r="7464">
@@ -60498,7 +60498,7 @@
         <v>7507</v>
       </c>
       <c r="B7508" t="n">
-        <v>59.29805799999997</v>
+        <v>59.298058</v>
       </c>
     </row>
     <row r="7509">
@@ -60506,7 +60506,7 @@
         <v>7508</v>
       </c>
       <c r="B7509" t="n">
-        <v>67.79741100000001</v>
+        <v>67.797411</v>
       </c>
     </row>
     <row r="7510">
@@ -60514,7 +60514,7 @@
         <v>7509</v>
       </c>
       <c r="B7510" t="n">
-        <v>25.86181199999999</v>
+        <v>25.861812</v>
       </c>
     </row>
     <row r="7511">
@@ -61066,7 +61066,7 @@
         <v>7578</v>
       </c>
       <c r="B7579" t="n">
-        <v>20.64110000000005</v>
+        <v>20.6411000000001</v>
       </c>
     </row>
     <row r="7580">
@@ -61098,7 +61098,7 @@
         <v>7582</v>
       </c>
       <c r="B7583" t="n">
-        <v>93.71197400000005</v>
+        <v>93.7119740000001</v>
       </c>
     </row>
     <row r="7584">
@@ -61378,7 +61378,7 @@
         <v>7617</v>
       </c>
       <c r="B7618" t="n">
-        <v>54.96601899999996</v>
+        <v>54.966019</v>
       </c>
     </row>
     <row r="7619">
@@ -61386,7 +61386,7 @@
         <v>7618</v>
       </c>
       <c r="B7619" t="n">
-        <v>85.82394799999997</v>
+        <v>85.823948</v>
       </c>
     </row>
     <row r="7620">
@@ -61394,7 +61394,7 @@
         <v>7619</v>
       </c>
       <c r="B7620" t="n">
-        <v>101.4229769999999</v>
+        <v>101.422977</v>
       </c>
     </row>
     <row r="7621">
@@ -61402,7 +61402,7 @@
         <v>7620</v>
       </c>
       <c r="B7621" t="n">
-        <v>87.02847899999995</v>
+        <v>87.0284789999999</v>
       </c>
     </row>
     <row r="7622">
@@ -61410,7 +61410,7 @@
         <v>7621</v>
       </c>
       <c r="B7622" t="n">
-        <v>88.34627799999998</v>
+        <v>88.346278</v>
       </c>
     </row>
     <row r="7623">
@@ -61418,7 +61418,7 @@
         <v>7622</v>
       </c>
       <c r="B7623" t="n">
-        <v>75.26278300000001</v>
+        <v>75.262783</v>
       </c>
     </row>
     <row r="7624">
@@ -61426,7 +61426,7 @@
         <v>7623</v>
       </c>
       <c r="B7624" t="n">
-        <v>29.69514600000002</v>
+        <v>29.695146</v>
       </c>
     </row>
     <row r="7625">
@@ -61434,7 +61434,7 @@
         <v>7624</v>
       </c>
       <c r="B7625" t="n">
-        <v>30.65954699999998</v>
+        <v>30.659547</v>
       </c>
     </row>
     <row r="7626">
@@ -61442,7 +61442,7 @@
         <v>7625</v>
       </c>
       <c r="B7626" t="n">
-        <v>55.04174799999998</v>
+        <v>55.041748</v>
       </c>
     </row>
     <row r="7627">
@@ -61450,7 +61450,7 @@
         <v>7626</v>
       </c>
       <c r="B7627" t="n">
-        <v>88.21359199999995</v>
+        <v>88.21359199999991</v>
       </c>
     </row>
     <row r="7628">
@@ -61458,7 +61458,7 @@
         <v>7627</v>
       </c>
       <c r="B7628" t="n">
-        <v>177.8485439999999</v>
+        <v>177.848544</v>
       </c>
     </row>
     <row r="7629">
@@ -61482,7 +61482,7 @@
         <v>7630</v>
       </c>
       <c r="B7631" t="n">
-        <v>63.16990299999998</v>
+        <v>63.169903</v>
       </c>
     </row>
     <row r="7632">
@@ -62338,7 +62338,7 @@
         <v>7737</v>
       </c>
       <c r="B7738" t="n">
-        <v>53.59190899999999</v>
+        <v>53.591909</v>
       </c>
     </row>
     <row r="7739">
@@ -62410,7 +62410,7 @@
         <v>7746</v>
       </c>
       <c r="B7747" t="n">
-        <v>98.25178000000005</v>
+        <v>98.2517800000001</v>
       </c>
     </row>
     <row r="7748">
@@ -62418,7 +62418,7 @@
         <v>7747</v>
       </c>
       <c r="B7748" t="n">
-        <v>120.6669900000001</v>
+        <v>120.66699</v>
       </c>
     </row>
     <row r="7749">
@@ -62426,7 +62426,7 @@
         <v>7748</v>
       </c>
       <c r="B7749" t="n">
-        <v>64.97346300000004</v>
+        <v>64.973463</v>
       </c>
     </row>
     <row r="7750">
@@ -62434,7 +62434,7 @@
         <v>7749</v>
       </c>
       <c r="B7750" t="n">
-        <v>10.43365700000004</v>
+        <v>10.433657</v>
       </c>
     </row>
     <row r="7751">
@@ -62546,7 +62546,7 @@
         <v>7763</v>
       </c>
       <c r="B7764" t="n">
-        <v>40.54724899999997</v>
+        <v>40.547249</v>
       </c>
     </row>
     <row r="7765">
@@ -62554,7 +62554,7 @@
         <v>7764</v>
       </c>
       <c r="B7765" t="n">
-        <v>59.41229799999996</v>
+        <v>59.412298</v>
       </c>
     </row>
     <row r="7766">
@@ -62562,7 +62562,7 @@
         <v>7765</v>
       </c>
       <c r="B7766" t="n">
-        <v>84.56990299999995</v>
+        <v>84.569903</v>
       </c>
     </row>
     <row r="7767">
@@ -62578,7 +62578,7 @@
         <v>7767</v>
       </c>
       <c r="B7768" t="n">
-        <v>74.80258900000001</v>
+        <v>74.802589</v>
       </c>
     </row>
     <row r="7769">
@@ -62586,7 +62586,7 @@
         <v>7768</v>
       </c>
       <c r="B7769" t="n">
-        <v>113.4281549999999</v>
+        <v>113.428155</v>
       </c>
     </row>
     <row r="7770">
@@ -62618,7 +62618,7 @@
         <v>7772</v>
       </c>
       <c r="B7773" t="n">
-        <v>161.9281549999999</v>
+        <v>161.928155</v>
       </c>
     </row>
     <row r="7774">
@@ -62634,7 +62634,7 @@
         <v>7774</v>
       </c>
       <c r="B7775" t="n">
-        <v>30.27605200000005</v>
+        <v>30.276052</v>
       </c>
     </row>
     <row r="7776">
@@ -62802,7 +62802,7 @@
         <v>7795</v>
       </c>
       <c r="B7796" t="n">
-        <v>64.85339799999997</v>
+        <v>64.853398</v>
       </c>
     </row>
     <row r="7797">
@@ -62810,7 +62810,7 @@
         <v>7796</v>
       </c>
       <c r="B7797" t="n">
-        <v>63.01877000000002</v>
+        <v>63.01877</v>
       </c>
     </row>
     <row r="7798">
@@ -62826,7 +62826,7 @@
         <v>7798</v>
       </c>
       <c r="B7799" t="n">
-        <v>9.266989999999964</v>
+        <v>9.266989999999961</v>
       </c>
     </row>
     <row r="7800">
@@ -62930,7 +62930,7 @@
         <v>7811</v>
       </c>
       <c r="B7812" t="n">
-        <v>51.34142399999996</v>
+        <v>51.341424</v>
       </c>
     </row>
     <row r="7813">
@@ -62938,7 +62938,7 @@
         <v>7812</v>
       </c>
       <c r="B7813" t="n">
-        <v>68.91391599999997</v>
+        <v>68.913916</v>
       </c>
     </row>
     <row r="7814">
@@ -62946,7 +62946,7 @@
         <v>7813</v>
       </c>
       <c r="B7814" t="n">
-        <v>73.92006500000002</v>
+        <v>73.92006499999999</v>
       </c>
     </row>
     <row r="7815">
@@ -62962,7 +62962,7 @@
         <v>7815</v>
       </c>
       <c r="B7816" t="n">
-        <v>11.91456300000004</v>
+        <v>11.914563</v>
       </c>
     </row>
     <row r="7817">
@@ -62970,7 +62970,7 @@
         <v>7816</v>
       </c>
       <c r="B7817" t="n">
-        <v>23.42135900000005</v>
+        <v>23.4213590000001</v>
       </c>
     </row>
     <row r="7818">
@@ -62978,7 +62978,7 @@
         <v>7817</v>
       </c>
       <c r="B7818" t="n">
-        <v>34.58155299999999</v>
+        <v>34.581553</v>
       </c>
     </row>
     <row r="7819">
@@ -62986,7 +62986,7 @@
         <v>7818</v>
       </c>
       <c r="B7819" t="n">
-        <v>80.92491900000005</v>
+        <v>80.924919</v>
       </c>
     </row>
     <row r="7820">
@@ -63026,7 +63026,7 @@
         <v>7823</v>
       </c>
       <c r="B7824" t="n">
-        <v>0.5588999999999942</v>
+        <v>0.558899999999994</v>
       </c>
     </row>
     <row r="7825">
@@ -63114,7 +63114,7 @@
         <v>7834</v>
       </c>
       <c r="B7835" t="n">
-        <v>34.87184500000001</v>
+        <v>34.871845</v>
       </c>
     </row>
     <row r="7836">
@@ -63122,7 +63122,7 @@
         <v>7835</v>
       </c>
       <c r="B7836" t="n">
-        <v>90.42718400000001</v>
+        <v>90.427184</v>
       </c>
     </row>
     <row r="7837">
@@ -63130,7 +63130,7 @@
         <v>7836</v>
       </c>
       <c r="B7837" t="n">
-        <v>93.19514600000002</v>
+        <v>93.19514599999999</v>
       </c>
     </row>
     <row r="7838">
@@ -63146,7 +63146,7 @@
         <v>7838</v>
       </c>
       <c r="B7839" t="n">
-        <v>87.87961199999995</v>
+        <v>87.87961199999999</v>
       </c>
     </row>
     <row r="7840">
@@ -63154,7 +63154,7 @@
         <v>7839</v>
       </c>
       <c r="B7840" t="n">
-        <v>53.25728200000003</v>
+        <v>53.257282</v>
       </c>
     </row>
     <row r="7841">
@@ -63162,7 +63162,7 @@
         <v>7840</v>
       </c>
       <c r="B7841" t="n">
-        <v>65.38220100000001</v>
+        <v>65.38220099999999</v>
       </c>
     </row>
     <row r="7842">
@@ -63170,7 +63170,7 @@
         <v>7841</v>
       </c>
       <c r="B7842" t="n">
-        <v>76.35954700000002</v>
+        <v>76.35954700000001</v>
       </c>
     </row>
     <row r="7843">
@@ -63226,7 +63226,7 @@
         <v>7848</v>
       </c>
       <c r="B7849" t="n">
-        <v>87.00906099999997</v>
+        <v>87.009061</v>
       </c>
     </row>
     <row r="7850">
@@ -63378,7 +63378,7 @@
         <v>7867</v>
       </c>
       <c r="B7868" t="n">
-        <v>55.92427199999997</v>
+        <v>55.924272</v>
       </c>
     </row>
     <row r="7869">
@@ -63386,7 +63386,7 @@
         <v>7868</v>
       </c>
       <c r="B7869" t="n">
-        <v>83.16278299999999</v>
+        <v>83.162783</v>
       </c>
     </row>
     <row r="7870">
@@ -63394,7 +63394,7 @@
         <v>7869</v>
       </c>
       <c r="B7870" t="n">
-        <v>90.91812300000004</v>
+        <v>90.91812299999999</v>
       </c>
     </row>
     <row r="7871">
@@ -63402,7 +63402,7 @@
         <v>7870</v>
       </c>
       <c r="B7871" t="n">
-        <v>88.98867299999995</v>
+        <v>88.98867299999991</v>
       </c>
     </row>
     <row r="7872">
@@ -63410,7 +63410,7 @@
         <v>7871</v>
       </c>
       <c r="B7872" t="n">
-        <v>21.83203900000001</v>
+        <v>21.832039</v>
       </c>
     </row>
     <row r="7873">
@@ -63578,7 +63578,7 @@
         <v>7892</v>
       </c>
       <c r="B7893" t="n">
-        <v>19.10809099999994</v>
+        <v>19.1080909999999</v>
       </c>
     </row>
     <row r="7894">
@@ -63586,7 +63586,7 @@
         <v>7893</v>
       </c>
       <c r="B7894" t="n">
-        <v>63.21941700000002</v>
+        <v>63.219417</v>
       </c>
     </row>
     <row r="7895">
@@ -63594,7 +63594,7 @@
         <v>7894</v>
       </c>
       <c r="B7895" t="n">
-        <v>78.50938499999995</v>
+        <v>78.50938499999999</v>
       </c>
     </row>
     <row r="7896">
@@ -63602,7 +63602,7 @@
         <v>7895</v>
       </c>
       <c r="B7896" t="n">
-        <v>7.191262000000052</v>
+        <v>7.19126200000005</v>
       </c>
     </row>
     <row r="7897">
@@ -63786,7 +63786,7 @@
         <v>7918</v>
       </c>
       <c r="B7919" t="n">
-        <v>190.2569580000001</v>
+        <v>190.256958</v>
       </c>
     </row>
     <row r="7920">
@@ -63794,7 +63794,7 @@
         <v>7919</v>
       </c>
       <c r="B7920" t="n">
-        <v>82.34983799999998</v>
+        <v>82.34983800000001</v>
       </c>
     </row>
     <row r="7921">
@@ -63802,7 +63802,7 @@
         <v>7920</v>
       </c>
       <c r="B7921" t="n">
-        <v>16.54886699999997</v>
+        <v>16.548867</v>
       </c>
     </row>
     <row r="7922">
@@ -64146,7 +64146,7 @@
         <v>7963</v>
       </c>
       <c r="B7964" t="n">
-        <v>88.49838199999999</v>
+        <v>88.49838200000001</v>
       </c>
     </row>
     <row r="7965">
@@ -64170,7 +64170,7 @@
         <v>7966</v>
       </c>
       <c r="B7967" t="n">
-        <v>176.4679609999999</v>
+        <v>176.467961</v>
       </c>
     </row>
     <row r="7968">
@@ -64178,7 +64178,7 @@
         <v>7967</v>
       </c>
       <c r="B7968" t="n">
-        <v>92.77249200000006</v>
+        <v>92.7724920000001</v>
       </c>
     </row>
     <row r="7969">
@@ -64186,7 +64186,7 @@
         <v>7968</v>
       </c>
       <c r="B7969" t="n">
-        <v>57.94239500000003</v>
+        <v>57.942395</v>
       </c>
     </row>
     <row r="7970">
@@ -64298,7 +64298,7 @@
         <v>7982</v>
       </c>
       <c r="B7983" t="n">
-        <v>86.97799399999997</v>
+        <v>86.977994</v>
       </c>
     </row>
     <row r="7984">
@@ -64306,7 +64306,7 @@
         <v>7983</v>
       </c>
       <c r="B7984" t="n">
-        <v>7.784790000000044</v>
+        <v>7.78479000000004</v>
       </c>
     </row>
     <row r="7985">
@@ -64314,7 +64314,7 @@
         <v>7984</v>
       </c>
       <c r="B7985" t="n">
-        <v>20.09255700000006</v>
+        <v>20.0925570000001</v>
       </c>
     </row>
     <row r="7986">
@@ -64322,7 +64322,7 @@
         <v>7985</v>
       </c>
       <c r="B7986" t="n">
-        <v>58.81262100000004</v>
+        <v>58.812621</v>
       </c>
     </row>
     <row r="7987">
@@ -64338,7 +64338,7 @@
         <v>7987</v>
       </c>
       <c r="B7988" t="n">
-        <v>212.9436889999999</v>
+        <v>212.943689</v>
       </c>
     </row>
     <row r="7989">
@@ -64458,7 +64458,7 @@
         <v>8002</v>
       </c>
       <c r="B8003" t="n">
-        <v>3.233010000000036</v>
+        <v>3.23301000000004</v>
       </c>
     </row>
     <row r="8004">
@@ -64466,7 +64466,7 @@
         <v>8003</v>
       </c>
       <c r="B8004" t="n">
-        <v>27.96828500000004</v>
+        <v>27.968285</v>
       </c>
     </row>
     <row r="8005">
@@ -64530,7 +64530,7 @@
         <v>8011</v>
       </c>
       <c r="B8012" t="n">
-        <v>3.888997000000018</v>
+        <v>3.88899700000002</v>
       </c>
     </row>
     <row r="8013">
@@ -64538,7 +64538,7 @@
         <v>8012</v>
       </c>
       <c r="B8013" t="n">
-        <v>12.55242699999997</v>
+        <v>12.552427</v>
       </c>
     </row>
     <row r="8014">
@@ -65026,7 +65026,7 @@
         <v>8073</v>
       </c>
       <c r="B8074" t="n">
-        <v>30.15534000000002</v>
+        <v>30.15534</v>
       </c>
     </row>
     <row r="8075">
@@ -65034,7 +65034,7 @@
         <v>8074</v>
       </c>
       <c r="B8075" t="n">
-        <v>71.68155300000001</v>
+        <v>71.68155299999999</v>
       </c>
     </row>
     <row r="8076">
@@ -65050,7 +65050,7 @@
         <v>8076</v>
       </c>
       <c r="B8077" t="n">
-        <v>94.42459499999995</v>
+        <v>94.424595</v>
       </c>
     </row>
     <row r="8078">
@@ -65058,7 +65058,7 @@
         <v>8077</v>
       </c>
       <c r="B8078" t="n">
-        <v>72.66537200000005</v>
+        <v>72.665372</v>
       </c>
     </row>
     <row r="8079">
@@ -65066,7 +65066,7 @@
         <v>8078</v>
       </c>
       <c r="B8079" t="n">
-        <v>51.60582499999998</v>
+        <v>51.605825</v>
       </c>
     </row>
     <row r="8080">
@@ -65082,7 +65082,7 @@
         <v>8080</v>
       </c>
       <c r="B8081" t="n">
-        <v>1.391261999999983</v>
+        <v>1.39126199999998</v>
       </c>
     </row>
     <row r="8082">
@@ -65146,7 +65146,7 @@
         <v>8088</v>
       </c>
       <c r="B8089" t="n">
-        <v>77.69611699999996</v>
+        <v>77.696117</v>
       </c>
     </row>
     <row r="8090">
@@ -65210,7 +65210,7 @@
         <v>8096</v>
       </c>
       <c r="B8097" t="n">
-        <v>12.26084100000003</v>
+        <v>12.260841</v>
       </c>
     </row>
     <row r="8098">
@@ -65226,7 +65226,7 @@
         <v>8098</v>
       </c>
       <c r="B8099" t="n">
-        <v>185.9818770000001</v>
+        <v>185.981877</v>
       </c>
     </row>
     <row r="8100">
@@ -65258,7 +65258,7 @@
         <v>8102</v>
       </c>
       <c r="B8103" t="n">
-        <v>144.0838189999999</v>
+        <v>144.083819</v>
       </c>
     </row>
     <row r="8104">
@@ -65266,7 +65266,7 @@
         <v>8103</v>
       </c>
       <c r="B8104" t="n">
-        <v>78.06828499999995</v>
+        <v>78.0682849999999</v>
       </c>
     </row>
     <row r="8105">
@@ -65274,7 +65274,7 @@
         <v>8104</v>
       </c>
       <c r="B8105" t="n">
-        <v>74.16537200000005</v>
+        <v>74.165372</v>
       </c>
     </row>
     <row r="8106">
@@ -65282,7 +65282,7 @@
         <v>8105</v>
       </c>
       <c r="B8106" t="n">
-        <v>89.19061499999998</v>
+        <v>89.19061499999999</v>
       </c>
     </row>
     <row r="8107">
@@ -65338,7 +65338,7 @@
         <v>8112</v>
       </c>
       <c r="B8113" t="n">
-        <v>42.68381899999997</v>
+        <v>42.683819</v>
       </c>
     </row>
     <row r="8114">
@@ -65434,7 +65434,7 @@
         <v>8124</v>
       </c>
       <c r="B8125" t="n">
-        <v>92.16116499999998</v>
+        <v>92.161165</v>
       </c>
     </row>
     <row r="8126">
@@ -65442,7 +65442,7 @@
         <v>8125</v>
       </c>
       <c r="B8126" t="n">
-        <v>40.11165000000005</v>
+        <v>40.1116500000001</v>
       </c>
     </row>
     <row r="8127">
@@ -66570,7 +66570,7 @@
         <v>8266</v>
       </c>
       <c r="B8267" t="n">
-        <v>22.11682800000005</v>
+        <v>22.1168280000001</v>
       </c>
     </row>
     <row r="8268">
@@ -66578,7 +66578,7 @@
         <v>8267</v>
       </c>
       <c r="B8268" t="n">
-        <v>64.80323599999997</v>
+        <v>64.803236</v>
       </c>
     </row>
     <row r="8269">
@@ -66586,7 +66586,7 @@
         <v>8268</v>
       </c>
       <c r="B8269" t="n">
-        <v>63.59870599999999</v>
+        <v>63.598706</v>
       </c>
     </row>
     <row r="8270">
@@ -66594,7 +66594,7 @@
         <v>8269</v>
       </c>
       <c r="B8270" t="n">
-        <v>56.99093900000003</v>
+        <v>56.990939</v>
       </c>
     </row>
     <row r="8271">
@@ -66602,7 +66602,7 @@
         <v>8270</v>
       </c>
       <c r="B8271" t="n">
-        <v>57.40064700000005</v>
+        <v>57.400647</v>
       </c>
     </row>
     <row r="8272">
@@ -66610,7 +66610,7 @@
         <v>8271</v>
       </c>
       <c r="B8272" t="n">
-        <v>27.74077699999998</v>
+        <v>27.740777</v>
       </c>
     </row>
     <row r="8273">
@@ -66618,7 +66618,7 @@
         <v>8272</v>
       </c>
       <c r="B8273" t="n">
-        <v>62.06601899999998</v>
+        <v>62.066019</v>
       </c>
     </row>
     <row r="8274">
@@ -66674,7 +66674,7 @@
         <v>8279</v>
       </c>
       <c r="B8280" t="n">
-        <v>62.99320399999999</v>
+        <v>62.993204</v>
       </c>
     </row>
     <row r="8281">
@@ -66762,7 +66762,7 @@
         <v>8290</v>
       </c>
       <c r="B8291" t="n">
-        <v>46.36698999999999</v>
+        <v>46.36699</v>
       </c>
     </row>
     <row r="8292">
@@ -66770,7 +66770,7 @@
         <v>8291</v>
       </c>
       <c r="B8292" t="n">
-        <v>71.78317200000004</v>
+        <v>71.78317199999999</v>
       </c>
     </row>
     <row r="8293">
@@ -66778,7 +66778,7 @@
         <v>8292</v>
       </c>
       <c r="B8293" t="n">
-        <v>48.30906100000004</v>
+        <v>48.309061</v>
       </c>
     </row>
     <row r="8294">
@@ -66786,7 +66786,7 @@
         <v>8293</v>
       </c>
       <c r="B8294" t="n">
-        <v>13.07572800000003</v>
+        <v>13.075728</v>
       </c>
     </row>
     <row r="8295">
@@ -66834,7 +66834,7 @@
         <v>8299</v>
       </c>
       <c r="B8300" t="n">
-        <v>67.57184500000005</v>
+        <v>67.5718450000001</v>
       </c>
     </row>
     <row r="8301">
@@ -66850,7 +66850,7 @@
         <v>8301</v>
       </c>
       <c r="B8302" t="n">
-        <v>21.55663400000003</v>
+        <v>21.556634</v>
       </c>
     </row>
     <row r="8303">
@@ -66954,7 +66954,7 @@
         <v>8314</v>
       </c>
       <c r="B8315" t="n">
-        <v>36.12750800000003</v>
+        <v>36.127508</v>
       </c>
     </row>
     <row r="8316">
@@ -66970,7 +66970,7 @@
         <v>8316</v>
       </c>
       <c r="B8317" t="n">
-        <v>137.0734629999999</v>
+        <v>137.073463</v>
       </c>
     </row>
     <row r="8318">
@@ -67010,7 +67010,7 @@
         <v>8321</v>
       </c>
       <c r="B8322" t="n">
-        <v>160.7864080000001</v>
+        <v>160.786408</v>
       </c>
     </row>
     <row r="8323">
@@ -67074,7 +67074,7 @@
         <v>8329</v>
       </c>
       <c r="B8330" t="n">
-        <v>16.77540499999998</v>
+        <v>16.775405</v>
       </c>
     </row>
     <row r="8331">
@@ -67130,7 +67130,7 @@
         <v>8336</v>
       </c>
       <c r="B8337" t="n">
-        <v>36.18284800000004</v>
+        <v>36.182848</v>
       </c>
     </row>
     <row r="8338">
@@ -67154,7 +67154,7 @@
         <v>8339</v>
       </c>
       <c r="B8340" t="n">
-        <v>313.1391589999999</v>
+        <v>313.139159</v>
       </c>
     </row>
     <row r="8341">
@@ -67186,7 +67186,7 @@
         <v>8343</v>
       </c>
       <c r="B8344" t="n">
-        <v>152.1168280000001</v>
+        <v>152.116828</v>
       </c>
     </row>
     <row r="8345">
@@ -67234,7 +67234,7 @@
         <v>8349</v>
       </c>
       <c r="B8350" t="n">
-        <v>223.4229769999999</v>
+        <v>223.422977</v>
       </c>
     </row>
     <row r="8351">
@@ -67266,7 +67266,7 @@
         <v>8353</v>
       </c>
       <c r="B8354" t="n">
-        <v>7.204530999999974</v>
+        <v>7.20453099999997</v>
       </c>
     </row>
     <row r="8355">
@@ -67346,7 +67346,7 @@
         <v>8363</v>
       </c>
       <c r="B8364" t="n">
-        <v>64.04530699999998</v>
+        <v>64.04530699999999</v>
       </c>
     </row>
     <row r="8365">
@@ -67354,7 +67354,7 @@
         <v>8364</v>
       </c>
       <c r="B8365" t="n">
-        <v>71.26504899999998</v>
+        <v>71.265049</v>
       </c>
     </row>
     <row r="8366">
@@ -67362,7 +67362,7 @@
         <v>8365</v>
       </c>
       <c r="B8366" t="n">
-        <v>49.00744299999997</v>
+        <v>49.007443</v>
       </c>
     </row>
     <row r="8367">
@@ -67370,7 +67370,7 @@
         <v>8366</v>
       </c>
       <c r="B8367" t="n">
-        <v>51.15145600000005</v>
+        <v>51.1514560000001</v>
       </c>
     </row>
     <row r="8368">
@@ -67410,7 +67410,7 @@
         <v>8371</v>
       </c>
       <c r="B8372" t="n">
-        <v>70.16181200000005</v>
+        <v>70.1618120000001</v>
       </c>
     </row>
     <row r="8373">
@@ -67418,7 +67418,7 @@
         <v>8372</v>
       </c>
       <c r="B8373" t="n">
-        <v>99.38673100000005</v>
+        <v>99.3867310000001</v>
       </c>
     </row>
     <row r="8374">
@@ -67434,7 +67434,7 @@
         <v>8374</v>
       </c>
       <c r="B8375" t="n">
-        <v>62.32491900000002</v>
+        <v>62.324919</v>
       </c>
     </row>
     <row r="8376">
@@ -67618,7 +67618,7 @@
         <v>8397</v>
       </c>
       <c r="B8398" t="n">
-        <v>5.067637999999988</v>
+        <v>5.06763799999999</v>
       </c>
     </row>
     <row r="8399">
@@ -67634,7 +67634,7 @@
         <v>8399</v>
       </c>
       <c r="B8400" t="n">
-        <v>3.755987000000005</v>
+        <v>3.755987</v>
       </c>
     </row>
     <row r="8401">
@@ -67786,7 +67786,7 @@
         <v>8418</v>
       </c>
       <c r="B8419" t="n">
-        <v>12.79255699999999</v>
+        <v>12.792557</v>
       </c>
     </row>
     <row r="8420">
@@ -67938,7 +67938,7 @@
         <v>8437</v>
       </c>
       <c r="B8438" t="n">
-        <v>262.8365700000001</v>
+        <v>262.83657</v>
       </c>
     </row>
     <row r="8439">
@@ -68114,7 +68114,7 @@
         <v>8459</v>
       </c>
       <c r="B8460" t="n">
-        <v>230.2828479999999</v>
+        <v>230.282848</v>
       </c>
     </row>
     <row r="8461">
@@ -68146,7 +68146,7 @@
         <v>8463</v>
       </c>
       <c r="B8464" t="n">
-        <v>80.59126200000003</v>
+        <v>80.591262</v>
       </c>
     </row>
     <row r="8465">
@@ -68154,7 +68154,7 @@
         <v>8464</v>
       </c>
       <c r="B8465" t="n">
-        <v>86.57475699999998</v>
+        <v>86.57475700000001</v>
       </c>
     </row>
     <row r="8466">
@@ -68218,7 +68218,7 @@
         <v>8472</v>
       </c>
       <c r="B8473" t="n">
-        <v>56.85825199999999</v>
+        <v>56.858252</v>
       </c>
     </row>
     <row r="8474">
@@ -68402,7 +68402,7 @@
         <v>8495</v>
       </c>
       <c r="B8496" t="n">
-        <v>140.2378639999999</v>
+        <v>140.237864</v>
       </c>
     </row>
     <row r="8497">
@@ -68418,7 +68418,7 @@
         <v>8497</v>
       </c>
       <c r="B8498" t="n">
-        <v>6.762783000000013</v>
+        <v>6.76278300000001</v>
       </c>
     </row>
     <row r="8499">
@@ -68530,7 +68530,7 @@
         <v>8511</v>
       </c>
       <c r="B8512" t="n">
-        <v>92.09126200000003</v>
+        <v>92.091262</v>
       </c>
     </row>
     <row r="8513">
@@ -68538,7 +68538,7 @@
         <v>8512</v>
       </c>
       <c r="B8513" t="n">
-        <v>69.91585799999996</v>
+        <v>69.915858</v>
       </c>
     </row>
     <row r="8514">
@@ -68546,7 +68546,7 @@
         <v>8513</v>
       </c>
       <c r="B8514" t="n">
-        <v>69.11488699999995</v>
+        <v>69.114887</v>
       </c>
     </row>
     <row r="8515">
@@ -68554,7 +68554,7 @@
         <v>8514</v>
       </c>
       <c r="B8515" t="n">
-        <v>95.46440099999995</v>
+        <v>95.464401</v>
       </c>
     </row>
     <row r="8516">
@@ -68570,7 +68570,7 @@
         <v>8516</v>
       </c>
       <c r="B8517" t="n">
-        <v>187.8485439999999</v>
+        <v>187.848544</v>
       </c>
     </row>
     <row r="8518">
@@ -68586,7 +68586,7 @@
         <v>8518</v>
       </c>
       <c r="B8519" t="n">
-        <v>142.7724920000001</v>
+        <v>142.772492</v>
       </c>
     </row>
     <row r="8520">
@@ -68594,7 +68594,7 @@
         <v>8519</v>
       </c>
       <c r="B8520" t="n">
-        <v>79.60679600000003</v>
+        <v>79.606796</v>
       </c>
     </row>
     <row r="8521">
@@ -68754,7 +68754,7 @@
         <v>8539</v>
       </c>
       <c r="B8540" t="n">
-        <v>52.48802599999999</v>
+        <v>52.488026</v>
       </c>
     </row>
     <row r="8541">
@@ -68762,7 +68762,7 @@
         <v>8540</v>
       </c>
       <c r="B8541" t="n">
-        <v>71.54886699999997</v>
+        <v>71.548867</v>
       </c>
     </row>
     <row r="8542">
@@ -68778,7 +68778,7 @@
         <v>8542</v>
       </c>
       <c r="B8543" t="n">
-        <v>60.86763800000006</v>
+        <v>60.8676380000001</v>
       </c>
     </row>
     <row r="8544">
@@ -68954,7 +68954,7 @@
         <v>8564</v>
       </c>
       <c r="B8565" t="n">
-        <v>16.69967599999995</v>
+        <v>16.699676</v>
       </c>
     </row>
     <row r="8566">
@@ -68962,7 +68962,7 @@
         <v>8565</v>
       </c>
       <c r="B8566" t="n">
-        <v>13.55339800000002</v>
+        <v>13.553398</v>
       </c>
     </row>
     <row r="8567">
@@ -68970,7 +68970,7 @@
         <v>8566</v>
       </c>
       <c r="B8567" t="n">
-        <v>28.71715200000006</v>
+        <v>28.7171520000001</v>
       </c>
     </row>
     <row r="8568">
@@ -69458,7 +69458,7 @@
         <v>8627</v>
       </c>
       <c r="B8628" t="n">
-        <v>13.16860799999995</v>
+        <v>13.1686079999999</v>
       </c>
     </row>
     <row r="8629">
@@ -69466,7 +69466,7 @@
         <v>8628</v>
       </c>
       <c r="B8629" t="n">
-        <v>36.34660199999996</v>
+        <v>36.346602</v>
       </c>
     </row>
     <row r="8630">
@@ -70114,7 +70114,7 @@
         <v>8709</v>
       </c>
       <c r="B8710" t="n">
-        <v>0.1682849999999689</v>
+        <v>0.168284999999969</v>
       </c>
     </row>
     <row r="8711">
@@ -70122,7 +70122,7 @@
         <v>8710</v>
       </c>
       <c r="B8711" t="n">
-        <v>8.049515000000042</v>
+        <v>8.04951500000004</v>
       </c>
     </row>
     <row r="8712">

--- a/complete_single_node/vNSP.xlsx
+++ b/complete_single_node/vNSP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>36.74466</v>
+        <v>36.74465999999995</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>57.2932039999999</v>
+        <v>57.29320399999995</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>55.180583</v>
+        <v>55.18058299999996</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>36.466667</v>
+        <v>36.46666700000003</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>41.220712</v>
+        <v>41.22071200000005</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>18.16246</v>
+        <v>18.16246000000001</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>27.31165</v>
+        <v>27.31164999999999</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>97.19255699999999</v>
+        <v>97.19255699999997</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>55.276052</v>
+        <v>55.27605200000005</v>
       </c>
     </row>
     <row r="70">
@@ -2050,7 +2050,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>40.054693</v>
+        <v>40.05469300000004</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>101.763754</v>
+        <v>101.7637539999999</v>
       </c>
     </row>
     <row r="204">
@@ -2106,7 +2106,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>103.421359</v>
+        <v>103.4213590000001</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>98.76181200000001</v>
+        <v>98.76181199999996</v>
       </c>
     </row>
     <row r="211">
@@ -2138,7 +2138,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>300.686084</v>
+        <v>300.6860840000001</v>
       </c>
     </row>
     <row r="214">
@@ -2170,7 +2170,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>95.382524</v>
+        <v>95.38252399999999</v>
       </c>
     </row>
     <row r="218">
@@ -2242,7 +2242,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>98.22006500000001</v>
+        <v>98.22006499999998</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>133.642718</v>
+        <v>133.6427179999999</v>
       </c>
     </row>
     <row r="228">
@@ -2314,7 +2314,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>160.288026</v>
+        <v>160.2880259999999</v>
       </c>
     </row>
     <row r="236">
@@ -2330,7 +2330,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>286.360841</v>
+        <v>286.3608410000001</v>
       </c>
     </row>
     <row r="238">
@@ -2362,7 +2362,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>75.382524</v>
+        <v>75.38252399999999</v>
       </c>
     </row>
     <row r="242">
@@ -2426,7 +2426,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>13.282201</v>
+        <v>13.28220099999999</v>
       </c>
     </row>
     <row r="250">
@@ -2466,7 +2466,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>191.372816</v>
+        <v>191.3728159999999</v>
       </c>
     </row>
     <row r="255">
@@ -2482,7 +2482,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>60.747896</v>
+        <v>60.74789599999997</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>33.030421</v>
+        <v>33.03042100000005</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>5.86148900000001</v>
+        <v>5.861489000000006</v>
       </c>
     </row>
     <row r="259">
@@ -2514,7 +2514,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>75.30744300000001</v>
+        <v>75.30744300000003</v>
       </c>
     </row>
     <row r="261">
@@ -2530,7 +2530,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>73.832362</v>
+        <v>73.83236199999999</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>46.139806</v>
+        <v>46.13980600000002</v>
       </c>
     </row>
     <row r="264">
@@ -3114,7 +3114,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>12.607767</v>
+        <v>12.60776699999997</v>
       </c>
     </row>
     <row r="336">
@@ -3202,7 +3202,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>67.797411</v>
+        <v>67.79741100000001</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>98.352751</v>
+        <v>98.35275100000001</v>
       </c>
     </row>
     <row r="348">
@@ -3234,7 +3234,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>61.631715</v>
+        <v>61.63171499999999</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>17.842071</v>
+        <v>17.84207100000003</v>
       </c>
     </row>
     <row r="352">
@@ -3674,7 +3674,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>21.991262</v>
+        <v>21.99126200000001</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>6.02653699999996</v>
+        <v>6.026536999999962</v>
       </c>
     </row>
     <row r="407">
@@ -3850,7 +3850,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>34.953722</v>
+        <v>34.95372199999997</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>149.33657</v>
+        <v>149.3365700000001</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>214.198058</v>
+        <v>214.1980579999999</v>
       </c>
     </row>
     <row r="430">
@@ -3890,7 +3890,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>90.123948</v>
+        <v>90.12394800000004</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>69.165696</v>
+        <v>69.16569600000003</v>
       </c>
     </row>
     <row r="434">
@@ -3970,7 +3970,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>89.91618100000009</v>
+        <v>89.91618100000005</v>
       </c>
     </row>
     <row r="443">
@@ -3986,7 +3986,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>75.20647200000001</v>
+        <v>75.20647199999996</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>16.164725</v>
+        <v>16.16472499999998</v>
       </c>
     </row>
     <row r="446">
@@ -4754,7 +4754,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>41.303883</v>
+        <v>41.30388300000004</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>13.0061490000001</v>
+        <v>13.00614900000005</v>
       </c>
     </row>
     <row r="542">
@@ -5186,7 +5186,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>4.27993500000002</v>
+        <v>4.279935000000023</v>
       </c>
     </row>
     <row r="595">
@@ -5210,7 +5210,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>225.573463</v>
+        <v>225.5734629999999</v>
       </c>
     </row>
     <row r="598">
@@ -5234,7 +5234,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>26.417152</v>
+        <v>26.41715199999999</v>
       </c>
     </row>
     <row r="601">
@@ -5322,7 +5322,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>27.861489</v>
+        <v>27.86148900000001</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>63.120388</v>
+        <v>63.12038800000005</v>
       </c>
     </row>
     <row r="613">
@@ -5346,7 +5346,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>37.029773</v>
+        <v>37.02977299999998</v>
       </c>
     </row>
     <row r="615">
@@ -5890,7 +5890,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>0.679288000000042</v>
+        <v>0.6792880000000423</v>
       </c>
     </row>
     <row r="683">
@@ -5914,7 +5914,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>82.59676399999999</v>
+        <v>82.59676400000001</v>
       </c>
     </row>
     <row r="686">
@@ -5970,7 +5970,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>24.375081</v>
+        <v>24.37508100000002</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>80.2326859999999</v>
+        <v>80.23268599999994</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>57.34466</v>
+        <v>57.34465999999998</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>25.541424</v>
+        <v>25.54142400000001</v>
       </c>
     </row>
     <row r="696">
@@ -6170,7 +6170,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>94.456958</v>
+        <v>94.45695799999999</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>83.914563</v>
+        <v>83.91456300000004</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>46.045631</v>
+        <v>46.04563099999996</v>
       </c>
     </row>
     <row r="720">
@@ -6282,7 +6282,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>19.8411</v>
+        <v>19.84109999999998</v>
       </c>
     </row>
     <row r="732">
@@ -6298,7 +6298,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>154.588997</v>
+        <v>154.5889969999999</v>
       </c>
     </row>
     <row r="734">
@@ -6322,7 +6322,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>98.6236249999999</v>
+        <v>98.62362499999995</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>91.612298</v>
+        <v>91.61229800000001</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>57.173463</v>
+        <v>57.17346299999997</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>27.192557</v>
+        <v>27.19255699999997</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>39.273786</v>
+        <v>39.27378599999997</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>57.306796</v>
+        <v>57.30679599999996</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>9.179288000000041</v>
+        <v>9.179288000000042</v>
       </c>
     </row>
     <row r="743">
@@ -6666,7 +6666,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>3.76278300000001</v>
+        <v>3.762783000000013</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>46.461489</v>
+        <v>46.46148900000003</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>51.575081</v>
+        <v>51.57508099999995</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>57.880259</v>
+        <v>57.88025900000002</v>
       </c>
     </row>
     <row r="783">
@@ -6706,7 +6706,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>30.773786</v>
+        <v>30.77378599999997</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>65.40776700000001</v>
+        <v>65.40776700000004</v>
       </c>
     </row>
     <row r="786">
@@ -6754,7 +6754,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>147.848544</v>
+        <v>147.8485439999999</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>45.086731</v>
+        <v>45.08673099999999</v>
       </c>
     </row>
     <row r="792">
@@ -7322,7 +7322,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>33.113592</v>
+        <v>33.11359200000004</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>13.3278319999999</v>
+        <v>13.32783199999994</v>
       </c>
     </row>
     <row r="863">
@@ -8850,7 +8850,7 @@
         <v>1051</v>
       </c>
       <c r="B1052" t="n">
-        <v>27.299029</v>
+        <v>27.29902900000002</v>
       </c>
     </row>
     <row r="1053">
@@ -8866,7 +8866,7 @@
         <v>1053</v>
       </c>
       <c r="B1054" t="n">
-        <v>148.037217</v>
+        <v>148.0372170000001</v>
       </c>
     </row>
     <row r="1055">
@@ -8874,7 +8874,7 @@
         <v>1054</v>
       </c>
       <c r="B1055" t="n">
-        <v>56.599353</v>
+        <v>56.59935299999995</v>
       </c>
     </row>
     <row r="1056">
@@ -9178,7 +9178,7 @@
         <v>1092</v>
       </c>
       <c r="B1093" t="n">
-        <v>10.496117</v>
+        <v>10.49611700000003</v>
       </c>
     </row>
     <row r="1094">
@@ -9186,7 +9186,7 @@
         <v>1093</v>
       </c>
       <c r="B1094" t="n">
-        <v>22.261489</v>
+        <v>22.26148899999998</v>
       </c>
     </row>
     <row r="1095">
@@ -9226,7 +9226,7 @@
         <v>1098</v>
       </c>
       <c r="B1099" t="n">
-        <v>11.54822</v>
+        <v>11.54822000000001</v>
       </c>
     </row>
     <row r="1100">
@@ -9234,7 +9234,7 @@
         <v>1099</v>
       </c>
       <c r="B1100" t="n">
-        <v>52.513269</v>
+        <v>52.51326900000004</v>
       </c>
     </row>
     <row r="1101">
@@ -9250,7 +9250,7 @@
         <v>1101</v>
       </c>
       <c r="B1102" t="n">
-        <v>91.53657</v>
+        <v>91.53656999999998</v>
       </c>
     </row>
     <row r="1103">
@@ -9258,7 +9258,7 @@
         <v>1102</v>
       </c>
       <c r="B1103" t="n">
-        <v>10.603236</v>
+        <v>10.60323600000004</v>
       </c>
     </row>
     <row r="1104">
@@ -9362,7 +9362,7 @@
         <v>1115</v>
       </c>
       <c r="B1116" t="n">
-        <v>32.620712</v>
+        <v>32.62071200000003</v>
       </c>
     </row>
     <row r="1117">
@@ -9370,7 +9370,7 @@
         <v>1116</v>
       </c>
       <c r="B1117" t="n">
-        <v>39.783495</v>
+        <v>39.78349500000002</v>
       </c>
     </row>
     <row r="1118">
@@ -9426,7 +9426,7 @@
         <v>1123</v>
       </c>
       <c r="B1124" t="n">
-        <v>23.225566</v>
+        <v>23.22556599999996</v>
       </c>
     </row>
     <row r="1125">
@@ -9442,7 +9442,7 @@
         <v>1125</v>
       </c>
       <c r="B1126" t="n">
-        <v>67.053398</v>
+        <v>67.05339800000002</v>
       </c>
     </row>
     <row r="1127">
@@ -9946,7 +9946,7 @@
         <v>1188</v>
       </c>
       <c r="B1189" t="n">
-        <v>9.487379000000031</v>
+        <v>9.487379000000033</v>
       </c>
     </row>
     <row r="1190">
@@ -9954,7 +9954,7 @@
         <v>1189</v>
       </c>
       <c r="B1190" t="n">
-        <v>34.159547</v>
+        <v>34.15954699999998</v>
       </c>
     </row>
     <row r="1191">
@@ -9962,7 +9962,7 @@
         <v>1190</v>
       </c>
       <c r="B1191" t="n">
-        <v>48.030744</v>
+        <v>48.03074400000003</v>
       </c>
     </row>
     <row r="1192">
@@ -9970,7 +9970,7 @@
         <v>1191</v>
       </c>
       <c r="B1192" t="n">
-        <v>15.1236249999999</v>
+        <v>15.12362499999995</v>
       </c>
     </row>
     <row r="1193">
@@ -9978,7 +9978,7 @@
         <v>1192</v>
       </c>
       <c r="B1193" t="n">
-        <v>32.708738</v>
+        <v>32.70873800000004</v>
       </c>
     </row>
     <row r="1194">
@@ -9986,7 +9986,7 @@
         <v>1193</v>
       </c>
       <c r="B1194" t="n">
-        <v>53.616505</v>
+        <v>53.61650499999996</v>
       </c>
     </row>
     <row r="1195">
@@ -9994,7 +9994,7 @@
         <v>1194</v>
       </c>
       <c r="B1195" t="n">
-        <v>68.295146</v>
+        <v>68.29514600000005</v>
       </c>
     </row>
     <row r="1196">
@@ -10026,7 +10026,7 @@
         <v>1198</v>
       </c>
       <c r="B1199" t="n">
-        <v>97.00938499999999</v>
+        <v>97.00938499999995</v>
       </c>
     </row>
     <row r="1200">
@@ -10386,7 +10386,7 @@
         <v>1243</v>
       </c>
       <c r="B1244" t="n">
-        <v>3.93851099999995</v>
+        <v>3.938510999999949</v>
       </c>
     </row>
     <row r="1245">
@@ -10402,7 +10402,7 @@
         <v>1245</v>
       </c>
       <c r="B1246" t="n">
-        <v>95.09935299999999</v>
+        <v>95.09935299999995</v>
       </c>
     </row>
     <row r="1247">
@@ -10410,7 +10410,7 @@
         <v>1246</v>
       </c>
       <c r="B1247" t="n">
-        <v>39.247896</v>
+        <v>39.24789599999997</v>
       </c>
     </row>
     <row r="1248">
@@ -10570,7 +10570,7 @@
         <v>1266</v>
       </c>
       <c r="B1267" t="n">
-        <v>48.11877</v>
+        <v>48.11877000000004</v>
       </c>
     </row>
     <row r="1268">
@@ -10586,7 +10586,7 @@
         <v>1268</v>
       </c>
       <c r="B1269" t="n">
-        <v>203.907443</v>
+        <v>203.9074429999999</v>
       </c>
     </row>
     <row r="1270">
@@ -11362,7 +11362,7 @@
         <v>1365</v>
       </c>
       <c r="B1366" t="n">
-        <v>51.6184469999999</v>
+        <v>51.61844699999995</v>
       </c>
     </row>
     <row r="1367">
@@ -11370,7 +11370,7 @@
         <v>1366</v>
       </c>
       <c r="B1367" t="n">
-        <v>31.246278</v>
+        <v>31.24627799999996</v>
       </c>
     </row>
     <row r="1368">
@@ -11866,7 +11866,7 @@
         <v>1428</v>
       </c>
       <c r="B1429" t="n">
-        <v>0.148866999999996</v>
+        <v>0.1488669999999956</v>
       </c>
     </row>
     <row r="1430">
@@ -11930,7 +11930,7 @@
         <v>1436</v>
       </c>
       <c r="B1437" t="n">
-        <v>3.23851100000002</v>
+        <v>3.238511000000017</v>
       </c>
     </row>
     <row r="1438">
@@ -11938,7 +11938,7 @@
         <v>1437</v>
       </c>
       <c r="B1438" t="n">
-        <v>23.125243</v>
+        <v>23.12524299999995</v>
       </c>
     </row>
     <row r="1439">
@@ -12698,7 +12698,7 @@
         <v>1532</v>
       </c>
       <c r="B1533" t="n">
-        <v>76.70647200000001</v>
+        <v>76.70647199999996</v>
       </c>
     </row>
     <row r="1534">
@@ -12802,7 +12802,7 @@
         <v>1545</v>
       </c>
       <c r="B1546" t="n">
-        <v>23.439806</v>
+        <v>23.43980599999998</v>
       </c>
     </row>
     <row r="1547">
@@ -12810,7 +12810,7 @@
         <v>1546</v>
       </c>
       <c r="B1547" t="n">
-        <v>48.585113</v>
+        <v>48.58511299999998</v>
       </c>
     </row>
     <row r="1548">
@@ -12818,7 +12818,7 @@
         <v>1547</v>
       </c>
       <c r="B1548" t="n">
-        <v>83.07475700000001</v>
+        <v>83.07475699999998</v>
       </c>
     </row>
     <row r="1549">
@@ -12834,7 +12834,7 @@
         <v>1549</v>
       </c>
       <c r="B1550" t="n">
-        <v>75.086084</v>
+        <v>75.08608400000003</v>
       </c>
     </row>
     <row r="1551">
@@ -12842,7 +12842,7 @@
         <v>1550</v>
       </c>
       <c r="B1551" t="n">
-        <v>51.580583</v>
+        <v>51.58058300000005</v>
       </c>
     </row>
     <row r="1552">
@@ -12874,7 +12874,7 @@
         <v>1554</v>
       </c>
       <c r="B1555" t="n">
-        <v>5.62815499999999</v>
+        <v>5.628154999999992</v>
       </c>
     </row>
     <row r="1556">
@@ -12882,7 +12882,7 @@
         <v>1555</v>
       </c>
       <c r="B1556" t="n">
-        <v>14.322977</v>
+        <v>14.32297700000004</v>
       </c>
     </row>
     <row r="1557">
@@ -12890,7 +12890,7 @@
         <v>1556</v>
       </c>
       <c r="B1557" t="n">
-        <v>94.487379</v>
+        <v>94.48737900000003</v>
       </c>
     </row>
     <row r="1558">
@@ -12906,7 +12906,7 @@
         <v>1558</v>
       </c>
       <c r="B1559" t="n">
-        <v>46.542718</v>
+        <v>46.54271800000004</v>
       </c>
     </row>
     <row r="1560">
@@ -12994,7 +12994,7 @@
         <v>1569</v>
       </c>
       <c r="B1570" t="n">
-        <v>10.5268610000001</v>
+        <v>10.52686100000005</v>
       </c>
     </row>
     <row r="1571">
@@ -13002,7 +13002,7 @@
         <v>1570</v>
       </c>
       <c r="B1571" t="n">
-        <v>73.1566340000001</v>
+        <v>73.15663400000005</v>
       </c>
     </row>
     <row r="1572">
@@ -13042,7 +13042,7 @@
         <v>1575</v>
       </c>
       <c r="B1576" t="n">
-        <v>31.472816</v>
+        <v>31.47281599999997</v>
       </c>
     </row>
     <row r="1577">
@@ -13050,7 +13050,7 @@
         <v>1576</v>
       </c>
       <c r="B1577" t="n">
-        <v>21.693528</v>
+        <v>21.69352800000001</v>
       </c>
     </row>
     <row r="1578">
@@ -13058,7 +13058,7 @@
         <v>1577</v>
       </c>
       <c r="B1578" t="n">
-        <v>13.087055</v>
+        <v>13.08705499999996</v>
       </c>
     </row>
     <row r="1579">
@@ -13082,7 +13082,7 @@
         <v>1580</v>
       </c>
       <c r="B1581" t="n">
-        <v>34.033333</v>
+        <v>34.03333299999997</v>
       </c>
     </row>
     <row r="1582">
@@ -13090,7 +13090,7 @@
         <v>1581</v>
       </c>
       <c r="B1582" t="n">
-        <v>56.265372</v>
+        <v>56.26537199999996</v>
       </c>
     </row>
     <row r="1583">
@@ -13218,7 +13218,7 @@
         <v>1597</v>
       </c>
       <c r="B1598" t="n">
-        <v>3.26375399999995</v>
+        <v>3.263753999999949</v>
       </c>
     </row>
     <row r="1599">
@@ -13466,7 +13466,7 @@
         <v>1628</v>
       </c>
       <c r="B1629" t="n">
-        <v>32.0216830000001</v>
+        <v>32.02168300000005</v>
       </c>
     </row>
     <row r="1630">
@@ -13474,7 +13474,7 @@
         <v>1629</v>
       </c>
       <c r="B1630" t="n">
-        <v>67.393851</v>
+        <v>67.39385100000004</v>
       </c>
     </row>
     <row r="1631">
@@ -13482,7 +13482,7 @@
         <v>1630</v>
       </c>
       <c r="B1631" t="n">
-        <v>22.48835</v>
+        <v>22.48834999999997</v>
       </c>
     </row>
     <row r="1632">
@@ -13962,7 +13962,7 @@
         <v>1690</v>
       </c>
       <c r="B1691" t="n">
-        <v>11.289968</v>
+        <v>11.28996800000004</v>
       </c>
     </row>
     <row r="1692">
@@ -13970,7 +13970,7 @@
         <v>1691</v>
       </c>
       <c r="B1692" t="n">
-        <v>45.104854</v>
+        <v>45.10485400000005</v>
       </c>
     </row>
     <row r="1693">
@@ -13978,7 +13978,7 @@
         <v>1692</v>
       </c>
       <c r="B1693" t="n">
-        <v>61.908091</v>
+        <v>61.90809100000001</v>
       </c>
     </row>
     <row r="1694">
@@ -13986,7 +13986,7 @@
         <v>1693</v>
       </c>
       <c r="B1694" t="n">
-        <v>63.270227</v>
+        <v>63.27022699999998</v>
       </c>
     </row>
     <row r="1695">
@@ -13994,7 +13994,7 @@
         <v>1694</v>
       </c>
       <c r="B1695" t="n">
-        <v>41.094822</v>
+        <v>41.09482200000002</v>
       </c>
     </row>
     <row r="1696">
@@ -14050,7 +14050,7 @@
         <v>1701</v>
       </c>
       <c r="B1702" t="n">
-        <v>30.054693</v>
+        <v>30.05469300000004</v>
       </c>
     </row>
     <row r="1703">
@@ -14058,7 +14058,7 @@
         <v>1702</v>
       </c>
       <c r="B1703" t="n">
-        <v>0.666342999999983</v>
+        <v>0.6663429999999835</v>
       </c>
     </row>
     <row r="1704">
@@ -14146,7 +14146,7 @@
         <v>1713</v>
       </c>
       <c r="B1714" t="n">
-        <v>12.708738</v>
+        <v>12.70873800000004</v>
       </c>
     </row>
     <row r="1715">
@@ -14154,7 +14154,7 @@
         <v>1714</v>
       </c>
       <c r="B1715" t="n">
-        <v>45.57767</v>
+        <v>45.57767000000001</v>
       </c>
     </row>
     <row r="1716">
@@ -14162,7 +14162,7 @@
         <v>1715</v>
       </c>
       <c r="B1716" t="n">
-        <v>65.6220060000001</v>
+        <v>65.62200600000006</v>
       </c>
     </row>
     <row r="1717">
@@ -14170,7 +14170,7 @@
         <v>1716</v>
       </c>
       <c r="B1717" t="n">
-        <v>57.437864</v>
+        <v>57.43786399999999</v>
       </c>
     </row>
     <row r="1718">
@@ -14178,7 +14178,7 @@
         <v>1717</v>
       </c>
       <c r="B1718" t="n">
-        <v>51.68123</v>
+        <v>51.68123000000003</v>
       </c>
     </row>
     <row r="1719">
@@ -14186,7 +14186,7 @@
         <v>1718</v>
       </c>
       <c r="B1719" t="n">
-        <v>33.106149</v>
+        <v>33.10614899999996</v>
       </c>
     </row>
     <row r="1720">
@@ -14242,7 +14242,7 @@
         <v>1725</v>
       </c>
       <c r="B1726" t="n">
-        <v>88.98932000000001</v>
+        <v>88.98932000000002</v>
       </c>
     </row>
     <row r="1727">
@@ -14250,7 +14250,7 @@
         <v>1726</v>
       </c>
       <c r="B1727" t="n">
-        <v>60.540129</v>
+        <v>60.54012899999998</v>
       </c>
     </row>
     <row r="1728">
@@ -14338,7 +14338,7 @@
         <v>1737</v>
       </c>
       <c r="B1738" t="n">
-        <v>29.007443</v>
+        <v>29.00744299999997</v>
       </c>
     </row>
     <row r="1739">
@@ -14378,7 +14378,7 @@
         <v>1742</v>
       </c>
       <c r="B1743" t="n">
-        <v>65.81715199999999</v>
+        <v>65.81715199999996</v>
       </c>
     </row>
     <row r="1744">
@@ -14426,7 +14426,7 @@
         <v>1748</v>
       </c>
       <c r="B1749" t="n">
-        <v>62.620712</v>
+        <v>62.62071200000003</v>
       </c>
     </row>
     <row r="1750">
@@ -14450,7 +14450,7 @@
         <v>1751</v>
       </c>
       <c r="B1752" t="n">
-        <v>6.705825</v>
+        <v>6.705825000000004</v>
       </c>
     </row>
     <row r="1753">
@@ -14538,7 +14538,7 @@
         <v>1762</v>
       </c>
       <c r="B1763" t="n">
-        <v>31.5233009999999</v>
+        <v>31.52330099999995</v>
       </c>
     </row>
     <row r="1764">
@@ -14546,7 +14546,7 @@
         <v>1763</v>
       </c>
       <c r="B1764" t="n">
-        <v>42.0216830000001</v>
+        <v>42.02168300000005</v>
       </c>
     </row>
     <row r="1765">
@@ -14554,7 +14554,7 @@
         <v>1764</v>
       </c>
       <c r="B1765" t="n">
-        <v>13.11877</v>
+        <v>13.11877000000004</v>
       </c>
     </row>
     <row r="1766">
@@ -14618,7 +14618,7 @@
         <v>1772</v>
       </c>
       <c r="B1773" t="n">
-        <v>41.006472</v>
+        <v>41.00647200000003</v>
       </c>
     </row>
     <row r="1774">
@@ -14634,7 +14634,7 @@
         <v>1774</v>
       </c>
       <c r="B1775" t="n">
-        <v>86.57411</v>
+        <v>86.57411000000002</v>
       </c>
     </row>
     <row r="1776">
@@ -14722,7 +14722,7 @@
         <v>1785</v>
       </c>
       <c r="B1786" t="n">
-        <v>31.176375</v>
+        <v>31.17637500000001</v>
       </c>
     </row>
     <row r="1787">
@@ -14730,7 +14730,7 @@
         <v>1786</v>
       </c>
       <c r="B1787" t="n">
-        <v>65.14239499999999</v>
+        <v>65.14239499999996</v>
       </c>
     </row>
     <row r="1788">
@@ -14738,7 +14738,7 @@
         <v>1787</v>
       </c>
       <c r="B1788" t="n">
-        <v>80.22459499999999</v>
+        <v>80.22459500000002</v>
       </c>
     </row>
     <row r="1789">
@@ -14746,7 +14746,7 @@
         <v>1788</v>
       </c>
       <c r="B1789" t="n">
-        <v>73.509709</v>
+        <v>73.50970900000004</v>
       </c>
     </row>
     <row r="1790">
@@ -14754,7 +14754,7 @@
         <v>1789</v>
       </c>
       <c r="B1790" t="n">
-        <v>60.785761</v>
+        <v>60.78576099999998</v>
       </c>
     </row>
     <row r="1791">
@@ -14762,7 +14762,7 @@
         <v>1790</v>
       </c>
       <c r="B1791" t="n">
-        <v>37.1288029999999</v>
+        <v>37.12880299999995</v>
       </c>
     </row>
     <row r="1792">
@@ -14810,7 +14810,7 @@
         <v>1796</v>
       </c>
       <c r="B1797" t="n">
-        <v>46.643366</v>
+        <v>46.64336600000001</v>
       </c>
     </row>
     <row r="1798">
@@ -14818,7 +14818,7 @@
         <v>1797</v>
       </c>
       <c r="B1798" t="n">
-        <v>95.48349499999991</v>
+        <v>95.48349499999995</v>
       </c>
     </row>
     <row r="1799">
@@ -14826,7 +14826,7 @@
         <v>1798</v>
       </c>
       <c r="B1799" t="n">
-        <v>55.193204</v>
+        <v>55.19320400000004</v>
       </c>
     </row>
     <row r="1800">
@@ -15394,7 +15394,7 @@
         <v>1869</v>
       </c>
       <c r="B1870" t="n">
-        <v>1.85145599999998</v>
+        <v>1.851455999999985</v>
       </c>
     </row>
     <row r="1871">
@@ -15498,7 +15498,7 @@
         <v>1882</v>
       </c>
       <c r="B1883" t="n">
-        <v>67.973786</v>
+        <v>67.97378600000002</v>
       </c>
     </row>
     <row r="1884">
@@ -15514,7 +15514,7 @@
         <v>1884</v>
       </c>
       <c r="B1885" t="n">
-        <v>154.582201</v>
+        <v>154.5822010000001</v>
       </c>
     </row>
     <row r="1886">
@@ -15546,7 +15546,7 @@
         <v>1888</v>
       </c>
       <c r="B1889" t="n">
-        <v>97.683819</v>
+        <v>97.68381899999997</v>
       </c>
     </row>
     <row r="1890">
@@ -15570,7 +15570,7 @@
         <v>1891</v>
       </c>
       <c r="B1892" t="n">
-        <v>92.255016</v>
+        <v>92.25501599999996</v>
       </c>
     </row>
     <row r="1893">
@@ -15602,7 +15602,7 @@
         <v>1895</v>
       </c>
       <c r="B1896" t="n">
-        <v>82.12233000000001</v>
+        <v>82.12233000000003</v>
       </c>
     </row>
     <row r="1897">
@@ -15610,7 +15610,7 @@
         <v>1896</v>
       </c>
       <c r="B1897" t="n">
-        <v>22.002265</v>
+        <v>22.00226499999997</v>
       </c>
     </row>
     <row r="1898">
@@ -15730,7 +15730,7 @@
         <v>1911</v>
       </c>
       <c r="B1912" t="n">
-        <v>99.2411</v>
+        <v>99.24109999999996</v>
       </c>
     </row>
     <row r="1913">
@@ -15738,7 +15738,7 @@
         <v>1912</v>
       </c>
       <c r="B1913" t="n">
-        <v>63.534951</v>
+        <v>63.53495099999998</v>
       </c>
     </row>
     <row r="1914">
@@ -15746,7 +15746,7 @@
         <v>1913</v>
       </c>
       <c r="B1914" t="n">
-        <v>58.976375</v>
+        <v>58.97637499999996</v>
       </c>
     </row>
     <row r="1915">
@@ -15762,7 +15762,7 @@
         <v>1915</v>
       </c>
       <c r="B1916" t="n">
-        <v>67.444337</v>
+        <v>67.44433700000002</v>
       </c>
     </row>
     <row r="1917">
@@ -16178,7 +16178,7 @@
         <v>1967</v>
       </c>
       <c r="B1968" t="n">
-        <v>36.504531</v>
+        <v>36.50453100000004</v>
       </c>
     </row>
     <row r="1969">
@@ -16186,7 +16186,7 @@
         <v>1968</v>
       </c>
       <c r="B1969" t="n">
-        <v>22.740129</v>
+        <v>22.74012900000002</v>
       </c>
     </row>
     <row r="1970">
@@ -16738,7 +16738,7 @@
         <v>2037</v>
       </c>
       <c r="B2038" t="n">
-        <v>56.8330099999999</v>
+        <v>56.83300999999994</v>
       </c>
     </row>
     <row r="2039">
@@ -16842,7 +16842,7 @@
         <v>2050</v>
       </c>
       <c r="B2051" t="n">
-        <v>21.177023</v>
+        <v>21.17702299999996</v>
       </c>
     </row>
     <row r="2052">
@@ -16850,7 +16850,7 @@
         <v>2051</v>
       </c>
       <c r="B2052" t="n">
-        <v>96.126537</v>
+        <v>96.12653699999998</v>
       </c>
     </row>
     <row r="2053">
@@ -16922,7 +16922,7 @@
         <v>2060</v>
       </c>
       <c r="B2061" t="n">
-        <v>51.447896</v>
+        <v>51.44789600000001</v>
       </c>
     </row>
     <row r="2062">
@@ -16930,7 +16930,7 @@
         <v>2061</v>
       </c>
       <c r="B2062" t="n">
-        <v>96.908738</v>
+        <v>96.90873799999997</v>
       </c>
     </row>
     <row r="2063">
@@ -16946,7 +16946,7 @@
         <v>2063</v>
       </c>
       <c r="B2064" t="n">
-        <v>29.871521</v>
+        <v>29.87152100000003</v>
       </c>
     </row>
     <row r="2065">
@@ -17026,7 +17026,7 @@
         <v>2073</v>
       </c>
       <c r="B2074" t="n">
-        <v>25.7983819999999</v>
+        <v>25.79838199999995</v>
       </c>
     </row>
     <row r="2075">
@@ -17042,7 +17042,7 @@
         <v>2075</v>
       </c>
       <c r="B2076" t="n">
-        <v>83.655016</v>
+        <v>83.65501600000005</v>
       </c>
     </row>
     <row r="2077">
@@ -17058,7 +17058,7 @@
         <v>2077</v>
       </c>
       <c r="B2078" t="n">
-        <v>93.875728</v>
+        <v>93.87572799999998</v>
       </c>
     </row>
     <row r="2079">
@@ -17066,7 +17066,7 @@
         <v>2078</v>
       </c>
       <c r="B2079" t="n">
-        <v>71.397735</v>
+        <v>71.39773500000001</v>
       </c>
     </row>
     <row r="2080">
@@ -17074,7 +17074,7 @@
         <v>2079</v>
       </c>
       <c r="B2080" t="n">
-        <v>9.80226500000003</v>
+        <v>9.802265000000034</v>
       </c>
     </row>
     <row r="2081">
@@ -17082,7 +17082,7 @@
         <v>2080</v>
       </c>
       <c r="B2081" t="n">
-        <v>21.107443</v>
+        <v>21.10744299999999</v>
       </c>
     </row>
     <row r="2082">
@@ -17090,7 +17090,7 @@
         <v>2081</v>
       </c>
       <c r="B2082" t="n">
-        <v>29.493528</v>
+        <v>29.49352799999997</v>
       </c>
     </row>
     <row r="2083">
@@ -17098,7 +17098,7 @@
         <v>2082</v>
       </c>
       <c r="B2083" t="n">
-        <v>5.95631100000003</v>
+        <v>5.956311000000028</v>
       </c>
     </row>
     <row r="2084">
@@ -17442,7 +17442,7 @@
         <v>2125</v>
       </c>
       <c r="B2126" t="n">
-        <v>6.08252400000003</v>
+        <v>6.082524000000035</v>
       </c>
     </row>
     <row r="2127">
@@ -17450,7 +17450,7 @@
         <v>2126</v>
       </c>
       <c r="B2127" t="n">
-        <v>40.042071</v>
+        <v>40.04207099999996</v>
       </c>
     </row>
     <row r="2128">
@@ -17458,7 +17458,7 @@
         <v>2127</v>
       </c>
       <c r="B2128" t="n">
-        <v>18.364401</v>
+        <v>18.36440100000004</v>
       </c>
     </row>
     <row r="2129">
@@ -17466,7 +17466,7 @@
         <v>2128</v>
       </c>
       <c r="B2129" t="n">
-        <v>14.392233</v>
+        <v>14.39223300000003</v>
       </c>
     </row>
     <row r="2130">
@@ -17474,7 +17474,7 @@
         <v>2129</v>
       </c>
       <c r="B2130" t="n">
-        <v>3.36440100000004</v>
+        <v>3.364401000000043</v>
       </c>
     </row>
     <row r="2131">
@@ -18058,7 +18058,7 @@
         <v>2202</v>
       </c>
       <c r="B2203" t="n">
-        <v>15.117476</v>
+        <v>15.11747600000001</v>
       </c>
     </row>
     <row r="2204">
@@ -18082,7 +18082,7 @@
         <v>2205</v>
       </c>
       <c r="B2206" t="n">
-        <v>11.769579</v>
+        <v>11.76957900000002</v>
       </c>
     </row>
     <row r="2207">
@@ -18090,7 +18090,7 @@
         <v>2206</v>
       </c>
       <c r="B2207" t="n">
-        <v>72.74077699999999</v>
+        <v>72.74077699999998</v>
       </c>
     </row>
     <row r="2208">
@@ -18194,7 +18194,7 @@
         <v>2219</v>
       </c>
       <c r="B2220" t="n">
-        <v>5.52135899999996</v>
+        <v>5.521358999999961</v>
       </c>
     </row>
     <row r="2221">
@@ -18386,7 +18386,7 @@
         <v>2243</v>
       </c>
       <c r="B2244" t="n">
-        <v>48.768285</v>
+        <v>48.76828499999999</v>
       </c>
     </row>
     <row r="2245">
@@ -18394,7 +18394,7 @@
         <v>2244</v>
       </c>
       <c r="B2245" t="n">
-        <v>74.247573</v>
+        <v>74.24757299999999</v>
       </c>
     </row>
     <row r="2246">
@@ -18402,7 +18402,7 @@
         <v>2245</v>
       </c>
       <c r="B2246" t="n">
-        <v>86.447896</v>
+        <v>86.44789600000001</v>
       </c>
     </row>
     <row r="2247">
@@ -18410,7 +18410,7 @@
         <v>2246</v>
       </c>
       <c r="B2247" t="n">
-        <v>75.15534</v>
+        <v>75.15534000000002</v>
       </c>
     </row>
     <row r="2248">
@@ -18418,7 +18418,7 @@
         <v>2247</v>
       </c>
       <c r="B2248" t="n">
-        <v>13.641748</v>
+        <v>13.64174800000001</v>
       </c>
     </row>
     <row r="2249">
@@ -18434,7 +18434,7 @@
         <v>2249</v>
       </c>
       <c r="B2250" t="n">
-        <v>10.9870550000001</v>
+        <v>10.98705500000005</v>
       </c>
     </row>
     <row r="2251">
@@ -18442,7 +18442,7 @@
         <v>2250</v>
       </c>
       <c r="B2251" t="n">
-        <v>20.444984</v>
+        <v>20.44498399999998</v>
       </c>
     </row>
     <row r="2252">
@@ -18450,7 +18450,7 @@
         <v>2251</v>
       </c>
       <c r="B2252" t="n">
-        <v>11.321359</v>
+        <v>11.32135900000003</v>
       </c>
     </row>
     <row r="2253">
@@ -18474,7 +18474,7 @@
         <v>2254</v>
       </c>
       <c r="B2255" t="n">
-        <v>37.2362460000001</v>
+        <v>37.23624600000005</v>
       </c>
     </row>
     <row r="2256">
@@ -18666,7 +18666,7 @@
         <v>2278</v>
       </c>
       <c r="B2279" t="n">
-        <v>14.000971</v>
+        <v>14.00097100000005</v>
       </c>
     </row>
     <row r="2280">
@@ -19530,7 +19530,7 @@
         <v>2386</v>
       </c>
       <c r="B2387" t="n">
-        <v>59.555987</v>
+        <v>59.55598699999996</v>
       </c>
     </row>
     <row r="2388">
@@ -19570,7 +19570,7 @@
         <v>2391</v>
       </c>
       <c r="B2392" t="n">
-        <v>19.158576</v>
+        <v>19.15857600000004</v>
       </c>
     </row>
     <row r="2393">
@@ -19626,7 +19626,7 @@
         <v>2398</v>
       </c>
       <c r="B2399" t="n">
-        <v>86.088673</v>
+        <v>86.08867299999997</v>
       </c>
     </row>
     <row r="2400">
@@ -19730,7 +19730,7 @@
         <v>2411</v>
       </c>
       <c r="B2412" t="n">
-        <v>30.495793</v>
+        <v>30.49579300000005</v>
       </c>
     </row>
     <row r="2413">
@@ -19738,7 +19738,7 @@
         <v>2412</v>
       </c>
       <c r="B2413" t="n">
-        <v>13.932039</v>
+        <v>13.93203900000003</v>
       </c>
     </row>
     <row r="2414">
@@ -19810,7 +19810,7 @@
         <v>2421</v>
       </c>
       <c r="B2422" t="n">
-        <v>53.35178</v>
+        <v>53.35177999999996</v>
       </c>
     </row>
     <row r="2423">
@@ -19826,7 +19826,7 @@
         <v>2423</v>
       </c>
       <c r="B2424" t="n">
-        <v>43.616505</v>
+        <v>43.61650499999996</v>
       </c>
     </row>
     <row r="2425">
@@ -19922,7 +19922,7 @@
         <v>2435</v>
       </c>
       <c r="B2436" t="n">
-        <v>96.76957899999999</v>
+        <v>96.76957900000002</v>
       </c>
     </row>
     <row r="2437">
@@ -19930,7 +19930,7 @@
         <v>2436</v>
       </c>
       <c r="B2437" t="n">
-        <v>95.811003</v>
+        <v>95.81100300000003</v>
       </c>
     </row>
     <row r="2438">
@@ -19938,7 +19938,7 @@
         <v>2437</v>
       </c>
       <c r="B2438" t="n">
-        <v>86.56148900000009</v>
+        <v>86.56148900000005</v>
       </c>
     </row>
     <row r="2439">
@@ -19946,7 +19946,7 @@
         <v>2438</v>
       </c>
       <c r="B2439" t="n">
-        <v>50.6029129999999</v>
+        <v>50.60291299999994</v>
       </c>
     </row>
     <row r="2440">
@@ -19978,7 +19978,7 @@
         <v>2442</v>
       </c>
       <c r="B2443" t="n">
-        <v>8.81844699999999</v>
+        <v>8.818446999999992</v>
       </c>
     </row>
     <row r="2444">
@@ -19986,7 +19986,7 @@
         <v>2443</v>
       </c>
       <c r="B2444" t="n">
-        <v>25.337864</v>
+        <v>25.33786399999997</v>
       </c>
     </row>
     <row r="2445">
@@ -19994,7 +19994,7 @@
         <v>2444</v>
       </c>
       <c r="B2445" t="n">
-        <v>29.139806</v>
+        <v>29.13980600000002</v>
       </c>
     </row>
     <row r="2446">
@@ -20002,7 +20002,7 @@
         <v>2445</v>
       </c>
       <c r="B2446" t="n">
-        <v>68.383495</v>
+        <v>68.38349500000004</v>
       </c>
     </row>
     <row r="2447">
@@ -20010,7 +20010,7 @@
         <v>2446</v>
       </c>
       <c r="B2447" t="n">
-        <v>137.36246</v>
+        <v>137.3624600000001</v>
       </c>
     </row>
     <row r="2448">
@@ -20018,7 +20018,7 @@
         <v>2447</v>
       </c>
       <c r="B2448" t="n">
-        <v>46.8763750000001</v>
+        <v>46.87637500000005</v>
       </c>
     </row>
     <row r="2449">
@@ -20098,7 +20098,7 @@
         <v>2457</v>
       </c>
       <c r="B2458" t="n">
-        <v>10.873463</v>
+        <v>10.87346300000002</v>
       </c>
     </row>
     <row r="2459">
@@ -20106,7 +20106,7 @@
         <v>2458</v>
       </c>
       <c r="B2459" t="n">
-        <v>68.868932</v>
+        <v>68.86893199999997</v>
       </c>
     </row>
     <row r="2460">
@@ -20114,7 +20114,7 @@
         <v>2459</v>
       </c>
       <c r="B2460" t="n">
-        <v>107.002589</v>
+        <v>107.0025889999999</v>
       </c>
     </row>
     <row r="2461">
@@ -20130,7 +20130,7 @@
         <v>2461</v>
       </c>
       <c r="B2462" t="n">
-        <v>95.394822</v>
+        <v>95.39482199999998</v>
       </c>
     </row>
     <row r="2463">
@@ -20138,7 +20138,7 @@
         <v>2462</v>
       </c>
       <c r="B2463" t="n">
-        <v>44.291262</v>
+        <v>44.29126199999996</v>
       </c>
     </row>
     <row r="2464">
@@ -20778,7 +20778,7 @@
         <v>2542</v>
       </c>
       <c r="B2543" t="n">
-        <v>52.506796</v>
+        <v>52.50679600000001</v>
       </c>
     </row>
     <row r="2544">
@@ -20874,7 +20874,7 @@
         <v>2554</v>
       </c>
       <c r="B2555" t="n">
-        <v>12.103236</v>
+        <v>12.10323600000004</v>
       </c>
     </row>
     <row r="2556">
@@ -20882,7 +20882,7 @@
         <v>2555</v>
       </c>
       <c r="B2556" t="n">
-        <v>46.384466</v>
+        <v>46.38446599999997</v>
       </c>
     </row>
     <row r="2557">
@@ -20890,7 +20890,7 @@
         <v>2556</v>
       </c>
       <c r="B2557" t="n">
-        <v>57.128479</v>
+        <v>57.12847899999997</v>
       </c>
     </row>
     <row r="2558">
@@ -20898,7 +20898,7 @@
         <v>2557</v>
       </c>
       <c r="B2558" t="n">
-        <v>51.599029</v>
+        <v>51.59902899999997</v>
       </c>
     </row>
     <row r="2559">
@@ -21066,7 +21066,7 @@
         <v>2578</v>
       </c>
       <c r="B2579" t="n">
-        <v>15.980583</v>
+        <v>15.98058300000002</v>
       </c>
     </row>
     <row r="2580">
@@ -21074,7 +21074,7 @@
         <v>2579</v>
       </c>
       <c r="B2580" t="n">
-        <v>48.137217</v>
+        <v>48.13721699999996</v>
       </c>
     </row>
     <row r="2581">
@@ -21082,7 +21082,7 @@
         <v>2580</v>
       </c>
       <c r="B2581" t="n">
-        <v>60.842395</v>
+        <v>60.84239500000001</v>
       </c>
     </row>
     <row r="2582">
@@ -21090,7 +21090,7 @@
         <v>2581</v>
       </c>
       <c r="B2582" t="n">
-        <v>66.31520999999999</v>
+        <v>66.31520999999998</v>
       </c>
     </row>
     <row r="2583">
@@ -21098,7 +21098,7 @@
         <v>2582</v>
       </c>
       <c r="B2583" t="n">
-        <v>27.519417</v>
+        <v>27.51941699999998</v>
       </c>
     </row>
     <row r="2584">
@@ -21162,7 +21162,7 @@
         <v>2590</v>
       </c>
       <c r="B2591" t="n">
-        <v>82.046926</v>
+        <v>82.04692599999998</v>
       </c>
     </row>
     <row r="2592">
@@ -21258,7 +21258,7 @@
         <v>2602</v>
       </c>
       <c r="B2603" t="n">
-        <v>16.586084</v>
+        <v>16.58608400000003</v>
       </c>
     </row>
     <row r="2604">
@@ -21266,7 +21266,7 @@
         <v>2603</v>
       </c>
       <c r="B2604" t="n">
-        <v>41.813269</v>
+        <v>41.81326899999999</v>
       </c>
     </row>
     <row r="2605">
@@ -21274,7 +21274,7 @@
         <v>2604</v>
       </c>
       <c r="B2605" t="n">
-        <v>50.962136</v>
+        <v>50.96213599999999</v>
       </c>
     </row>
     <row r="2606">
@@ -21282,7 +21282,7 @@
         <v>2605</v>
       </c>
       <c r="B2606" t="n">
-        <v>38.004854</v>
+        <v>38.00485400000002</v>
       </c>
     </row>
     <row r="2607">
@@ -21354,7 +21354,7 @@
         <v>2614</v>
       </c>
       <c r="B2615" t="n">
-        <v>32.670874</v>
+        <v>32.67087400000003</v>
       </c>
     </row>
     <row r="2616">
@@ -21458,7 +21458,7 @@
         <v>2627</v>
       </c>
       <c r="B2628" t="n">
-        <v>27.695793</v>
+        <v>27.69579299999998</v>
       </c>
     </row>
     <row r="2629">
@@ -21466,7 +21466,7 @@
         <v>2628</v>
       </c>
       <c r="B2629" t="n">
-        <v>46.353074</v>
+        <v>46.35307399999999</v>
       </c>
     </row>
     <row r="2630">
@@ -21474,7 +21474,7 @@
         <v>2629</v>
       </c>
       <c r="B2630" t="n">
-        <v>54.373139</v>
+        <v>54.37313900000004</v>
       </c>
     </row>
     <row r="2631">
@@ -21482,7 +21482,7 @@
         <v>2630</v>
       </c>
       <c r="B2631" t="n">
-        <v>35.381877</v>
+        <v>35.38187700000003</v>
       </c>
     </row>
     <row r="2632">
@@ -21546,7 +21546,7 @@
         <v>2638</v>
       </c>
       <c r="B2639" t="n">
-        <v>7.42491900000005</v>
+        <v>7.424919000000045</v>
       </c>
     </row>
     <row r="2640">
@@ -24722,7 +24722,7 @@
         <v>3035</v>
       </c>
       <c r="B3036" t="n">
-        <v>16.6427179999999</v>
+        <v>16.64271799999995</v>
       </c>
     </row>
     <row r="3037">
@@ -24730,7 +24730,7 @@
         <v>3036</v>
       </c>
       <c r="B3037" t="n">
-        <v>31.088026</v>
+        <v>31.08802600000001</v>
       </c>
     </row>
     <row r="3038">
@@ -24738,7 +24738,7 @@
         <v>3037</v>
       </c>
       <c r="B3038" t="n">
-        <v>41.5233009999999</v>
+        <v>41.52330099999995</v>
       </c>
     </row>
     <row r="3039">
@@ -24746,7 +24746,7 @@
         <v>3038</v>
       </c>
       <c r="B3039" t="n">
-        <v>17.304854</v>
+        <v>17.30485399999998</v>
       </c>
     </row>
     <row r="3040">
@@ -24810,7 +24810,7 @@
         <v>3046</v>
       </c>
       <c r="B3047" t="n">
-        <v>32.46246</v>
+        <v>32.46245999999996</v>
       </c>
     </row>
     <row r="3048">
@@ -24906,7 +24906,7 @@
         <v>3058</v>
       </c>
       <c r="B3059" t="n">
-        <v>1.49126200000001</v>
+        <v>1.491262000000006</v>
       </c>
     </row>
     <row r="3060">
@@ -24914,7 +24914,7 @@
         <v>3059</v>
       </c>
       <c r="B3060" t="n">
-        <v>39.663107</v>
+        <v>39.66310699999997</v>
       </c>
     </row>
     <row r="3061">
@@ -24922,7 +24922,7 @@
         <v>3060</v>
       </c>
       <c r="B3061" t="n">
-        <v>63.004854</v>
+        <v>63.00485400000002</v>
       </c>
     </row>
     <row r="3062">
@@ -24938,7 +24938,7 @@
         <v>3062</v>
       </c>
       <c r="B3063" t="n">
-        <v>43.421036</v>
+        <v>43.42103599999996</v>
       </c>
     </row>
     <row r="3064">
@@ -25002,7 +25002,7 @@
         <v>3070</v>
       </c>
       <c r="B3071" t="n">
-        <v>33.654369</v>
+        <v>33.65436899999997</v>
       </c>
     </row>
     <row r="3072">
@@ -25106,7 +25106,7 @@
         <v>3083</v>
       </c>
       <c r="B3084" t="n">
-        <v>32.903883</v>
+        <v>32.90388299999995</v>
       </c>
     </row>
     <row r="3085">
@@ -25114,7 +25114,7 @@
         <v>3084</v>
       </c>
       <c r="B3085" t="n">
-        <v>50.565049</v>
+        <v>50.56504900000004</v>
       </c>
     </row>
     <row r="3086">
@@ -25122,7 +25122,7 @@
         <v>3085</v>
       </c>
       <c r="B3086" t="n">
-        <v>67.620712</v>
+        <v>67.62071200000003</v>
       </c>
     </row>
     <row r="3087">
@@ -25130,7 +25130,7 @@
         <v>3086</v>
       </c>
       <c r="B3087" t="n">
-        <v>57.109709</v>
+        <v>57.10970899999995</v>
       </c>
     </row>
     <row r="3088">
@@ -25138,7 +25138,7 @@
         <v>3087</v>
       </c>
       <c r="B3088" t="n">
-        <v>2.33009700000002</v>
+        <v>2.330097000000023</v>
       </c>
     </row>
     <row r="3089">
@@ -25170,7 +25170,7 @@
         <v>3091</v>
       </c>
       <c r="B3092" t="n">
-        <v>22.582524</v>
+        <v>22.58252400000003</v>
       </c>
     </row>
     <row r="3093">
@@ -25194,7 +25194,7 @@
         <v>3094</v>
       </c>
       <c r="B3095" t="n">
-        <v>50.016181</v>
+        <v>50.01618099999996</v>
       </c>
     </row>
     <row r="3096">
@@ -25386,7 +25386,7 @@
         <v>3118</v>
       </c>
       <c r="B3119" t="n">
-        <v>7.399676</v>
+        <v>7.399675999999999</v>
       </c>
     </row>
     <row r="3120">
@@ -26834,7 +26834,7 @@
         <v>3299</v>
       </c>
       <c r="B3300" t="n">
-        <v>65.041748</v>
+        <v>65.04174799999998</v>
       </c>
     </row>
     <row r="3301">
@@ -26842,7 +26842,7 @@
         <v>3300</v>
       </c>
       <c r="B3301" t="n">
-        <v>105.533657</v>
+        <v>105.5336569999999</v>
       </c>
     </row>
     <row r="3302">
@@ -26866,7 +26866,7 @@
         <v>3303</v>
       </c>
       <c r="B3304" t="n">
-        <v>45.218123</v>
+        <v>45.21812299999999</v>
       </c>
     </row>
     <row r="3305">
@@ -26874,7 +26874,7 @@
         <v>3304</v>
       </c>
       <c r="B3305" t="n">
-        <v>27.0527509999999</v>
+        <v>27.05275099999994</v>
       </c>
     </row>
     <row r="3306">
@@ -26882,7 +26882,7 @@
         <v>3305</v>
       </c>
       <c r="B3306" t="n">
-        <v>31.769256</v>
+        <v>31.76925600000004</v>
       </c>
     </row>
     <row r="3307">
@@ -26890,7 +26890,7 @@
         <v>3306</v>
       </c>
       <c r="B3307" t="n">
-        <v>30.811003</v>
+        <v>30.81100300000003</v>
       </c>
     </row>
     <row r="3308">
@@ -26898,7 +26898,7 @@
         <v>3307</v>
       </c>
       <c r="B3308" t="n">
-        <v>14.1589</v>
+        <v>14.15890000000002</v>
       </c>
     </row>
     <row r="3309">
@@ -27986,7 +27986,7 @@
         <v>3443</v>
       </c>
       <c r="B3444" t="n">
-        <v>32.986084</v>
+        <v>32.98608400000001</v>
       </c>
     </row>
     <row r="3445">
@@ -27994,7 +27994,7 @@
         <v>3444</v>
       </c>
       <c r="B3445" t="n">
-        <v>71.775728</v>
+        <v>71.77572799999996</v>
       </c>
     </row>
     <row r="3446">
@@ -28002,7 +28002,7 @@
         <v>3445</v>
       </c>
       <c r="B3446" t="n">
-        <v>91.68123</v>
+        <v>91.68123000000003</v>
       </c>
     </row>
     <row r="3447">
@@ -28010,7 +28010,7 @@
         <v>3446</v>
       </c>
       <c r="B3447" t="n">
-        <v>81.73171499999999</v>
+        <v>81.73171500000001</v>
       </c>
     </row>
     <row r="3448">
@@ -28018,7 +28018,7 @@
         <v>3447</v>
       </c>
       <c r="B3448" t="n">
-        <v>15.943042</v>
+        <v>15.94304199999999</v>
       </c>
     </row>
     <row r="3449">
@@ -28026,7 +28026,7 @@
         <v>3448</v>
       </c>
       <c r="B3449" t="n">
-        <v>0.615210000000047</v>
+        <v>0.6152100000000473</v>
       </c>
     </row>
     <row r="3450">
@@ -28034,7 +28034,7 @@
         <v>3449</v>
       </c>
       <c r="B3450" t="n">
-        <v>13.212945</v>
+        <v>13.21294499999999</v>
       </c>
     </row>
     <row r="3451">
@@ -28042,7 +28042,7 @@
         <v>3450</v>
       </c>
       <c r="B3451" t="n">
-        <v>23.692233</v>
+        <v>23.69223299999999</v>
       </c>
     </row>
     <row r="3452">
@@ -28050,7 +28050,7 @@
         <v>3451</v>
       </c>
       <c r="B3452" t="n">
-        <v>14.543366</v>
+        <v>14.54336599999999</v>
       </c>
     </row>
     <row r="3453">
@@ -28074,7 +28074,7 @@
         <v>3454</v>
       </c>
       <c r="B3455" t="n">
-        <v>11.6427179999999</v>
+        <v>11.64271799999995</v>
       </c>
     </row>
     <row r="3456">
@@ -28170,7 +28170,7 @@
         <v>3466</v>
       </c>
       <c r="B3467" t="n">
-        <v>13.338835</v>
+        <v>13.33883500000002</v>
       </c>
     </row>
     <row r="3468">
@@ -28178,7 +28178,7 @@
         <v>3467</v>
       </c>
       <c r="B3468" t="n">
-        <v>64.114887</v>
+        <v>64.11488699999995</v>
       </c>
     </row>
     <row r="3469">
@@ -28186,7 +28186,7 @@
         <v>3468</v>
       </c>
       <c r="B3469" t="n">
-        <v>83.86278299999999</v>
+        <v>83.86278300000004</v>
       </c>
     </row>
     <row r="3470">
@@ -28202,7 +28202,7 @@
         <v>3470</v>
       </c>
       <c r="B3471" t="n">
-        <v>73.560194</v>
+        <v>73.56019400000002</v>
       </c>
     </row>
     <row r="3472">
@@ -28762,7 +28762,7 @@
         <v>3540</v>
       </c>
       <c r="B3541" t="n">
-        <v>10.533333</v>
+        <v>10.53333299999997</v>
       </c>
     </row>
     <row r="3542">
@@ -28770,7 +28770,7 @@
         <v>3541</v>
       </c>
       <c r="B3542" t="n">
-        <v>21.302589</v>
+        <v>21.30258900000001</v>
       </c>
     </row>
     <row r="3543">
@@ -28778,7 +28778,7 @@
         <v>3542</v>
       </c>
       <c r="B3543" t="n">
-        <v>7.29870600000004</v>
+        <v>7.298706000000038</v>
       </c>
     </row>
     <row r="3544">
@@ -28946,7 +28946,7 @@
         <v>3563</v>
       </c>
       <c r="B3564" t="n">
-        <v>41.359223</v>
+        <v>41.35922300000004</v>
       </c>
     </row>
     <row r="3565">
@@ -28954,7 +28954,7 @@
         <v>3564</v>
       </c>
       <c r="B3565" t="n">
-        <v>57.506796</v>
+        <v>57.50679600000001</v>
       </c>
     </row>
     <row r="3566">
@@ -28962,7 +28962,7 @@
         <v>3565</v>
       </c>
       <c r="B3566" t="n">
-        <v>66.731392</v>
+        <v>66.73139200000003</v>
       </c>
     </row>
     <row r="3567">
@@ -29330,7 +29330,7 @@
         <v>3611</v>
       </c>
       <c r="B3612" t="n">
-        <v>19.07055</v>
+        <v>19.07055000000003</v>
       </c>
     </row>
     <row r="3613">
@@ -29338,7 +29338,7 @@
         <v>3612</v>
       </c>
       <c r="B3613" t="n">
-        <v>31.239482</v>
+        <v>31.23948199999995</v>
       </c>
     </row>
     <row r="3614">
@@ -29346,7 +29346,7 @@
         <v>3613</v>
       </c>
       <c r="B3614" t="n">
-        <v>24.8588999999999</v>
+        <v>24.85889999999995</v>
       </c>
     </row>
     <row r="3615">
@@ -29522,7 +29522,7 @@
         <v>3635</v>
       </c>
       <c r="B3636" t="n">
-        <v>23.446278</v>
+        <v>23.44627800000001</v>
       </c>
     </row>
     <row r="3637">
@@ -29530,7 +29530,7 @@
         <v>3636</v>
       </c>
       <c r="B3637" t="n">
-        <v>39.253722</v>
+        <v>39.25372200000004</v>
       </c>
     </row>
     <row r="3638">
@@ -29538,7 +29538,7 @@
         <v>3637</v>
       </c>
       <c r="B3638" t="n">
-        <v>36.435275</v>
+        <v>36.43527500000005</v>
       </c>
     </row>
     <row r="3639">
@@ -30298,7 +30298,7 @@
         <v>3732</v>
       </c>
       <c r="B3733" t="n">
-        <v>1.10097099999996</v>
+        <v>1.100970999999959</v>
       </c>
     </row>
     <row r="3734">
@@ -30306,7 +30306,7 @@
         <v>3733</v>
       </c>
       <c r="B3734" t="n">
-        <v>34.871521</v>
+        <v>34.87152100000003</v>
       </c>
     </row>
     <row r="3735">
@@ -30314,7 +30314,7 @@
         <v>3734</v>
       </c>
       <c r="B3735" t="n">
-        <v>43.553722</v>
+        <v>43.55372199999999</v>
       </c>
     </row>
     <row r="3736">
@@ -30538,7 +30538,7 @@
         <v>3762</v>
       </c>
       <c r="B3763" t="n">
-        <v>20.615534</v>
+        <v>20.61553400000003</v>
       </c>
     </row>
     <row r="3764">
@@ -30546,7 +30546,7 @@
         <v>3763</v>
       </c>
       <c r="B3764" t="n">
-        <v>25.17411</v>
+        <v>25.17411000000004</v>
       </c>
     </row>
     <row r="3765">
@@ -30682,7 +30682,7 @@
         <v>3780</v>
       </c>
       <c r="B3781" t="n">
-        <v>29.713916</v>
+        <v>29.71391600000004</v>
       </c>
     </row>
     <row r="3782">
@@ -30690,7 +30690,7 @@
         <v>3781</v>
       </c>
       <c r="B3782" t="n">
-        <v>65.14304199999999</v>
+        <v>65.14304200000004</v>
       </c>
     </row>
     <row r="3783">
@@ -30698,7 +30698,7 @@
         <v>3782</v>
       </c>
       <c r="B3783" t="n">
-        <v>67.355987</v>
+        <v>67.35598700000003</v>
       </c>
     </row>
     <row r="3784">
@@ -30706,7 +30706,7 @@
         <v>3783</v>
       </c>
       <c r="B3784" t="n">
-        <v>6.97734600000001</v>
+        <v>6.977346000000011</v>
       </c>
     </row>
     <row r="3785">
@@ -30714,7 +30714,7 @@
         <v>3784</v>
       </c>
       <c r="B3785" t="n">
-        <v>11.025243</v>
+        <v>11.02524300000005</v>
       </c>
     </row>
     <row r="3786">
@@ -30722,7 +30722,7 @@
         <v>3785</v>
       </c>
       <c r="B3786" t="n">
-        <v>20.628155</v>
+        <v>20.62815499999999</v>
       </c>
     </row>
     <row r="3787">
@@ -30730,7 +30730,7 @@
         <v>3786</v>
       </c>
       <c r="B3787" t="n">
-        <v>29.581553</v>
+        <v>29.58155299999999</v>
       </c>
     </row>
     <row r="3788">
@@ -30738,7 +30738,7 @@
         <v>3787</v>
       </c>
       <c r="B3788" t="n">
-        <v>16.5233009999999</v>
+        <v>16.52330099999995</v>
       </c>
     </row>
     <row r="3789">
@@ -30858,7 +30858,7 @@
         <v>3802</v>
       </c>
       <c r="B3803" t="n">
-        <v>30.047896</v>
+        <v>30.04789600000004</v>
       </c>
     </row>
     <row r="3804">
@@ -30898,7 +30898,7 @@
         <v>3807</v>
       </c>
       <c r="B3808" t="n">
-        <v>64.650809</v>
+        <v>64.65080899999998</v>
       </c>
     </row>
     <row r="3809">
@@ -30922,7 +30922,7 @@
         <v>3810</v>
       </c>
       <c r="B3811" t="n">
-        <v>18.276375</v>
+        <v>18.27637500000003</v>
       </c>
     </row>
     <row r="3812">
@@ -31442,7 +31442,7 @@
         <v>3875</v>
       </c>
       <c r="B3876" t="n">
-        <v>5.14239499999996</v>
+        <v>5.142394999999965</v>
       </c>
     </row>
     <row r="3877">
@@ -31450,7 +31450,7 @@
         <v>3876</v>
       </c>
       <c r="B3877" t="n">
-        <v>38.7430419999999</v>
+        <v>38.74304199999995</v>
       </c>
     </row>
     <row r="3878">
@@ -31458,7 +31458,7 @@
         <v>3877</v>
       </c>
       <c r="B3878" t="n">
-        <v>65.571521</v>
+        <v>65.57152099999996</v>
       </c>
     </row>
     <row r="3879">
@@ -31466,7 +31466,7 @@
         <v>3878</v>
       </c>
       <c r="B3879" t="n">
-        <v>72.009061</v>
+        <v>72.00906099999997</v>
       </c>
     </row>
     <row r="3880">
@@ -31482,7 +31482,7 @@
         <v>3880</v>
       </c>
       <c r="B3881" t="n">
-        <v>24.839806</v>
+        <v>24.83980599999995</v>
       </c>
     </row>
     <row r="3882">
@@ -31490,7 +31490,7 @@
         <v>3881</v>
       </c>
       <c r="B3882" t="n">
-        <v>42.040453</v>
+        <v>42.04045299999996</v>
       </c>
     </row>
     <row r="3883">
@@ -31498,7 +31498,7 @@
         <v>3882</v>
       </c>
       <c r="B3883" t="n">
-        <v>51.485761</v>
+        <v>51.48576100000002</v>
       </c>
     </row>
     <row r="3884">
@@ -31506,7 +31506,7 @@
         <v>3883</v>
       </c>
       <c r="B3884" t="n">
-        <v>26.201942</v>
+        <v>26.20194200000003</v>
       </c>
     </row>
     <row r="3885">
@@ -31626,7 +31626,7 @@
         <v>3898</v>
       </c>
       <c r="B3899" t="n">
-        <v>52.3365700000001</v>
+        <v>52.33657000000005</v>
       </c>
     </row>
     <row r="3900">
@@ -31650,7 +31650,7 @@
         <v>3901</v>
       </c>
       <c r="B3902" t="n">
-        <v>147.236246</v>
+        <v>147.2362460000001</v>
       </c>
     </row>
     <row r="3903">
@@ -31666,7 +31666,7 @@
         <v>3903</v>
       </c>
       <c r="B3904" t="n">
-        <v>81.68737900000001</v>
+        <v>81.68737899999996</v>
       </c>
     </row>
     <row r="3905">
@@ -31674,7 +31674,7 @@
         <v>3904</v>
       </c>
       <c r="B3905" t="n">
-        <v>62.790939</v>
+        <v>62.79093899999998</v>
       </c>
     </row>
     <row r="3906">
@@ -31682,7 +31682,7 @@
         <v>3905</v>
       </c>
       <c r="B3906" t="n">
-        <v>65.45792899999999</v>
+        <v>65.45792900000004</v>
       </c>
     </row>
     <row r="3907">
@@ -31698,7 +31698,7 @@
         <v>3907</v>
       </c>
       <c r="B3908" t="n">
-        <v>51.630744</v>
+        <v>51.63074400000005</v>
       </c>
     </row>
     <row r="3909">
@@ -31706,7 +31706,7 @@
         <v>3908</v>
       </c>
       <c r="B3909" t="n">
-        <v>19.940777</v>
+        <v>19.94077700000003</v>
       </c>
     </row>
     <row r="3910">
@@ -31730,7 +31730,7 @@
         <v>3911</v>
       </c>
       <c r="B3912" t="n">
-        <v>21.264401</v>
+        <v>21.26440100000002</v>
       </c>
     </row>
     <row r="3913">
@@ -31818,7 +31818,7 @@
         <v>3922</v>
       </c>
       <c r="B3923" t="n">
-        <v>35.091909</v>
+        <v>35.09190899999999</v>
       </c>
     </row>
     <row r="3924">
@@ -31826,7 +31826,7 @@
         <v>3923</v>
       </c>
       <c r="B3924" t="n">
-        <v>87.330744</v>
+        <v>87.33074399999998</v>
       </c>
     </row>
     <row r="3925">
@@ -31850,7 +31850,7 @@
         <v>3926</v>
       </c>
       <c r="B3927" t="n">
-        <v>90.31326900000001</v>
+        <v>90.31326899999999</v>
       </c>
     </row>
     <row r="3928">
@@ -31858,7 +31858,7 @@
         <v>3927</v>
       </c>
       <c r="B3928" t="n">
-        <v>20.312945</v>
+        <v>20.31294500000001</v>
       </c>
     </row>
     <row r="3929">
@@ -31866,7 +31866,7 @@
         <v>3928</v>
       </c>
       <c r="B3929" t="n">
-        <v>16.252427</v>
+        <v>16.25242700000001</v>
       </c>
     </row>
     <row r="3930">
@@ -31874,7 +31874,7 @@
         <v>3929</v>
       </c>
       <c r="B3930" t="n">
-        <v>27.519741</v>
+        <v>27.51974099999995</v>
       </c>
     </row>
     <row r="3931">
@@ -31882,7 +31882,7 @@
         <v>3930</v>
       </c>
       <c r="B3931" t="n">
-        <v>47.797411</v>
+        <v>47.79741100000001</v>
       </c>
     </row>
     <row r="3932">
@@ -31890,7 +31890,7 @@
         <v>3931</v>
       </c>
       <c r="B3932" t="n">
-        <v>33.314239</v>
+        <v>33.31423900000004</v>
       </c>
     </row>
     <row r="3933">
@@ -32794,7 +32794,7 @@
         <v>4044</v>
       </c>
       <c r="B4045" t="n">
-        <v>12.58932</v>
+        <v>12.58932000000004</v>
       </c>
     </row>
     <row r="4046">
@@ -32802,7 +32802,7 @@
         <v>4045</v>
       </c>
       <c r="B4046" t="n">
-        <v>31.6877019999999</v>
+        <v>31.68770199999994</v>
       </c>
     </row>
     <row r="4047">
@@ -32986,7 +32986,7 @@
         <v>4068</v>
       </c>
       <c r="B4069" t="n">
-        <v>7.34336599999995</v>
+        <v>7.343365999999946</v>
       </c>
     </row>
     <row r="4070">
@@ -32994,7 +32994,7 @@
         <v>4069</v>
       </c>
       <c r="B4070" t="n">
-        <v>29.7016180000001</v>
+        <v>29.70161800000005</v>
       </c>
     </row>
     <row r="4071">
@@ -33002,7 +33002,7 @@
         <v>4070</v>
       </c>
       <c r="B4071" t="n">
-        <v>31.177023</v>
+        <v>31.17702299999996</v>
       </c>
     </row>
     <row r="4072">
@@ -33178,7 +33178,7 @@
         <v>4092</v>
       </c>
       <c r="B4093" t="n">
-        <v>16.687379</v>
+        <v>16.68737899999996</v>
       </c>
     </row>
     <row r="4094">
@@ -33186,7 +33186,7 @@
         <v>4093</v>
       </c>
       <c r="B4094" t="n">
-        <v>48.0181229999999</v>
+        <v>48.01812299999995</v>
       </c>
     </row>
     <row r="4095">
@@ -33194,7 +33194,7 @@
         <v>4094</v>
       </c>
       <c r="B4095" t="n">
-        <v>51.006796</v>
+        <v>51.00679600000001</v>
       </c>
     </row>
     <row r="4096">
@@ -33226,7 +33226,7 @@
         <v>4098</v>
       </c>
       <c r="B4099" t="n">
-        <v>38.0682849999999</v>
+        <v>38.06828499999995</v>
       </c>
     </row>
     <row r="4100">
@@ -33234,7 +33234,7 @@
         <v>4099</v>
       </c>
       <c r="B4100" t="n">
-        <v>35.628155</v>
+        <v>35.62815499999999</v>
       </c>
     </row>
     <row r="4101">
@@ -33362,7 +33362,7 @@
         <v>4115</v>
       </c>
       <c r="B4116" t="n">
-        <v>54.808414</v>
+        <v>54.80841399999997</v>
       </c>
     </row>
     <row r="4117">
@@ -33370,7 +33370,7 @@
         <v>4116</v>
       </c>
       <c r="B4117" t="n">
-        <v>87.355987</v>
+        <v>87.35598700000003</v>
       </c>
     </row>
     <row r="4118">
@@ -33378,7 +33378,7 @@
         <v>4117</v>
       </c>
       <c r="B4118" t="n">
-        <v>129.487055</v>
+        <v>129.4870550000001</v>
       </c>
     </row>
     <row r="4119">
@@ -33394,7 +33394,7 @@
         <v>4119</v>
       </c>
       <c r="B4120" t="n">
-        <v>84.52459500000001</v>
+        <v>84.52459499999998</v>
       </c>
     </row>
     <row r="4121">
@@ -33426,7 +33426,7 @@
         <v>4123</v>
       </c>
       <c r="B4124" t="n">
-        <v>80.0734629999999</v>
+        <v>80.07346299999995</v>
       </c>
     </row>
     <row r="4125">
@@ -33434,7 +33434,7 @@
         <v>4124</v>
       </c>
       <c r="B4125" t="n">
-        <v>25.205502</v>
+        <v>25.20550200000002</v>
       </c>
     </row>
     <row r="4126">
@@ -33546,7 +33546,7 @@
         <v>4138</v>
       </c>
       <c r="B4139" t="n">
-        <v>41.163754</v>
+        <v>41.16375400000004</v>
       </c>
     </row>
     <row r="4140">
@@ -33554,7 +33554,7 @@
         <v>4139</v>
       </c>
       <c r="B4140" t="n">
-        <v>91.89546900000001</v>
+        <v>91.89546900000005</v>
       </c>
     </row>
     <row r="4141">
@@ -33586,7 +33586,7 @@
         <v>4143</v>
       </c>
       <c r="B4144" t="n">
-        <v>57.12233</v>
+        <v>57.12233000000003</v>
       </c>
     </row>
     <row r="4145">
@@ -33594,7 +33594,7 @@
         <v>4144</v>
       </c>
       <c r="B4145" t="n">
-        <v>16.7378639999999</v>
+        <v>16.73786399999995</v>
       </c>
     </row>
     <row r="4146">
@@ -33602,7 +33602,7 @@
         <v>4145</v>
       </c>
       <c r="B4146" t="n">
-        <v>15.029126</v>
+        <v>15.02912600000002</v>
       </c>
     </row>
     <row r="4147">
@@ -33610,7 +33610,7 @@
         <v>4146</v>
       </c>
       <c r="B4147" t="n">
-        <v>34.064401</v>
+        <v>34.06440099999998</v>
       </c>
     </row>
     <row r="4148">
@@ -33618,7 +33618,7 @@
         <v>4147</v>
       </c>
       <c r="B4148" t="n">
-        <v>29.726537</v>
+        <v>29.72653700000001</v>
       </c>
     </row>
     <row r="4149">
@@ -33626,7 +33626,7 @@
         <v>4148</v>
       </c>
       <c r="B4149" t="n">
-        <v>8.137216999999961</v>
+        <v>8.137216999999964</v>
       </c>
     </row>
     <row r="4150">
@@ -34138,7 +34138,7 @@
         <v>4212</v>
       </c>
       <c r="B4213" t="n">
-        <v>6.94627800000001</v>
+        <v>6.946278000000007</v>
       </c>
     </row>
     <row r="4214">
@@ -34146,7 +34146,7 @@
         <v>4213</v>
       </c>
       <c r="B4214" t="n">
-        <v>31.952751</v>
+        <v>31.95275100000003</v>
       </c>
     </row>
     <row r="4215">
@@ -34154,7 +34154,7 @@
         <v>4214</v>
       </c>
       <c r="B4215" t="n">
-        <v>49.928803</v>
+        <v>49.92880300000002</v>
       </c>
     </row>
     <row r="4216">
@@ -34162,7 +34162,7 @@
         <v>4215</v>
       </c>
       <c r="B4216" t="n">
-        <v>21.385113</v>
+        <v>21.38511300000005</v>
       </c>
     </row>
     <row r="4217">
@@ -34170,7 +34170,7 @@
         <v>4216</v>
       </c>
       <c r="B4217" t="n">
-        <v>33.768285</v>
+        <v>33.76828499999999</v>
       </c>
     </row>
     <row r="4218">
@@ -34178,7 +34178,7 @@
         <v>4217</v>
       </c>
       <c r="B4218" t="n">
-        <v>56.637217</v>
+        <v>56.63721699999996</v>
       </c>
     </row>
     <row r="4219">
@@ -34186,7 +34186,7 @@
         <v>4218</v>
       </c>
       <c r="B4219" t="n">
-        <v>67.248867</v>
+        <v>67.24886700000002</v>
       </c>
     </row>
     <row r="4220">
@@ -34202,7 +34202,7 @@
         <v>4220</v>
       </c>
       <c r="B4221" t="n">
-        <v>27.910356</v>
+        <v>27.91035599999998</v>
       </c>
     </row>
     <row r="4222">
@@ -34322,7 +34322,7 @@
         <v>4235</v>
       </c>
       <c r="B4236" t="n">
-        <v>14.240777</v>
+        <v>14.24077699999998</v>
       </c>
     </row>
     <row r="4237">
@@ -34330,7 +34330,7 @@
         <v>4236</v>
       </c>
       <c r="B4237" t="n">
-        <v>57.343042</v>
+        <v>57.34304199999997</v>
       </c>
     </row>
     <row r="4238">
@@ -34346,7 +34346,7 @@
         <v>4238</v>
       </c>
       <c r="B4239" t="n">
-        <v>82.620712</v>
+        <v>82.62071200000003</v>
       </c>
     </row>
     <row r="4240">
@@ -34354,7 +34354,7 @@
         <v>4239</v>
       </c>
       <c r="B4240" t="n">
-        <v>23.635599</v>
+        <v>23.63559899999996</v>
       </c>
     </row>
     <row r="4241">
@@ -34370,7 +34370,7 @@
         <v>4241</v>
       </c>
       <c r="B4242" t="n">
-        <v>55.962136</v>
+        <v>55.96213599999999</v>
       </c>
     </row>
     <row r="4243">
@@ -34378,7 +34378,7 @@
         <v>4242</v>
       </c>
       <c r="B4243" t="n">
-        <v>82.570227</v>
+        <v>82.57022700000005</v>
       </c>
     </row>
     <row r="4244">
@@ -34386,7 +34386,7 @@
         <v>4243</v>
       </c>
       <c r="B4244" t="n">
-        <v>73.194175</v>
+        <v>73.19417499999997</v>
       </c>
     </row>
     <row r="4245">
@@ -34394,7 +34394,7 @@
         <v>4244</v>
       </c>
       <c r="B4245" t="n">
-        <v>32.298706</v>
+        <v>32.29870600000004</v>
       </c>
     </row>
     <row r="4246">
@@ -34402,7 +34402,7 @@
         <v>4245</v>
       </c>
       <c r="B4246" t="n">
-        <v>2.53171499999996</v>
+        <v>2.531714999999963</v>
       </c>
     </row>
     <row r="4247">
@@ -34410,7 +34410,7 @@
         <v>4246</v>
       </c>
       <c r="B4247" t="n">
-        <v>1.74368900000002</v>
+        <v>1.743689000000018</v>
       </c>
     </row>
     <row r="4248">
@@ -34418,7 +34418,7 @@
         <v>4247</v>
       </c>
       <c r="B4248" t="n">
-        <v>14.00712</v>
+        <v>14.00711999999999</v>
       </c>
     </row>
     <row r="4249">
@@ -34506,7 +34506,7 @@
         <v>4258</v>
       </c>
       <c r="B4259" t="n">
-        <v>25.993528</v>
+        <v>25.99352799999997</v>
       </c>
     </row>
     <row r="4260">
@@ -34514,7 +34514,7 @@
         <v>4259</v>
       </c>
       <c r="B4260" t="n">
-        <v>81.567638</v>
+        <v>81.56763799999999</v>
       </c>
     </row>
     <row r="4261">
@@ -34546,7 +34546,7 @@
         <v>4263</v>
       </c>
       <c r="B4264" t="n">
-        <v>45.382201</v>
+        <v>45.38220100000001</v>
       </c>
     </row>
     <row r="4265">
@@ -34554,7 +34554,7 @@
         <v>4264</v>
       </c>
       <c r="B4265" t="n">
-        <v>35.199353</v>
+        <v>35.19935299999997</v>
       </c>
     </row>
     <row r="4266">
@@ -34562,7 +34562,7 @@
         <v>4265</v>
       </c>
       <c r="B4266" t="n">
-        <v>42.267638</v>
+        <v>42.26763800000003</v>
       </c>
     </row>
     <row r="4267">
@@ -34570,7 +34570,7 @@
         <v>4266</v>
       </c>
       <c r="B4267" t="n">
-        <v>64.739159</v>
+        <v>64.73915899999997</v>
       </c>
     </row>
     <row r="4268">
@@ -34578,7 +34578,7 @@
         <v>4267</v>
       </c>
       <c r="B4268" t="n">
-        <v>49.184466</v>
+        <v>49.18446600000004</v>
       </c>
     </row>
     <row r="4269">
@@ -34586,7 +34586,7 @@
         <v>4268</v>
       </c>
       <c r="B4269" t="n">
-        <v>10.482848</v>
+        <v>10.48284799999999</v>
       </c>
     </row>
     <row r="4270">
@@ -34610,7 +34610,7 @@
         <v>4271</v>
       </c>
       <c r="B4272" t="n">
-        <v>19.543366</v>
+        <v>19.54336599999999</v>
       </c>
     </row>
     <row r="4273">
@@ -34994,7 +34994,7 @@
         <v>4319</v>
       </c>
       <c r="B4320" t="n">
-        <v>2.43721700000003</v>
+        <v>2.437217000000032</v>
       </c>
     </row>
     <row r="4321">
@@ -35474,7 +35474,7 @@
         <v>4379</v>
       </c>
       <c r="B4380" t="n">
-        <v>30.325566</v>
+        <v>30.32556599999998</v>
       </c>
     </row>
     <row r="4381">
@@ -35482,7 +35482,7 @@
         <v>4380</v>
       </c>
       <c r="B4381" t="n">
-        <v>44.713916</v>
+        <v>44.71391600000004</v>
       </c>
     </row>
     <row r="4382">
@@ -35490,7 +35490,7 @@
         <v>4381</v>
       </c>
       <c r="B4382" t="n">
-        <v>54.802265</v>
+        <v>54.80226500000003</v>
       </c>
     </row>
     <row r="4383">
@@ -35498,7 +35498,7 @@
         <v>4382</v>
       </c>
       <c r="B4383" t="n">
-        <v>57.854045</v>
+        <v>57.85404500000004</v>
       </c>
     </row>
     <row r="4384">
@@ -35506,7 +35506,7 @@
         <v>4383</v>
       </c>
       <c r="B4384" t="n">
-        <v>8.28899699999999</v>
+        <v>8.288996999999995</v>
       </c>
     </row>
     <row r="4385">
@@ -35522,7 +35522,7 @@
         <v>4385</v>
       </c>
       <c r="B4386" t="n">
-        <v>20.369579</v>
+        <v>20.36957900000004</v>
       </c>
     </row>
     <row r="4387">
@@ -35530,7 +35530,7 @@
         <v>4386</v>
       </c>
       <c r="B4387" t="n">
-        <v>61.933657</v>
+        <v>61.93365700000004</v>
       </c>
     </row>
     <row r="4388">
@@ -35538,7 +35538,7 @@
         <v>4387</v>
       </c>
       <c r="B4388" t="n">
-        <v>75.05436899999999</v>
+        <v>75.05436899999995</v>
       </c>
     </row>
     <row r="4389">
@@ -35546,7 +35546,7 @@
         <v>4388</v>
       </c>
       <c r="B4389" t="n">
-        <v>46.3970870000001</v>
+        <v>46.39708700000006</v>
       </c>
     </row>
     <row r="4390">
@@ -35554,7 +35554,7 @@
         <v>4389</v>
       </c>
       <c r="B4390" t="n">
-        <v>0.816827999999987</v>
+        <v>0.8168279999999868</v>
       </c>
     </row>
     <row r="4391">
@@ -35562,7 +35562,7 @@
         <v>4390</v>
       </c>
       <c r="B4391" t="n">
-        <v>1.43462799999998</v>
+        <v>1.434627999999975</v>
       </c>
     </row>
     <row r="4392">
@@ -35570,7 +35570,7 @@
         <v>4391</v>
       </c>
       <c r="B4392" t="n">
-        <v>15.1359220000001</v>
+        <v>15.13592200000005</v>
       </c>
     </row>
     <row r="4393">
@@ -35658,7 +35658,7 @@
         <v>4402</v>
       </c>
       <c r="B4403" t="n">
-        <v>46.863754</v>
+        <v>46.86375399999997</v>
       </c>
     </row>
     <row r="4404">
@@ -35754,7 +35754,7 @@
         <v>4414</v>
       </c>
       <c r="B4415" t="n">
-        <v>65.287702</v>
+        <v>65.28770199999997</v>
       </c>
     </row>
     <row r="4416">
@@ -35762,7 +35762,7 @@
         <v>4415</v>
       </c>
       <c r="B4416" t="n">
-        <v>70.205502</v>
+        <v>70.20550200000002</v>
       </c>
     </row>
     <row r="4417">
@@ -35874,7 +35874,7 @@
         <v>4429</v>
       </c>
       <c r="B4430" t="n">
-        <v>20.067638</v>
+        <v>20.06763799999999</v>
       </c>
     </row>
     <row r="4431">
@@ -35882,7 +35882,7 @@
         <v>4430</v>
       </c>
       <c r="B4431" t="n">
-        <v>35.509061</v>
+        <v>35.50906099999997</v>
       </c>
     </row>
     <row r="4432">
@@ -35890,7 +35890,7 @@
         <v>4431</v>
       </c>
       <c r="B4432" t="n">
-        <v>0.874433999999951</v>
+        <v>0.8744339999999511</v>
       </c>
     </row>
     <row r="4433">
@@ -35898,7 +35898,7 @@
         <v>4432</v>
       </c>
       <c r="B4433" t="n">
-        <v>12.287055</v>
+        <v>12.28705500000001</v>
       </c>
     </row>
     <row r="4434">
@@ -35906,7 +35906,7 @@
         <v>4433</v>
       </c>
       <c r="B4434" t="n">
-        <v>47.84822</v>
+        <v>47.84821999999997</v>
       </c>
     </row>
     <row r="4435">
@@ -35914,7 +35914,7 @@
         <v>4434</v>
       </c>
       <c r="B4435" t="n">
-        <v>96.467314</v>
+        <v>96.46731399999999</v>
       </c>
     </row>
     <row r="4436">
@@ -35930,7 +35930,7 @@
         <v>4436</v>
       </c>
       <c r="B4437" t="n">
-        <v>88.389968</v>
+        <v>88.38996799999995</v>
       </c>
     </row>
     <row r="4438">
@@ -35938,7 +35938,7 @@
         <v>4437</v>
       </c>
       <c r="B4438" t="n">
-        <v>40.653398</v>
+        <v>40.65339800000004</v>
       </c>
     </row>
     <row r="4439">
@@ -35946,7 +35946,7 @@
         <v>4438</v>
       </c>
       <c r="B4439" t="n">
-        <v>24.089644</v>
+        <v>24.08964400000002</v>
       </c>
     </row>
     <row r="4440">
@@ -35954,7 +35954,7 @@
         <v>4439</v>
       </c>
       <c r="B4440" t="n">
-        <v>16.094498</v>
+        <v>16.09449800000004</v>
       </c>
     </row>
     <row r="4441">
@@ -36042,7 +36042,7 @@
         <v>4450</v>
       </c>
       <c r="B4451" t="n">
-        <v>36.504207</v>
+        <v>36.50420699999995</v>
       </c>
     </row>
     <row r="4452">
@@ -36130,7 +36130,7 @@
         <v>4461</v>
       </c>
       <c r="B4462" t="n">
-        <v>70.9368930000001</v>
+        <v>70.93689300000005</v>
       </c>
     </row>
     <row r="4463">
@@ -36138,7 +36138,7 @@
         <v>4462</v>
       </c>
       <c r="B4463" t="n">
-        <v>57.740129</v>
+        <v>57.74012900000002</v>
       </c>
     </row>
     <row r="4464">
@@ -36146,7 +36146,7 @@
         <v>4463</v>
       </c>
       <c r="B4464" t="n">
-        <v>60.880259</v>
+        <v>60.88025900000002</v>
       </c>
     </row>
     <row r="4465">
@@ -36834,7 +36834,7 @@
         <v>4549</v>
       </c>
       <c r="B4550" t="n">
-        <v>7.59611700000005</v>
+        <v>7.596117000000049</v>
       </c>
     </row>
     <row r="4551">
@@ -36842,7 +36842,7 @@
         <v>4550</v>
       </c>
       <c r="B4551" t="n">
-        <v>14.330097</v>
+        <v>14.33009700000002</v>
       </c>
     </row>
     <row r="4552">
@@ -37210,7 +37210,7 @@
         <v>4596</v>
       </c>
       <c r="B4597" t="n">
-        <v>23.28932</v>
+        <v>23.28931999999998</v>
       </c>
     </row>
     <row r="4598">
@@ -37226,7 +37226,7 @@
         <v>4598</v>
       </c>
       <c r="B4599" t="n">
-        <v>63.201294</v>
+        <v>63.20129399999996</v>
       </c>
     </row>
     <row r="4600">
@@ -37234,7 +37234,7 @@
         <v>4599</v>
       </c>
       <c r="B4600" t="n">
-        <v>13.636246</v>
+        <v>13.63624600000003</v>
       </c>
     </row>
     <row r="4601">
@@ -37250,7 +37250,7 @@
         <v>4601</v>
       </c>
       <c r="B4602" t="n">
-        <v>0.90582500000005</v>
+        <v>0.9058250000000498</v>
       </c>
     </row>
     <row r="4603">
@@ -37258,7 +37258,7 @@
         <v>4602</v>
       </c>
       <c r="B4603" t="n">
-        <v>14.071197</v>
+        <v>14.07119699999998</v>
       </c>
     </row>
     <row r="4604">
@@ -37266,7 +37266,7 @@
         <v>4603</v>
       </c>
       <c r="B4604" t="n">
-        <v>23.699353</v>
+        <v>23.69935299999997</v>
       </c>
     </row>
     <row r="4605">
@@ -37274,7 +37274,7 @@
         <v>4604</v>
       </c>
       <c r="B4605" t="n">
-        <v>2.09126200000003</v>
+        <v>2.091262000000029</v>
       </c>
     </row>
     <row r="4606">
@@ -37386,7 +37386,7 @@
         <v>4618</v>
       </c>
       <c r="B4619" t="n">
-        <v>20.419741</v>
+        <v>20.41974100000004</v>
       </c>
     </row>
     <row r="4620">
@@ -37394,7 +37394,7 @@
         <v>4619</v>
       </c>
       <c r="B4620" t="n">
-        <v>84.121359</v>
+        <v>84.12135899999998</v>
       </c>
     </row>
     <row r="4621">
@@ -37426,7 +37426,7 @@
         <v>4623</v>
       </c>
       <c r="B4624" t="n">
-        <v>97.539159</v>
+        <v>97.53915900000004</v>
       </c>
     </row>
     <row r="4625">
@@ -37474,7 +37474,7 @@
         <v>4629</v>
       </c>
       <c r="B4630" t="n">
-        <v>70.445307</v>
+        <v>70.44530699999996</v>
       </c>
     </row>
     <row r="4631">
@@ -37482,7 +37482,7 @@
         <v>4630</v>
       </c>
       <c r="B4631" t="n">
-        <v>52.254693</v>
+        <v>52.25469299999997</v>
       </c>
     </row>
     <row r="4632">
@@ -37490,7 +37490,7 @@
         <v>4631</v>
       </c>
       <c r="B4632" t="n">
-        <v>55.842395</v>
+        <v>55.84239500000001</v>
       </c>
     </row>
     <row r="4633">
@@ -37578,7 +37578,7 @@
         <v>4642</v>
       </c>
       <c r="B4643" t="n">
-        <v>57.5889969999999</v>
+        <v>57.58899699999995</v>
       </c>
     </row>
     <row r="4644">
@@ -37626,7 +37626,7 @@
         <v>4648</v>
       </c>
       <c r="B4649" t="n">
-        <v>56.612298</v>
+        <v>56.61229800000001</v>
       </c>
     </row>
     <row r="4650">
@@ -37634,7 +37634,7 @@
         <v>4649</v>
       </c>
       <c r="B4650" t="n">
-        <v>68.68673099999999</v>
+        <v>68.68673100000001</v>
       </c>
     </row>
     <row r="4651">
@@ -37642,7 +37642,7 @@
         <v>4650</v>
       </c>
       <c r="B4651" t="n">
-        <v>87.614887</v>
+        <v>87.61488699999995</v>
       </c>
     </row>
     <row r="4652">
@@ -37650,7 +37650,7 @@
         <v>4651</v>
       </c>
       <c r="B4652" t="n">
-        <v>69.802913</v>
+        <v>69.80291299999999</v>
       </c>
     </row>
     <row r="4653">
@@ -37658,7 +37658,7 @@
         <v>4652</v>
       </c>
       <c r="B4653" t="n">
-        <v>31.7569580000001</v>
+        <v>31.75695800000005</v>
       </c>
     </row>
     <row r="4654">
@@ -38154,7 +38154,7 @@
         <v>4714</v>
       </c>
       <c r="B4715" t="n">
-        <v>46.750162</v>
+        <v>46.75016200000005</v>
       </c>
     </row>
     <row r="4716">
@@ -38362,7 +38362,7 @@
         <v>4740</v>
       </c>
       <c r="B4741" t="n">
-        <v>7.63398099999995</v>
+        <v>7.633980999999949</v>
       </c>
     </row>
     <row r="4742">
@@ -38370,7 +38370,7 @@
         <v>4741</v>
       </c>
       <c r="B4742" t="n">
-        <v>63.472492</v>
+        <v>63.47249199999999</v>
       </c>
     </row>
     <row r="4743">
@@ -38410,7 +38410,7 @@
         <v>4746</v>
       </c>
       <c r="B4747" t="n">
-        <v>131.852104</v>
+        <v>131.8521040000001</v>
       </c>
     </row>
     <row r="4748">
@@ -38418,7 +38418,7 @@
         <v>4747</v>
       </c>
       <c r="B4748" t="n">
-        <v>112.703236</v>
+        <v>112.7032359999999</v>
       </c>
     </row>
     <row r="4749">
@@ -38426,7 +38426,7 @@
         <v>4748</v>
       </c>
       <c r="B4749" t="n">
-        <v>77.41294499999999</v>
+        <v>77.41294500000004</v>
       </c>
     </row>
     <row r="4750">
@@ -38434,7 +38434,7 @@
         <v>4749</v>
       </c>
       <c r="B4750" t="n">
-        <v>45.0165050000001</v>
+        <v>45.01650500000005</v>
       </c>
     </row>
     <row r="4751">
@@ -38442,7 +38442,7 @@
         <v>4750</v>
       </c>
       <c r="B4751" t="n">
-        <v>60.5589</v>
+        <v>60.55889999999999</v>
       </c>
     </row>
     <row r="4752">
@@ -38450,7 +38450,7 @@
         <v>4751</v>
       </c>
       <c r="B4752" t="n">
-        <v>64.08964400000001</v>
+        <v>64.08964400000002</v>
       </c>
     </row>
     <row r="4753">
@@ -38546,7 +38546,7 @@
         <v>4763</v>
       </c>
       <c r="B4764" t="n">
-        <v>33.926214</v>
+        <v>33.92621399999996</v>
       </c>
     </row>
     <row r="4765">
@@ -38554,7 +38554,7 @@
         <v>4764</v>
       </c>
       <c r="B4765" t="n">
-        <v>86.41068</v>
+        <v>86.41067999999996</v>
       </c>
     </row>
     <row r="4766">
@@ -38578,7 +38578,7 @@
         <v>4767</v>
       </c>
       <c r="B4768" t="n">
-        <v>129.708414</v>
+        <v>129.7084139999999</v>
       </c>
     </row>
     <row r="4769">
@@ -38594,7 +38594,7 @@
         <v>4769</v>
       </c>
       <c r="B4770" t="n">
-        <v>116.108091</v>
+        <v>116.1080909999999</v>
       </c>
     </row>
     <row r="4771">
@@ -38618,7 +38618,7 @@
         <v>4772</v>
       </c>
       <c r="B4773" t="n">
-        <v>79.802589</v>
+        <v>79.80258900000001</v>
       </c>
     </row>
     <row r="4774">
@@ -38626,7 +38626,7 @@
         <v>4773</v>
       </c>
       <c r="B4774" t="n">
-        <v>47.097411</v>
+        <v>47.09741099999997</v>
       </c>
     </row>
     <row r="4775">
@@ -38634,7 +38634,7 @@
         <v>4774</v>
       </c>
       <c r="B4775" t="n">
-        <v>45.300324</v>
+        <v>45.30032400000005</v>
       </c>
     </row>
     <row r="4776">
@@ -38642,7 +38642,7 @@
         <v>4775</v>
       </c>
       <c r="B4776" t="n">
-        <v>61.706472</v>
+        <v>61.70647199999996</v>
       </c>
     </row>
     <row r="4777">
@@ -38730,7 +38730,7 @@
         <v>4786</v>
       </c>
       <c r="B4787" t="n">
-        <v>29.411327</v>
+        <v>29.41132700000003</v>
       </c>
     </row>
     <row r="4788">
@@ -38738,7 +38738,7 @@
         <v>4787</v>
       </c>
       <c r="B4788" t="n">
-        <v>88.07475700000001</v>
+        <v>88.07475699999998</v>
       </c>
     </row>
     <row r="4789">
@@ -38770,7 +38770,7 @@
         <v>4791</v>
       </c>
       <c r="B4792" t="n">
-        <v>98.421683</v>
+        <v>98.42168300000003</v>
       </c>
     </row>
     <row r="4793">
@@ -38778,7 +38778,7 @@
         <v>4792</v>
       </c>
       <c r="B4793" t="n">
-        <v>93.390291</v>
+        <v>93.39029100000005</v>
       </c>
     </row>
     <row r="4794">
@@ -38810,7 +38810,7 @@
         <v>4796</v>
       </c>
       <c r="B4797" t="n">
-        <v>51.567961</v>
+        <v>51.56796099999997</v>
       </c>
     </row>
     <row r="4798">
@@ -39506,7 +39506,7 @@
         <v>4883</v>
       </c>
       <c r="B4884" t="n">
-        <v>61.529773</v>
+        <v>61.52977299999998</v>
       </c>
     </row>
     <row r="4885">
@@ -39514,7 +39514,7 @@
         <v>4884</v>
       </c>
       <c r="B4885" t="n">
-        <v>76.655987</v>
+        <v>76.65598699999998</v>
       </c>
     </row>
     <row r="4886">
@@ -39538,7 +39538,7 @@
         <v>4887</v>
       </c>
       <c r="B4888" t="n">
-        <v>34.039482</v>
+        <v>34.03948200000002</v>
       </c>
     </row>
     <row r="4889">
@@ -39546,7 +39546,7 @@
         <v>4888</v>
       </c>
       <c r="B4889" t="n">
-        <v>14.997735</v>
+        <v>14.99773500000003</v>
       </c>
     </row>
     <row r="4890">
@@ -39554,7 +39554,7 @@
         <v>4889</v>
       </c>
       <c r="B4890" t="n">
-        <v>22.854045</v>
+        <v>22.85404500000004</v>
       </c>
     </row>
     <row r="4891">
@@ -39562,7 +39562,7 @@
         <v>4890</v>
       </c>
       <c r="B4891" t="n">
-        <v>48.881877</v>
+        <v>48.88187700000003</v>
       </c>
     </row>
     <row r="4892">
@@ -39570,7 +39570,7 @@
         <v>4891</v>
       </c>
       <c r="B4892" t="n">
-        <v>47.267638</v>
+        <v>47.26763800000003</v>
       </c>
     </row>
     <row r="4893">
@@ -39578,7 +39578,7 @@
         <v>4892</v>
       </c>
       <c r="B4893" t="n">
-        <v>25.306472</v>
+        <v>25.30647199999999</v>
       </c>
     </row>
     <row r="4894">
@@ -39586,7 +39586,7 @@
         <v>4893</v>
       </c>
       <c r="B4894" t="n">
-        <v>2.17896399999995</v>
+        <v>2.178963999999951</v>
       </c>
     </row>
     <row r="4895">
@@ -39594,7 +39594,7 @@
         <v>4894</v>
       </c>
       <c r="B4895" t="n">
-        <v>32.513269</v>
+        <v>32.51326900000004</v>
       </c>
     </row>
     <row r="4896">
@@ -39602,7 +39602,7 @@
         <v>4895</v>
       </c>
       <c r="B4896" t="n">
-        <v>46.9834949999999</v>
+        <v>46.98349499999995</v>
       </c>
     </row>
     <row r="4897">
@@ -39690,7 +39690,7 @@
         <v>4906</v>
       </c>
       <c r="B4907" t="n">
-        <v>27.027508</v>
+        <v>27.02750800000001</v>
       </c>
     </row>
     <row r="4908">
@@ -39698,7 +39698,7 @@
         <v>4907</v>
       </c>
       <c r="B4908" t="n">
-        <v>86.78834999999999</v>
+        <v>86.78835000000004</v>
       </c>
     </row>
     <row r="4909">
@@ -39738,7 +39738,7 @@
         <v>4912</v>
       </c>
       <c r="B4913" t="n">
-        <v>74.108738</v>
+        <v>74.10873800000002</v>
       </c>
     </row>
     <row r="4914">
@@ -39746,7 +39746,7 @@
         <v>4913</v>
       </c>
       <c r="B4914" t="n">
-        <v>91.13915899999991</v>
+        <v>91.13915899999995</v>
       </c>
     </row>
     <row r="4915">
@@ -39770,7 +39770,7 @@
         <v>4916</v>
       </c>
       <c r="B4917" t="n">
-        <v>92.50097100000001</v>
+        <v>92.50097100000005</v>
       </c>
     </row>
     <row r="4918">
@@ -39778,7 +39778,7 @@
         <v>4917</v>
       </c>
       <c r="B4918" t="n">
-        <v>56.529773</v>
+        <v>56.52977299999998</v>
       </c>
     </row>
     <row r="4919">
@@ -39786,7 +39786,7 @@
         <v>4918</v>
       </c>
       <c r="B4919" t="n">
-        <v>55.4766990000001</v>
+        <v>55.47669900000005</v>
       </c>
     </row>
     <row r="4920">
@@ -39794,7 +39794,7 @@
         <v>4919</v>
       </c>
       <c r="B4920" t="n">
-        <v>60.6721680000001</v>
+        <v>60.67216800000006</v>
       </c>
     </row>
     <row r="4921">
@@ -39882,7 +39882,7 @@
         <v>4930</v>
       </c>
       <c r="B4931" t="n">
-        <v>34.0579289999999</v>
+        <v>34.05792899999994</v>
       </c>
     </row>
     <row r="4932">
@@ -39930,7 +39930,7 @@
         <v>4936</v>
       </c>
       <c r="B4937" t="n">
-        <v>81.252751</v>
+        <v>81.25275099999999</v>
       </c>
     </row>
     <row r="4938">
@@ -39938,7 +39938,7 @@
         <v>4937</v>
       </c>
       <c r="B4938" t="n">
-        <v>98.995469</v>
+        <v>98.99546899999996</v>
       </c>
     </row>
     <row r="4939">
@@ -39970,7 +39970,7 @@
         <v>4941</v>
       </c>
       <c r="B4942" t="n">
-        <v>74.934628</v>
+        <v>74.93462799999998</v>
       </c>
     </row>
     <row r="4943">
@@ -39978,7 +39978,7 @@
         <v>4942</v>
       </c>
       <c r="B4943" t="n">
-        <v>73.79967600000001</v>
+        <v>73.79967599999998</v>
       </c>
     </row>
     <row r="4944">
@@ -40074,7 +40074,7 @@
         <v>4954</v>
       </c>
       <c r="B4955" t="n">
-        <v>65.003883</v>
+        <v>65.00388299999997</v>
       </c>
     </row>
     <row r="4956">
@@ -40106,7 +40106,7 @@
         <v>4958</v>
       </c>
       <c r="B4959" t="n">
-        <v>211.127184</v>
+        <v>211.1271840000001</v>
       </c>
     </row>
     <row r="4960">
@@ -40138,7 +40138,7 @@
         <v>4962</v>
       </c>
       <c r="B4963" t="n">
-        <v>147.438511</v>
+        <v>147.4385109999999</v>
       </c>
     </row>
     <row r="4964">
@@ -40186,7 +40186,7 @@
         <v>4968</v>
       </c>
       <c r="B4969" t="n">
-        <v>14.145955</v>
+        <v>14.14595499999996</v>
       </c>
     </row>
     <row r="4970">
@@ -40266,7 +40266,7 @@
         <v>4978</v>
       </c>
       <c r="B4979" t="n">
-        <v>80.747896</v>
+        <v>80.74789599999997</v>
       </c>
     </row>
     <row r="4980">
@@ -40362,7 +40362,7 @@
         <v>4990</v>
       </c>
       <c r="B4991" t="n">
-        <v>49.089644</v>
+        <v>49.08964400000002</v>
       </c>
     </row>
     <row r="4992">
@@ -40370,7 +40370,7 @@
         <v>4991</v>
       </c>
       <c r="B4992" t="n">
-        <v>59.3987059999999</v>
+        <v>59.39870599999995</v>
       </c>
     </row>
     <row r="4993">
@@ -40842,7 +40842,7 @@
         <v>5050</v>
       </c>
       <c r="B5051" t="n">
-        <v>3.79287999999997</v>
+        <v>3.792879999999968</v>
       </c>
     </row>
     <row r="5052">
@@ -40922,7 +40922,7 @@
         <v>5060</v>
       </c>
       <c r="B5061" t="n">
-        <v>138.907443</v>
+        <v>138.9074429999999</v>
       </c>
     </row>
     <row r="5062">
@@ -40930,7 +40930,7 @@
         <v>5061</v>
       </c>
       <c r="B5062" t="n">
-        <v>84.69514599999999</v>
+        <v>84.69514600000002</v>
       </c>
     </row>
     <row r="5063">
@@ -40938,7 +40938,7 @@
         <v>5062</v>
       </c>
       <c r="B5063" t="n">
-        <v>80.87411</v>
+        <v>80.87410999999997</v>
       </c>
     </row>
     <row r="5064">
@@ -40946,7 +40946,7 @@
         <v>5063</v>
       </c>
       <c r="B5064" t="n">
-        <v>81.82621399999999</v>
+        <v>81.82621400000005</v>
       </c>
     </row>
     <row r="5065">
@@ -41034,7 +41034,7 @@
         <v>5074</v>
       </c>
       <c r="B5075" t="n">
-        <v>39.234304</v>
+        <v>39.23430399999995</v>
       </c>
     </row>
     <row r="5076">
@@ -41042,7 +41042,7 @@
         <v>5075</v>
       </c>
       <c r="B5076" t="n">
-        <v>122.538835</v>
+        <v>122.5388349999999</v>
       </c>
     </row>
     <row r="5077">
@@ -41066,7 +41066,7 @@
         <v>5078</v>
       </c>
       <c r="B5079" t="n">
-        <v>243.466343</v>
+        <v>243.4663430000001</v>
       </c>
     </row>
     <row r="5080">
@@ -41122,7 +41122,7 @@
         <v>5085</v>
       </c>
       <c r="B5086" t="n">
-        <v>84.46828499999999</v>
+        <v>84.46828500000004</v>
       </c>
     </row>
     <row r="5087">
@@ -41146,7 +41146,7 @@
         <v>5088</v>
       </c>
       <c r="B5089" t="n">
-        <v>19.297411</v>
+        <v>19.29741100000001</v>
       </c>
     </row>
     <row r="5090">
@@ -41226,7 +41226,7 @@
         <v>5098</v>
       </c>
       <c r="B5099" t="n">
-        <v>54.291262</v>
+        <v>54.29126199999996</v>
       </c>
     </row>
     <row r="5100">
@@ -41242,7 +41242,7 @@
         <v>5100</v>
       </c>
       <c r="B5101" t="n">
-        <v>172.646278</v>
+        <v>172.6462780000001</v>
       </c>
     </row>
     <row r="5102">
@@ -41282,7 +41282,7 @@
         <v>5105</v>
       </c>
       <c r="B5106" t="n">
-        <v>151.038835</v>
+        <v>151.0388349999999</v>
       </c>
     </row>
     <row r="5107">
@@ -41306,7 +41306,7 @@
         <v>5108</v>
       </c>
       <c r="B5109" t="n">
-        <v>105.11165</v>
+        <v>105.1116500000001</v>
       </c>
     </row>
     <row r="5110">
@@ -41314,7 +41314,7 @@
         <v>5109</v>
       </c>
       <c r="B5110" t="n">
-        <v>70.937217</v>
+        <v>70.93721700000003</v>
       </c>
     </row>
     <row r="5111">
@@ -41322,7 +41322,7 @@
         <v>5110</v>
       </c>
       <c r="B5111" t="n">
-        <v>86.157929</v>
+        <v>86.15792899999997</v>
       </c>
     </row>
     <row r="5112">
@@ -41330,7 +41330,7 @@
         <v>5111</v>
       </c>
       <c r="B5112" t="n">
-        <v>84.310356</v>
+        <v>84.31035599999996</v>
       </c>
     </row>
     <row r="5113">
@@ -41418,7 +41418,7 @@
         <v>5122</v>
       </c>
       <c r="B5123" t="n">
-        <v>17.506796</v>
+        <v>17.50679600000001</v>
       </c>
     </row>
     <row r="5124">
@@ -41466,7 +41466,7 @@
         <v>5128</v>
       </c>
       <c r="B5129" t="n">
-        <v>168.497411</v>
+        <v>168.4974110000001</v>
       </c>
     </row>
     <row r="5130">
@@ -41506,7 +41506,7 @@
         <v>5133</v>
       </c>
       <c r="B5134" t="n">
-        <v>73.168932</v>
+        <v>73.16893200000004</v>
       </c>
     </row>
     <row r="5135">
@@ -41514,7 +41514,7 @@
         <v>5134</v>
       </c>
       <c r="B5135" t="n">
-        <v>79.78317199999999</v>
+        <v>79.78317200000004</v>
       </c>
     </row>
     <row r="5136">
@@ -41522,7 +41522,7 @@
         <v>5135</v>
       </c>
       <c r="B5136" t="n">
-        <v>65.62815500000001</v>
+        <v>65.62815499999999</v>
       </c>
     </row>
     <row r="5137">
@@ -41610,7 +41610,7 @@
         <v>5146</v>
       </c>
       <c r="B5147" t="n">
-        <v>17.311327</v>
+        <v>17.31132700000001</v>
       </c>
     </row>
     <row r="5148">
@@ -41618,7 +41618,7 @@
         <v>5147</v>
       </c>
       <c r="B5148" t="n">
-        <v>89.49320400000001</v>
+        <v>89.49320399999999</v>
       </c>
     </row>
     <row r="5149">
@@ -41666,7 +41666,7 @@
         <v>5153</v>
       </c>
       <c r="B5154" t="n">
-        <v>89.752104</v>
+        <v>89.75210400000003</v>
       </c>
     </row>
     <row r="5155">
@@ -41674,7 +41674,7 @@
         <v>5154</v>
       </c>
       <c r="B5155" t="n">
-        <v>84.146602</v>
+        <v>84.14660200000003</v>
       </c>
     </row>
     <row r="5156">
@@ -41682,7 +41682,7 @@
         <v>5155</v>
       </c>
       <c r="B5156" t="n">
-        <v>64.688997</v>
+        <v>64.68899699999997</v>
       </c>
     </row>
     <row r="5157">
@@ -41690,7 +41690,7 @@
         <v>5156</v>
       </c>
       <c r="B5157" t="n">
-        <v>33.553722</v>
+        <v>33.55372199999999</v>
       </c>
     </row>
     <row r="5158">
@@ -41714,7 +41714,7 @@
         <v>5159</v>
       </c>
       <c r="B5160" t="n">
-        <v>3.66699000000006</v>
+        <v>3.666990000000055</v>
       </c>
     </row>
     <row r="5161">
@@ -42194,7 +42194,7 @@
         <v>5219</v>
       </c>
       <c r="B5220" t="n">
-        <v>33.219094</v>
+        <v>33.21909400000004</v>
       </c>
     </row>
     <row r="5221">
@@ -42210,7 +42210,7 @@
         <v>5221</v>
       </c>
       <c r="B5222" t="n">
-        <v>76.39741100000001</v>
+        <v>76.39741100000003</v>
       </c>
     </row>
     <row r="5223">
@@ -42218,7 +42218,7 @@
         <v>5222</v>
       </c>
       <c r="B5223" t="n">
-        <v>76.57411</v>
+        <v>76.57411000000002</v>
       </c>
     </row>
     <row r="5224">
@@ -42226,7 +42226,7 @@
         <v>5223</v>
       </c>
       <c r="B5224" t="n">
-        <v>47.368285</v>
+        <v>47.36828500000001</v>
       </c>
     </row>
     <row r="5225">
@@ -42234,7 +42234,7 @@
         <v>5224</v>
       </c>
       <c r="B5225" t="n">
-        <v>18.35178</v>
+        <v>18.35177999999996</v>
       </c>
     </row>
     <row r="5226">
@@ -42242,7 +42242,7 @@
         <v>5225</v>
       </c>
       <c r="B5226" t="n">
-        <v>21.9834949999999</v>
+        <v>21.98349499999995</v>
       </c>
     </row>
     <row r="5227">
@@ -42250,7 +42250,7 @@
         <v>5226</v>
       </c>
       <c r="B5227" t="n">
-        <v>40.224595</v>
+        <v>40.22459500000002</v>
       </c>
     </row>
     <row r="5228">
@@ -42258,7 +42258,7 @@
         <v>5227</v>
       </c>
       <c r="B5228" t="n">
-        <v>35.236893</v>
+        <v>35.23689300000001</v>
       </c>
     </row>
     <row r="5229">
@@ -42266,7 +42266,7 @@
         <v>5228</v>
       </c>
       <c r="B5229" t="n">
-        <v>5.02233000000001</v>
+        <v>5.022330000000011</v>
       </c>
     </row>
     <row r="5230">
@@ -42282,7 +42282,7 @@
         <v>5230</v>
       </c>
       <c r="B5231" t="n">
-        <v>2.00841400000002</v>
+        <v>2.008414000000016</v>
       </c>
     </row>
     <row r="5232">
@@ -42386,7 +42386,7 @@
         <v>5243</v>
       </c>
       <c r="B5244" t="n">
-        <v>8.81164999999999</v>
+        <v>8.811649999999986</v>
       </c>
     </row>
     <row r="5245">
@@ -42394,7 +42394,7 @@
         <v>5244</v>
       </c>
       <c r="B5245" t="n">
-        <v>48.654369</v>
+        <v>48.65436899999997</v>
       </c>
     </row>
     <row r="5246">
@@ -42402,7 +42402,7 @@
         <v>5245</v>
       </c>
       <c r="B5246" t="n">
-        <v>69.757929</v>
+        <v>69.75792899999999</v>
       </c>
     </row>
     <row r="5247">
@@ -42410,7 +42410,7 @@
         <v>5246</v>
       </c>
       <c r="B5247" t="n">
-        <v>68.805825</v>
+        <v>68.80582500000003</v>
       </c>
     </row>
     <row r="5248">
@@ -42418,7 +42418,7 @@
         <v>5247</v>
       </c>
       <c r="B5248" t="n">
-        <v>16.14466</v>
+        <v>16.14466000000004</v>
       </c>
     </row>
     <row r="5249">
@@ -42786,7 +42786,7 @@
         <v>5293</v>
       </c>
       <c r="B5294" t="n">
-        <v>7.77152100000001</v>
+        <v>7.771521000000007</v>
       </c>
     </row>
     <row r="5295">
@@ -42794,7 +42794,7 @@
         <v>5294</v>
       </c>
       <c r="B5295" t="n">
-        <v>20.369256</v>
+        <v>20.36925599999995</v>
       </c>
     </row>
     <row r="5296">
@@ -45090,7 +45090,7 @@
         <v>5581</v>
       </c>
       <c r="B5582" t="n">
-        <v>10.173786</v>
+        <v>10.17378599999995</v>
       </c>
     </row>
     <row r="5583">
@@ -45098,7 +45098,7 @@
         <v>5582</v>
       </c>
       <c r="B5583" t="n">
-        <v>7.58867299999997</v>
+        <v>7.588672999999972</v>
       </c>
     </row>
     <row r="5584">
@@ -46226,7 +46226,7 @@
         <v>5723</v>
       </c>
       <c r="B5724" t="n">
-        <v>13.982201</v>
+        <v>13.98220100000003</v>
       </c>
     </row>
     <row r="5725">
@@ -46234,7 +46234,7 @@
         <v>5724</v>
       </c>
       <c r="B5725" t="n">
-        <v>76.945955</v>
+        <v>76.94595500000003</v>
       </c>
     </row>
     <row r="5726">
@@ -46266,7 +46266,7 @@
         <v>5728</v>
       </c>
       <c r="B5729" t="n">
-        <v>84.777023</v>
+        <v>84.77702299999999</v>
       </c>
     </row>
     <row r="5730">
@@ -46274,7 +46274,7 @@
         <v>5729</v>
       </c>
       <c r="B5730" t="n">
-        <v>79.36084100000009</v>
+        <v>79.36084100000005</v>
       </c>
     </row>
     <row r="5731">
@@ -46282,7 +46282,7 @@
         <v>5730</v>
       </c>
       <c r="B5731" t="n">
-        <v>87.299029</v>
+        <v>87.29902900000002</v>
       </c>
     </row>
     <row r="5732">
@@ -46290,7 +46290,7 @@
         <v>5731</v>
       </c>
       <c r="B5732" t="n">
-        <v>75.300324</v>
+        <v>75.30032400000005</v>
       </c>
     </row>
     <row r="5733">
@@ -46298,7 +46298,7 @@
         <v>5732</v>
       </c>
       <c r="B5733" t="n">
-        <v>46.964725</v>
+        <v>46.96472500000004</v>
       </c>
     </row>
     <row r="5734">
@@ -46306,7 +46306,7 @@
         <v>5733</v>
       </c>
       <c r="B5734" t="n">
-        <v>25.0666670000001</v>
+        <v>25.06666700000005</v>
       </c>
     </row>
     <row r="5735">
@@ -46314,7 +46314,7 @@
         <v>5734</v>
       </c>
       <c r="B5735" t="n">
-        <v>99.108738</v>
+        <v>99.10873800000002</v>
       </c>
     </row>
     <row r="5736">
@@ -46322,7 +46322,7 @@
         <v>5735</v>
       </c>
       <c r="B5736" t="n">
-        <v>27.046602</v>
+        <v>27.04660200000001</v>
       </c>
     </row>
     <row r="5737">
@@ -46410,7 +46410,7 @@
         <v>5746</v>
       </c>
       <c r="B5747" t="n">
-        <v>10.034951</v>
+        <v>10.03495099999998</v>
       </c>
     </row>
     <row r="5748">
@@ -46418,7 +46418,7 @@
         <v>5747</v>
       </c>
       <c r="B5748" t="n">
-        <v>78.45922299999999</v>
+        <v>78.45922299999995</v>
       </c>
     </row>
     <row r="5749">
@@ -46458,7 +46458,7 @@
         <v>5752</v>
       </c>
       <c r="B5753" t="n">
-        <v>80.30679600000001</v>
+        <v>80.30679599999996</v>
       </c>
     </row>
     <row r="5754">
@@ -46466,7 +46466,7 @@
         <v>5753</v>
       </c>
       <c r="B5754" t="n">
-        <v>68.938835</v>
+        <v>68.93883500000004</v>
       </c>
     </row>
     <row r="5755">
@@ -46474,7 +46474,7 @@
         <v>5754</v>
       </c>
       <c r="B5755" t="n">
-        <v>62.116505</v>
+        <v>62.11650499999996</v>
       </c>
     </row>
     <row r="5756">
@@ -46482,7 +46482,7 @@
         <v>5755</v>
       </c>
       <c r="B5756" t="n">
-        <v>40.206149</v>
+        <v>40.20614899999998</v>
       </c>
     </row>
     <row r="5757">
@@ -46490,7 +46490,7 @@
         <v>5756</v>
       </c>
       <c r="B5757" t="n">
-        <v>15.287702</v>
+        <v>15.28770199999997</v>
       </c>
     </row>
     <row r="5758">
@@ -46498,7 +46498,7 @@
         <v>5757</v>
       </c>
       <c r="B5758" t="n">
-        <v>9.928154999999951</v>
+        <v>9.928154999999947</v>
       </c>
     </row>
     <row r="5759">
@@ -46506,7 +46506,7 @@
         <v>5758</v>
       </c>
       <c r="B5759" t="n">
-        <v>75.956311</v>
+        <v>75.95631100000003</v>
       </c>
     </row>
     <row r="5760">
@@ -46514,7 +46514,7 @@
         <v>5759</v>
       </c>
       <c r="B5760" t="n">
-        <v>6.27734599999997</v>
+        <v>6.277345999999966</v>
       </c>
     </row>
     <row r="5761">
@@ -46602,7 +46602,7 @@
         <v>5770</v>
       </c>
       <c r="B5771" t="n">
-        <v>4.34757300000001</v>
+        <v>4.347573000000011</v>
       </c>
     </row>
     <row r="5772">
@@ -46610,7 +46610,7 @@
         <v>5771</v>
       </c>
       <c r="B5772" t="n">
-        <v>68.24466</v>
+        <v>68.24465999999995</v>
       </c>
     </row>
     <row r="5773">
@@ -46642,7 +46642,7 @@
         <v>5775</v>
       </c>
       <c r="B5776" t="n">
-        <v>64.052104</v>
+        <v>64.05210399999999</v>
       </c>
     </row>
     <row r="5777">
@@ -46650,7 +46650,7 @@
         <v>5776</v>
       </c>
       <c r="B5777" t="n">
-        <v>30.2119740000001</v>
+        <v>30.21197400000005</v>
       </c>
     </row>
     <row r="5778">
@@ -46658,7 +46658,7 @@
         <v>5777</v>
       </c>
       <c r="B5778" t="n">
-        <v>28.049515</v>
+        <v>28.04951500000004</v>
       </c>
     </row>
     <row r="5779">
@@ -46666,7 +46666,7 @@
         <v>5778</v>
       </c>
       <c r="B5779" t="n">
-        <v>43.333333</v>
+        <v>43.33333300000004</v>
       </c>
     </row>
     <row r="5780">
@@ -46674,7 +46674,7 @@
         <v>5779</v>
       </c>
       <c r="B5780" t="n">
-        <v>47.582848</v>
+        <v>47.58284800000001</v>
       </c>
     </row>
     <row r="5781">
@@ -46682,7 +46682,7 @@
         <v>5780</v>
       </c>
       <c r="B5781" t="n">
-        <v>24.1462780000001</v>
+        <v>24.14627800000005</v>
       </c>
     </row>
     <row r="5782">
@@ -46690,7 +46690,7 @@
         <v>5781</v>
       </c>
       <c r="B5782" t="n">
-        <v>23.824595</v>
+        <v>23.82459500000004</v>
       </c>
     </row>
     <row r="5783">
@@ -46706,7 +46706,7 @@
         <v>5783</v>
       </c>
       <c r="B5784" t="n">
-        <v>22.481553</v>
+        <v>22.48155299999996</v>
       </c>
     </row>
     <row r="5785">
@@ -46810,7 +46810,7 @@
         <v>5796</v>
       </c>
       <c r="B5797" t="n">
-        <v>29.808414</v>
+        <v>29.80841399999997</v>
       </c>
     </row>
     <row r="5798">
@@ -46818,7 +46818,7 @@
         <v>5797</v>
       </c>
       <c r="B5798" t="n">
-        <v>62.576699</v>
+        <v>62.57669899999996</v>
       </c>
     </row>
     <row r="5799">
@@ -46826,7 +46826,7 @@
         <v>5798</v>
       </c>
       <c r="B5799" t="n">
-        <v>61.66246</v>
+        <v>61.66246000000001</v>
       </c>
     </row>
     <row r="5800">
@@ -46834,7 +46834,7 @@
         <v>5799</v>
       </c>
       <c r="B5800" t="n">
-        <v>0.43883500000004</v>
+        <v>0.4388350000000401</v>
       </c>
     </row>
     <row r="5801">
@@ -47002,7 +47002,7 @@
         <v>5820</v>
       </c>
       <c r="B5821" t="n">
-        <v>0.565049000000045</v>
+        <v>0.5650490000000445</v>
       </c>
     </row>
     <row r="5822">
@@ -47010,7 +47010,7 @@
         <v>5821</v>
       </c>
       <c r="B5822" t="n">
-        <v>18.912945</v>
+        <v>18.91294500000004</v>
       </c>
     </row>
     <row r="5823">
@@ -47018,7 +47018,7 @@
         <v>5822</v>
       </c>
       <c r="B5823" t="n">
-        <v>12.6582519999999</v>
+        <v>12.65825199999995</v>
       </c>
     </row>
     <row r="5824">
@@ -47570,7 +47570,7 @@
         <v>5891</v>
       </c>
       <c r="B5892" t="n">
-        <v>19.411327</v>
+        <v>19.41132700000003</v>
       </c>
     </row>
     <row r="5893">
@@ -47578,7 +47578,7 @@
         <v>5892</v>
       </c>
       <c r="B5893" t="n">
-        <v>54.014239</v>
+        <v>54.01423899999998</v>
       </c>
     </row>
     <row r="5894">
@@ -47586,7 +47586,7 @@
         <v>5893</v>
       </c>
       <c r="B5894" t="n">
-        <v>83.554045</v>
+        <v>83.55404499999997</v>
       </c>
     </row>
     <row r="5895">
@@ -47594,7 +47594,7 @@
         <v>5894</v>
       </c>
       <c r="B5895" t="n">
-        <v>75.90582499999999</v>
+        <v>75.90582500000005</v>
       </c>
     </row>
     <row r="5896">
@@ -47602,7 +47602,7 @@
         <v>5895</v>
       </c>
       <c r="B5896" t="n">
-        <v>28.3521040000001</v>
+        <v>28.35210400000005</v>
       </c>
     </row>
     <row r="5897">
@@ -47610,7 +47610,7 @@
         <v>5896</v>
       </c>
       <c r="B5897" t="n">
-        <v>22.191909</v>
+        <v>22.19190900000001</v>
       </c>
     </row>
     <row r="5898">
@@ -47618,7 +47618,7 @@
         <v>5897</v>
       </c>
       <c r="B5898" t="n">
-        <v>38.3521040000001</v>
+        <v>38.35210400000005</v>
       </c>
     </row>
     <row r="5899">
@@ -47626,7 +47626,7 @@
         <v>5898</v>
       </c>
       <c r="B5899" t="n">
-        <v>75.69773499999999</v>
+        <v>75.69773499999997</v>
       </c>
     </row>
     <row r="5900">
@@ -47634,7 +47634,7 @@
         <v>5899</v>
       </c>
       <c r="B5900" t="n">
-        <v>71.088673</v>
+        <v>71.08867299999997</v>
       </c>
     </row>
     <row r="5901">
@@ -47642,7 +47642,7 @@
         <v>5900</v>
       </c>
       <c r="B5901" t="n">
-        <v>37.21068</v>
+        <v>37.21068000000002</v>
       </c>
     </row>
     <row r="5902">
@@ -47650,7 +47650,7 @@
         <v>5901</v>
       </c>
       <c r="B5902" t="n">
-        <v>57.557605</v>
+        <v>57.55760499999997</v>
       </c>
     </row>
     <row r="5903">
@@ -47666,7 +47666,7 @@
         <v>5903</v>
       </c>
       <c r="B5904" t="n">
-        <v>44.310032</v>
+        <v>44.31003199999998</v>
       </c>
     </row>
     <row r="5905">
@@ -47754,7 +47754,7 @@
         <v>5914</v>
       </c>
       <c r="B5915" t="n">
-        <v>39.87767</v>
+        <v>39.87766999999997</v>
       </c>
     </row>
     <row r="5916">
@@ -47794,7 +47794,7 @@
         <v>5919</v>
       </c>
       <c r="B5920" t="n">
-        <v>53.6359220000001</v>
+        <v>53.63592200000005</v>
       </c>
     </row>
     <row r="5921">
@@ -47802,7 +47802,7 @@
         <v>5920</v>
       </c>
       <c r="B5921" t="n">
-        <v>32.778317</v>
+        <v>32.77831700000002</v>
       </c>
     </row>
     <row r="5922">
@@ -47810,7 +47810,7 @@
         <v>5921</v>
       </c>
       <c r="B5922" t="n">
-        <v>47.721683</v>
+        <v>47.72168299999998</v>
       </c>
     </row>
     <row r="5923">
@@ -47818,7 +47818,7 @@
         <v>5922</v>
       </c>
       <c r="B5923" t="n">
-        <v>78.453074</v>
+        <v>78.45307400000002</v>
       </c>
     </row>
     <row r="5924">
@@ -47826,7 +47826,7 @@
         <v>5923</v>
       </c>
       <c r="B5924" t="n">
-        <v>82.526214</v>
+        <v>82.52621399999998</v>
       </c>
     </row>
     <row r="5925">
@@ -47834,7 +47834,7 @@
         <v>5924</v>
       </c>
       <c r="B5925" t="n">
-        <v>62.387379</v>
+        <v>62.38737900000001</v>
       </c>
     </row>
     <row r="5926">
@@ -47842,7 +47842,7 @@
         <v>5925</v>
       </c>
       <c r="B5926" t="n">
-        <v>67.32427199999999</v>
+        <v>67.32427199999995</v>
       </c>
     </row>
     <row r="5927">
@@ -47858,7 +47858,7 @@
         <v>5927</v>
       </c>
       <c r="B5928" t="n">
-        <v>25.634304</v>
+        <v>25.63430400000004</v>
       </c>
     </row>
     <row r="5929">
@@ -47946,7 +47946,7 @@
         <v>5938</v>
       </c>
       <c r="B5939" t="n">
-        <v>31.03754</v>
+        <v>31.03754000000004</v>
       </c>
     </row>
     <row r="5940">
@@ -47954,7 +47954,7 @@
         <v>5939</v>
       </c>
       <c r="B5940" t="n">
-        <v>97.733981</v>
+        <v>97.73398099999997</v>
       </c>
     </row>
     <row r="5941">
@@ -47994,7 +47994,7 @@
         <v>5944</v>
       </c>
       <c r="B5945" t="n">
-        <v>83.099676</v>
+        <v>83.09967600000004</v>
       </c>
     </row>
     <row r="5946">
@@ -48002,7 +48002,7 @@
         <v>5945</v>
       </c>
       <c r="B5946" t="n">
-        <v>79.524919</v>
+        <v>79.52491899999995</v>
       </c>
     </row>
     <row r="5947">
@@ -48010,7 +48010,7 @@
         <v>5946</v>
       </c>
       <c r="B5947" t="n">
-        <v>85.40776700000001</v>
+        <v>85.40776700000004</v>
       </c>
     </row>
     <row r="5948">
@@ -48018,7 +48018,7 @@
         <v>5947</v>
       </c>
       <c r="B5948" t="n">
-        <v>60.6912620000001</v>
+        <v>60.69126200000005</v>
       </c>
     </row>
     <row r="5949">
@@ -48026,7 +48026,7 @@
         <v>5948</v>
       </c>
       <c r="B5949" t="n">
-        <v>11.617799</v>
+        <v>11.61779899999999</v>
       </c>
     </row>
     <row r="5950">
@@ -48034,7 +48034,7 @@
         <v>5949</v>
       </c>
       <c r="B5950" t="n">
-        <v>20.136246</v>
+        <v>20.13624600000003</v>
       </c>
     </row>
     <row r="5951">
@@ -48042,7 +48042,7 @@
         <v>5950</v>
       </c>
       <c r="B5951" t="n">
-        <v>65.117476</v>
+        <v>65.11747600000001</v>
       </c>
     </row>
     <row r="5952">
@@ -48138,7 +48138,7 @@
         <v>5962</v>
       </c>
       <c r="B5963" t="n">
-        <v>1.89514599999995</v>
+        <v>1.895145999999954</v>
       </c>
     </row>
     <row r="5964">
@@ -48178,7 +48178,7 @@
         <v>5967</v>
       </c>
       <c r="B5968" t="n">
-        <v>87.17313900000001</v>
+        <v>87.17313899999999</v>
       </c>
     </row>
     <row r="5969">
@@ -48186,7 +48186,7 @@
         <v>5968</v>
       </c>
       <c r="B5969" t="n">
-        <v>80.811003</v>
+        <v>80.81100300000003</v>
       </c>
     </row>
     <row r="5970">
@@ -48194,7 +48194,7 @@
         <v>5969</v>
       </c>
       <c r="B5970" t="n">
-        <v>95.678641</v>
+        <v>95.67864099999997</v>
       </c>
     </row>
     <row r="5971">
@@ -48210,7 +48210,7 @@
         <v>5971</v>
       </c>
       <c r="B5972" t="n">
-        <v>104.026861</v>
+        <v>104.0268610000001</v>
       </c>
     </row>
     <row r="5973">
@@ -48218,7 +48218,7 @@
         <v>5972</v>
       </c>
       <c r="B5973" t="n">
-        <v>66.655987</v>
+        <v>66.65598699999998</v>
       </c>
     </row>
     <row r="5974">
@@ -48226,7 +48226,7 @@
         <v>5973</v>
       </c>
       <c r="B5974" t="n">
-        <v>77.78446599999999</v>
+        <v>77.78446599999995</v>
       </c>
     </row>
     <row r="5975">
@@ -48338,7 +48338,7 @@
         <v>5987</v>
       </c>
       <c r="B5988" t="n">
-        <v>63.270227</v>
+        <v>63.27022699999998</v>
       </c>
     </row>
     <row r="5989">
@@ -48346,7 +48346,7 @@
         <v>5988</v>
       </c>
       <c r="B5989" t="n">
-        <v>101.706796</v>
+        <v>101.7067960000001</v>
       </c>
     </row>
     <row r="5990">
@@ -48370,7 +48370,7 @@
         <v>5991</v>
       </c>
       <c r="B5992" t="n">
-        <v>68.572816</v>
+        <v>68.57281599999999</v>
       </c>
     </row>
     <row r="5993">
@@ -48378,7 +48378,7 @@
         <v>5992</v>
       </c>
       <c r="B5993" t="n">
-        <v>42.765696</v>
+        <v>42.76569600000005</v>
       </c>
     </row>
     <row r="5994">
@@ -48386,7 +48386,7 @@
         <v>5993</v>
       </c>
       <c r="B5994" t="n">
-        <v>52.721359</v>
+        <v>52.72135900000001</v>
       </c>
     </row>
     <row r="5995">
@@ -48394,7 +48394,7 @@
         <v>5994</v>
       </c>
       <c r="B5995" t="n">
-        <v>81.416505</v>
+        <v>81.41650500000003</v>
       </c>
     </row>
     <row r="5996">
@@ -48410,7 +48410,7 @@
         <v>5996</v>
       </c>
       <c r="B5997" t="n">
-        <v>61.472816</v>
+        <v>61.47281599999997</v>
       </c>
     </row>
     <row r="5998">
@@ -48418,7 +48418,7 @@
         <v>5997</v>
       </c>
       <c r="B5998" t="n">
-        <v>65.06699</v>
+        <v>65.06699000000003</v>
       </c>
     </row>
     <row r="5999">
@@ -48426,7 +48426,7 @@
         <v>5998</v>
       </c>
       <c r="B5999" t="n">
-        <v>99.524919</v>
+        <v>99.52491899999995</v>
       </c>
     </row>
     <row r="6000">
@@ -48922,7 +48922,7 @@
         <v>6060</v>
       </c>
       <c r="B6061" t="n">
-        <v>5.804531</v>
+        <v>5.804530999999997</v>
       </c>
     </row>
     <row r="6062">
@@ -48930,7 +48930,7 @@
         <v>6061</v>
       </c>
       <c r="B6062" t="n">
-        <v>21.227184</v>
+        <v>21.22718399999997</v>
       </c>
     </row>
     <row r="6063">
@@ -48938,7 +48938,7 @@
         <v>6062</v>
       </c>
       <c r="B6063" t="n">
-        <v>1.42265399999997</v>
+        <v>1.422653999999966</v>
       </c>
     </row>
     <row r="6064">
@@ -49114,7 +49114,7 @@
         <v>6084</v>
       </c>
       <c r="B6085" t="n">
-        <v>10.772816</v>
+        <v>10.77281600000003</v>
       </c>
     </row>
     <row r="6086">
@@ -49122,7 +49122,7 @@
         <v>6085</v>
       </c>
       <c r="B6086" t="n">
-        <v>36.9834949999999</v>
+        <v>36.98349499999995</v>
       </c>
     </row>
     <row r="6087">
@@ -49130,7 +49130,7 @@
         <v>6086</v>
       </c>
       <c r="B6087" t="n">
-        <v>35.356634</v>
+        <v>35.35663399999999</v>
       </c>
     </row>
     <row r="6088">
@@ -49290,7 +49290,7 @@
         <v>6106</v>
       </c>
       <c r="B6107" t="n">
-        <v>20.886084</v>
+        <v>20.88608399999998</v>
       </c>
     </row>
     <row r="6108">
@@ -49298,7 +49298,7 @@
         <v>6107</v>
       </c>
       <c r="B6108" t="n">
-        <v>72.406149</v>
+        <v>72.40614900000003</v>
       </c>
     </row>
     <row r="6109">
@@ -49306,7 +49306,7 @@
         <v>6108</v>
       </c>
       <c r="B6109" t="n">
-        <v>87.6773459999999</v>
+        <v>87.67734599999994</v>
       </c>
     </row>
     <row r="6110">
@@ -49322,7 +49322,7 @@
         <v>6110</v>
       </c>
       <c r="B6111" t="n">
-        <v>81.82621399999999</v>
+        <v>81.82621400000005</v>
       </c>
     </row>
     <row r="6112">
@@ -49330,7 +49330,7 @@
         <v>6111</v>
       </c>
       <c r="B6112" t="n">
-        <v>6.14498400000002</v>
+        <v>6.144984000000022</v>
       </c>
     </row>
     <row r="6113">
@@ -49354,7 +49354,7 @@
         <v>6114</v>
       </c>
       <c r="B6115" t="n">
-        <v>17.172816</v>
+        <v>17.17281600000001</v>
       </c>
     </row>
     <row r="6116">
@@ -49378,7 +49378,7 @@
         <v>6117</v>
       </c>
       <c r="B6118" t="n">
-        <v>14.966019</v>
+        <v>14.96601899999996</v>
       </c>
     </row>
     <row r="6119">
@@ -49386,7 +49386,7 @@
         <v>6118</v>
       </c>
       <c r="B6119" t="n">
-        <v>56.17055</v>
+        <v>56.17055000000005</v>
       </c>
     </row>
     <row r="6120">
@@ -49490,7 +49490,7 @@
         <v>6131</v>
       </c>
       <c r="B6132" t="n">
-        <v>77.570227</v>
+        <v>77.57022700000005</v>
       </c>
     </row>
     <row r="6133">
@@ -49514,7 +49514,7 @@
         <v>6134</v>
       </c>
       <c r="B6135" t="n">
-        <v>96.631068</v>
+        <v>96.63106800000003</v>
       </c>
     </row>
     <row r="6136">
@@ -49530,7 +49530,7 @@
         <v>6136</v>
       </c>
       <c r="B6137" t="n">
-        <v>19.1462780000001</v>
+        <v>19.14627800000005</v>
       </c>
     </row>
     <row r="6138">
@@ -49538,7 +49538,7 @@
         <v>6137</v>
       </c>
       <c r="B6138" t="n">
-        <v>22.6582519999999</v>
+        <v>22.65825199999995</v>
       </c>
     </row>
     <row r="6139">
@@ -49546,7 +49546,7 @@
         <v>6138</v>
       </c>
       <c r="B6139" t="n">
-        <v>47.248544</v>
+        <v>47.24854400000004</v>
       </c>
     </row>
     <row r="6140">
@@ -49554,7 +49554,7 @@
         <v>6139</v>
       </c>
       <c r="B6140" t="n">
-        <v>47.904531</v>
+        <v>47.90453100000002</v>
       </c>
     </row>
     <row r="6141">
@@ -49570,7 +49570,7 @@
         <v>6141</v>
       </c>
       <c r="B6142" t="n">
-        <v>80.62815500000001</v>
+        <v>80.62815499999999</v>
       </c>
     </row>
     <row r="6143">
@@ -49674,7 +49674,7 @@
         <v>6154</v>
       </c>
       <c r="B6155" t="n">
-        <v>32.374434</v>
+        <v>32.37443399999995</v>
       </c>
     </row>
     <row r="6156">
@@ -49682,7 +49682,7 @@
         <v>6155</v>
       </c>
       <c r="B6156" t="n">
-        <v>93.81877</v>
+        <v>93.81876999999997</v>
       </c>
     </row>
     <row r="6157">
@@ -49714,7 +49714,7 @@
         <v>6159</v>
       </c>
       <c r="B6160" t="n">
-        <v>49.2533979999999</v>
+        <v>49.25339799999995</v>
       </c>
     </row>
     <row r="6161">
@@ -49722,7 +49722,7 @@
         <v>6160</v>
       </c>
       <c r="B6161" t="n">
-        <v>21.680583</v>
+        <v>21.68058299999996</v>
       </c>
     </row>
     <row r="6162">
@@ -49730,7 +49730,7 @@
         <v>6161</v>
       </c>
       <c r="B6162" t="n">
-        <v>18.313592</v>
+        <v>18.31359199999997</v>
       </c>
     </row>
     <row r="6163">
@@ -49738,7 +49738,7 @@
         <v>6162</v>
       </c>
       <c r="B6163" t="n">
-        <v>37.689644</v>
+        <v>37.68964400000004</v>
       </c>
     </row>
     <row r="6164">
@@ -49754,7 +49754,7 @@
         <v>6164</v>
       </c>
       <c r="B6165" t="n">
-        <v>7.68931999999995</v>
+        <v>7.689319999999952</v>
       </c>
     </row>
     <row r="6166">
@@ -49762,7 +49762,7 @@
         <v>6165</v>
       </c>
       <c r="B6166" t="n">
-        <v>37.7589</v>
+        <v>37.75890000000004</v>
       </c>
     </row>
     <row r="6167">
@@ -49770,7 +49770,7 @@
         <v>6166</v>
       </c>
       <c r="B6167" t="n">
-        <v>59.511974</v>
+        <v>59.51197400000001</v>
       </c>
     </row>
     <row r="6168">
@@ -50466,7 +50466,7 @@
         <v>6253</v>
       </c>
       <c r="B6254" t="n">
-        <v>33.988997</v>
+        <v>33.98899700000004</v>
       </c>
     </row>
     <row r="6255">
@@ -50474,7 +50474,7 @@
         <v>6254</v>
       </c>
       <c r="B6255" t="n">
-        <v>45.332039</v>
+        <v>45.33203900000001</v>
       </c>
     </row>
     <row r="6256">
@@ -50666,7 +50666,7 @@
         <v>6278</v>
       </c>
       <c r="B6279" t="n">
-        <v>4.43009700000005</v>
+        <v>4.430097000000046</v>
       </c>
     </row>
     <row r="6280">
@@ -50834,7 +50834,7 @@
         <v>6299</v>
       </c>
       <c r="B6300" t="n">
-        <v>36.636893</v>
+        <v>36.63689299999999</v>
       </c>
     </row>
     <row r="6301">
@@ -50842,7 +50842,7 @@
         <v>6300</v>
       </c>
       <c r="B6301" t="n">
-        <v>66.119741</v>
+        <v>66.11974099999998</v>
       </c>
     </row>
     <row r="6302">
@@ -50850,7 +50850,7 @@
         <v>6301</v>
       </c>
       <c r="B6302" t="n">
-        <v>97.299029</v>
+        <v>97.29902900000002</v>
       </c>
     </row>
     <row r="6303">
@@ -50858,7 +50858,7 @@
         <v>6302</v>
       </c>
       <c r="B6303" t="n">
-        <v>83.642071</v>
+        <v>83.64207099999999</v>
       </c>
     </row>
     <row r="6304">
@@ -50866,7 +50866,7 @@
         <v>6303</v>
       </c>
       <c r="B6304" t="n">
-        <v>24.3226540000001</v>
+        <v>24.32265400000006</v>
       </c>
     </row>
     <row r="6305">
@@ -50874,7 +50874,7 @@
         <v>6304</v>
       </c>
       <c r="B6305" t="n">
-        <v>27.620065</v>
+        <v>27.62006499999995</v>
       </c>
     </row>
     <row r="6306">
@@ -50882,7 +50882,7 @@
         <v>6305</v>
       </c>
       <c r="B6306" t="n">
-        <v>43.849838</v>
+        <v>43.84983799999998</v>
       </c>
     </row>
     <row r="6307">
@@ -50890,7 +50890,7 @@
         <v>6306</v>
       </c>
       <c r="B6307" t="n">
-        <v>81.044337</v>
+        <v>81.04433700000004</v>
       </c>
     </row>
     <row r="6308">
@@ -50898,7 +50898,7 @@
         <v>6307</v>
       </c>
       <c r="B6308" t="n">
-        <v>69.392233</v>
+        <v>69.39223300000003</v>
       </c>
     </row>
     <row r="6309">
@@ -50906,7 +50906,7 @@
         <v>6308</v>
       </c>
       <c r="B6309" t="n">
-        <v>42.494175</v>
+        <v>42.49417500000004</v>
       </c>
     </row>
     <row r="6310">
@@ -51010,7 +51010,7 @@
         <v>6321</v>
       </c>
       <c r="B6322" t="n">
-        <v>0.249190999999996</v>
+        <v>0.2491909999999962</v>
       </c>
     </row>
     <row r="6323">
@@ -51018,7 +51018,7 @@
         <v>6322</v>
       </c>
       <c r="B6323" t="n">
-        <v>49.656958</v>
+        <v>49.65695800000003</v>
       </c>
     </row>
     <row r="6324">
@@ -51026,7 +51026,7 @@
         <v>6323</v>
       </c>
       <c r="B6324" t="n">
-        <v>86.989968</v>
+        <v>86.98996799999998</v>
       </c>
     </row>
     <row r="6325">
@@ -51042,7 +51042,7 @@
         <v>6325</v>
       </c>
       <c r="B6326" t="n">
-        <v>117.236246</v>
+        <v>117.2362460000001</v>
       </c>
     </row>
     <row r="6327">
@@ -51050,7 +51050,7 @@
         <v>6326</v>
       </c>
       <c r="B6327" t="n">
-        <v>76.138835</v>
+        <v>76.13883499999997</v>
       </c>
     </row>
     <row r="6328">
@@ -51682,7 +51682,7 @@
         <v>6405</v>
       </c>
       <c r="B6406" t="n">
-        <v>54.152751</v>
+        <v>54.15275099999997</v>
       </c>
     </row>
     <row r="6407">
@@ -51690,7 +51690,7 @@
         <v>6406</v>
       </c>
       <c r="B6407" t="n">
-        <v>68.780906</v>
+        <v>68.78090599999996</v>
       </c>
     </row>
     <row r="6408">
@@ -51786,7 +51786,7 @@
         <v>6418</v>
       </c>
       <c r="B6419" t="n">
-        <v>29.240777</v>
+        <v>29.24077699999998</v>
       </c>
     </row>
     <row r="6420">
@@ -51794,7 +51794,7 @@
         <v>6419</v>
       </c>
       <c r="B6420" t="n">
-        <v>52.8411</v>
+        <v>52.84109999999998</v>
       </c>
     </row>
     <row r="6421">
@@ -51802,7 +51802,7 @@
         <v>6420</v>
       </c>
       <c r="B6421" t="n">
-        <v>71.441424</v>
+        <v>71.44142399999998</v>
       </c>
     </row>
     <row r="6422">
@@ -51810,7 +51810,7 @@
         <v>6421</v>
       </c>
       <c r="B6422" t="n">
-        <v>80.2119740000001</v>
+        <v>80.21197400000005</v>
       </c>
     </row>
     <row r="6423">
@@ -51818,7 +51818,7 @@
         <v>6422</v>
       </c>
       <c r="B6423" t="n">
-        <v>60.911974</v>
+        <v>60.91197399999999</v>
       </c>
     </row>
     <row r="6424">
@@ -51826,7 +51826,7 @@
         <v>6423</v>
       </c>
       <c r="B6424" t="n">
-        <v>0.224272000000042</v>
+        <v>0.2242720000000418</v>
       </c>
     </row>
     <row r="6425">
@@ -51850,7 +51850,7 @@
         <v>6426</v>
       </c>
       <c r="B6427" t="n">
-        <v>21.491909</v>
+        <v>21.49190899999996</v>
       </c>
     </row>
     <row r="6428">
@@ -51858,7 +51858,7 @@
         <v>6427</v>
       </c>
       <c r="B6428" t="n">
-        <v>2.79708700000003</v>
+        <v>2.797087000000033</v>
       </c>
     </row>
     <row r="6429">
@@ -51874,7 +51874,7 @@
         <v>6429</v>
       </c>
       <c r="B6430" t="n">
-        <v>73.755663</v>
+        <v>73.75566300000003</v>
       </c>
     </row>
     <row r="6431">
@@ -51978,7 +51978,7 @@
         <v>6442</v>
       </c>
       <c r="B6443" t="n">
-        <v>6.85080900000003</v>
+        <v>6.850809000000027</v>
       </c>
     </row>
     <row r="6444">
@@ -51986,7 +51986,7 @@
         <v>6443</v>
       </c>
       <c r="B6444" t="n">
-        <v>47.367961</v>
+        <v>47.36796100000004</v>
       </c>
     </row>
     <row r="6445">
@@ -51994,7 +51994,7 @@
         <v>6444</v>
       </c>
       <c r="B6445" t="n">
-        <v>69.04530699999999</v>
+        <v>69.04530699999998</v>
       </c>
     </row>
     <row r="6446">
@@ -52002,7 +52002,7 @@
         <v>6445</v>
       </c>
       <c r="B6446" t="n">
-        <v>85.68479000000001</v>
+        <v>85.68479000000002</v>
       </c>
     </row>
     <row r="6447">
@@ -52010,7 +52010,7 @@
         <v>6446</v>
       </c>
       <c r="B6447" t="n">
-        <v>55.666019</v>
+        <v>55.66601900000001</v>
       </c>
     </row>
     <row r="6448">
@@ -52186,7 +52186,7 @@
         <v>6468</v>
       </c>
       <c r="B6469" t="n">
-        <v>32.317799</v>
+        <v>32.31779900000004</v>
       </c>
     </row>
     <row r="6470">
@@ -52194,7 +52194,7 @@
         <v>6469</v>
       </c>
       <c r="B6470" t="n">
-        <v>40.186731</v>
+        <v>40.18673100000001</v>
       </c>
     </row>
     <row r="6471">
@@ -52202,7 +52202,7 @@
         <v>6470</v>
       </c>
       <c r="B6471" t="n">
-        <v>25.356634</v>
+        <v>25.35663399999999</v>
       </c>
     </row>
     <row r="6472">
@@ -52378,7 +52378,7 @@
         <v>6492</v>
       </c>
       <c r="B6493" t="n">
-        <v>18.105825</v>
+        <v>18.10582499999998</v>
       </c>
     </row>
     <row r="6494">
@@ -52386,7 +52386,7 @@
         <v>6493</v>
       </c>
       <c r="B6494" t="n">
-        <v>46.277346</v>
+        <v>46.27734599999997</v>
       </c>
     </row>
     <row r="6495">
@@ -52394,7 +52394,7 @@
         <v>6494</v>
       </c>
       <c r="B6495" t="n">
-        <v>38.004854</v>
+        <v>38.00485400000002</v>
       </c>
     </row>
     <row r="6496">
@@ -52458,7 +52458,7 @@
         <v>6502</v>
       </c>
       <c r="B6503" t="n">
-        <v>58.9886729999999</v>
+        <v>58.98867299999995</v>
       </c>
     </row>
     <row r="6504">
@@ -52946,7 +52946,7 @@
         <v>6563</v>
       </c>
       <c r="B6564" t="n">
-        <v>10.968285</v>
+        <v>10.96828500000004</v>
       </c>
     </row>
     <row r="6565">
@@ -52954,7 +52954,7 @@
         <v>6564</v>
       </c>
       <c r="B6565" t="n">
-        <v>32.299029</v>
+        <v>32.29902900000002</v>
       </c>
     </row>
     <row r="6566">
@@ -52962,7 +52962,7 @@
         <v>6565</v>
       </c>
       <c r="B6566" t="n">
-        <v>40.041748</v>
+        <v>40.04174799999998</v>
       </c>
     </row>
     <row r="6567">
@@ -52970,7 +52970,7 @@
         <v>6566</v>
       </c>
       <c r="B6567" t="n">
-        <v>9.75178000000005</v>
+        <v>9.751780000000053</v>
       </c>
     </row>
     <row r="6568">
@@ -53130,7 +53130,7 @@
         <v>6586</v>
       </c>
       <c r="B6587" t="n">
-        <v>13.868608</v>
+        <v>13.86860799999999</v>
       </c>
     </row>
     <row r="6588">
@@ -53138,7 +53138,7 @@
         <v>6587</v>
       </c>
       <c r="B6588" t="n">
-        <v>62.4818770000001</v>
+        <v>62.48187700000005</v>
       </c>
     </row>
     <row r="6589">
@@ -53146,7 +53146,7 @@
         <v>6588</v>
       </c>
       <c r="B6589" t="n">
-        <v>77.009061</v>
+        <v>77.00906099999997</v>
       </c>
     </row>
     <row r="6590">
@@ -53154,7 +53154,7 @@
         <v>6589</v>
       </c>
       <c r="B6590" t="n">
-        <v>95.464401</v>
+        <v>95.46440099999995</v>
       </c>
     </row>
     <row r="6591">
@@ -53218,7 +53218,7 @@
         <v>6597</v>
       </c>
       <c r="B6598" t="n">
-        <v>82.501294</v>
+        <v>82.50129400000003</v>
       </c>
     </row>
     <row r="6599">
@@ -53226,7 +53226,7 @@
         <v>6598</v>
       </c>
       <c r="B6599" t="n">
-        <v>53.3521040000001</v>
+        <v>53.35210400000005</v>
       </c>
     </row>
     <row r="6600">
@@ -53314,7 +53314,7 @@
         <v>6609</v>
       </c>
       <c r="B6610" t="n">
-        <v>23.200324</v>
+        <v>23.20032400000002</v>
       </c>
     </row>
     <row r="6611">
@@ -53322,7 +53322,7 @@
         <v>6610</v>
       </c>
       <c r="B6611" t="n">
-        <v>60.4576049999999</v>
+        <v>60.45760499999994</v>
       </c>
     </row>
     <row r="6612">
@@ -53338,7 +53338,7 @@
         <v>6612</v>
       </c>
       <c r="B6613" t="n">
-        <v>134.203236</v>
+        <v>134.2032359999999</v>
       </c>
     </row>
     <row r="6614">
@@ -53362,7 +53362,7 @@
         <v>6615</v>
       </c>
       <c r="B6616" t="n">
-        <v>32.941748</v>
+        <v>32.94174799999996</v>
       </c>
     </row>
     <row r="6617">
@@ -53370,7 +53370,7 @@
         <v>6616</v>
       </c>
       <c r="B6617" t="n">
-        <v>10.186408</v>
+        <v>10.18640800000003</v>
       </c>
     </row>
     <row r="6618">
@@ -53378,7 +53378,7 @@
         <v>6617</v>
       </c>
       <c r="B6618" t="n">
-        <v>22.475405</v>
+        <v>22.47540500000002</v>
       </c>
     </row>
     <row r="6619">
@@ -53386,7 +53386,7 @@
         <v>6618</v>
       </c>
       <c r="B6619" t="n">
-        <v>33.213269</v>
+        <v>33.21326899999997</v>
       </c>
     </row>
     <row r="6620">
@@ -53394,7 +53394,7 @@
         <v>6619</v>
       </c>
       <c r="B6620" t="n">
-        <v>32.424919</v>
+        <v>32.42491900000005</v>
       </c>
     </row>
     <row r="6621">
@@ -53722,7 +53722,7 @@
         <v>6660</v>
       </c>
       <c r="B6661" t="n">
-        <v>7.14757299999997</v>
+        <v>7.147572999999966</v>
       </c>
     </row>
     <row r="6662">
@@ -53730,7 +53730,7 @@
         <v>6661</v>
       </c>
       <c r="B6662" t="n">
-        <v>31.5233009999999</v>
+        <v>31.52330099999995</v>
       </c>
     </row>
     <row r="6663">
@@ -53738,7 +53738,7 @@
         <v>6662</v>
       </c>
       <c r="B6663" t="n">
-        <v>27.759223</v>
+        <v>27.75922300000002</v>
       </c>
     </row>
     <row r="6664">
@@ -53794,7 +53794,7 @@
         <v>6669</v>
       </c>
       <c r="B6670" t="n">
-        <v>34.991262</v>
+        <v>34.99126200000001</v>
       </c>
     </row>
     <row r="6671">
@@ -54370,7 +54370,7 @@
         <v>6741</v>
       </c>
       <c r="B6742" t="n">
-        <v>10.256311</v>
+        <v>10.25631099999998</v>
       </c>
     </row>
     <row r="6743">
@@ -54378,7 +54378,7 @@
         <v>6742</v>
       </c>
       <c r="B6743" t="n">
-        <v>1.06310699999995</v>
+        <v>1.063106999999945</v>
       </c>
     </row>
     <row r="6744">
@@ -54498,7 +54498,7 @@
         <v>6757</v>
       </c>
       <c r="B6758" t="n">
-        <v>24.593851</v>
+        <v>24.59385099999997</v>
       </c>
     </row>
     <row r="6759">
@@ -54554,7 +54554,7 @@
         <v>6764</v>
       </c>
       <c r="B6765" t="n">
-        <v>14.7135919999999</v>
+        <v>14.71359199999995</v>
       </c>
     </row>
     <row r="6766">
@@ -54570,7 +54570,7 @@
         <v>6766</v>
       </c>
       <c r="B6767" t="n">
-        <v>78.79967600000001</v>
+        <v>78.79967599999998</v>
       </c>
     </row>
     <row r="6768">
@@ -54674,7 +54674,7 @@
         <v>6779</v>
       </c>
       <c r="B6780" t="n">
-        <v>41.561165</v>
+        <v>41.56116499999996</v>
       </c>
     </row>
     <row r="6781">
@@ -54682,7 +54682,7 @@
         <v>6780</v>
       </c>
       <c r="B6781" t="n">
-        <v>66.466667</v>
+        <v>66.46666700000003</v>
       </c>
     </row>
     <row r="6782">
@@ -54690,7 +54690,7 @@
         <v>6781</v>
       </c>
       <c r="B6782" t="n">
-        <v>94.05177999999999</v>
+        <v>94.05178000000001</v>
       </c>
     </row>
     <row r="6783">
@@ -54698,7 +54698,7 @@
         <v>6782</v>
       </c>
       <c r="B6783" t="n">
-        <v>61.466667</v>
+        <v>61.46666700000003</v>
       </c>
     </row>
     <row r="6784">
@@ -54746,7 +54746,7 @@
         <v>6788</v>
       </c>
       <c r="B6789" t="n">
-        <v>12.178964</v>
+        <v>12.17896399999995</v>
       </c>
     </row>
     <row r="6790">
@@ -54762,7 +54762,7 @@
         <v>6790</v>
       </c>
       <c r="B6791" t="n">
-        <v>76.107443</v>
+        <v>76.10744299999999</v>
       </c>
     </row>
     <row r="6792">
@@ -56394,7 +56394,7 @@
         <v>6994</v>
       </c>
       <c r="B6995" t="n">
-        <v>3.17508099999998</v>
+        <v>3.175080999999977</v>
       </c>
     </row>
     <row r="6996">
@@ -56402,7 +56402,7 @@
         <v>6995</v>
       </c>
       <c r="B6996" t="n">
-        <v>38.294822</v>
+        <v>38.29482199999995</v>
       </c>
     </row>
     <row r="6997">
@@ -56410,7 +56410,7 @@
         <v>6996</v>
       </c>
       <c r="B6997" t="n">
-        <v>43.4715210000001</v>
+        <v>43.47152100000005</v>
       </c>
     </row>
     <row r="6998">
@@ -56418,7 +56418,7 @@
         <v>6997</v>
       </c>
       <c r="B6998" t="n">
-        <v>43.0113270000001</v>
+        <v>43.01132700000005</v>
       </c>
     </row>
     <row r="6999">
@@ -56426,7 +56426,7 @@
         <v>6998</v>
       </c>
       <c r="B6999" t="n">
-        <v>21.252104</v>
+        <v>21.25210400000003</v>
       </c>
     </row>
     <row r="7000">
@@ -56482,7 +56482,7 @@
         <v>7005</v>
       </c>
       <c r="B7006" t="n">
-        <v>39.089644</v>
+        <v>39.08964400000002</v>
       </c>
     </row>
     <row r="7007">
@@ -56986,7 +56986,7 @@
         <v>7068</v>
       </c>
       <c r="B7069" t="n">
-        <v>4.35404500000004</v>
+        <v>4.354045000000042</v>
       </c>
     </row>
     <row r="7070">
@@ -57002,7 +57002,7 @@
         <v>7070</v>
       </c>
       <c r="B7071" t="n">
-        <v>6.43495099999996</v>
+        <v>6.434950999999955</v>
       </c>
     </row>
     <row r="7072">
@@ -57050,7 +57050,7 @@
         <v>7076</v>
       </c>
       <c r="B7077" t="n">
-        <v>49.909385</v>
+        <v>49.90938500000004</v>
       </c>
     </row>
     <row r="7078">
@@ -57058,7 +57058,7 @@
         <v>7077</v>
       </c>
       <c r="B7078" t="n">
-        <v>123.957605</v>
+        <v>123.9576049999999</v>
       </c>
     </row>
     <row r="7079">
@@ -57154,7 +57154,7 @@
         <v>7089</v>
       </c>
       <c r="B7090" t="n">
-        <v>17.040129</v>
+        <v>17.04012899999998</v>
       </c>
     </row>
     <row r="7091">
@@ -57162,7 +57162,7 @@
         <v>7090</v>
       </c>
       <c r="B7091" t="n">
-        <v>16.031392</v>
+        <v>16.03139199999998</v>
       </c>
     </row>
     <row r="7092">
@@ -57170,7 +57170,7 @@
         <v>7091</v>
       </c>
       <c r="B7092" t="n">
-        <v>41.832039</v>
+        <v>41.83203900000001</v>
       </c>
     </row>
     <row r="7093">
@@ -57178,7 +57178,7 @@
         <v>7092</v>
       </c>
       <c r="B7093" t="n">
-        <v>44.814563</v>
+        <v>44.81456300000002</v>
       </c>
     </row>
     <row r="7094">
@@ -57186,7 +57186,7 @@
         <v>7093</v>
       </c>
       <c r="B7094" t="n">
-        <v>53.24466</v>
+        <v>53.24465999999995</v>
       </c>
     </row>
     <row r="7095">
@@ -57194,7 +57194,7 @@
         <v>7094</v>
       </c>
       <c r="B7095" t="n">
-        <v>27.166343</v>
+        <v>27.16634299999998</v>
       </c>
     </row>
     <row r="7096">
@@ -57226,7 +57226,7 @@
         <v>7098</v>
       </c>
       <c r="B7099" t="n">
-        <v>10.293528</v>
+        <v>10.29352800000004</v>
       </c>
     </row>
     <row r="7100">
@@ -57234,7 +57234,7 @@
         <v>7099</v>
       </c>
       <c r="B7100" t="n">
-        <v>19.8711970000001</v>
+        <v>19.87119700000005</v>
       </c>
     </row>
     <row r="7101">
@@ -57242,7 +57242,7 @@
         <v>7100</v>
       </c>
       <c r="B7101" t="n">
-        <v>96.945955</v>
+        <v>96.94595500000003</v>
       </c>
     </row>
     <row r="7102">
@@ -57258,7 +57258,7 @@
         <v>7102</v>
       </c>
       <c r="B7103" t="n">
-        <v>109.22233</v>
+        <v>109.2223300000001</v>
       </c>
     </row>
     <row r="7104">
@@ -57354,7 +57354,7 @@
         <v>7114</v>
       </c>
       <c r="B7115" t="n">
-        <v>0.413591999999994</v>
+        <v>0.4135919999999942</v>
       </c>
     </row>
     <row r="7116">
@@ -57362,7 +57362,7 @@
         <v>7115</v>
       </c>
       <c r="B7116" t="n">
-        <v>52.336893</v>
+        <v>52.33689300000003</v>
       </c>
     </row>
     <row r="7117">
@@ -57370,7 +57370,7 @@
         <v>7116</v>
       </c>
       <c r="B7117" t="n">
-        <v>64.940777</v>
+        <v>64.94077700000003</v>
       </c>
     </row>
     <row r="7118">
@@ -57378,7 +57378,7 @@
         <v>7117</v>
       </c>
       <c r="B7118" t="n">
-        <v>56.1514560000001</v>
+        <v>56.15145600000005</v>
       </c>
     </row>
     <row r="7119">
@@ -57386,7 +57386,7 @@
         <v>7118</v>
       </c>
       <c r="B7119" t="n">
-        <v>37.299029</v>
+        <v>37.29902900000002</v>
       </c>
     </row>
     <row r="7120">
@@ -57418,7 +57418,7 @@
         <v>7122</v>
       </c>
       <c r="B7123" t="n">
-        <v>19.990939</v>
+        <v>19.99093900000003</v>
       </c>
     </row>
     <row r="7124">
@@ -57426,7 +57426,7 @@
         <v>7123</v>
       </c>
       <c r="B7124" t="n">
-        <v>40.779288</v>
+        <v>40.77928799999995</v>
       </c>
     </row>
     <row r="7125">
@@ -57538,7 +57538,7 @@
         <v>7137</v>
       </c>
       <c r="B7138" t="n">
-        <v>29.505502</v>
+        <v>29.50550199999998</v>
       </c>
     </row>
     <row r="7139">
@@ -57546,7 +57546,7 @@
         <v>7138</v>
       </c>
       <c r="B7139" t="n">
-        <v>40.413592</v>
+        <v>40.41359199999999</v>
       </c>
     </row>
     <row r="7140">
@@ -57562,7 +57562,7 @@
         <v>7140</v>
       </c>
       <c r="B7141" t="n">
-        <v>87.973463</v>
+        <v>87.97346300000004</v>
       </c>
     </row>
     <row r="7142">
@@ -57570,7 +57570,7 @@
         <v>7141</v>
       </c>
       <c r="B7142" t="n">
-        <v>87.664725</v>
+        <v>87.66472499999998</v>
       </c>
     </row>
     <row r="7143">
@@ -57578,7 +57578,7 @@
         <v>7142</v>
       </c>
       <c r="B7143" t="n">
-        <v>71.580259</v>
+        <v>71.58025899999996</v>
       </c>
     </row>
     <row r="7144">
@@ -57586,7 +57586,7 @@
         <v>7143</v>
       </c>
       <c r="B7144" t="n">
-        <v>13.307443</v>
+        <v>13.30744300000003</v>
       </c>
     </row>
     <row r="7145">
@@ -57594,7 +57594,7 @@
         <v>7144</v>
       </c>
       <c r="B7145" t="n">
-        <v>7.47508100000005</v>
+        <v>7.475081000000046</v>
       </c>
     </row>
     <row r="7146">
@@ -57602,7 +57602,7 @@
         <v>7145</v>
       </c>
       <c r="B7146" t="n">
-        <v>11.1323619999999</v>
+        <v>11.13236199999994</v>
       </c>
     </row>
     <row r="7147">
@@ -57618,7 +57618,7 @@
         <v>7147</v>
       </c>
       <c r="B7148" t="n">
-        <v>0.892557000000011</v>
+        <v>0.8925570000000107</v>
       </c>
     </row>
     <row r="7149">
@@ -57626,7 +57626,7 @@
         <v>7148</v>
       </c>
       <c r="B7149" t="n">
-        <v>75.199676</v>
+        <v>75.19967599999995</v>
       </c>
     </row>
     <row r="7150">
@@ -57754,7 +57754,7 @@
         <v>7164</v>
       </c>
       <c r="B7165" t="n">
-        <v>41.227184</v>
+        <v>41.22718399999997</v>
       </c>
     </row>
     <row r="7166">
@@ -57762,7 +57762,7 @@
         <v>7165</v>
       </c>
       <c r="B7166" t="n">
-        <v>41.680906</v>
+        <v>41.68090600000005</v>
       </c>
     </row>
     <row r="7167">
@@ -57770,7 +57770,7 @@
         <v>7166</v>
       </c>
       <c r="B7167" t="n">
-        <v>27.7466020000001</v>
+        <v>27.74660200000005</v>
       </c>
     </row>
     <row r="7168">
@@ -57826,7 +57826,7 @@
         <v>7173</v>
       </c>
       <c r="B7174" t="n">
-        <v>1.05080899999996</v>
+        <v>1.050808999999958</v>
       </c>
     </row>
     <row r="7175">
@@ -58314,7 +58314,7 @@
         <v>7234</v>
       </c>
       <c r="B7235" t="n">
-        <v>0.218122999999991</v>
+        <v>0.2181229999999914</v>
       </c>
     </row>
     <row r="7236">
@@ -58330,7 +58330,7 @@
         <v>7236</v>
       </c>
       <c r="B7237" t="n">
-        <v>76.138835</v>
+        <v>76.13883499999997</v>
       </c>
     </row>
     <row r="7238">
@@ -58338,7 +58338,7 @@
         <v>7237</v>
       </c>
       <c r="B7238" t="n">
-        <v>91.882848</v>
+        <v>91.88284799999997</v>
       </c>
     </row>
     <row r="7239">
@@ -58346,7 +58346,7 @@
         <v>7238</v>
       </c>
       <c r="B7239" t="n">
-        <v>101.012945</v>
+        <v>101.0129449999999</v>
       </c>
     </row>
     <row r="7240">
@@ -58354,7 +58354,7 @@
         <v>7239</v>
       </c>
       <c r="B7240" t="n">
-        <v>40.482848</v>
+        <v>40.48284799999999</v>
       </c>
     </row>
     <row r="7241">
@@ -58362,7 +58362,7 @@
         <v>7240</v>
       </c>
       <c r="B7241" t="n">
-        <v>38.408414</v>
+        <v>38.40841399999999</v>
       </c>
     </row>
     <row r="7242">
@@ -58370,7 +58370,7 @@
         <v>7241</v>
       </c>
       <c r="B7242" t="n">
-        <v>36.283495</v>
+        <v>36.28349500000002</v>
       </c>
     </row>
     <row r="7243">
@@ -58378,7 +58378,7 @@
         <v>7242</v>
       </c>
       <c r="B7243" t="n">
-        <v>37.670874</v>
+        <v>37.67087400000003</v>
       </c>
     </row>
     <row r="7244">
@@ -58386,7 +58386,7 @@
         <v>7243</v>
       </c>
       <c r="B7244" t="n">
-        <v>82.614563</v>
+        <v>82.61456299999998</v>
       </c>
     </row>
     <row r="7245">
@@ -58394,7 +58394,7 @@
         <v>7244</v>
       </c>
       <c r="B7245" t="n">
-        <v>103.497411</v>
+        <v>103.4974110000001</v>
       </c>
     </row>
     <row r="7246">
@@ -58402,7 +58402,7 @@
         <v>7245</v>
       </c>
       <c r="B7246" t="n">
-        <v>45.269256</v>
+        <v>45.26925600000004</v>
       </c>
     </row>
     <row r="7247">
@@ -58506,7 +58506,7 @@
         <v>7258</v>
       </c>
       <c r="B7259" t="n">
-        <v>0.36925599999995</v>
+        <v>0.3692559999999503</v>
       </c>
     </row>
     <row r="7260">
@@ -58514,7 +58514,7 @@
         <v>7259</v>
       </c>
       <c r="B7260" t="n">
-        <v>25.155016</v>
+        <v>25.15501600000005</v>
       </c>
     </row>
     <row r="7261">
@@ -58522,7 +58522,7 @@
         <v>7260</v>
       </c>
       <c r="B7261" t="n">
-        <v>50.249838</v>
+        <v>50.24983799999995</v>
       </c>
     </row>
     <row r="7262">
@@ -58530,7 +58530,7 @@
         <v>7261</v>
       </c>
       <c r="B7262" t="n">
-        <v>73.566343</v>
+        <v>73.56634299999996</v>
       </c>
     </row>
     <row r="7263">
@@ -58538,7 +58538,7 @@
         <v>7262</v>
       </c>
       <c r="B7263" t="n">
-        <v>75.1236249999999</v>
+        <v>75.12362499999995</v>
       </c>
     </row>
     <row r="7264">
@@ -58546,7 +58546,7 @@
         <v>7263</v>
       </c>
       <c r="B7264" t="n">
-        <v>14.41068</v>
+        <v>14.41067999999996</v>
       </c>
     </row>
     <row r="7265">
@@ -58554,7 +58554,7 @@
         <v>7264</v>
       </c>
       <c r="B7265" t="n">
-        <v>4.46116500000005</v>
+        <v>4.461165000000051</v>
       </c>
     </row>
     <row r="7266">
@@ -58570,7 +58570,7 @@
         <v>7266</v>
       </c>
       <c r="B7267" t="n">
-        <v>7.94821999999999</v>
+        <v>7.948219999999992</v>
       </c>
     </row>
     <row r="7268">
@@ -58578,7 +58578,7 @@
         <v>7267</v>
       </c>
       <c r="B7268" t="n">
-        <v>54.657282</v>
+        <v>54.65728200000001</v>
       </c>
     </row>
     <row r="7269">
@@ -58586,7 +58586,7 @@
         <v>7268</v>
       </c>
       <c r="B7269" t="n">
-        <v>64.443366</v>
+        <v>64.44336599999997</v>
       </c>
     </row>
     <row r="7270">
@@ -58594,7 +58594,7 @@
         <v>7269</v>
       </c>
       <c r="B7270" t="n">
-        <v>3.150485</v>
+        <v>3.150485000000003</v>
       </c>
     </row>
     <row r="7271">
@@ -59738,7 +59738,7 @@
         <v>7412</v>
       </c>
       <c r="B7413" t="n">
-        <v>32.457282</v>
+        <v>32.45728199999996</v>
       </c>
     </row>
     <row r="7414">
@@ -59746,7 +59746,7 @@
         <v>7413</v>
       </c>
       <c r="B7414" t="n">
-        <v>25.2</v>
+        <v>25.20000000000005</v>
       </c>
     </row>
     <row r="7415">
@@ -59850,7 +59850,7 @@
         <v>7426</v>
       </c>
       <c r="B7427" t="n">
-        <v>11.1323619999999</v>
+        <v>11.13236199999994</v>
       </c>
     </row>
     <row r="7428">
@@ -59858,7 +59858,7 @@
         <v>7427</v>
       </c>
       <c r="B7428" t="n">
-        <v>37.753074</v>
+        <v>37.75307399999997</v>
       </c>
     </row>
     <row r="7429">
@@ -59866,7 +59866,7 @@
         <v>7428</v>
       </c>
       <c r="B7429" t="n">
-        <v>23.73657</v>
+        <v>23.73657000000003</v>
       </c>
     </row>
     <row r="7430">
@@ -59874,7 +59874,7 @@
         <v>7429</v>
       </c>
       <c r="B7430" t="n">
-        <v>7.25501599999996</v>
+        <v>7.255015999999955</v>
       </c>
     </row>
     <row r="7431">
@@ -60122,7 +60122,7 @@
         <v>7460</v>
       </c>
       <c r="B7461" t="n">
-        <v>70.540453</v>
+        <v>70.54045299999996</v>
       </c>
     </row>
     <row r="7462">
@@ -60130,7 +60130,7 @@
         <v>7461</v>
       </c>
       <c r="B7462" t="n">
-        <v>79.88479</v>
+        <v>79.88478999999995</v>
       </c>
     </row>
     <row r="7463">
@@ -60138,7 +60138,7 @@
         <v>7462</v>
       </c>
       <c r="B7463" t="n">
-        <v>53.6928799999999</v>
+        <v>53.69287999999995</v>
       </c>
     </row>
     <row r="7464">
@@ -60498,7 +60498,7 @@
         <v>7507</v>
       </c>
       <c r="B7508" t="n">
-        <v>59.298058</v>
+        <v>59.29805799999997</v>
       </c>
     </row>
     <row r="7509">
@@ -60506,7 +60506,7 @@
         <v>7508</v>
       </c>
       <c r="B7509" t="n">
-        <v>67.797411</v>
+        <v>67.79741100000001</v>
       </c>
     </row>
     <row r="7510">
@@ -60514,7 +60514,7 @@
         <v>7509</v>
       </c>
       <c r="B7510" t="n">
-        <v>25.861812</v>
+        <v>25.86181199999999</v>
       </c>
     </row>
     <row r="7511">
@@ -61066,7 +61066,7 @@
         <v>7578</v>
       </c>
       <c r="B7579" t="n">
-        <v>20.6411000000001</v>
+        <v>20.64110000000005</v>
       </c>
     </row>
     <row r="7580">
@@ -61098,7 +61098,7 @@
         <v>7582</v>
       </c>
       <c r="B7583" t="n">
-        <v>93.7119740000001</v>
+        <v>93.71197400000005</v>
       </c>
     </row>
     <row r="7584">
@@ -61378,7 +61378,7 @@
         <v>7617</v>
       </c>
       <c r="B7618" t="n">
-        <v>54.966019</v>
+        <v>54.96601899999996</v>
       </c>
     </row>
     <row r="7619">
@@ -61386,7 +61386,7 @@
         <v>7618</v>
       </c>
       <c r="B7619" t="n">
-        <v>85.823948</v>
+        <v>85.82394799999997</v>
       </c>
     </row>
     <row r="7620">
@@ -61394,7 +61394,7 @@
         <v>7619</v>
       </c>
       <c r="B7620" t="n">
-        <v>101.422977</v>
+        <v>101.4229769999999</v>
       </c>
     </row>
     <row r="7621">
@@ -61402,7 +61402,7 @@
         <v>7620</v>
       </c>
       <c r="B7621" t="n">
-        <v>87.0284789999999</v>
+        <v>87.02847899999995</v>
       </c>
     </row>
     <row r="7622">
@@ -61410,7 +61410,7 @@
         <v>7621</v>
       </c>
       <c r="B7622" t="n">
-        <v>88.346278</v>
+        <v>88.34627799999998</v>
       </c>
     </row>
     <row r="7623">
@@ -61418,7 +61418,7 @@
         <v>7622</v>
       </c>
       <c r="B7623" t="n">
-        <v>75.262783</v>
+        <v>75.26278300000001</v>
       </c>
     </row>
     <row r="7624">
@@ -61426,7 +61426,7 @@
         <v>7623</v>
       </c>
       <c r="B7624" t="n">
-        <v>29.695146</v>
+        <v>29.69514600000002</v>
       </c>
     </row>
     <row r="7625">
@@ -61434,7 +61434,7 @@
         <v>7624</v>
       </c>
       <c r="B7625" t="n">
-        <v>30.659547</v>
+        <v>30.65954699999998</v>
       </c>
     </row>
     <row r="7626">
@@ -61442,7 +61442,7 @@
         <v>7625</v>
       </c>
       <c r="B7626" t="n">
-        <v>55.041748</v>
+        <v>55.04174799999998</v>
       </c>
     </row>
     <row r="7627">
@@ -61450,7 +61450,7 @@
         <v>7626</v>
       </c>
       <c r="B7627" t="n">
-        <v>88.21359199999991</v>
+        <v>88.21359199999995</v>
       </c>
     </row>
     <row r="7628">
@@ -61458,7 +61458,7 @@
         <v>7627</v>
       </c>
       <c r="B7628" t="n">
-        <v>177.848544</v>
+        <v>177.8485439999999</v>
       </c>
     </row>
     <row r="7629">
@@ -61482,7 +61482,7 @@
         <v>7630</v>
       </c>
       <c r="B7631" t="n">
-        <v>63.169903</v>
+        <v>63.16990299999998</v>
       </c>
     </row>
     <row r="7632">
@@ -62338,7 +62338,7 @@
         <v>7737</v>
       </c>
       <c r="B7738" t="n">
-        <v>53.591909</v>
+        <v>53.59190899999999</v>
       </c>
     </row>
     <row r="7739">
@@ -62410,7 +62410,7 @@
         <v>7746</v>
       </c>
       <c r="B7747" t="n">
-        <v>98.2517800000001</v>
+        <v>98.25178000000005</v>
       </c>
     </row>
     <row r="7748">
@@ -62418,7 +62418,7 @@
         <v>7747</v>
       </c>
       <c r="B7748" t="n">
-        <v>120.66699</v>
+        <v>120.6669900000001</v>
       </c>
     </row>
     <row r="7749">
@@ -62426,7 +62426,7 @@
         <v>7748</v>
       </c>
       <c r="B7749" t="n">
-        <v>64.973463</v>
+        <v>64.97346300000004</v>
       </c>
     </row>
     <row r="7750">
@@ -62434,7 +62434,7 @@
         <v>7749</v>
       </c>
       <c r="B7750" t="n">
-        <v>10.433657</v>
+        <v>10.43365700000004</v>
       </c>
     </row>
     <row r="7751">
@@ -62546,7 +62546,7 @@
         <v>7763</v>
       </c>
       <c r="B7764" t="n">
-        <v>40.547249</v>
+        <v>40.54724899999997</v>
       </c>
     </row>
     <row r="7765">
@@ -62554,7 +62554,7 @@
         <v>7764</v>
       </c>
       <c r="B7765" t="n">
-        <v>59.412298</v>
+        <v>59.41229799999996</v>
       </c>
     </row>
     <row r="7766">
@@ -62562,7 +62562,7 @@
         <v>7765</v>
       </c>
       <c r="B7766" t="n">
-        <v>84.569903</v>
+        <v>84.56990299999995</v>
       </c>
     </row>
     <row r="7767">
@@ -62578,7 +62578,7 @@
         <v>7767</v>
       </c>
       <c r="B7768" t="n">
-        <v>74.802589</v>
+        <v>74.80258900000001</v>
       </c>
     </row>
     <row r="7769">
@@ -62586,7 +62586,7 @@
         <v>7768</v>
       </c>
       <c r="B7769" t="n">
-        <v>113.428155</v>
+        <v>113.4281549999999</v>
       </c>
     </row>
     <row r="7770">
@@ -62618,7 +62618,7 @@
         <v>7772</v>
       </c>
       <c r="B7773" t="n">
-        <v>161.928155</v>
+        <v>161.9281549999999</v>
       </c>
     </row>
     <row r="7774">
@@ -62634,7 +62634,7 @@
         <v>7774</v>
       </c>
       <c r="B7775" t="n">
-        <v>30.276052</v>
+        <v>30.27605200000005</v>
       </c>
     </row>
     <row r="7776">
@@ -62802,7 +62802,7 @@
         <v>7795</v>
       </c>
       <c r="B7796" t="n">
-        <v>64.853398</v>
+        <v>64.85339799999997</v>
       </c>
     </row>
     <row r="7797">
@@ -62810,7 +62810,7 @@
         <v>7796</v>
       </c>
       <c r="B7797" t="n">
-        <v>63.01877</v>
+        <v>63.01877000000002</v>
       </c>
     </row>
     <row r="7798">
@@ -62826,7 +62826,7 @@
         <v>7798</v>
       </c>
       <c r="B7799" t="n">
-        <v>9.266989999999961</v>
+        <v>9.266989999999964</v>
       </c>
     </row>
     <row r="7800">
@@ -62930,7 +62930,7 @@
         <v>7811</v>
       </c>
       <c r="B7812" t="n">
-        <v>51.341424</v>
+        <v>51.34142399999996</v>
       </c>
     </row>
     <row r="7813">
@@ -62938,7 +62938,7 @@
         <v>7812</v>
       </c>
       <c r="B7813" t="n">
-        <v>68.913916</v>
+        <v>68.91391599999997</v>
       </c>
     </row>
     <row r="7814">
@@ -62946,7 +62946,7 @@
         <v>7813</v>
       </c>
       <c r="B7814" t="n">
-        <v>73.92006499999999</v>
+        <v>73.92006500000002</v>
       </c>
     </row>
     <row r="7815">
@@ -62962,7 +62962,7 @@
         <v>7815</v>
       </c>
       <c r="B7816" t="n">
-        <v>11.914563</v>
+        <v>11.91456300000004</v>
       </c>
     </row>
     <row r="7817">
@@ -62970,7 +62970,7 @@
         <v>7816</v>
       </c>
       <c r="B7817" t="n">
-        <v>23.4213590000001</v>
+        <v>23.42135900000005</v>
       </c>
     </row>
     <row r="7818">
@@ -62978,7 +62978,7 @@
         <v>7817</v>
       </c>
       <c r="B7818" t="n">
-        <v>34.581553</v>
+        <v>34.58155299999999</v>
       </c>
     </row>
     <row r="7819">
@@ -62986,7 +62986,7 @@
         <v>7818</v>
       </c>
       <c r="B7819" t="n">
-        <v>80.924919</v>
+        <v>80.92491900000005</v>
       </c>
     </row>
     <row r="7820">
@@ -63026,7 +63026,7 @@
         <v>7823</v>
       </c>
       <c r="B7824" t="n">
-        <v>0.558899999999994</v>
+        <v>0.5588999999999942</v>
       </c>
     </row>
     <row r="7825">
@@ -63114,7 +63114,7 @@
         <v>7834</v>
       </c>
       <c r="B7835" t="n">
-        <v>34.871845</v>
+        <v>34.87184500000001</v>
       </c>
     </row>
     <row r="7836">
@@ -63122,7 +63122,7 @@
         <v>7835</v>
       </c>
       <c r="B7836" t="n">
-        <v>90.427184</v>
+        <v>90.42718400000001</v>
       </c>
     </row>
     <row r="7837">
@@ -63130,7 +63130,7 @@
         <v>7836</v>
       </c>
       <c r="B7837" t="n">
-        <v>93.19514599999999</v>
+        <v>93.19514600000002</v>
       </c>
     </row>
     <row r="7838">
@@ -63146,7 +63146,7 @@
         <v>7838</v>
       </c>
       <c r="B7839" t="n">
-        <v>87.87961199999999</v>
+        <v>87.87961199999995</v>
       </c>
     </row>
     <row r="7840">
@@ -63154,7 +63154,7 @@
         <v>7839</v>
       </c>
       <c r="B7840" t="n">
-        <v>53.257282</v>
+        <v>53.25728200000003</v>
       </c>
     </row>
     <row r="7841">
@@ -63162,7 +63162,7 @@
         <v>7840</v>
       </c>
       <c r="B7841" t="n">
-        <v>65.38220099999999</v>
+        <v>65.38220100000001</v>
       </c>
     </row>
     <row r="7842">
@@ -63170,7 +63170,7 @@
         <v>7841</v>
       </c>
       <c r="B7842" t="n">
-        <v>76.35954700000001</v>
+        <v>76.35954700000002</v>
       </c>
     </row>
     <row r="7843">
@@ -63226,7 +63226,7 @@
         <v>7848</v>
       </c>
       <c r="B7849" t="n">
-        <v>87.009061</v>
+        <v>87.00906099999997</v>
       </c>
     </row>
     <row r="7850">
@@ -63378,7 +63378,7 @@
         <v>7867</v>
       </c>
       <c r="B7868" t="n">
-        <v>55.924272</v>
+        <v>55.92427199999997</v>
       </c>
     </row>
     <row r="7869">
@@ -63386,7 +63386,7 @@
         <v>7868</v>
       </c>
       <c r="B7869" t="n">
-        <v>83.162783</v>
+        <v>83.16278299999999</v>
       </c>
     </row>
     <row r="7870">
@@ -63394,7 +63394,7 @@
         <v>7869</v>
       </c>
       <c r="B7870" t="n">
-        <v>90.91812299999999</v>
+        <v>90.91812300000004</v>
       </c>
     </row>
     <row r="7871">
@@ -63402,7 +63402,7 @@
         <v>7870</v>
       </c>
       <c r="B7871" t="n">
-        <v>88.98867299999991</v>
+        <v>88.98867299999995</v>
       </c>
     </row>
     <row r="7872">
@@ -63410,7 +63410,7 @@
         <v>7871</v>
       </c>
       <c r="B7872" t="n">
-        <v>21.832039</v>
+        <v>21.83203900000001</v>
       </c>
     </row>
     <row r="7873">
@@ -63578,7 +63578,7 @@
         <v>7892</v>
       </c>
       <c r="B7893" t="n">
-        <v>19.1080909999999</v>
+        <v>19.10809099999994</v>
       </c>
     </row>
     <row r="7894">
@@ -63586,7 +63586,7 @@
         <v>7893</v>
       </c>
       <c r="B7894" t="n">
-        <v>63.219417</v>
+        <v>63.21941700000002</v>
       </c>
     </row>
     <row r="7895">
@@ -63594,7 +63594,7 @@
         <v>7894</v>
       </c>
       <c r="B7895" t="n">
-        <v>78.50938499999999</v>
+        <v>78.50938499999995</v>
       </c>
     </row>
     <row r="7896">
@@ -63602,7 +63602,7 @@
         <v>7895</v>
       </c>
       <c r="B7896" t="n">
-        <v>7.19126200000005</v>
+        <v>7.191262000000052</v>
       </c>
     </row>
     <row r="7897">
@@ -63786,7 +63786,7 @@
         <v>7918</v>
       </c>
       <c r="B7919" t="n">
-        <v>190.256958</v>
+        <v>190.2569580000001</v>
       </c>
     </row>
     <row r="7920">
@@ -63794,7 +63794,7 @@
         <v>7919</v>
       </c>
       <c r="B7920" t="n">
-        <v>82.34983800000001</v>
+        <v>82.34983799999998</v>
       </c>
     </row>
     <row r="7921">
@@ -63802,7 +63802,7 @@
         <v>7920</v>
       </c>
       <c r="B7921" t="n">
-        <v>16.548867</v>
+        <v>16.54886699999997</v>
       </c>
     </row>
     <row r="7922">
@@ -64146,7 +64146,7 @@
         <v>7963</v>
       </c>
       <c r="B7964" t="n">
-        <v>88.49838200000001</v>
+        <v>88.49838199999999</v>
       </c>
     </row>
     <row r="7965">
@@ -64170,7 +64170,7 @@
         <v>7966</v>
       </c>
       <c r="B7967" t="n">
-        <v>176.467961</v>
+        <v>176.4679609999999</v>
       </c>
     </row>
     <row r="7968">
@@ -64178,7 +64178,7 @@
         <v>7967</v>
       </c>
       <c r="B7968" t="n">
-        <v>92.7724920000001</v>
+        <v>92.77249200000006</v>
       </c>
     </row>
     <row r="7969">
@@ -64186,7 +64186,7 @@
         <v>7968</v>
       </c>
       <c r="B7969" t="n">
-        <v>57.942395</v>
+        <v>57.94239500000003</v>
       </c>
     </row>
     <row r="7970">
@@ -64298,7 +64298,7 @@
         <v>7982</v>
       </c>
       <c r="B7983" t="n">
-        <v>86.977994</v>
+        <v>86.97799399999997</v>
       </c>
     </row>
     <row r="7984">
@@ -64306,7 +64306,7 @@
         <v>7983</v>
       </c>
       <c r="B7984" t="n">
-        <v>7.78479000000004</v>
+        <v>7.784790000000044</v>
       </c>
     </row>
     <row r="7985">
@@ -64314,7 +64314,7 @@
         <v>7984</v>
       </c>
       <c r="B7985" t="n">
-        <v>20.0925570000001</v>
+        <v>20.09255700000006</v>
       </c>
     </row>
     <row r="7986">
@@ -64322,7 +64322,7 @@
         <v>7985</v>
       </c>
       <c r="B7986" t="n">
-        <v>58.812621</v>
+        <v>58.81262100000004</v>
       </c>
     </row>
     <row r="7987">
@@ -64338,7 +64338,7 @@
         <v>7987</v>
       </c>
       <c r="B7988" t="n">
-        <v>212.943689</v>
+        <v>212.9436889999999</v>
       </c>
     </row>
     <row r="7989">
@@ -64458,7 +64458,7 @@
         <v>8002</v>
       </c>
       <c r="B8003" t="n">
-        <v>3.23301000000004</v>
+        <v>3.233010000000036</v>
       </c>
     </row>
     <row r="8004">
@@ -64466,7 +64466,7 @@
         <v>8003</v>
       </c>
       <c r="B8004" t="n">
-        <v>27.968285</v>
+        <v>27.96828500000004</v>
       </c>
     </row>
     <row r="8005">
@@ -64530,7 +64530,7 @@
         <v>8011</v>
       </c>
       <c r="B8012" t="n">
-        <v>3.88899700000002</v>
+        <v>3.888997000000018</v>
       </c>
     </row>
     <row r="8013">
@@ -64538,7 +64538,7 @@
         <v>8012</v>
       </c>
       <c r="B8013" t="n">
-        <v>12.552427</v>
+        <v>12.55242699999997</v>
       </c>
     </row>
     <row r="8014">
@@ -65026,7 +65026,7 @@
         <v>8073</v>
       </c>
       <c r="B8074" t="n">
-        <v>30.15534</v>
+        <v>30.15534000000002</v>
       </c>
     </row>
     <row r="8075">
@@ -65034,7 +65034,7 @@
         <v>8074</v>
       </c>
       <c r="B8075" t="n">
-        <v>71.68155299999999</v>
+        <v>71.68155300000001</v>
       </c>
     </row>
     <row r="8076">
@@ -65050,7 +65050,7 @@
         <v>8076</v>
       </c>
       <c r="B8077" t="n">
-        <v>94.424595</v>
+        <v>94.42459499999995</v>
       </c>
     </row>
     <row r="8078">
@@ -65058,7 +65058,7 @@
         <v>8077</v>
       </c>
       <c r="B8078" t="n">
-        <v>72.665372</v>
+        <v>72.66537200000005</v>
       </c>
     </row>
     <row r="8079">
@@ -65066,7 +65066,7 @@
         <v>8078</v>
       </c>
       <c r="B8079" t="n">
-        <v>51.605825</v>
+        <v>51.60582499999998</v>
       </c>
     </row>
     <row r="8080">
@@ -65082,7 +65082,7 @@
         <v>8080</v>
       </c>
       <c r="B8081" t="n">
-        <v>1.39126199999998</v>
+        <v>1.391261999999983</v>
       </c>
     </row>
     <row r="8082">
@@ -65146,7 +65146,7 @@
         <v>8088</v>
       </c>
       <c r="B8089" t="n">
-        <v>77.696117</v>
+        <v>77.69611699999996</v>
       </c>
     </row>
     <row r="8090">
@@ -65210,7 +65210,7 @@
         <v>8096</v>
       </c>
       <c r="B8097" t="n">
-        <v>12.260841</v>
+        <v>12.26084100000003</v>
       </c>
     </row>
     <row r="8098">
@@ -65226,7 +65226,7 @@
         <v>8098</v>
       </c>
       <c r="B8099" t="n">
-        <v>185.981877</v>
+        <v>185.9818770000001</v>
       </c>
     </row>
     <row r="8100">
@@ -65258,7 +65258,7 @@
         <v>8102</v>
       </c>
       <c r="B8103" t="n">
-        <v>144.083819</v>
+        <v>144.0838189999999</v>
       </c>
     </row>
     <row r="8104">
@@ -65266,7 +65266,7 @@
         <v>8103</v>
       </c>
       <c r="B8104" t="n">
-        <v>78.0682849999999</v>
+        <v>78.06828499999995</v>
       </c>
     </row>
     <row r="8105">
@@ -65274,7 +65274,7 @@
         <v>8104</v>
       </c>
       <c r="B8105" t="n">
-        <v>74.165372</v>
+        <v>74.16537200000005</v>
       </c>
     </row>
     <row r="8106">
@@ -65282,7 +65282,7 @@
         <v>8105</v>
       </c>
       <c r="B8106" t="n">
-        <v>89.19061499999999</v>
+        <v>89.19061499999998</v>
       </c>
     </row>
     <row r="8107">
@@ -65338,7 +65338,7 @@
         <v>8112</v>
       </c>
       <c r="B8113" t="n">
-        <v>42.683819</v>
+        <v>42.68381899999997</v>
       </c>
     </row>
     <row r="8114">
@@ -65434,7 +65434,7 @@
         <v>8124</v>
       </c>
       <c r="B8125" t="n">
-        <v>92.161165</v>
+        <v>92.16116499999998</v>
       </c>
     </row>
     <row r="8126">
@@ -65442,7 +65442,7 @@
         <v>8125</v>
       </c>
       <c r="B8126" t="n">
-        <v>40.1116500000001</v>
+        <v>40.11165000000005</v>
       </c>
     </row>
     <row r="8127">
@@ -66570,7 +66570,7 @@
         <v>8266</v>
       </c>
       <c r="B8267" t="n">
-        <v>22.1168280000001</v>
+        <v>22.11682800000005</v>
       </c>
     </row>
     <row r="8268">
@@ -66578,7 +66578,7 @@
         <v>8267</v>
       </c>
       <c r="B8268" t="n">
-        <v>64.803236</v>
+        <v>64.80323599999997</v>
       </c>
     </row>
     <row r="8269">
@@ -66586,7 +66586,7 @@
         <v>8268</v>
       </c>
       <c r="B8269" t="n">
-        <v>63.598706</v>
+        <v>63.59870599999999</v>
       </c>
     </row>
     <row r="8270">
@@ -66594,7 +66594,7 @@
         <v>8269</v>
       </c>
       <c r="B8270" t="n">
-        <v>56.990939</v>
+        <v>56.99093900000003</v>
       </c>
     </row>
     <row r="8271">
@@ -66602,7 +66602,7 @@
         <v>8270</v>
       </c>
       <c r="B8271" t="n">
-        <v>57.400647</v>
+        <v>57.40064700000005</v>
       </c>
     </row>
     <row r="8272">
@@ -66610,7 +66610,7 @@
         <v>8271</v>
       </c>
       <c r="B8272" t="n">
-        <v>27.740777</v>
+        <v>27.74077699999998</v>
       </c>
     </row>
     <row r="8273">
@@ -66618,7 +66618,7 @@
         <v>8272</v>
       </c>
       <c r="B8273" t="n">
-        <v>62.066019</v>
+        <v>62.06601899999998</v>
       </c>
     </row>
     <row r="8274">
@@ -66674,7 +66674,7 @@
         <v>8279</v>
       </c>
       <c r="B8280" t="n">
-        <v>62.993204</v>
+        <v>62.99320399999999</v>
       </c>
     </row>
     <row r="8281">
@@ -66762,7 +66762,7 @@
         <v>8290</v>
       </c>
       <c r="B8291" t="n">
-        <v>46.36699</v>
+        <v>46.36698999999999</v>
       </c>
     </row>
     <row r="8292">
@@ -66770,7 +66770,7 @@
         <v>8291</v>
       </c>
       <c r="B8292" t="n">
-        <v>71.78317199999999</v>
+        <v>71.78317200000004</v>
       </c>
     </row>
     <row r="8293">
@@ -66778,7 +66778,7 @@
         <v>8292</v>
       </c>
       <c r="B8293" t="n">
-        <v>48.309061</v>
+        <v>48.30906100000004</v>
       </c>
     </row>
     <row r="8294">
@@ -66786,7 +66786,7 @@
         <v>8293</v>
       </c>
       <c r="B8294" t="n">
-        <v>13.075728</v>
+        <v>13.07572800000003</v>
       </c>
     </row>
     <row r="8295">
@@ -66834,7 +66834,7 @@
         <v>8299</v>
       </c>
       <c r="B8300" t="n">
-        <v>67.5718450000001</v>
+        <v>67.57184500000005</v>
       </c>
     </row>
     <row r="8301">
@@ -66850,7 +66850,7 @@
         <v>8301</v>
       </c>
       <c r="B8302" t="n">
-        <v>21.556634</v>
+        <v>21.55663400000003</v>
       </c>
     </row>
     <row r="8303">
@@ -66954,7 +66954,7 @@
         <v>8314</v>
       </c>
       <c r="B8315" t="n">
-        <v>36.127508</v>
+        <v>36.12750800000003</v>
       </c>
     </row>
     <row r="8316">
@@ -66970,7 +66970,7 @@
         <v>8316</v>
       </c>
       <c r="B8317" t="n">
-        <v>137.073463</v>
+        <v>137.0734629999999</v>
       </c>
     </row>
     <row r="8318">
@@ -67010,7 +67010,7 @@
         <v>8321</v>
       </c>
       <c r="B8322" t="n">
-        <v>160.786408</v>
+        <v>160.7864080000001</v>
       </c>
     </row>
     <row r="8323">
@@ -67074,7 +67074,7 @@
         <v>8329</v>
       </c>
       <c r="B8330" t="n">
-        <v>16.775405</v>
+        <v>16.77540499999998</v>
       </c>
     </row>
     <row r="8331">
@@ -67130,7 +67130,7 @@
         <v>8336</v>
       </c>
       <c r="B8337" t="n">
-        <v>36.182848</v>
+        <v>36.18284800000004</v>
       </c>
     </row>
     <row r="8338">
@@ -67154,7 +67154,7 @@
         <v>8339</v>
       </c>
       <c r="B8340" t="n">
-        <v>313.139159</v>
+        <v>313.1391589999999</v>
       </c>
     </row>
     <row r="8341">
@@ -67186,7 +67186,7 @@
         <v>8343</v>
       </c>
       <c r="B8344" t="n">
-        <v>152.116828</v>
+        <v>152.1168280000001</v>
       </c>
     </row>
     <row r="8345">
@@ -67234,7 +67234,7 @@
         <v>8349</v>
       </c>
       <c r="B8350" t="n">
-        <v>223.422977</v>
+        <v>223.4229769999999</v>
       </c>
     </row>
     <row r="8351">
@@ -67266,7 +67266,7 @@
         <v>8353</v>
       </c>
       <c r="B8354" t="n">
-        <v>7.20453099999997</v>
+        <v>7.204530999999974</v>
       </c>
     </row>
     <row r="8355">
@@ -67346,7 +67346,7 @@
         <v>8363</v>
       </c>
       <c r="B8364" t="n">
-        <v>64.04530699999999</v>
+        <v>64.04530699999998</v>
       </c>
     </row>
     <row r="8365">
@@ -67354,7 +67354,7 @@
         <v>8364</v>
       </c>
       <c r="B8365" t="n">
-        <v>71.265049</v>
+        <v>71.26504899999998</v>
       </c>
     </row>
     <row r="8366">
@@ -67362,7 +67362,7 @@
         <v>8365</v>
       </c>
       <c r="B8366" t="n">
-        <v>49.007443</v>
+        <v>49.00744299999997</v>
       </c>
     </row>
     <row r="8367">
@@ -67370,7 +67370,7 @@
         <v>8366</v>
       </c>
       <c r="B8367" t="n">
-        <v>51.1514560000001</v>
+        <v>51.15145600000005</v>
       </c>
     </row>
     <row r="8368">
@@ -67410,7 +67410,7 @@
         <v>8371</v>
       </c>
       <c r="B8372" t="n">
-        <v>70.1618120000001</v>
+        <v>70.16181200000005</v>
       </c>
     </row>
     <row r="8373">
@@ -67418,7 +67418,7 @@
         <v>8372</v>
       </c>
       <c r="B8373" t="n">
-        <v>99.3867310000001</v>
+        <v>99.38673100000005</v>
       </c>
     </row>
     <row r="8374">
@@ -67434,7 +67434,7 @@
         <v>8374</v>
       </c>
       <c r="B8375" t="n">
-        <v>62.324919</v>
+        <v>62.32491900000002</v>
       </c>
     </row>
     <row r="8376">
@@ -67618,7 +67618,7 @@
         <v>8397</v>
       </c>
       <c r="B8398" t="n">
-        <v>5.06763799999999</v>
+        <v>5.067637999999988</v>
       </c>
     </row>
     <row r="8399">
@@ -67634,7 +67634,7 @@
         <v>8399</v>
       </c>
       <c r="B8400" t="n">
-        <v>3.755987</v>
+        <v>3.755987000000005</v>
       </c>
     </row>
     <row r="8401">
@@ -67786,7 +67786,7 @@
         <v>8418</v>
       </c>
       <c r="B8419" t="n">
-        <v>12.792557</v>
+        <v>12.79255699999999</v>
       </c>
     </row>
     <row r="8420">
@@ -67938,7 +67938,7 @@
         <v>8437</v>
       </c>
       <c r="B8438" t="n">
-        <v>262.83657</v>
+        <v>262.8365700000001</v>
       </c>
     </row>
     <row r="8439">
@@ -68114,7 +68114,7 @@
         <v>8459</v>
       </c>
       <c r="B8460" t="n">
-        <v>230.282848</v>
+        <v>230.2828479999999</v>
       </c>
     </row>
     <row r="8461">
@@ -68146,7 +68146,7 @@
         <v>8463</v>
       </c>
       <c r="B8464" t="n">
-        <v>80.591262</v>
+        <v>80.59126200000003</v>
       </c>
     </row>
     <row r="8465">
@@ -68154,7 +68154,7 @@
         <v>8464</v>
       </c>
       <c r="B8465" t="n">
-        <v>86.57475700000001</v>
+        <v>86.57475699999998</v>
       </c>
     </row>
     <row r="8466">
@@ -68218,7 +68218,7 @@
         <v>8472</v>
       </c>
       <c r="B8473" t="n">
-        <v>56.858252</v>
+        <v>56.85825199999999</v>
       </c>
     </row>
     <row r="8474">
@@ -68402,7 +68402,7 @@
         <v>8495</v>
       </c>
       <c r="B8496" t="n">
-        <v>140.237864</v>
+        <v>140.2378639999999</v>
       </c>
     </row>
     <row r="8497">
@@ -68418,7 +68418,7 @@
         <v>8497</v>
       </c>
       <c r="B8498" t="n">
-        <v>6.76278300000001</v>
+        <v>6.762783000000013</v>
       </c>
     </row>
     <row r="8499">
@@ -68530,7 +68530,7 @@
         <v>8511</v>
       </c>
       <c r="B8512" t="n">
-        <v>92.091262</v>
+        <v>92.09126200000003</v>
       </c>
     </row>
     <row r="8513">
@@ -68538,7 +68538,7 @@
         <v>8512</v>
       </c>
       <c r="B8513" t="n">
-        <v>69.915858</v>
+        <v>69.91585799999996</v>
       </c>
     </row>
     <row r="8514">
@@ -68546,7 +68546,7 @@
         <v>8513</v>
       </c>
       <c r="B8514" t="n">
-        <v>69.114887</v>
+        <v>69.11488699999995</v>
       </c>
     </row>
     <row r="8515">
@@ -68554,7 +68554,7 @@
         <v>8514</v>
       </c>
       <c r="B8515" t="n">
-        <v>95.464401</v>
+        <v>95.46440099999995</v>
       </c>
     </row>
     <row r="8516">
@@ -68570,7 +68570,7 @@
         <v>8516</v>
       </c>
       <c r="B8517" t="n">
-        <v>187.848544</v>
+        <v>187.8485439999999</v>
       </c>
     </row>
     <row r="8518">
@@ -68586,7 +68586,7 @@
         <v>8518</v>
       </c>
       <c r="B8519" t="n">
-        <v>142.772492</v>
+        <v>142.7724920000001</v>
       </c>
     </row>
     <row r="8520">
@@ -68594,7 +68594,7 @@
         <v>8519</v>
       </c>
       <c r="B8520" t="n">
-        <v>79.606796</v>
+        <v>79.60679600000003</v>
       </c>
     </row>
     <row r="8521">
@@ -68754,7 +68754,7 @@
         <v>8539</v>
       </c>
       <c r="B8540" t="n">
-        <v>52.488026</v>
+        <v>52.48802599999999</v>
       </c>
     </row>
     <row r="8541">
@@ -68762,7 +68762,7 @@
         <v>8540</v>
       </c>
       <c r="B8541" t="n">
-        <v>71.548867</v>
+        <v>71.54886699999997</v>
       </c>
     </row>
     <row r="8542">
@@ -68778,7 +68778,7 @@
         <v>8542</v>
       </c>
       <c r="B8543" t="n">
-        <v>60.8676380000001</v>
+        <v>60.86763800000006</v>
       </c>
     </row>
     <row r="8544">
@@ -68954,7 +68954,7 @@
         <v>8564</v>
       </c>
       <c r="B8565" t="n">
-        <v>16.699676</v>
+        <v>16.69967599999995</v>
       </c>
     </row>
     <row r="8566">
@@ -68962,7 +68962,7 @@
         <v>8565</v>
       </c>
       <c r="B8566" t="n">
-        <v>13.553398</v>
+        <v>13.55339800000002</v>
       </c>
     </row>
     <row r="8567">
@@ -68970,7 +68970,7 @@
         <v>8566</v>
       </c>
       <c r="B8567" t="n">
-        <v>28.7171520000001</v>
+        <v>28.71715200000006</v>
       </c>
     </row>
     <row r="8568">
@@ -69458,7 +69458,7 @@
         <v>8627</v>
       </c>
       <c r="B8628" t="n">
-        <v>13.1686079999999</v>
+        <v>13.16860799999995</v>
       </c>
     </row>
     <row r="8629">
@@ -69466,7 +69466,7 @@
         <v>8628</v>
       </c>
       <c r="B8629" t="n">
-        <v>36.346602</v>
+        <v>36.34660199999996</v>
       </c>
     </row>
     <row r="8630">
@@ -70114,7 +70114,7 @@
         <v>8709</v>
       </c>
       <c r="B8710" t="n">
-        <v>0.168284999999969</v>
+        <v>0.1682849999999689</v>
       </c>
     </row>
     <row r="8711">
@@ -70122,7 +70122,7 @@
         <v>8710</v>
       </c>
       <c r="B8711" t="n">
-        <v>8.04951500000004</v>
+        <v>8.049515000000042</v>
       </c>
     </row>
     <row r="8712">
